--- a/Documentação/Planilhas/Conferencia_FAT.xlsx
+++ b/Documentação/Planilhas/Conferencia_FAT.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="515">
   <si>
     <t>1</t>
   </si>
@@ -1745,6 +1745,34 @@
   </si>
   <si>
     <t>Na lupinha, limpar todos os campos e informar a referência Fiscal desejada. Pegar a informação da coluna Data, cuja data seja a mais recente [a Ref Fiscal pode ainda não ter sido transmitida, neste caso, retornará nulo]</t>
+  </si>
+  <si>
+    <t>Sessão tcmcs0565m000 [Departamentos]</t>
+  </si>
+  <si>
+    <t>Sessão tcemm0130m000 [Unid Empresariais]</t>
+  </si>
+  <si>
+    <t>Sessão znfmdc507m000 [Ordens de Frete]</t>
+  </si>
+  <si>
+    <t>Sessão tcibd0501m000 [Itens Geral]</t>
+  </si>
+  <si>
+    <t>Sessão znslsc524m000 [Origem da Ordem de Venda]</t>
+  </si>
+  <si>
+    <t>Sessão znslsc500m000 [Pedidos de Venda Integrado]</t>
+  </si>
+  <si>
+    <t>Com o "valor do frete da transportadora calculado" devidamente encontrado, dividir o mesmo pelo seguinte resultado:  
+Vlr Total da Mercadoria da Referência Fiscal [de todos os itens diferente de Frete] / Valor da Mercadoria do item, cujo tipo de item seja Comprado ou Fabricado</t>
+  </si>
+  <si>
+    <t>Sessão whina1513m000 [Transação Receb Inventário - Detalhes de Custo]</t>
+  </si>
+  <si>
+    <t>whwmd2515m000</t>
   </si>
 </sst>
 </file>
@@ -2149,6 +2177,45 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2176,24 +2243,6 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2208,27 +2257,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2976,8 +3004,8 @@
   </sheetPr>
   <dimension ref="A1:CB73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A16"/>
+    <sheetView topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BJ18" sqref="BJ18:BJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6909,10 +6937,6 @@
     <mergeCell ref="AF21:AF26"/>
     <mergeCell ref="AG21:AG26"/>
     <mergeCell ref="AJ21:AJ26"/>
-    <mergeCell ref="AK21:AK26"/>
-    <mergeCell ref="BL28:BL29"/>
-    <mergeCell ref="BK18:BL20"/>
-    <mergeCell ref="BL31:BL34"/>
     <mergeCell ref="BM18:BM20"/>
     <mergeCell ref="BM21:BM26"/>
     <mergeCell ref="BK21:BK26"/>
@@ -6921,6 +6945,13 @@
     <mergeCell ref="BC21:BC26"/>
     <mergeCell ref="BD21:BD26"/>
     <mergeCell ref="BA18:BD20"/>
+    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="AK21:AK26"/>
+    <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="BK18:BL20"/>
+    <mergeCell ref="BL31:BL34"/>
+    <mergeCell ref="AT21:AT26"/>
+    <mergeCell ref="E21:E26"/>
     <mergeCell ref="BN21:BN26"/>
     <mergeCell ref="BO21:BO26"/>
     <mergeCell ref="BP21:BP26"/>
@@ -6936,7 +6967,15 @@
     <mergeCell ref="AH21:AH26"/>
     <mergeCell ref="AL21:AL26"/>
     <mergeCell ref="AD21:AD26"/>
-    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="AM21:AM26"/>
+    <mergeCell ref="AQ21:AQ26"/>
+    <mergeCell ref="AN21:AN26"/>
+    <mergeCell ref="AO21:AO26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
     <mergeCell ref="L21:L26"/>
     <mergeCell ref="M21:M26"/>
     <mergeCell ref="D21:D26"/>
@@ -6944,29 +6983,16 @@
     <mergeCell ref="G21:G26"/>
     <mergeCell ref="H21:H26"/>
     <mergeCell ref="I21:I26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="AB21:AB26"/>
-    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="Z21:Z26"/>
+    <mergeCell ref="AA21:AA26"/>
+    <mergeCell ref="Y21:Y26"/>
+    <mergeCell ref="AE21:AE26"/>
+    <mergeCell ref="AI21:AI26"/>
     <mergeCell ref="BF21:BF26"/>
     <mergeCell ref="BG21:BG26"/>
     <mergeCell ref="BH21:BH26"/>
     <mergeCell ref="BE21:BE26"/>
     <mergeCell ref="BA21:BA26"/>
-    <mergeCell ref="Z21:Z26"/>
-    <mergeCell ref="AA21:AA26"/>
-    <mergeCell ref="Y21:Y26"/>
-    <mergeCell ref="AE21:AE26"/>
-    <mergeCell ref="AI21:AI26"/>
-    <mergeCell ref="AM21:AM26"/>
-    <mergeCell ref="AQ21:AQ26"/>
-    <mergeCell ref="AN21:AN26"/>
-    <mergeCell ref="AO21:AO26"/>
-    <mergeCell ref="AT21:AT26"/>
-    <mergeCell ref="E21:E26"/>
     <mergeCell ref="BZ21:BZ26"/>
     <mergeCell ref="CA21:CA26"/>
     <mergeCell ref="BW21:BW26"/>
@@ -6981,6 +7007,8 @@
     <mergeCell ref="BT21:BT26"/>
     <mergeCell ref="BU21:BU26"/>
     <mergeCell ref="BY21:BY26"/>
+    <mergeCell ref="AB21:AB26"/>
+    <mergeCell ref="V21:V26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6994,8 +7022,8 @@
   </sheetPr>
   <dimension ref="A1:CD73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH4" workbookViewId="0">
-      <selection activeCell="BI18" sqref="BI18:BI20"/>
+    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7060,7 +7088,7 @@
     <col min="58" max="58" width="40" style="2" customWidth="1"/>
     <col min="59" max="59" width="34" style="2" customWidth="1"/>
     <col min="60" max="60" width="29.7109375" style="2" customWidth="1"/>
-    <col min="61" max="61" width="36.28515625" style="2" customWidth="1"/>
+    <col min="61" max="61" width="38.5703125" style="2" customWidth="1"/>
     <col min="62" max="62" width="41.85546875" style="2" customWidth="1"/>
     <col min="63" max="63" width="40.85546875" style="2" customWidth="1"/>
     <col min="64" max="64" width="24.5703125" style="2" customWidth="1"/>
@@ -7548,67 +7576,67 @@
       <c r="BH7" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="BI7" s="9" t="s">
+      <c r="BI7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="BJ7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK7" s="9" t="s">
+      <c r="BJ7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK7" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="BL7" s="9" t="s">
+      <c r="BL7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="BM7" s="9" t="s">
+      <c r="BM7" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="BN7" s="9" t="s">
+      <c r="BN7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="BO7" s="9" t="s">
+      <c r="BO7" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="BP7" s="9" t="s">
+      <c r="BP7" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="BQ7" s="9" t="s">
+      <c r="BQ7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="BR7" s="9" t="s">
+      <c r="BR7" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="BS7" s="9" t="s">
+      <c r="BS7" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="BT7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BU7" s="9" t="s">
+      <c r="BT7" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU7" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="BV7" s="9" t="s">
+      <c r="BV7" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="BW7" s="9" t="s">
+      <c r="BW7" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="BX7" s="9" t="s">
+      <c r="BX7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="BY7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="BZ7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="CA7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="CB7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC7" s="9" t="s">
+      <c r="BY7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC7" s="8" t="s">
         <v>89</v>
       </c>
       <c r="CD7" s="10" t="s">
@@ -7796,7 +7824,7 @@
       <c r="BH8" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="BI8" s="9" t="s">
+      <c r="BI8" s="8" t="s">
         <v>100</v>
       </c>
       <c r="BJ8" s="9" t="s">
@@ -7853,10 +7881,10 @@
       <c r="CA8" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CB8" s="9" t="s">
+      <c r="CB8" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="CC8" s="9" t="s">
+      <c r="CC8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="CD8" s="10" t="s">
@@ -8044,7 +8072,7 @@
       <c r="BH9" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="BI9" s="9" t="s">
+      <c r="BI9" s="8" t="s">
         <v>359</v>
       </c>
       <c r="BJ9" s="9" t="s">
@@ -8101,10 +8129,10 @@
       <c r="CA9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CB9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC9" s="9" t="s">
+      <c r="CB9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC9" s="8" t="s">
         <v>89</v>
       </c>
       <c r="CD9" s="10" t="s">
@@ -8292,7 +8320,7 @@
       <c r="BH10" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="BI10" s="9" t="s">
+      <c r="BI10" s="8" t="s">
         <v>185</v>
       </c>
       <c r="BJ10" s="9" t="s">
@@ -8349,10 +8377,10 @@
       <c r="CA10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CB10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC10" s="9" t="s">
+      <c r="CB10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC10" s="8" t="s">
         <v>89</v>
       </c>
       <c r="CD10" s="10" t="s">
@@ -8540,7 +8568,7 @@
       <c r="BH11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="BI11" s="9" t="s">
+      <c r="BI11" s="8" t="s">
         <v>100</v>
       </c>
       <c r="BJ11" s="9" t="s">
@@ -8597,10 +8625,10 @@
       <c r="CA11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CB11" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC11" s="9" t="s">
+      <c r="CB11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC11" s="8" t="s">
         <v>89</v>
       </c>
       <c r="CD11" s="10" t="s">
@@ -8788,7 +8816,7 @@
       <c r="BH12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="BI12" s="9" t="s">
+      <c r="BI12" s="8" t="s">
         <v>185</v>
       </c>
       <c r="BJ12" s="9" t="s">
@@ -8845,10 +8873,10 @@
       <c r="CA12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CB12" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC12" s="9" t="s">
+      <c r="CB12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC12" s="8" t="s">
         <v>89</v>
       </c>
       <c r="CD12" s="10" t="s">
@@ -9036,7 +9064,7 @@
       <c r="BH13" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="BI13" s="9" t="s">
+      <c r="BI13" s="8" t="s">
         <v>100</v>
       </c>
       <c r="BJ13" s="9" t="s">
@@ -9093,10 +9121,10 @@
       <c r="CA13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CB13" s="9" t="s">
+      <c r="CB13" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="CC13" s="9" t="s">
+      <c r="CC13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="CD13" s="10" t="s">
@@ -9284,7 +9312,7 @@
       <c r="BH14" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="BI14" s="9" t="s">
+      <c r="BI14" s="8" t="s">
         <v>376</v>
       </c>
       <c r="BJ14" s="9" t="s">
@@ -9341,10 +9369,10 @@
       <c r="CA14" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CB14" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC14" s="9" t="s">
+      <c r="CB14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC14" s="8" t="s">
         <v>89</v>
       </c>
       <c r="CD14" s="10" t="s">
@@ -9532,7 +9560,7 @@
       <c r="BH15" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="BI15" s="9" t="s">
+      <c r="BI15" s="8" t="s">
         <v>389</v>
       </c>
       <c r="BJ15" s="9" t="s">
@@ -9589,10 +9617,10 @@
       <c r="CA15" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CB15" s="9" t="s">
+      <c r="CB15" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="CC15" s="9" t="s">
+      <c r="CC15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="CD15" s="10" t="s">
@@ -9780,7 +9808,7 @@
       <c r="BH16" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="BI16" s="9" t="s">
+      <c r="BI16" s="8" t="s">
         <v>389</v>
       </c>
       <c r="BJ16" s="9" t="s">
@@ -9837,10 +9865,10 @@
       <c r="CA16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CB16" s="9" t="s">
+      <c r="CB16" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="CC16" s="9" t="s">
+      <c r="CC16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="CD16" s="10" t="s">
@@ -9848,93 +9876,93 @@
       </c>
     </row>
     <row r="18" spans="1:79" ht="15" customHeight="1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="63" t="s">
         <v>467</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="52"/>
-      <c r="AZ18" s="50" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="64"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="64"/>
+      <c r="AO18" s="64"/>
+      <c r="AP18" s="64"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
+      <c r="AU18" s="64"/>
+      <c r="AV18" s="64"/>
+      <c r="AW18" s="64"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="63" t="s">
         <v>503</v>
       </c>
-      <c r="BA18" s="51"/>
-      <c r="BB18" s="51"/>
-      <c r="BC18" s="51"/>
-      <c r="BD18" s="51"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="BG18" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="BH18" s="74" t="s">
+      <c r="BA18" s="64"/>
+      <c r="BB18" s="64"/>
+      <c r="BC18" s="64"/>
+      <c r="BD18" s="64"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="BG18" s="60" t="s">
+        <v>507</v>
+      </c>
+      <c r="BH18" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="BI18" s="48" t="s">
-        <v>308</v>
+      <c r="BI18" s="60" t="s">
+        <v>513</v>
       </c>
       <c r="BJ18" s="48" t="s">
-        <v>316</v>
+        <v>508</v>
       </c>
       <c r="BK18" s="48"/>
-      <c r="BL18" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="BM18" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="BN18" s="48"/>
-      <c r="BO18" s="48"/>
+      <c r="BL18" s="60" t="s">
+        <v>509</v>
+      </c>
+      <c r="BM18" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="BN18" s="32"/>
+      <c r="BO18" s="33"/>
       <c r="BP18" s="21" t="s">
-        <v>319</v>
+        <v>511</v>
       </c>
       <c r="BQ18" s="22"/>
       <c r="BR18" s="22"/>
@@ -9949,73 +9977,73 @@
       <c r="CA18" s="23"/>
     </row>
     <row r="19" spans="1:79" ht="11.25" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="54"/>
-      <c r="AU19" s="54"/>
-      <c r="AV19" s="54"/>
-      <c r="AW19" s="54"/>
-      <c r="AX19" s="54"/>
-      <c r="AY19" s="55"/>
-      <c r="AZ19" s="53"/>
-      <c r="BA19" s="54"/>
-      <c r="BB19" s="54"/>
-      <c r="BC19" s="54"/>
-      <c r="BD19" s="54"/>
-      <c r="BE19" s="55"/>
-      <c r="BF19" s="48"/>
-      <c r="BG19" s="48"/>
-      <c r="BH19" s="75"/>
-      <c r="BI19" s="48"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="67"/>
+      <c r="AR19" s="67"/>
+      <c r="AS19" s="67"/>
+      <c r="AT19" s="67"/>
+      <c r="AU19" s="67"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="66"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="61"/>
+      <c r="BG19" s="61"/>
+      <c r="BH19" s="61"/>
+      <c r="BI19" s="61"/>
       <c r="BJ19" s="48"/>
       <c r="BK19" s="48"/>
-      <c r="BL19" s="48"/>
-      <c r="BM19" s="48"/>
-      <c r="BN19" s="48"/>
-      <c r="BO19" s="48"/>
+      <c r="BL19" s="61"/>
+      <c r="BM19" s="34"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="36"/>
       <c r="BP19" s="24"/>
       <c r="BQ19" s="25"/>
       <c r="BR19" s="25"/>
@@ -10030,73 +10058,73 @@
       <c r="CA19" s="26"/>
     </row>
     <row r="20" spans="1:79" ht="11.25" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="57"/>
-      <c r="AW20" s="57"/>
-      <c r="AX20" s="57"/>
-      <c r="AY20" s="58"/>
-      <c r="AZ20" s="56"/>
-      <c r="BA20" s="57"/>
-      <c r="BB20" s="57"/>
-      <c r="BC20" s="57"/>
-      <c r="BD20" s="57"/>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="48"/>
-      <c r="BG20" s="48"/>
-      <c r="BH20" s="76"/>
-      <c r="BI20" s="48"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="70"/>
+      <c r="AM20" s="70"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="70"/>
+      <c r="AP20" s="70"/>
+      <c r="AQ20" s="70"/>
+      <c r="AR20" s="70"/>
+      <c r="AS20" s="70"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="70"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="71"/>
+      <c r="AZ20" s="69"/>
+      <c r="BA20" s="70"/>
+      <c r="BB20" s="70"/>
+      <c r="BC20" s="70"/>
+      <c r="BD20" s="70"/>
+      <c r="BE20" s="71"/>
+      <c r="BF20" s="62"/>
+      <c r="BG20" s="62"/>
+      <c r="BH20" s="62"/>
+      <c r="BI20" s="62"/>
       <c r="BJ20" s="48"/>
       <c r="BK20" s="48"/>
-      <c r="BL20" s="48"/>
-      <c r="BM20" s="48"/>
-      <c r="BN20" s="48"/>
-      <c r="BO20" s="48"/>
+      <c r="BL20" s="62"/>
+      <c r="BM20" s="37"/>
+      <c r="BN20" s="38"/>
+      <c r="BO20" s="39"/>
       <c r="BP20" s="27"/>
       <c r="BQ20" s="28"/>
       <c r="BR20" s="28"/>
@@ -10123,19 +10151,19 @@
       <c r="D21" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="72" t="s">
         <v>480</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="73" t="s">
         <v>495</v>
       </c>
-      <c r="G21" s="69" t="s">
+      <c r="G21" s="76" t="s">
         <v>496</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="73" t="s">
         <v>497</v>
       </c>
-      <c r="I21" s="69" t="s">
+      <c r="I21" s="76" t="s">
         <v>498</v>
       </c>
       <c r="J21" s="44" t="s">
@@ -10219,31 +10247,31 @@
       <c r="AJ21" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="AK21" s="59" t="s">
+      <c r="AK21" s="53" t="s">
         <v>484</v>
       </c>
       <c r="AL21" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="AM21" s="62" t="s">
+      <c r="AM21" s="56" t="s">
         <v>239</v>
       </c>
       <c r="AN21" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="AO21" s="59" t="s">
+      <c r="AO21" s="53" t="s">
         <v>486</v>
       </c>
       <c r="AP21" s="47" t="s">
         <v>488</v>
       </c>
-      <c r="AQ21" s="62" t="s">
+      <c r="AQ21" s="56" t="s">
         <v>240</v>
       </c>
       <c r="AR21" s="41" t="s">
         <v>492</v>
       </c>
-      <c r="AS21" s="59" t="s">
+      <c r="AS21" s="53" t="s">
         <v>489</v>
       </c>
       <c r="AT21" s="47" t="s">
@@ -10255,19 +10283,19 @@
       <c r="AV21" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="AW21" s="59" t="s">
+      <c r="AW21" s="53" t="s">
         <v>493</v>
       </c>
       <c r="AX21" s="47" t="s">
         <v>494</v>
       </c>
-      <c r="AY21" s="59" t="s">
+      <c r="AY21" s="53" t="s">
         <v>260</v>
       </c>
       <c r="AZ21" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="BA21" s="73" t="s">
+      <c r="BA21" s="59" t="s">
         <v>499</v>
       </c>
       <c r="BB21" s="47" t="s">
@@ -10282,7 +10310,7 @@
       <c r="BE21" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="BF21" s="70" t="s">
+      <c r="BF21" s="50" t="s">
         <v>307</v>
       </c>
       <c r="BG21" s="41" t="s">
@@ -10354,11 +10382,11 @@
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="69"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
@@ -10386,28 +10414,28 @@
       <c r="AH22" s="45"/>
       <c r="AI22" s="42"/>
       <c r="AJ22" s="42"/>
-      <c r="AK22" s="60"/>
+      <c r="AK22" s="54"/>
       <c r="AL22" s="47"/>
-      <c r="AM22" s="63"/>
+      <c r="AM22" s="57"/>
       <c r="AN22" s="42"/>
-      <c r="AO22" s="60"/>
+      <c r="AO22" s="54"/>
       <c r="AP22" s="47"/>
-      <c r="AQ22" s="63"/>
+      <c r="AQ22" s="57"/>
       <c r="AR22" s="42"/>
-      <c r="AS22" s="60"/>
+      <c r="AS22" s="54"/>
       <c r="AT22" s="47"/>
       <c r="AU22" s="42"/>
       <c r="AV22" s="42"/>
-      <c r="AW22" s="60"/>
+      <c r="AW22" s="54"/>
       <c r="AX22" s="47"/>
-      <c r="AY22" s="60"/>
+      <c r="AY22" s="54"/>
       <c r="AZ22" s="47"/>
-      <c r="BA22" s="73"/>
+      <c r="BA22" s="59"/>
       <c r="BB22" s="47"/>
       <c r="BC22" s="47"/>
       <c r="BD22" s="47"/>
       <c r="BE22" s="47"/>
-      <c r="BF22" s="71"/>
+      <c r="BF22" s="51"/>
       <c r="BG22" s="42"/>
       <c r="BH22" s="42"/>
       <c r="BI22" s="47"/>
@@ -10435,11 +10463,11 @@
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="69"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="45"/>
       <c r="K23" s="45"/>
       <c r="L23" s="45"/>
@@ -10467,28 +10495,28 @@
       <c r="AH23" s="45"/>
       <c r="AI23" s="42"/>
       <c r="AJ23" s="42"/>
-      <c r="AK23" s="60"/>
+      <c r="AK23" s="54"/>
       <c r="AL23" s="47"/>
-      <c r="AM23" s="63"/>
+      <c r="AM23" s="57"/>
       <c r="AN23" s="42"/>
-      <c r="AO23" s="60"/>
+      <c r="AO23" s="54"/>
       <c r="AP23" s="47"/>
-      <c r="AQ23" s="63"/>
+      <c r="AQ23" s="57"/>
       <c r="AR23" s="42"/>
-      <c r="AS23" s="60"/>
+      <c r="AS23" s="54"/>
       <c r="AT23" s="47"/>
       <c r="AU23" s="42"/>
       <c r="AV23" s="42"/>
-      <c r="AW23" s="60"/>
+      <c r="AW23" s="54"/>
       <c r="AX23" s="47"/>
-      <c r="AY23" s="60"/>
+      <c r="AY23" s="54"/>
       <c r="AZ23" s="47"/>
-      <c r="BA23" s="73"/>
+      <c r="BA23" s="59"/>
       <c r="BB23" s="47"/>
       <c r="BC23" s="47"/>
       <c r="BD23" s="47"/>
       <c r="BE23" s="47"/>
-      <c r="BF23" s="71"/>
+      <c r="BF23" s="51"/>
       <c r="BG23" s="42"/>
       <c r="BH23" s="42"/>
       <c r="BI23" s="47"/>
@@ -10516,11 +10544,11 @@
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="69"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="45"/>
       <c r="K24" s="45"/>
       <c r="L24" s="45"/>
@@ -10548,28 +10576,28 @@
       <c r="AH24" s="45"/>
       <c r="AI24" s="42"/>
       <c r="AJ24" s="42"/>
-      <c r="AK24" s="60"/>
+      <c r="AK24" s="54"/>
       <c r="AL24" s="47"/>
-      <c r="AM24" s="63"/>
+      <c r="AM24" s="57"/>
       <c r="AN24" s="42"/>
-      <c r="AO24" s="60"/>
+      <c r="AO24" s="54"/>
       <c r="AP24" s="47"/>
-      <c r="AQ24" s="63"/>
+      <c r="AQ24" s="57"/>
       <c r="AR24" s="42"/>
-      <c r="AS24" s="60"/>
+      <c r="AS24" s="54"/>
       <c r="AT24" s="47"/>
       <c r="AU24" s="42"/>
       <c r="AV24" s="42"/>
-      <c r="AW24" s="60"/>
+      <c r="AW24" s="54"/>
       <c r="AX24" s="47"/>
-      <c r="AY24" s="60"/>
+      <c r="AY24" s="54"/>
       <c r="AZ24" s="47"/>
-      <c r="BA24" s="73"/>
+      <c r="BA24" s="59"/>
       <c r="BB24" s="47"/>
       <c r="BC24" s="47"/>
       <c r="BD24" s="47"/>
       <c r="BE24" s="47"/>
-      <c r="BF24" s="71"/>
+      <c r="BF24" s="51"/>
       <c r="BG24" s="42"/>
       <c r="BH24" s="42"/>
       <c r="BI24" s="47"/>
@@ -10597,11 +10625,11 @@
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="69"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="76"/>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
       <c r="L25" s="45"/>
@@ -10629,28 +10657,28 @@
       <c r="AH25" s="45"/>
       <c r="AI25" s="42"/>
       <c r="AJ25" s="42"/>
-      <c r="AK25" s="60"/>
+      <c r="AK25" s="54"/>
       <c r="AL25" s="47"/>
-      <c r="AM25" s="63"/>
+      <c r="AM25" s="57"/>
       <c r="AN25" s="42"/>
-      <c r="AO25" s="60"/>
+      <c r="AO25" s="54"/>
       <c r="AP25" s="47"/>
-      <c r="AQ25" s="63"/>
+      <c r="AQ25" s="57"/>
       <c r="AR25" s="42"/>
-      <c r="AS25" s="60"/>
+      <c r="AS25" s="54"/>
       <c r="AT25" s="47"/>
       <c r="AU25" s="42"/>
       <c r="AV25" s="42"/>
-      <c r="AW25" s="60"/>
+      <c r="AW25" s="54"/>
       <c r="AX25" s="47"/>
-      <c r="AY25" s="60"/>
+      <c r="AY25" s="54"/>
       <c r="AZ25" s="47"/>
-      <c r="BA25" s="73"/>
+      <c r="BA25" s="59"/>
       <c r="BB25" s="47"/>
       <c r="BC25" s="47"/>
       <c r="BD25" s="47"/>
       <c r="BE25" s="47"/>
-      <c r="BF25" s="71"/>
+      <c r="BF25" s="51"/>
       <c r="BG25" s="42"/>
       <c r="BH25" s="42"/>
       <c r="BI25" s="47"/>
@@ -10678,11 +10706,11 @@
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="69"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="46"/>
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
@@ -10710,28 +10738,28 @@
       <c r="AH26" s="46"/>
       <c r="AI26" s="43"/>
       <c r="AJ26" s="43"/>
-      <c r="AK26" s="61"/>
+      <c r="AK26" s="55"/>
       <c r="AL26" s="47"/>
-      <c r="AM26" s="64"/>
+      <c r="AM26" s="58"/>
       <c r="AN26" s="43"/>
-      <c r="AO26" s="61"/>
+      <c r="AO26" s="55"/>
       <c r="AP26" s="47"/>
-      <c r="AQ26" s="64"/>
+      <c r="AQ26" s="58"/>
       <c r="AR26" s="43"/>
-      <c r="AS26" s="61"/>
+      <c r="AS26" s="55"/>
       <c r="AT26" s="47"/>
       <c r="AU26" s="43"/>
       <c r="AV26" s="43"/>
-      <c r="AW26" s="61"/>
+      <c r="AW26" s="55"/>
       <c r="AX26" s="47"/>
-      <c r="AY26" s="61"/>
+      <c r="AY26" s="55"/>
       <c r="AZ26" s="47"/>
-      <c r="BA26" s="73"/>
+      <c r="BA26" s="59"/>
       <c r="BB26" s="47"/>
       <c r="BC26" s="47"/>
       <c r="BD26" s="47"/>
       <c r="BE26" s="47"/>
-      <c r="BF26" s="72"/>
+      <c r="BF26" s="52"/>
       <c r="BG26" s="43"/>
       <c r="BH26" s="43"/>
       <c r="BI26" s="47"/>
@@ -10755,16 +10783,16 @@
       <c r="CA26" s="43"/>
     </row>
     <row r="27" spans="1:79" ht="11.25" customHeight="1">
-      <c r="F27" s="67"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="69"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="76"/>
       <c r="AL27" s="47"/>
       <c r="AP27" s="47"/>
       <c r="AT27" s="47"/>
       <c r="AX27" s="47"/>
       <c r="AZ27" s="47"/>
-      <c r="BA27" s="73"/>
+      <c r="BA27" s="59"/>
       <c r="BB27" s="47"/>
       <c r="BC27" s="47"/>
       <c r="BD27" s="47"/>
@@ -10777,10 +10805,10 @@
       <c r="C28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="69"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="76"/>
       <c r="W28" s="7" t="s">
         <v>104</v>
       </c>
@@ -10792,29 +10820,32 @@
       <c r="AT28" s="47"/>
       <c r="AX28" s="47"/>
       <c r="AZ28" s="47"/>
-      <c r="BA28" s="73"/>
+      <c r="BA28" s="59"/>
       <c r="BB28" s="47"/>
       <c r="BC28" s="47"/>
       <c r="BD28" s="47"/>
       <c r="BE28" s="47"/>
+      <c r="BI28" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="BK28" s="47" t="s">
-        <v>281</v>
+        <v>512</v>
       </c>
       <c r="BL28" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:79" ht="90">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="16" t="s">
         <v>285</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
       <c r="J29" s="40" t="s">
         <v>478</v>
       </c>
@@ -11065,39 +11096,45 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="AF28:AF30"/>
     <mergeCell ref="AF32:AF37"/>
     <mergeCell ref="F21:F29"/>
     <mergeCell ref="G21:G29"/>
     <mergeCell ref="H21:H29"/>
     <mergeCell ref="I21:I29"/>
+    <mergeCell ref="U21:U26"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N21:N26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="P21:P26"/>
+    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="R21:R26"/>
+    <mergeCell ref="S21:S26"/>
     <mergeCell ref="BM18:BO20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="BF18:BF20"/>
     <mergeCell ref="AZ18:BE20"/>
     <mergeCell ref="A18:AY20"/>
-    <mergeCell ref="U21:U26"/>
+    <mergeCell ref="BG18:BG20"/>
+    <mergeCell ref="BH18:BH20"/>
+    <mergeCell ref="BI18:BI20"/>
+    <mergeCell ref="BJ18:BK20"/>
+    <mergeCell ref="BL18:BL20"/>
+    <mergeCell ref="BC21:BC28"/>
+    <mergeCell ref="AZ21:AZ28"/>
+    <mergeCell ref="BB21:BB28"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="L21:L26"/>
     <mergeCell ref="K21:K26"/>
     <mergeCell ref="J21:J26"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N21:N26"/>
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="BG18:BG20"/>
-    <mergeCell ref="BH18:BH20"/>
-    <mergeCell ref="BI18:BI20"/>
-    <mergeCell ref="BJ18:BK20"/>
-    <mergeCell ref="BL18:BL20"/>
-    <mergeCell ref="P21:P26"/>
-    <mergeCell ref="Q21:Q26"/>
-    <mergeCell ref="R21:R26"/>
-    <mergeCell ref="S21:S26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="AF28:AF30"/>
+    <mergeCell ref="AN21:AN26"/>
+    <mergeCell ref="AO21:AO26"/>
+    <mergeCell ref="AQ21:AQ26"/>
     <mergeCell ref="T21:T26"/>
     <mergeCell ref="BY21:BY26"/>
     <mergeCell ref="V21:V26"/>
@@ -11111,9 +11148,9 @@
     <mergeCell ref="AT21:AT28"/>
     <mergeCell ref="AX21:AX28"/>
     <mergeCell ref="BA21:BA28"/>
-    <mergeCell ref="BC21:BC28"/>
-    <mergeCell ref="AZ21:AZ28"/>
-    <mergeCell ref="BB21:BB28"/>
+    <mergeCell ref="AV21:AV26"/>
+    <mergeCell ref="AW21:AW26"/>
+    <mergeCell ref="BE21:BE28"/>
     <mergeCell ref="BD21:BD28"/>
     <mergeCell ref="AB21:AB26"/>
     <mergeCell ref="AC21:AC26"/>
@@ -11127,14 +11164,6 @@
     <mergeCell ref="AJ21:AJ26"/>
     <mergeCell ref="AK21:AK26"/>
     <mergeCell ref="AM21:AM26"/>
-    <mergeCell ref="AN21:AN26"/>
-    <mergeCell ref="AO21:AO26"/>
-    <mergeCell ref="AQ21:AQ26"/>
-    <mergeCell ref="AS21:AS26"/>
-    <mergeCell ref="AU21:AU26"/>
-    <mergeCell ref="AV21:AV26"/>
-    <mergeCell ref="AW21:AW26"/>
-    <mergeCell ref="BE21:BE28"/>
     <mergeCell ref="BK31:BK34"/>
     <mergeCell ref="BQ21:BQ26"/>
     <mergeCell ref="BR21:BR26"/>
@@ -11160,6 +11189,8 @@
     <mergeCell ref="BI21:BI26"/>
     <mergeCell ref="BJ21:BJ26"/>
     <mergeCell ref="AY21:AY26"/>
+    <mergeCell ref="AS21:AS26"/>
+    <mergeCell ref="AU21:AU26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_FAT.xlsx
+++ b/Documentação/Planilhas/Conferencia_FAT.xlsx
@@ -2034,7 +2034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2090,33 +2090,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2150,6 +2123,15 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2168,44 +2150,17 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2246,17 +2201,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2662,10 +2635,10 @@
       <c r="BJ1" s="19"/>
     </row>
     <row r="2" spans="1:62" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3" t="s">
         <v>438</v>
       </c>
@@ -2678,10 +2651,10 @@
       <c r="BJ2" s="19"/>
     </row>
     <row r="3" spans="1:62" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
         <v>431</v>
       </c>
@@ -2911,74 +2884,74 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="31" t="s">
         <v>433</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="31" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3103,10 +3076,10 @@
       <c r="BJ1" s="19"/>
     </row>
     <row r="2" spans="1:80" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
@@ -3119,10 +3092,10 @@
       <c r="BJ2" s="19"/>
     </row>
     <row r="3" spans="1:80" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
         <v>320</v>
       </c>
@@ -5794,847 +5767,847 @@
       </c>
     </row>
     <row r="18" spans="1:79" ht="15" customHeight="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="49"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="BA18" s="48" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="BA18" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="BB18" s="48"/>
-      <c r="BC18" s="48"/>
-      <c r="BD18" s="48"/>
-      <c r="BE18" s="48" t="s">
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="34"/>
+      <c r="BD18" s="34"/>
+      <c r="BE18" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="BF18" s="48"/>
-      <c r="BG18" s="48" t="s">
+      <c r="BF18" s="34"/>
+      <c r="BG18" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="BH18" s="48" t="s">
+      <c r="BH18" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="BI18" s="48" t="s">
+      <c r="BI18" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="BJ18" s="48" t="s">
+      <c r="BJ18" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="BK18" s="48" t="s">
+      <c r="BK18" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="BL18" s="48"/>
-      <c r="BM18" s="48" t="s">
+      <c r="BL18" s="34"/>
+      <c r="BM18" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="BN18" s="48" t="s">
+      <c r="BN18" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="BO18" s="48"/>
-      <c r="BP18" s="48"/>
-      <c r="BQ18" s="49" t="s">
+      <c r="BO18" s="34"/>
+      <c r="BP18" s="34"/>
+      <c r="BQ18" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="BR18" s="49"/>
-      <c r="BS18" s="49"/>
-      <c r="BT18" s="49"/>
-      <c r="BU18" s="49"/>
-      <c r="BV18" s="49"/>
-      <c r="BW18" s="49"/>
-      <c r="BX18" s="49"/>
-      <c r="BY18" s="49"/>
-      <c r="BZ18" s="49"/>
-      <c r="CA18" s="49"/>
+      <c r="BR18" s="32"/>
+      <c r="BS18" s="32"/>
+      <c r="BT18" s="32"/>
+      <c r="BU18" s="32"/>
+      <c r="BV18" s="32"/>
+      <c r="BW18" s="32"/>
+      <c r="BX18" s="32"/>
+      <c r="BY18" s="32"/>
+      <c r="BZ18" s="32"/>
+      <c r="CA18" s="32"/>
     </row>
     <row r="19" spans="1:79">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="49"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="48"/>
-      <c r="BC19" s="48"/>
-      <c r="BD19" s="48"/>
-      <c r="BE19" s="48"/>
-      <c r="BF19" s="48"/>
-      <c r="BG19" s="48"/>
-      <c r="BH19" s="48"/>
-      <c r="BI19" s="48"/>
-      <c r="BJ19" s="48"/>
-      <c r="BK19" s="48"/>
-      <c r="BL19" s="48"/>
-      <c r="BM19" s="48"/>
-      <c r="BN19" s="48"/>
-      <c r="BO19" s="48"/>
-      <c r="BP19" s="48"/>
-      <c r="BQ19" s="49"/>
-      <c r="BR19" s="49"/>
-      <c r="BS19" s="49"/>
-      <c r="BT19" s="49"/>
-      <c r="BU19" s="49"/>
-      <c r="BV19" s="49"/>
-      <c r="BW19" s="49"/>
-      <c r="BX19" s="49"/>
-      <c r="BY19" s="49"/>
-      <c r="BZ19" s="49"/>
-      <c r="CA19" s="49"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="BA19" s="34"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="34"/>
+      <c r="BD19" s="34"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="34"/>
+      <c r="BG19" s="34"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="34"/>
+      <c r="BJ19" s="34"/>
+      <c r="BK19" s="34"/>
+      <c r="BL19" s="34"/>
+      <c r="BM19" s="34"/>
+      <c r="BN19" s="34"/>
+      <c r="BO19" s="34"/>
+      <c r="BP19" s="34"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="32"/>
+      <c r="BS19" s="32"/>
+      <c r="BT19" s="32"/>
+      <c r="BU19" s="32"/>
+      <c r="BV19" s="32"/>
+      <c r="BW19" s="32"/>
+      <c r="BX19" s="32"/>
+      <c r="BY19" s="32"/>
+      <c r="BZ19" s="32"/>
+      <c r="CA19" s="32"/>
     </row>
     <row r="20" spans="1:79">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="49"/>
-      <c r="AL20" s="49"/>
-      <c r="AM20" s="49"/>
-      <c r="AN20" s="49"/>
-      <c r="AO20" s="49"/>
-      <c r="AP20" s="49"/>
-      <c r="AQ20" s="49"/>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="49"/>
-      <c r="BA20" s="48"/>
-      <c r="BB20" s="48"/>
-      <c r="BC20" s="48"/>
-      <c r="BD20" s="48"/>
-      <c r="BE20" s="48"/>
-      <c r="BF20" s="48"/>
-      <c r="BG20" s="48"/>
-      <c r="BH20" s="48"/>
-      <c r="BI20" s="48"/>
-      <c r="BJ20" s="48"/>
-      <c r="BK20" s="48"/>
-      <c r="BL20" s="48"/>
-      <c r="BM20" s="48"/>
-      <c r="BN20" s="48"/>
-      <c r="BO20" s="48"/>
-      <c r="BP20" s="48"/>
-      <c r="BQ20" s="49"/>
-      <c r="BR20" s="49"/>
-      <c r="BS20" s="49"/>
-      <c r="BT20" s="49"/>
-      <c r="BU20" s="49"/>
-      <c r="BV20" s="49"/>
-      <c r="BW20" s="49"/>
-      <c r="BX20" s="49"/>
-      <c r="BY20" s="49"/>
-      <c r="BZ20" s="49"/>
-      <c r="CA20" s="49"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="BA20" s="34"/>
+      <c r="BB20" s="34"/>
+      <c r="BC20" s="34"/>
+      <c r="BD20" s="34"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="34"/>
+      <c r="BG20" s="34"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="34"/>
+      <c r="BJ20" s="34"/>
+      <c r="BK20" s="34"/>
+      <c r="BL20" s="34"/>
+      <c r="BM20" s="34"/>
+      <c r="BN20" s="34"/>
+      <c r="BO20" s="34"/>
+      <c r="BP20" s="34"/>
+      <c r="BQ20" s="32"/>
+      <c r="BR20" s="32"/>
+      <c r="BS20" s="32"/>
+      <c r="BT20" s="32"/>
+      <c r="BU20" s="32"/>
+      <c r="BV20" s="32"/>
+      <c r="BW20" s="32"/>
+      <c r="BX20" s="32"/>
+      <c r="BY20" s="32"/>
+      <c r="BZ20" s="32"/>
+      <c r="CA20" s="32"/>
     </row>
     <row r="21" spans="1:79" ht="11.25" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J21" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="L21" s="40" t="s">
+      <c r="L21" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="N21" s="41" t="s">
+      <c r="N21" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="O21" s="40" t="s">
+      <c r="O21" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="Q21" s="40" t="s">
+      <c r="Q21" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="R21" s="44" t="s">
+      <c r="R21" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="S21" s="44" t="s">
+      <c r="S21" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="T21" s="44" t="s">
+      <c r="T21" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="U21" s="44" t="s">
+      <c r="U21" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="V21" s="44" t="s">
+      <c r="V21" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="W21" s="41" t="s">
+      <c r="W21" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="X21" s="41" t="s">
+      <c r="X21" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="Y21" s="41" t="s">
+      <c r="Y21" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="Z21" s="41" t="s">
+      <c r="Z21" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="AA21" s="41" t="s">
+      <c r="AA21" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="AB21" s="41" t="s">
+      <c r="AB21" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="AC21" s="44" t="s">
+      <c r="AC21" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AD21" s="41" t="s">
+      <c r="AD21" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="AE21" s="41" t="s">
+      <c r="AE21" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="AF21" s="47" t="s">
+      <c r="AF21" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="AG21" s="47" t="s">
+      <c r="AG21" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="AH21" s="44" t="s">
+      <c r="AH21" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AI21" s="41" t="s">
+      <c r="AI21" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="AJ21" s="47" t="s">
+      <c r="AJ21" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="AK21" s="47" t="s">
+      <c r="AK21" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="AL21" s="44" t="s">
+      <c r="AL21" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="AM21" s="41" t="s">
+      <c r="AM21" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="AN21" s="47" t="s">
+      <c r="AN21" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="AO21" s="47" t="s">
+      <c r="AO21" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="AP21" s="41" t="s">
+      <c r="AP21" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="AQ21" s="41" t="s">
+      <c r="AQ21" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="AR21" s="47" t="s">
+      <c r="AR21" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="AS21" s="47" t="s">
+      <c r="AS21" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="AT21" s="41" t="s">
+      <c r="AT21" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="BA21" s="41" t="s">
+      <c r="BA21" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="BB21" s="41" t="s">
+      <c r="BB21" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="BC21" s="41" t="s">
+      <c r="BC21" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="BD21" s="41" t="s">
+      <c r="BD21" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="BE21" s="41" t="s">
+      <c r="BE21" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="BF21" s="41" t="s">
+      <c r="BF21" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="BG21" s="41" t="s">
+      <c r="BG21" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="BH21" s="41" t="s">
+      <c r="BH21" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="BI21" s="41" t="s">
+      <c r="BI21" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="BJ21" s="47" t="s">
+      <c r="BJ21" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="BK21" s="47" t="s">
+      <c r="BK21" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="BL21" s="47" t="s">
+      <c r="BL21" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="BM21" s="40" t="s">
+      <c r="BM21" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="BN21" s="40" t="s">
+      <c r="BN21" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="BO21" s="40" t="s">
+      <c r="BO21" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="BP21" s="40" t="s">
+      <c r="BP21" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="BQ21" s="41" t="s">
+      <c r="BQ21" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="BR21" s="41" t="s">
+      <c r="BR21" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="BS21" s="41" t="s">
+      <c r="BS21" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="BT21" s="41" t="s">
+      <c r="BT21" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="BU21" s="41" t="s">
+      <c r="BU21" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="BV21" s="41" t="s">
+      <c r="BV21" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="BW21" s="41" t="s">
+      <c r="BW21" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="BX21" s="41" t="s">
+      <c r="BX21" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="BY21" s="41" t="s">
+      <c r="BY21" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="BZ21" s="41" t="s">
+      <c r="BZ21" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="CA21" s="41" t="s">
+      <c r="CA21" s="35" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:79">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="47"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="47"/>
-      <c r="AS22" s="47"/>
-      <c r="AT22" s="42"/>
-      <c r="BA22" s="42"/>
-      <c r="BB22" s="42"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="42"/>
-      <c r="BI22" s="42"/>
-      <c r="BJ22" s="47"/>
-      <c r="BK22" s="47"/>
-      <c r="BL22" s="47"/>
-      <c r="BM22" s="40"/>
-      <c r="BN22" s="40"/>
-      <c r="BO22" s="40"/>
-      <c r="BP22" s="40"/>
-      <c r="BQ22" s="42"/>
-      <c r="BR22" s="42"/>
-      <c r="BS22" s="42"/>
-      <c r="BT22" s="42"/>
-      <c r="BU22" s="42"/>
-      <c r="BV22" s="42"/>
-      <c r="BW22" s="42"/>
-      <c r="BX22" s="42"/>
-      <c r="BY22" s="42"/>
-      <c r="BZ22" s="42"/>
-      <c r="CA22" s="42"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="33"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="33"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="33"/>
+      <c r="AS22" s="33"/>
+      <c r="AT22" s="36"/>
+      <c r="BA22" s="36"/>
+      <c r="BB22" s="36"/>
+      <c r="BC22" s="36"/>
+      <c r="BD22" s="36"/>
+      <c r="BE22" s="36"/>
+      <c r="BF22" s="36"/>
+      <c r="BG22" s="36"/>
+      <c r="BH22" s="36"/>
+      <c r="BI22" s="36"/>
+      <c r="BJ22" s="33"/>
+      <c r="BK22" s="33"/>
+      <c r="BL22" s="33"/>
+      <c r="BM22" s="31"/>
+      <c r="BN22" s="31"/>
+      <c r="BO22" s="31"/>
+      <c r="BP22" s="31"/>
+      <c r="BQ22" s="36"/>
+      <c r="BR22" s="36"/>
+      <c r="BS22" s="36"/>
+      <c r="BT22" s="36"/>
+      <c r="BU22" s="36"/>
+      <c r="BV22" s="36"/>
+      <c r="BW22" s="36"/>
+      <c r="BX22" s="36"/>
+      <c r="BY22" s="36"/>
+      <c r="BZ22" s="36"/>
+      <c r="CA22" s="36"/>
     </row>
     <row r="23" spans="1:79">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="47"/>
-      <c r="AT23" s="42"/>
-      <c r="BA23" s="42"/>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="42"/>
-      <c r="BJ23" s="47"/>
-      <c r="BK23" s="47"/>
-      <c r="BL23" s="47"/>
-      <c r="BM23" s="40"/>
-      <c r="BN23" s="40"/>
-      <c r="BO23" s="40"/>
-      <c r="BP23" s="40"/>
-      <c r="BQ23" s="42"/>
-      <c r="BR23" s="42"/>
-      <c r="BS23" s="42"/>
-      <c r="BT23" s="42"/>
-      <c r="BU23" s="42"/>
-      <c r="BV23" s="42"/>
-      <c r="BW23" s="42"/>
-      <c r="BX23" s="42"/>
-      <c r="BY23" s="42"/>
-      <c r="BZ23" s="42"/>
-      <c r="CA23" s="42"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="33"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="33"/>
+      <c r="AT23" s="36"/>
+      <c r="BA23" s="36"/>
+      <c r="BB23" s="36"/>
+      <c r="BC23" s="36"/>
+      <c r="BD23" s="36"/>
+      <c r="BE23" s="36"/>
+      <c r="BF23" s="36"/>
+      <c r="BG23" s="36"/>
+      <c r="BH23" s="36"/>
+      <c r="BI23" s="36"/>
+      <c r="BJ23" s="33"/>
+      <c r="BK23" s="33"/>
+      <c r="BL23" s="33"/>
+      <c r="BM23" s="31"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="31"/>
+      <c r="BP23" s="31"/>
+      <c r="BQ23" s="36"/>
+      <c r="BR23" s="36"/>
+      <c r="BS23" s="36"/>
+      <c r="BT23" s="36"/>
+      <c r="BU23" s="36"/>
+      <c r="BV23" s="36"/>
+      <c r="BW23" s="36"/>
+      <c r="BX23" s="36"/>
+      <c r="BY23" s="36"/>
+      <c r="BZ23" s="36"/>
+      <c r="CA23" s="36"/>
     </row>
     <row r="24" spans="1:79">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="47"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="47"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="47"/>
-      <c r="AO24" s="47"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="47"/>
-      <c r="AS24" s="47"/>
-      <c r="AT24" s="42"/>
-      <c r="BA24" s="42"/>
-      <c r="BB24" s="42"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="42"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="42"/>
-      <c r="BJ24" s="47"/>
-      <c r="BK24" s="47"/>
-      <c r="BL24" s="47"/>
-      <c r="BM24" s="40"/>
-      <c r="BN24" s="40"/>
-      <c r="BO24" s="40"/>
-      <c r="BP24" s="40"/>
-      <c r="BQ24" s="42"/>
-      <c r="BR24" s="42"/>
-      <c r="BS24" s="42"/>
-      <c r="BT24" s="42"/>
-      <c r="BU24" s="42"/>
-      <c r="BV24" s="42"/>
-      <c r="BW24" s="42"/>
-      <c r="BX24" s="42"/>
-      <c r="BY24" s="42"/>
-      <c r="BZ24" s="42"/>
-      <c r="CA24" s="42"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="33"/>
+      <c r="AO24" s="33"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="33"/>
+      <c r="AS24" s="33"/>
+      <c r="AT24" s="36"/>
+      <c r="BA24" s="36"/>
+      <c r="BB24" s="36"/>
+      <c r="BC24" s="36"/>
+      <c r="BD24" s="36"/>
+      <c r="BE24" s="36"/>
+      <c r="BF24" s="36"/>
+      <c r="BG24" s="36"/>
+      <c r="BH24" s="36"/>
+      <c r="BI24" s="36"/>
+      <c r="BJ24" s="33"/>
+      <c r="BK24" s="33"/>
+      <c r="BL24" s="33"/>
+      <c r="BM24" s="31"/>
+      <c r="BN24" s="31"/>
+      <c r="BO24" s="31"/>
+      <c r="BP24" s="31"/>
+      <c r="BQ24" s="36"/>
+      <c r="BR24" s="36"/>
+      <c r="BS24" s="36"/>
+      <c r="BT24" s="36"/>
+      <c r="BU24" s="36"/>
+      <c r="BV24" s="36"/>
+      <c r="BW24" s="36"/>
+      <c r="BX24" s="36"/>
+      <c r="BY24" s="36"/>
+      <c r="BZ24" s="36"/>
+      <c r="CA24" s="36"/>
     </row>
     <row r="25" spans="1:79">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="47"/>
-      <c r="AG25" s="47"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="47"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="42"/>
-      <c r="AN25" s="47"/>
-      <c r="AO25" s="47"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="42"/>
-      <c r="AR25" s="47"/>
-      <c r="AS25" s="47"/>
-      <c r="AT25" s="42"/>
-      <c r="BA25" s="42"/>
-      <c r="BB25" s="42"/>
-      <c r="BC25" s="42"/>
-      <c r="BD25" s="42"/>
-      <c r="BE25" s="42"/>
-      <c r="BF25" s="42"/>
-      <c r="BG25" s="42"/>
-      <c r="BH25" s="42"/>
-      <c r="BI25" s="42"/>
-      <c r="BJ25" s="47"/>
-      <c r="BK25" s="47"/>
-      <c r="BL25" s="47"/>
-      <c r="BM25" s="40"/>
-      <c r="BN25" s="40"/>
-      <c r="BO25" s="40"/>
-      <c r="BP25" s="40"/>
-      <c r="BQ25" s="42"/>
-      <c r="BR25" s="42"/>
-      <c r="BS25" s="42"/>
-      <c r="BT25" s="42"/>
-      <c r="BU25" s="42"/>
-      <c r="BV25" s="42"/>
-      <c r="BW25" s="42"/>
-      <c r="BX25" s="42"/>
-      <c r="BY25" s="42"/>
-      <c r="BZ25" s="42"/>
-      <c r="CA25" s="42"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="33"/>
+      <c r="AO25" s="33"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="33"/>
+      <c r="AS25" s="33"/>
+      <c r="AT25" s="36"/>
+      <c r="BA25" s="36"/>
+      <c r="BB25" s="36"/>
+      <c r="BC25" s="36"/>
+      <c r="BD25" s="36"/>
+      <c r="BE25" s="36"/>
+      <c r="BF25" s="36"/>
+      <c r="BG25" s="36"/>
+      <c r="BH25" s="36"/>
+      <c r="BI25" s="36"/>
+      <c r="BJ25" s="33"/>
+      <c r="BK25" s="33"/>
+      <c r="BL25" s="33"/>
+      <c r="BM25" s="31"/>
+      <c r="BN25" s="31"/>
+      <c r="BO25" s="31"/>
+      <c r="BP25" s="31"/>
+      <c r="BQ25" s="36"/>
+      <c r="BR25" s="36"/>
+      <c r="BS25" s="36"/>
+      <c r="BT25" s="36"/>
+      <c r="BU25" s="36"/>
+      <c r="BV25" s="36"/>
+      <c r="BW25" s="36"/>
+      <c r="BX25" s="36"/>
+      <c r="BY25" s="36"/>
+      <c r="BZ25" s="36"/>
+      <c r="CA25" s="36"/>
     </row>
     <row r="26" spans="1:79">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="47"/>
-      <c r="AO26" s="47"/>
-      <c r="AP26" s="43"/>
-      <c r="AQ26" s="43"/>
-      <c r="AR26" s="47"/>
-      <c r="AS26" s="47"/>
-      <c r="AT26" s="43"/>
-      <c r="BA26" s="43"/>
-      <c r="BB26" s="43"/>
-      <c r="BC26" s="43"/>
-      <c r="BD26" s="43"/>
-      <c r="BE26" s="43"/>
-      <c r="BF26" s="43"/>
-      <c r="BG26" s="43"/>
-      <c r="BH26" s="43"/>
-      <c r="BI26" s="43"/>
-      <c r="BJ26" s="47"/>
-      <c r="BK26" s="47"/>
-      <c r="BL26" s="47"/>
-      <c r="BM26" s="40"/>
-      <c r="BN26" s="40"/>
-      <c r="BO26" s="40"/>
-      <c r="BP26" s="40"/>
-      <c r="BQ26" s="43"/>
-      <c r="BR26" s="43"/>
-      <c r="BS26" s="43"/>
-      <c r="BT26" s="43"/>
-      <c r="BU26" s="43"/>
-      <c r="BV26" s="43"/>
-      <c r="BW26" s="43"/>
-      <c r="BX26" s="43"/>
-      <c r="BY26" s="43"/>
-      <c r="BZ26" s="43"/>
-      <c r="CA26" s="43"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="33"/>
+      <c r="AO26" s="33"/>
+      <c r="AP26" s="37"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="33"/>
+      <c r="AS26" s="33"/>
+      <c r="AT26" s="37"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="37"/>
+      <c r="BC26" s="37"/>
+      <c r="BD26" s="37"/>
+      <c r="BE26" s="37"/>
+      <c r="BF26" s="37"/>
+      <c r="BG26" s="37"/>
+      <c r="BH26" s="37"/>
+      <c r="BI26" s="37"/>
+      <c r="BJ26" s="33"/>
+      <c r="BK26" s="33"/>
+      <c r="BL26" s="33"/>
+      <c r="BM26" s="31"/>
+      <c r="BN26" s="31"/>
+      <c r="BO26" s="31"/>
+      <c r="BP26" s="31"/>
+      <c r="BQ26" s="37"/>
+      <c r="BR26" s="37"/>
+      <c r="BS26" s="37"/>
+      <c r="BT26" s="37"/>
+      <c r="BU26" s="37"/>
+      <c r="BV26" s="37"/>
+      <c r="BW26" s="37"/>
+      <c r="BX26" s="37"/>
+      <c r="BY26" s="37"/>
+      <c r="BZ26" s="37"/>
+      <c r="CA26" s="37"/>
     </row>
     <row r="27" spans="1:79" ht="11.25" customHeight="1"/>
     <row r="28" spans="1:79">
@@ -6647,7 +6620,7 @@
       <c r="Q28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BL28" s="47" t="s">
+      <c r="BL28" s="33" t="s">
         <v>281</v>
       </c>
       <c r="BM28" s="7" t="s">
@@ -6688,7 +6661,7 @@
       <c r="AS29" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="BL29" s="47"/>
+      <c r="BL29" s="33"/>
       <c r="BM29" s="16" t="s">
         <v>284</v>
       </c>
@@ -6702,7 +6675,7 @@
       <c r="C31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BL31" s="40" t="s">
+      <c r="BL31" s="31" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6710,19 +6683,19 @@
       <c r="C32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="BL32" s="40"/>
+      <c r="BL32" s="31"/>
     </row>
     <row r="33" spans="3:64" ht="11.25" customHeight="1">
       <c r="C33" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BL33" s="40"/>
+      <c r="BL33" s="31"/>
     </row>
     <row r="34" spans="3:64" ht="11.25" customHeight="1">
       <c r="C34" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="BL34" s="40"/>
+      <c r="BL34" s="31"/>
     </row>
     <row r="35" spans="3:64" ht="11.25" customHeight="1">
       <c r="C35" s="5" t="s">
@@ -6921,6 +6894,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="BZ21:BZ26"/>
+    <mergeCell ref="CA21:CA26"/>
+    <mergeCell ref="BW21:BW26"/>
+    <mergeCell ref="N21:N26"/>
+    <mergeCell ref="BX21:BX26"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="X21:X26"/>
+    <mergeCell ref="BQ21:BQ26"/>
+    <mergeCell ref="BS21:BS26"/>
+    <mergeCell ref="BR21:BR26"/>
+    <mergeCell ref="BV21:BV26"/>
+    <mergeCell ref="BT21:BT26"/>
+    <mergeCell ref="BU21:BU26"/>
+    <mergeCell ref="BY21:BY26"/>
+    <mergeCell ref="AB21:AB26"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="BN21:BN26"/>
+    <mergeCell ref="BO21:BO26"/>
+    <mergeCell ref="BP21:BP26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="R21:R26"/>
+    <mergeCell ref="S21:S26"/>
+    <mergeCell ref="U21:U26"/>
+    <mergeCell ref="P21:P26"/>
+    <mergeCell ref="BL21:BL26"/>
+    <mergeCell ref="T21:T26"/>
+    <mergeCell ref="AC21:AC26"/>
+    <mergeCell ref="AH21:AH26"/>
+    <mergeCell ref="AL21:AL26"/>
+    <mergeCell ref="AD21:AD26"/>
+    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="AK21:AK26"/>
+    <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="BK18:BL20"/>
+    <mergeCell ref="BL31:BL34"/>
+    <mergeCell ref="AT21:AT26"/>
+    <mergeCell ref="AM21:AM26"/>
+    <mergeCell ref="AQ21:AQ26"/>
+    <mergeCell ref="AN21:AN26"/>
+    <mergeCell ref="AO21:AO26"/>
+    <mergeCell ref="Z21:Z26"/>
+    <mergeCell ref="AA21:AA26"/>
+    <mergeCell ref="Y21:Y26"/>
+    <mergeCell ref="AE21:AE26"/>
+    <mergeCell ref="AI21:AI26"/>
+    <mergeCell ref="BF21:BF26"/>
+    <mergeCell ref="BM18:BM20"/>
+    <mergeCell ref="BM21:BM26"/>
+    <mergeCell ref="BK21:BK26"/>
+    <mergeCell ref="BE18:BF20"/>
+    <mergeCell ref="BB21:BB26"/>
+    <mergeCell ref="BC21:BC26"/>
+    <mergeCell ref="BD21:BD26"/>
+    <mergeCell ref="BA18:BD20"/>
+    <mergeCell ref="BG21:BG26"/>
+    <mergeCell ref="BH21:BH26"/>
+    <mergeCell ref="BE21:BE26"/>
+    <mergeCell ref="BA21:BA26"/>
     <mergeCell ref="BQ18:CA20"/>
     <mergeCell ref="AR21:AR26"/>
     <mergeCell ref="AS21:AS26"/>
@@ -6937,78 +6982,6 @@
     <mergeCell ref="AF21:AF26"/>
     <mergeCell ref="AG21:AG26"/>
     <mergeCell ref="AJ21:AJ26"/>
-    <mergeCell ref="BM18:BM20"/>
-    <mergeCell ref="BM21:BM26"/>
-    <mergeCell ref="BK21:BK26"/>
-    <mergeCell ref="BE18:BF20"/>
-    <mergeCell ref="BB21:BB26"/>
-    <mergeCell ref="BC21:BC26"/>
-    <mergeCell ref="BD21:BD26"/>
-    <mergeCell ref="BA18:BD20"/>
-    <mergeCell ref="Q21:Q26"/>
-    <mergeCell ref="AK21:AK26"/>
-    <mergeCell ref="BL28:BL29"/>
-    <mergeCell ref="BK18:BL20"/>
-    <mergeCell ref="BL31:BL34"/>
-    <mergeCell ref="AT21:AT26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="BN21:BN26"/>
-    <mergeCell ref="BO21:BO26"/>
-    <mergeCell ref="BP21:BP26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="R21:R26"/>
-    <mergeCell ref="S21:S26"/>
-    <mergeCell ref="U21:U26"/>
-    <mergeCell ref="P21:P26"/>
-    <mergeCell ref="BL21:BL26"/>
-    <mergeCell ref="T21:T26"/>
-    <mergeCell ref="AC21:AC26"/>
-    <mergeCell ref="AH21:AH26"/>
-    <mergeCell ref="AL21:AL26"/>
-    <mergeCell ref="AD21:AD26"/>
-    <mergeCell ref="AM21:AM26"/>
-    <mergeCell ref="AQ21:AQ26"/>
-    <mergeCell ref="AN21:AN26"/>
-    <mergeCell ref="AO21:AO26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="Z21:Z26"/>
-    <mergeCell ref="AA21:AA26"/>
-    <mergeCell ref="Y21:Y26"/>
-    <mergeCell ref="AE21:AE26"/>
-    <mergeCell ref="AI21:AI26"/>
-    <mergeCell ref="BF21:BF26"/>
-    <mergeCell ref="BG21:BG26"/>
-    <mergeCell ref="BH21:BH26"/>
-    <mergeCell ref="BE21:BE26"/>
-    <mergeCell ref="BA21:BA26"/>
-    <mergeCell ref="BZ21:BZ26"/>
-    <mergeCell ref="CA21:CA26"/>
-    <mergeCell ref="BW21:BW26"/>
-    <mergeCell ref="N21:N26"/>
-    <mergeCell ref="BX21:BX26"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="X21:X26"/>
-    <mergeCell ref="BQ21:BQ26"/>
-    <mergeCell ref="BS21:BS26"/>
-    <mergeCell ref="BR21:BR26"/>
-    <mergeCell ref="BV21:BV26"/>
-    <mergeCell ref="BT21:BT26"/>
-    <mergeCell ref="BU21:BU26"/>
-    <mergeCell ref="BY21:BY26"/>
-    <mergeCell ref="AB21:AB26"/>
-    <mergeCell ref="V21:V26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7022,8 +6995,8 @@
   </sheetPr>
   <dimension ref="A1:CD73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AL21" sqref="AL21:AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7123,10 +7096,10 @@
       <c r="CC1" s="19"/>
     </row>
     <row r="2" spans="1:82" ht="21">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
@@ -7135,10 +7108,10 @@
       <c r="CC2" s="19"/>
     </row>
     <row r="3" spans="1:82" ht="21">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
         <v>320</v>
       </c>
@@ -9876,927 +9849,927 @@
       </c>
     </row>
     <row r="18" spans="1:79" ht="15" customHeight="1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="64"/>
-      <c r="AI18" s="64"/>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="64"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="64"/>
-      <c r="AO18" s="64"/>
-      <c r="AP18" s="64"/>
-      <c r="AQ18" s="64"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="64"/>
-      <c r="AU18" s="64"/>
-      <c r="AV18" s="64"/>
-      <c r="AW18" s="64"/>
-      <c r="AX18" s="64"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="63" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="48" t="s">
         <v>503</v>
       </c>
-      <c r="BA18" s="64"/>
-      <c r="BB18" s="64"/>
-      <c r="BC18" s="64"/>
-      <c r="BD18" s="64"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="60" t="s">
+      <c r="BA18" s="49"/>
+      <c r="BB18" s="49"/>
+      <c r="BC18" s="49"/>
+      <c r="BD18" s="49"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="45" t="s">
         <v>506</v>
       </c>
-      <c r="BG18" s="60" t="s">
+      <c r="BG18" s="45" t="s">
         <v>507</v>
       </c>
-      <c r="BH18" s="60" t="s">
+      <c r="BH18" s="45" t="s">
         <v>504</v>
       </c>
-      <c r="BI18" s="60" t="s">
+      <c r="BI18" s="45" t="s">
         <v>513</v>
       </c>
-      <c r="BJ18" s="48" t="s">
+      <c r="BJ18" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="BK18" s="48"/>
-      <c r="BL18" s="60" t="s">
+      <c r="BK18" s="34"/>
+      <c r="BL18" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="BM18" s="31" t="s">
+      <c r="BM18" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="BN18" s="32"/>
-      <c r="BO18" s="33"/>
-      <c r="BP18" s="21" t="s">
+      <c r="BN18" s="23"/>
+      <c r="BO18" s="24"/>
+      <c r="BP18" s="48" t="s">
         <v>511</v>
       </c>
-      <c r="BQ18" s="22"/>
-      <c r="BR18" s="22"/>
-      <c r="BS18" s="22"/>
-      <c r="BT18" s="22"/>
-      <c r="BU18" s="22"/>
-      <c r="BV18" s="22"/>
-      <c r="BW18" s="22"/>
-      <c r="BX18" s="22"/>
-      <c r="BY18" s="22"/>
-      <c r="BZ18" s="22"/>
-      <c r="CA18" s="23"/>
+      <c r="BQ18" s="49"/>
+      <c r="BR18" s="49"/>
+      <c r="BS18" s="49"/>
+      <c r="BT18" s="49"/>
+      <c r="BU18" s="49"/>
+      <c r="BV18" s="49"/>
+      <c r="BW18" s="49"/>
+      <c r="BX18" s="49"/>
+      <c r="BY18" s="49"/>
+      <c r="BZ18" s="49"/>
+      <c r="CA18" s="50"/>
     </row>
     <row r="19" spans="1:79" ht="11.25" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="67"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="67"/>
-      <c r="AM19" s="67"/>
-      <c r="AN19" s="67"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="67"/>
-      <c r="AQ19" s="67"/>
-      <c r="AR19" s="67"/>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="67"/>
-      <c r="AU19" s="67"/>
-      <c r="AV19" s="67"/>
-      <c r="AW19" s="67"/>
-      <c r="AX19" s="67"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="66"/>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="67"/>
-      <c r="BC19" s="67"/>
-      <c r="BD19" s="67"/>
-      <c r="BE19" s="68"/>
-      <c r="BF19" s="61"/>
-      <c r="BG19" s="61"/>
-      <c r="BH19" s="61"/>
-      <c r="BI19" s="61"/>
-      <c r="BJ19" s="48"/>
-      <c r="BK19" s="48"/>
-      <c r="BL19" s="61"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="35"/>
-      <c r="BO19" s="36"/>
-      <c r="BP19" s="24"/>
-      <c r="BQ19" s="25"/>
-      <c r="BR19" s="25"/>
-      <c r="BS19" s="25"/>
-      <c r="BT19" s="25"/>
-      <c r="BU19" s="25"/>
-      <c r="BV19" s="25"/>
-      <c r="BW19" s="25"/>
-      <c r="BX19" s="25"/>
-      <c r="BY19" s="25"/>
-      <c r="BZ19" s="25"/>
-      <c r="CA19" s="26"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="52"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="52"/>
+      <c r="AY19" s="53"/>
+      <c r="AZ19" s="51"/>
+      <c r="BA19" s="52"/>
+      <c r="BB19" s="52"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="53"/>
+      <c r="BF19" s="46"/>
+      <c r="BG19" s="46"/>
+      <c r="BH19" s="46"/>
+      <c r="BI19" s="46"/>
+      <c r="BJ19" s="34"/>
+      <c r="BK19" s="34"/>
+      <c r="BL19" s="46"/>
+      <c r="BM19" s="25"/>
+      <c r="BN19" s="26"/>
+      <c r="BO19" s="27"/>
+      <c r="BP19" s="51"/>
+      <c r="BQ19" s="52"/>
+      <c r="BR19" s="52"/>
+      <c r="BS19" s="52"/>
+      <c r="BT19" s="52"/>
+      <c r="BU19" s="52"/>
+      <c r="BV19" s="52"/>
+      <c r="BW19" s="52"/>
+      <c r="BX19" s="52"/>
+      <c r="BY19" s="52"/>
+      <c r="BZ19" s="52"/>
+      <c r="CA19" s="53"/>
     </row>
     <row r="20" spans="1:79" ht="11.25" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="70"/>
-      <c r="AE20" s="70"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="70"/>
-      <c r="AH20" s="70"/>
-      <c r="AI20" s="70"/>
-      <c r="AJ20" s="70"/>
-      <c r="AK20" s="70"/>
-      <c r="AL20" s="70"/>
-      <c r="AM20" s="70"/>
-      <c r="AN20" s="70"/>
-      <c r="AO20" s="70"/>
-      <c r="AP20" s="70"/>
-      <c r="AQ20" s="70"/>
-      <c r="AR20" s="70"/>
-      <c r="AS20" s="70"/>
-      <c r="AT20" s="70"/>
-      <c r="AU20" s="70"/>
-      <c r="AV20" s="70"/>
-      <c r="AW20" s="70"/>
-      <c r="AX20" s="70"/>
-      <c r="AY20" s="71"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="70"/>
-      <c r="BB20" s="70"/>
-      <c r="BC20" s="70"/>
-      <c r="BD20" s="70"/>
-      <c r="BE20" s="71"/>
-      <c r="BF20" s="62"/>
-      <c r="BG20" s="62"/>
-      <c r="BH20" s="62"/>
-      <c r="BI20" s="62"/>
-      <c r="BJ20" s="48"/>
-      <c r="BK20" s="48"/>
-      <c r="BL20" s="62"/>
-      <c r="BM20" s="37"/>
-      <c r="BN20" s="38"/>
-      <c r="BO20" s="39"/>
-      <c r="BP20" s="27"/>
-      <c r="BQ20" s="28"/>
-      <c r="BR20" s="28"/>
-      <c r="BS20" s="28"/>
-      <c r="BT20" s="28"/>
-      <c r="BU20" s="28"/>
-      <c r="BV20" s="28"/>
-      <c r="BW20" s="28"/>
-      <c r="BX20" s="28"/>
-      <c r="BY20" s="28"/>
-      <c r="BZ20" s="28"/>
-      <c r="CA20" s="29"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="55"/>
+      <c r="AR20" s="55"/>
+      <c r="AS20" s="55"/>
+      <c r="AT20" s="55"/>
+      <c r="AU20" s="55"/>
+      <c r="AV20" s="55"/>
+      <c r="AW20" s="55"/>
+      <c r="AX20" s="55"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="54"/>
+      <c r="BA20" s="55"/>
+      <c r="BB20" s="55"/>
+      <c r="BC20" s="55"/>
+      <c r="BD20" s="55"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="47"/>
+      <c r="BG20" s="47"/>
+      <c r="BH20" s="47"/>
+      <c r="BI20" s="47"/>
+      <c r="BJ20" s="34"/>
+      <c r="BK20" s="34"/>
+      <c r="BL20" s="47"/>
+      <c r="BM20" s="28"/>
+      <c r="BN20" s="29"/>
+      <c r="BO20" s="30"/>
+      <c r="BP20" s="54"/>
+      <c r="BQ20" s="55"/>
+      <c r="BR20" s="55"/>
+      <c r="BS20" s="55"/>
+      <c r="BT20" s="55"/>
+      <c r="BU20" s="55"/>
+      <c r="BV20" s="55"/>
+      <c r="BW20" s="55"/>
+      <c r="BX20" s="55"/>
+      <c r="BY20" s="55"/>
+      <c r="BZ20" s="55"/>
+      <c r="CA20" s="56"/>
     </row>
     <row r="21" spans="1:79" ht="11.25" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="G21" s="76" t="s">
+      <c r="G21" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="H21" s="73" t="s">
+      <c r="H21" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="I21" s="76" t="s">
+      <c r="I21" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="N21" s="40" t="s">
+      <c r="N21" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="O21" s="40" t="s">
+      <c r="O21" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="Q21" s="40" t="s">
+      <c r="Q21" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="R21" s="40" t="s">
+      <c r="R21" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="S21" s="44" t="s">
+      <c r="S21" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="T21" s="41" t="s">
+      <c r="T21" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="U21" s="40" t="s">
+      <c r="U21" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="V21" s="40" t="s">
+      <c r="V21" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="W21" s="40" t="s">
+      <c r="W21" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="X21" s="44" t="s">
+      <c r="X21" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="Y21" s="44" t="s">
+      <c r="Y21" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="Z21" s="44" t="s">
+      <c r="Z21" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="AA21" s="44" t="s">
+      <c r="AA21" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="AB21" s="44" t="s">
+      <c r="AB21" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="AC21" s="41" t="s">
+      <c r="AC21" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="AD21" s="41" t="s">
+      <c r="AD21" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="AE21" s="41" t="s">
+      <c r="AE21" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="AF21" s="41" t="s">
+      <c r="AF21" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="AG21" s="41" t="s">
+      <c r="AG21" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="AH21" s="44" t="s">
+      <c r="AH21" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AI21" s="41" t="s">
+      <c r="AI21" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="AJ21" s="41" t="s">
+      <c r="AJ21" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="AK21" s="53" t="s">
+      <c r="AK21" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="AL21" s="47" t="s">
+      <c r="AL21" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="AM21" s="56" t="s">
+      <c r="AM21" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="AN21" s="41" t="s">
+      <c r="AN21" s="35" t="s">
         <v>485</v>
       </c>
-      <c r="AO21" s="53" t="s">
+      <c r="AO21" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="AP21" s="47" t="s">
+      <c r="AP21" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="AQ21" s="56" t="s">
+      <c r="AQ21" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="AR21" s="41" t="s">
+      <c r="AR21" s="35" t="s">
         <v>492</v>
       </c>
-      <c r="AS21" s="53" t="s">
+      <c r="AS21" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="AT21" s="47" t="s">
+      <c r="AT21" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="AU21" s="41" t="s">
+      <c r="AU21" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="AV21" s="41" t="s">
+      <c r="AV21" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="AW21" s="53" t="s">
+      <c r="AW21" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="AX21" s="47" t="s">
+      <c r="AX21" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="AY21" s="53" t="s">
+      <c r="AY21" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="AZ21" s="47" t="s">
+      <c r="AZ21" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="BA21" s="59" t="s">
+      <c r="BA21" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="BB21" s="47" t="s">
+      <c r="BB21" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="BC21" s="47" t="s">
+      <c r="BC21" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="BD21" s="47" t="s">
+      <c r="BD21" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="BE21" s="47" t="s">
+      <c r="BE21" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="BF21" s="50" t="s">
+      <c r="BF21" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="BG21" s="41" t="s">
+      <c r="BG21" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="BH21" s="41" t="s">
+      <c r="BH21" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="BI21" s="47" t="s">
+      <c r="BI21" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="BJ21" s="47" t="s">
+      <c r="BJ21" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="BK21" s="47" t="s">
+      <c r="BK21" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="BL21" s="40" t="s">
+      <c r="BL21" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="BM21" s="40" t="s">
+      <c r="BM21" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="BN21" s="40" t="s">
+      <c r="BN21" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="BO21" s="40" t="s">
+      <c r="BO21" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="BP21" s="41" t="s">
+      <c r="BP21" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="BQ21" s="41" t="s">
+      <c r="BQ21" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="BR21" s="41" t="s">
+      <c r="BR21" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="BS21" s="41" t="s">
+      <c r="BS21" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="BT21" s="41" t="s">
+      <c r="BT21" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="BU21" s="41" t="s">
+      <c r="BU21" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="BV21" s="41" t="s">
+      <c r="BV21" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="BW21" s="41" t="s">
+      <c r="BW21" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="BX21" s="41" t="s">
+      <c r="BX21" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="BY21" s="41" t="s">
+      <c r="BY21" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="BZ21" s="41" t="s">
+      <c r="BZ21" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="CA21" s="41" t="s">
+      <c r="CA21" s="35" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:79">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="54"/>
-      <c r="AL22" s="47"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="54"/>
-      <c r="AP22" s="47"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="54"/>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="42"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="54"/>
-      <c r="AX22" s="47"/>
-      <c r="AY22" s="54"/>
-      <c r="AZ22" s="47"/>
-      <c r="BA22" s="59"/>
-      <c r="BB22" s="47"/>
-      <c r="BC22" s="47"/>
-      <c r="BD22" s="47"/>
-      <c r="BE22" s="47"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="42"/>
-      <c r="BI22" s="47"/>
-      <c r="BJ22" s="47"/>
-      <c r="BK22" s="47"/>
-      <c r="BL22" s="40"/>
-      <c r="BM22" s="40"/>
-      <c r="BN22" s="40"/>
-      <c r="BO22" s="40"/>
-      <c r="BP22" s="42"/>
-      <c r="BQ22" s="42"/>
-      <c r="BR22" s="42"/>
-      <c r="BS22" s="42"/>
-      <c r="BT22" s="42"/>
-      <c r="BU22" s="42"/>
-      <c r="BV22" s="42"/>
-      <c r="BW22" s="42"/>
-      <c r="BX22" s="42"/>
-      <c r="BY22" s="42"/>
-      <c r="BZ22" s="42"/>
-      <c r="CA22" s="42"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="33"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="33"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="33"/>
+      <c r="AU22" s="36"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="59"/>
+      <c r="AX22" s="33"/>
+      <c r="AY22" s="59"/>
+      <c r="AZ22" s="33"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="33"/>
+      <c r="BC22" s="33"/>
+      <c r="BD22" s="33"/>
+      <c r="BE22" s="33"/>
+      <c r="BF22" s="66"/>
+      <c r="BG22" s="36"/>
+      <c r="BH22" s="36"/>
+      <c r="BI22" s="33"/>
+      <c r="BJ22" s="33"/>
+      <c r="BK22" s="33"/>
+      <c r="BL22" s="31"/>
+      <c r="BM22" s="31"/>
+      <c r="BN22" s="31"/>
+      <c r="BO22" s="31"/>
+      <c r="BP22" s="36"/>
+      <c r="BQ22" s="36"/>
+      <c r="BR22" s="36"/>
+      <c r="BS22" s="36"/>
+      <c r="BT22" s="36"/>
+      <c r="BU22" s="36"/>
+      <c r="BV22" s="36"/>
+      <c r="BW22" s="36"/>
+      <c r="BX22" s="36"/>
+      <c r="BY22" s="36"/>
+      <c r="BZ22" s="36"/>
+      <c r="CA22" s="36"/>
     </row>
     <row r="23" spans="1:79">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="57"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="54"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="57"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="47"/>
-      <c r="AU23" s="42"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="47"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="47"/>
-      <c r="BA23" s="59"/>
-      <c r="BB23" s="47"/>
-      <c r="BC23" s="47"/>
-      <c r="BD23" s="47"/>
-      <c r="BE23" s="47"/>
-      <c r="BF23" s="51"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="47"/>
-      <c r="BJ23" s="47"/>
-      <c r="BK23" s="47"/>
-      <c r="BL23" s="40"/>
-      <c r="BM23" s="40"/>
-      <c r="BN23" s="40"/>
-      <c r="BO23" s="40"/>
-      <c r="BP23" s="42"/>
-      <c r="BQ23" s="42"/>
-      <c r="BR23" s="42"/>
-      <c r="BS23" s="42"/>
-      <c r="BT23" s="42"/>
-      <c r="BU23" s="42"/>
-      <c r="BV23" s="42"/>
-      <c r="BW23" s="42"/>
-      <c r="BX23" s="42"/>
-      <c r="BY23" s="42"/>
-      <c r="BZ23" s="42"/>
-      <c r="CA23" s="42"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="33"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="59"/>
+      <c r="AP23" s="33"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="59"/>
+      <c r="AT23" s="33"/>
+      <c r="AU23" s="36"/>
+      <c r="AV23" s="36"/>
+      <c r="AW23" s="59"/>
+      <c r="AX23" s="33"/>
+      <c r="AY23" s="59"/>
+      <c r="AZ23" s="33"/>
+      <c r="BA23" s="64"/>
+      <c r="BB23" s="33"/>
+      <c r="BC23" s="33"/>
+      <c r="BD23" s="33"/>
+      <c r="BE23" s="33"/>
+      <c r="BF23" s="66"/>
+      <c r="BG23" s="36"/>
+      <c r="BH23" s="36"/>
+      <c r="BI23" s="33"/>
+      <c r="BJ23" s="33"/>
+      <c r="BK23" s="33"/>
+      <c r="BL23" s="31"/>
+      <c r="BM23" s="31"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="31"/>
+      <c r="BP23" s="36"/>
+      <c r="BQ23" s="36"/>
+      <c r="BR23" s="36"/>
+      <c r="BS23" s="36"/>
+      <c r="BT23" s="36"/>
+      <c r="BU23" s="36"/>
+      <c r="BV23" s="36"/>
+      <c r="BW23" s="36"/>
+      <c r="BX23" s="36"/>
+      <c r="BY23" s="36"/>
+      <c r="BZ23" s="36"/>
+      <c r="CA23" s="36"/>
     </row>
     <row r="24" spans="1:79">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="54"/>
-      <c r="AL24" s="47"/>
-      <c r="AM24" s="57"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="54"/>
-      <c r="AP24" s="47"/>
-      <c r="AQ24" s="57"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="54"/>
-      <c r="AT24" s="47"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="54"/>
-      <c r="AX24" s="47"/>
-      <c r="AY24" s="54"/>
-      <c r="AZ24" s="47"/>
-      <c r="BA24" s="59"/>
-      <c r="BB24" s="47"/>
-      <c r="BC24" s="47"/>
-      <c r="BD24" s="47"/>
-      <c r="BE24" s="47"/>
-      <c r="BF24" s="51"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="47"/>
-      <c r="BJ24" s="47"/>
-      <c r="BK24" s="47"/>
-      <c r="BL24" s="40"/>
-      <c r="BM24" s="40"/>
-      <c r="BN24" s="40"/>
-      <c r="BO24" s="40"/>
-      <c r="BP24" s="42"/>
-      <c r="BQ24" s="42"/>
-      <c r="BR24" s="42"/>
-      <c r="BS24" s="42"/>
-      <c r="BT24" s="42"/>
-      <c r="BU24" s="42"/>
-      <c r="BV24" s="42"/>
-      <c r="BW24" s="42"/>
-      <c r="BX24" s="42"/>
-      <c r="BY24" s="42"/>
-      <c r="BZ24" s="42"/>
-      <c r="CA24" s="42"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="33"/>
+      <c r="AM24" s="62"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="33"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="59"/>
+      <c r="AT24" s="33"/>
+      <c r="AU24" s="36"/>
+      <c r="AV24" s="36"/>
+      <c r="AW24" s="59"/>
+      <c r="AX24" s="33"/>
+      <c r="AY24" s="59"/>
+      <c r="AZ24" s="33"/>
+      <c r="BA24" s="64"/>
+      <c r="BB24" s="33"/>
+      <c r="BC24" s="33"/>
+      <c r="BD24" s="33"/>
+      <c r="BE24" s="33"/>
+      <c r="BF24" s="66"/>
+      <c r="BG24" s="36"/>
+      <c r="BH24" s="36"/>
+      <c r="BI24" s="33"/>
+      <c r="BJ24" s="33"/>
+      <c r="BK24" s="33"/>
+      <c r="BL24" s="31"/>
+      <c r="BM24" s="31"/>
+      <c r="BN24" s="31"/>
+      <c r="BO24" s="31"/>
+      <c r="BP24" s="36"/>
+      <c r="BQ24" s="36"/>
+      <c r="BR24" s="36"/>
+      <c r="BS24" s="36"/>
+      <c r="BT24" s="36"/>
+      <c r="BU24" s="36"/>
+      <c r="BV24" s="36"/>
+      <c r="BW24" s="36"/>
+      <c r="BX24" s="36"/>
+      <c r="BY24" s="36"/>
+      <c r="BZ24" s="36"/>
+      <c r="CA24" s="36"/>
     </row>
     <row r="25" spans="1:79">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="54"/>
-      <c r="AL25" s="47"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="54"/>
-      <c r="AP25" s="47"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="47"/>
-      <c r="AU25" s="42"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="54"/>
-      <c r="AX25" s="47"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="47"/>
-      <c r="BA25" s="59"/>
-      <c r="BB25" s="47"/>
-      <c r="BC25" s="47"/>
-      <c r="BD25" s="47"/>
-      <c r="BE25" s="47"/>
-      <c r="BF25" s="51"/>
-      <c r="BG25" s="42"/>
-      <c r="BH25" s="42"/>
-      <c r="BI25" s="47"/>
-      <c r="BJ25" s="47"/>
-      <c r="BK25" s="47"/>
-      <c r="BL25" s="40"/>
-      <c r="BM25" s="40"/>
-      <c r="BN25" s="40"/>
-      <c r="BO25" s="40"/>
-      <c r="BP25" s="42"/>
-      <c r="BQ25" s="42"/>
-      <c r="BR25" s="42"/>
-      <c r="BS25" s="42"/>
-      <c r="BT25" s="42"/>
-      <c r="BU25" s="42"/>
-      <c r="BV25" s="42"/>
-      <c r="BW25" s="42"/>
-      <c r="BX25" s="42"/>
-      <c r="BY25" s="42"/>
-      <c r="BZ25" s="42"/>
-      <c r="CA25" s="42"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="33"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="59"/>
+      <c r="AP25" s="33"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="59"/>
+      <c r="AT25" s="33"/>
+      <c r="AU25" s="36"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="59"/>
+      <c r="AX25" s="33"/>
+      <c r="AY25" s="59"/>
+      <c r="AZ25" s="33"/>
+      <c r="BA25" s="64"/>
+      <c r="BB25" s="33"/>
+      <c r="BC25" s="33"/>
+      <c r="BD25" s="33"/>
+      <c r="BE25" s="33"/>
+      <c r="BF25" s="66"/>
+      <c r="BG25" s="36"/>
+      <c r="BH25" s="36"/>
+      <c r="BI25" s="33"/>
+      <c r="BJ25" s="33"/>
+      <c r="BK25" s="33"/>
+      <c r="BL25" s="31"/>
+      <c r="BM25" s="31"/>
+      <c r="BN25" s="31"/>
+      <c r="BO25" s="31"/>
+      <c r="BP25" s="36"/>
+      <c r="BQ25" s="36"/>
+      <c r="BR25" s="36"/>
+      <c r="BS25" s="36"/>
+      <c r="BT25" s="36"/>
+      <c r="BU25" s="36"/>
+      <c r="BV25" s="36"/>
+      <c r="BW25" s="36"/>
+      <c r="BX25" s="36"/>
+      <c r="BY25" s="36"/>
+      <c r="BZ25" s="36"/>
+      <c r="CA25" s="36"/>
     </row>
     <row r="26" spans="1:79">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="43"/>
-      <c r="AG26" s="43"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="58"/>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="55"/>
-      <c r="AP26" s="47"/>
-      <c r="AQ26" s="58"/>
-      <c r="AR26" s="43"/>
-      <c r="AS26" s="55"/>
-      <c r="AT26" s="47"/>
-      <c r="AU26" s="43"/>
-      <c r="AV26" s="43"/>
-      <c r="AW26" s="55"/>
-      <c r="AX26" s="47"/>
-      <c r="AY26" s="55"/>
-      <c r="AZ26" s="47"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="47"/>
-      <c r="BC26" s="47"/>
-      <c r="BD26" s="47"/>
-      <c r="BE26" s="47"/>
-      <c r="BF26" s="52"/>
-      <c r="BG26" s="43"/>
-      <c r="BH26" s="43"/>
-      <c r="BI26" s="47"/>
-      <c r="BJ26" s="47"/>
-      <c r="BK26" s="47"/>
-      <c r="BL26" s="40"/>
-      <c r="BM26" s="40"/>
-      <c r="BN26" s="40"/>
-      <c r="BO26" s="40"/>
-      <c r="BP26" s="43"/>
-      <c r="BQ26" s="43"/>
-      <c r="BR26" s="43"/>
-      <c r="BS26" s="43"/>
-      <c r="BT26" s="43"/>
-      <c r="BU26" s="43"/>
-      <c r="BV26" s="43"/>
-      <c r="BW26" s="43"/>
-      <c r="BX26" s="43"/>
-      <c r="BY26" s="43"/>
-      <c r="BZ26" s="43"/>
-      <c r="CA26" s="43"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="60"/>
+      <c r="AP26" s="33"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="37"/>
+      <c r="AS26" s="60"/>
+      <c r="AT26" s="33"/>
+      <c r="AU26" s="37"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="60"/>
+      <c r="AX26" s="33"/>
+      <c r="AY26" s="60"/>
+      <c r="AZ26" s="33"/>
+      <c r="BA26" s="64"/>
+      <c r="BB26" s="33"/>
+      <c r="BC26" s="33"/>
+      <c r="BD26" s="33"/>
+      <c r="BE26" s="33"/>
+      <c r="BF26" s="67"/>
+      <c r="BG26" s="37"/>
+      <c r="BH26" s="37"/>
+      <c r="BI26" s="33"/>
+      <c r="BJ26" s="33"/>
+      <c r="BK26" s="33"/>
+      <c r="BL26" s="31"/>
+      <c r="BM26" s="31"/>
+      <c r="BN26" s="31"/>
+      <c r="BO26" s="31"/>
+      <c r="BP26" s="37"/>
+      <c r="BQ26" s="37"/>
+      <c r="BR26" s="37"/>
+      <c r="BS26" s="37"/>
+      <c r="BT26" s="37"/>
+      <c r="BU26" s="37"/>
+      <c r="BV26" s="37"/>
+      <c r="BW26" s="37"/>
+      <c r="BX26" s="37"/>
+      <c r="BY26" s="37"/>
+      <c r="BZ26" s="37"/>
+      <c r="CA26" s="37"/>
     </row>
     <row r="27" spans="1:79" ht="11.25" customHeight="1">
-      <c r="F27" s="74"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="76"/>
-      <c r="AL27" s="47"/>
-      <c r="AP27" s="47"/>
-      <c r="AT27" s="47"/>
-      <c r="AX27" s="47"/>
-      <c r="AZ27" s="47"/>
-      <c r="BA27" s="59"/>
-      <c r="BB27" s="47"/>
-      <c r="BC27" s="47"/>
-      <c r="BD27" s="47"/>
-      <c r="BE27" s="47"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="44"/>
+      <c r="AL27" s="33"/>
+      <c r="AP27" s="33"/>
+      <c r="AT27" s="33"/>
+      <c r="AX27" s="33"/>
+      <c r="AZ27" s="33"/>
+      <c r="BA27" s="64"/>
+      <c r="BB27" s="33"/>
+      <c r="BC27" s="33"/>
+      <c r="BD27" s="33"/>
+      <c r="BE27" s="33"/>
     </row>
     <row r="28" spans="1:79" ht="11.25" customHeight="1">
       <c r="B28" s="7" t="s">
@@ -10805,30 +10778,30 @@
       <c r="C28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="76"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="44"/>
       <c r="W28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AF28" s="47" t="s">
+      <c r="AF28" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="AL28" s="47"/>
-      <c r="AP28" s="47"/>
-      <c r="AT28" s="47"/>
-      <c r="AX28" s="47"/>
-      <c r="AZ28" s="47"/>
-      <c r="BA28" s="59"/>
-      <c r="BB28" s="47"/>
-      <c r="BC28" s="47"/>
-      <c r="BD28" s="47"/>
-      <c r="BE28" s="47"/>
+      <c r="AL28" s="33"/>
+      <c r="AP28" s="33"/>
+      <c r="AT28" s="33"/>
+      <c r="AX28" s="33"/>
+      <c r="AZ28" s="33"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="33"/>
+      <c r="BC28" s="33"/>
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="33"/>
       <c r="BI28" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="BK28" s="47" t="s">
+      <c r="BK28" s="33" t="s">
         <v>512</v>
       </c>
       <c r="BL28" s="7" t="s">
@@ -10842,18 +10815,18 @@
       <c r="C29" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="40" t="s">
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="31" t="s">
         <v>478</v>
       </c>
       <c r="W29" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="AF29" s="47"/>
-      <c r="BK29" s="47"/>
+      <c r="AF29" s="33"/>
+      <c r="BK29" s="33"/>
       <c r="BL29" s="16" t="s">
         <v>284</v>
       </c>
@@ -10862,14 +10835,14 @@
       <c r="C30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J30" s="40"/>
-      <c r="AF30" s="47"/>
+      <c r="J30" s="31"/>
+      <c r="AF30" s="33"/>
     </row>
     <row r="31" spans="1:79" ht="11.25" customHeight="1">
       <c r="C31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BK31" s="40" t="s">
+      <c r="BK31" s="31" t="s">
         <v>282</v>
       </c>
     </row>
@@ -10877,42 +10850,42 @@
       <c r="C32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AF32" s="40" t="s">
+      <c r="AF32" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="BK32" s="40"/>
+      <c r="BK32" s="31"/>
     </row>
     <row r="33" spans="3:63" ht="11.25" customHeight="1">
       <c r="C33" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AF33" s="40"/>
-      <c r="BK33" s="40"/>
+      <c r="AF33" s="31"/>
+      <c r="BK33" s="31"/>
     </row>
     <row r="34" spans="3:63" ht="11.25" customHeight="1">
       <c r="C34" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AF34" s="40"/>
-      <c r="BK34" s="40"/>
+      <c r="AF34" s="31"/>
+      <c r="BK34" s="31"/>
     </row>
     <row r="35" spans="3:63" ht="11.25" customHeight="1">
       <c r="C35" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AF35" s="40"/>
+      <c r="AF35" s="31"/>
     </row>
     <row r="36" spans="3:63">
       <c r="C36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AF36" s="40"/>
+      <c r="AF36" s="31"/>
     </row>
     <row r="37" spans="3:63">
       <c r="C37" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AF37" s="40"/>
+      <c r="AF37" s="31"/>
     </row>
     <row r="38" spans="3:63">
       <c r="C38" s="5" t="s">
@@ -11095,31 +11068,60 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="AF32:AF37"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="G21:G29"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="U21:U26"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N21:N26"/>
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="P21:P26"/>
-    <mergeCell ref="Q21:Q26"/>
-    <mergeCell ref="R21:R26"/>
-    <mergeCell ref="S21:S26"/>
-    <mergeCell ref="BM18:BO20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="BF18:BF20"/>
-    <mergeCell ref="AZ18:BE20"/>
-    <mergeCell ref="A18:AY20"/>
-    <mergeCell ref="BG18:BG20"/>
-    <mergeCell ref="BH18:BH20"/>
-    <mergeCell ref="BI18:BI20"/>
-    <mergeCell ref="BJ18:BK20"/>
-    <mergeCell ref="BL18:BL20"/>
+  <mergeCells count="96">
+    <mergeCell ref="BP18:CA20"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="BW21:BW26"/>
+    <mergeCell ref="BX21:BX26"/>
+    <mergeCell ref="BZ21:BZ26"/>
+    <mergeCell ref="CA21:CA26"/>
+    <mergeCell ref="BK28:BK29"/>
+    <mergeCell ref="BU21:BU26"/>
+    <mergeCell ref="BV21:BV26"/>
+    <mergeCell ref="BF21:BF26"/>
+    <mergeCell ref="BG21:BG26"/>
+    <mergeCell ref="BH21:BH26"/>
+    <mergeCell ref="BI21:BI26"/>
+    <mergeCell ref="BJ21:BJ26"/>
+    <mergeCell ref="AY21:AY26"/>
+    <mergeCell ref="AS21:AS26"/>
+    <mergeCell ref="AU21:AU26"/>
+    <mergeCell ref="BK31:BK34"/>
+    <mergeCell ref="BQ21:BQ26"/>
+    <mergeCell ref="BR21:BR26"/>
+    <mergeCell ref="BS21:BS26"/>
+    <mergeCell ref="BT21:BT26"/>
+    <mergeCell ref="BK21:BK26"/>
+    <mergeCell ref="BL21:BL26"/>
+    <mergeCell ref="BM21:BM26"/>
+    <mergeCell ref="BN21:BN26"/>
+    <mergeCell ref="BO21:BO26"/>
+    <mergeCell ref="BP21:BP26"/>
+    <mergeCell ref="AE21:AE26"/>
+    <mergeCell ref="AF21:AF26"/>
+    <mergeCell ref="AR21:AR26"/>
+    <mergeCell ref="AG21:AG26"/>
+    <mergeCell ref="AH21:AH26"/>
+    <mergeCell ref="AI21:AI26"/>
+    <mergeCell ref="AJ21:AJ26"/>
+    <mergeCell ref="AK21:AK26"/>
+    <mergeCell ref="AM21:AM26"/>
+    <mergeCell ref="BY21:BY26"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="X21:X26"/>
+    <mergeCell ref="Y21:Y26"/>
+    <mergeCell ref="Z21:Z26"/>
+    <mergeCell ref="AA21:AA26"/>
+    <mergeCell ref="AL21:AL28"/>
+    <mergeCell ref="AP21:AP28"/>
+    <mergeCell ref="AT21:AT28"/>
+    <mergeCell ref="AX21:AX28"/>
+    <mergeCell ref="BA21:BA28"/>
+    <mergeCell ref="AV21:AV26"/>
+    <mergeCell ref="AW21:AW26"/>
+    <mergeCell ref="BE21:BE28"/>
+    <mergeCell ref="BD21:BD28"/>
     <mergeCell ref="BC21:BC28"/>
     <mergeCell ref="AZ21:AZ28"/>
     <mergeCell ref="BB21:BB28"/>
@@ -11136,61 +11138,33 @@
     <mergeCell ref="AO21:AO26"/>
     <mergeCell ref="AQ21:AQ26"/>
     <mergeCell ref="T21:T26"/>
-    <mergeCell ref="BY21:BY26"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="X21:X26"/>
-    <mergeCell ref="Y21:Y26"/>
-    <mergeCell ref="Z21:Z26"/>
-    <mergeCell ref="AA21:AA26"/>
-    <mergeCell ref="AL21:AL28"/>
-    <mergeCell ref="AP21:AP28"/>
-    <mergeCell ref="AT21:AT28"/>
-    <mergeCell ref="AX21:AX28"/>
-    <mergeCell ref="BA21:BA28"/>
-    <mergeCell ref="AV21:AV26"/>
-    <mergeCell ref="AW21:AW26"/>
-    <mergeCell ref="BE21:BE28"/>
-    <mergeCell ref="BD21:BD28"/>
+    <mergeCell ref="BM18:BO20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="BF18:BF20"/>
+    <mergeCell ref="AZ18:BE20"/>
+    <mergeCell ref="A18:AY20"/>
+    <mergeCell ref="BG18:BG20"/>
+    <mergeCell ref="BH18:BH20"/>
+    <mergeCell ref="BI18:BI20"/>
+    <mergeCell ref="BJ18:BK20"/>
+    <mergeCell ref="BL18:BL20"/>
+    <mergeCell ref="AF32:AF37"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="G21:G29"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="U21:U26"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N21:N26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="P21:P26"/>
+    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="R21:R26"/>
+    <mergeCell ref="S21:S26"/>
     <mergeCell ref="AB21:AB26"/>
     <mergeCell ref="AC21:AC26"/>
     <mergeCell ref="AD21:AD26"/>
-    <mergeCell ref="AE21:AE26"/>
-    <mergeCell ref="AF21:AF26"/>
-    <mergeCell ref="AR21:AR26"/>
-    <mergeCell ref="AG21:AG26"/>
-    <mergeCell ref="AH21:AH26"/>
-    <mergeCell ref="AI21:AI26"/>
-    <mergeCell ref="AJ21:AJ26"/>
-    <mergeCell ref="AK21:AK26"/>
-    <mergeCell ref="AM21:AM26"/>
-    <mergeCell ref="BK31:BK34"/>
-    <mergeCell ref="BQ21:BQ26"/>
-    <mergeCell ref="BR21:BR26"/>
-    <mergeCell ref="BS21:BS26"/>
-    <mergeCell ref="BT21:BT26"/>
-    <mergeCell ref="BK21:BK26"/>
-    <mergeCell ref="BL21:BL26"/>
-    <mergeCell ref="BM21:BM26"/>
-    <mergeCell ref="BN21:BN26"/>
-    <mergeCell ref="BO21:BO26"/>
-    <mergeCell ref="BP21:BP26"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="BW21:BW26"/>
-    <mergeCell ref="BX21:BX26"/>
-    <mergeCell ref="BZ21:BZ26"/>
-    <mergeCell ref="CA21:CA26"/>
-    <mergeCell ref="BK28:BK29"/>
-    <mergeCell ref="BU21:BU26"/>
-    <mergeCell ref="BV21:BV26"/>
-    <mergeCell ref="BF21:BF26"/>
-    <mergeCell ref="BG21:BG26"/>
-    <mergeCell ref="BH21:BH26"/>
-    <mergeCell ref="BI21:BI26"/>
-    <mergeCell ref="BJ21:BJ26"/>
-    <mergeCell ref="AY21:AY26"/>
-    <mergeCell ref="AS21:AS26"/>
-    <mergeCell ref="AU21:AU26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_FAT.xlsx
+++ b/Documentação/Planilhas/Conferencia_FAT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="549">
   <si>
     <t>1</t>
   </si>
@@ -462,9 +462,6 @@
     <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba superior "Relações", seção "Relação-Até" pegar a informação de "PN Receptor"</t>
   </si>
   <si>
-    <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba superior "Financeiro", seção "Informações Gerais" pegar a informação de "Cia Financeira"</t>
-  </si>
-  <si>
     <t>F20002186</t>
   </si>
   <si>
@@ -549,24 +546,12 @@
     <t>Digitar o NR_PEDIDO na coluna "Pedido do Cliente". Se não encontrar na primeira tela, ir com a seta "Next Group" até encontrar, detalhando na sequência. Na aba superior "Geral", pegar a informação do Canal de Venda</t>
   </si>
   <si>
-    <t>Digitar o NR_PEDIDO na coluna "Pedido do Cliente". Se não encontrar na primeira tela, ir com a seta "Next Group" até encontrar, detalhando na sequência. Na aba superior "Geral", pegar a informação da Data de Emissão</t>
-  </si>
-  <si>
     <t>Digitar o NR_PEDIDO na coluna "Pedido do Cliente". Se não encontrar na primeira tela, ir com a seta "Next Group" até encontrar, detalhando na sequência. Na aba superior "Geral", pegar a informação da Unidade de Negócio</t>
   </si>
   <si>
     <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba superior "NF-e", seção "NF-e" pegar a informação de "Status da NF-e"</t>
   </si>
   <si>
-    <t>1-Nenhum
-2-Transmitida
-3-Pedido cancelamento
-4-Pedido estorno
-5-Processada
-6-Pedido consulta
-7-Request Reverse SEFAZ</t>
-  </si>
-  <si>
     <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba inferior Linhas - Nota Fiscal, fazer o detalhamento do item desejado. Na aba superior "Geral", seção "Data Fiscal", pegar a informação do "CFO"</t>
   </si>
   <si>
@@ -609,20 +594,10 @@
     <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba superior "Transportadora", seção "Informações Gerais" pegar a informação de "Peso Líquido"</t>
   </si>
   <si>
-    <t>Informar o NR_REFERENCIA_FISCAL na coluna "Referência Fiscal". Se a mesma não for apresentada na tela, ir com a seta "Next Group" até encontrar. Pegar a informação da coluna "Quantidade de Volumes" [repetir o Next Group para ver se existe mais alguma linha para a referência informada. Se existir, somar os valores]</t>
-  </si>
-  <si>
-    <t>Informar o NR_REFERENCIA_FISCAL na coluna "Referência Fiscal". Se a mesma não for apresentada na tela, ir com a seta "Next Group" até encontrar. Pegar a informação da coluna "Valor do Frete Transportadora Calculado" [repetir o Next Group para ver se existe mais alguma linha para a referência informada. Se existir, somar os valores]</t>
-  </si>
-  <si>
     <t>Para saber o Tipo de item, ir para a sessão "tcibd0501m000" e informar o CD_ITEM na segunda lacuna da coluna Item. Pegar a informação da coluna "Tipo de Item"</t>
   </si>
   <si>
     <t>Informar o CD_ITEM na segunda lacuna da coluna Item e pedir o seu detalhamento. Na aba "Dados Item Nova", pegar a informação do Tipo de Transporte</t>
-  </si>
-  <si>
-    <t>1- Leve
-2 - Pesado</t>
   </si>
   <si>
     <t>1-Aguardando
@@ -634,16 +609,6 @@
 101-Estornado</t>
   </si>
   <si>
-    <t>1-Venda com pedido
-2-Venda sem pedido
-3-Prestação de serviços
-4-Transferência de mercadoria
-5-Remessa
-6-Complemento de ICMS
-7-Complemento de IPI
-8-Complemento de Preço</t>
-  </si>
-  <si>
     <t>Na sessão "cislil504m00l", fazer o detalhamento da Referência Fiscal desejada. Na aba superior "Relações", pegar o código do "Endereço de Faturamento". Ir para a sessão "tccom4530m000" e informar o código na coluna "Código do Endereço" e pedir o seu detalhamento. Na aba Geral, seção Endereços, pegar o código da Cidade</t>
   </si>
   <si>
@@ -653,9 +618,6 @@
     <t>Na sessão "cislil504m00l", fazer o detalhamento da Referência Fiscal desejada. Na aba superior "Geral", seção "Referência Fiscal" pegar a informação de "Departamento". Ir para a seção "tcmcs0565m000" e informar o Cód Depto na coluna "Departamento", pegar a informação da coluna "Unidade Empresarial"</t>
   </si>
   <si>
-    <t>Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Pedir o detalhamento da última data apresentada. Na aba inferior "Detalhes de Custos", pegar o valor da coluna da coluna MAUC [BRL]</t>
-  </si>
-  <si>
     <t>cislil504m00l, tccom4500m000, tccom4530m000, tcmcs0565m000, tcemm0130m000, brnfel520m00l, whina1512m000, znfmdc507m000, tcibd0501m000 e znslsc524m000</t>
   </si>
   <si>
@@ -705,9 +667,6 @@
   </si>
   <si>
     <t>tcmcs0108m000</t>
-  </si>
-  <si>
-    <t>Sessão tcmcs0108m000 [na lupinha, após limpar todos os campos, selecionar Moeda Base = BRL, Tipo de Taxa de Cambio = COD_COTACAO e Moeda = CD_MOEDA]</t>
   </si>
   <si>
     <t>Pegar a informação de Tipo de Taxa de Câmbio no cabeçalho da tela</t>
@@ -882,9 +841,6 @@
     <t>Sessão whina1513m000 [Transação Receb Inventário - Detalhes de Custo]</t>
   </si>
   <si>
-    <t>whwmd2515m000</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -1645,13 +1601,103 @@
   </si>
   <si>
     <t>2014-09-15 22:55:00.000</t>
+  </si>
+  <si>
+    <t>Sessão tcmcs0108m000 (taxas monetárias) [na lupinha, após limpar todos os campos, selecionar Moeda Base = BRL, Tipo de Taxa de Cambio = COD_COTACAO e Moeda = CD_MOEDA]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Pegar o valor da coluna da coluna MAUC [BRL] do período anterior ao dia da DT_FATURA. </t>
+  </si>
+  <si>
+    <t>Na lupinha, informar o NR_REFERENCIA_FISCAL na coluna "Referência Fiscal", limpando primeiramente todos os campos. Pegar a informação da coluna "Quantidade de Volumes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na lupinha, informar o NR_REFERENCIA_FISCAL na coluna "Referência Fiscal", limpando primeiramente todos os campos. Pegar a informação da coluna "Valor do Frete Transportadora Calculado" </t>
+  </si>
+  <si>
+    <t>Digitar o NR_PEDIDO na coluna "Pedido do Cliente". Se não encontrar na primeira tela, ir com a seta "Next Group" até encontrar, detalhando na sequência. Na aba superior "Geral", pegar a informação da Companhia</t>
+  </si>
+  <si>
+    <t>Digitar o NR_PEDIDO na coluna "Pedido do Cliente". Se não encontrar na primeira tela, ir com a seta "Next Group" até encontrar, detalhando na sequência. Na aba superior "Geral", pegar a informação da Data da Inclusão</t>
+  </si>
+  <si>
+    <t>Sessão tdsls4100m000 (Ordens de Vendas) [Informar o NR_ORDEM na coluna Ordem e pedir o seu detalhamento]</t>
+  </si>
+  <si>
+    <t>Na seção "Controle", pegar a informação de "Tipo de Ordem de Venda"</t>
+  </si>
+  <si>
+    <t>Ir para a sessão "tdsls0594m000" (Tipo de Ordem de Venda), informar o código na coluna "Tipo Ord Vendas" e pegar a informação da coluna "Faturamento"</t>
+  </si>
+  <si>
+    <t>1-Venda com pedido</t>
+  </si>
+  <si>
+    <t>2-Venda sem pedido</t>
+  </si>
+  <si>
+    <t>3-Prestação de serviços</t>
+  </si>
+  <si>
+    <t>4-Transferência de mercadoria</t>
+  </si>
+  <si>
+    <t>5-Remessa</t>
+  </si>
+  <si>
+    <t>6-Complemento de ICMS</t>
+  </si>
+  <si>
+    <t>7-Complemento de IPI</t>
+  </si>
+  <si>
+    <t>8-Complemento de Preço</t>
+  </si>
+  <si>
+    <t>1-Nenhum</t>
+  </si>
+  <si>
+    <t>2-Transmitida</t>
+  </si>
+  <si>
+    <t>3-Pedido cancelamento</t>
+  </si>
+  <si>
+    <t>4-Pedido estorno</t>
+  </si>
+  <si>
+    <t>5-Processada</t>
+  </si>
+  <si>
+    <t>6-Pedido consulta</t>
+  </si>
+  <si>
+    <t>7-Request Reverse SEFAZ</t>
+  </si>
+  <si>
+    <t>1- Leve</t>
+  </si>
+  <si>
+    <t>2 - Pesado</t>
+  </si>
+  <si>
+    <t>Se a informação for  diferente de "Não Aplicável", ir para a sessão "cislil504m00l" (Nota Fiscal) e informar a Ref Fiscal na coluna "Referência Fiscal", pedindo o detalhamento da mesma. Na aba inferior "Linhas da Nota Fiscal", verificar se existe a "Referência Relativa". Se existir, pegar a indicação da mesma e a selecionar na tela principal da sessão "cislil504m00l" (Nota Fiscal) e fazer o seu detalhamento</t>
+  </si>
+  <si>
+    <t>Na aba superior "Geral", seção "Dados do Documento", pegar a informação do "Número do Documento"</t>
+  </si>
+  <si>
+    <t>Na aba superior "Geral", seção "Dados do Documento", pegar a informação de "Série"</t>
+  </si>
+  <si>
+    <t>Está vindo branco na view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1700,6 +1746,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1755,7 +1809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1908,11 +1962,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1940,16 +2007,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1985,30 +2055,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2039,13 +2085,49 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2066,44 +2148,65 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2113,8 +2216,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFA7E7E"/>
     </mruColors>
@@ -2413,7 +2516,7 @@
   <dimension ref="A1:CB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2502,78 +2605,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BJ1" s="14"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BJ1" s="11"/>
     </row>
     <row r="2" spans="1:62" ht="21">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BJ2" s="14"/>
+        <v>220</v>
+      </c>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BJ2" s="11"/>
     </row>
     <row r="3" spans="1:62" ht="21">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BJ3" s="14"/>
+        <v>214</v>
+      </c>
+      <c r="BJ3" s="11"/>
     </row>
     <row r="4" spans="1:62">
-      <c r="BJ4" s="14"/>
+      <c r="BJ4" s="11"/>
     </row>
     <row r="6" spans="1:62">
       <c r="A6" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:62">
       <c r="A7" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>283</v>
+        <v>265</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>26</v>
@@ -2581,19 +2684,19 @@
     </row>
     <row r="8" spans="1:62">
       <c r="A8" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>285</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>26</v>
@@ -2601,19 +2704,19 @@
     </row>
     <row r="9" spans="1:62">
       <c r="A9" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>26</v>
@@ -2621,19 +2724,19 @@
     </row>
     <row r="10" spans="1:62">
       <c r="A10" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>26</v>
@@ -2641,19 +2744,19 @@
     </row>
     <row r="11" spans="1:62">
       <c r="A11" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>26</v>
@@ -2661,19 +2764,19 @@
     </row>
     <row r="12" spans="1:62">
       <c r="A12" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>26</v>
@@ -2681,19 +2784,19 @@
     </row>
     <row r="13" spans="1:62">
       <c r="A13" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>26</v>
@@ -2701,19 +2804,19 @@
     </row>
     <row r="14" spans="1:62">
       <c r="A14" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>0</v>
@@ -2721,19 +2824,19 @@
     </row>
     <row r="15" spans="1:62">
       <c r="A15" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>26</v>
@@ -2741,19 +2844,19 @@
     </row>
     <row r="16" spans="1:62">
       <c r="A16" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>26</v>
@@ -2761,93 +2864,93 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>230</v>
+      <c r="A22" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2871,11 +2974,9 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:CD73"/>
+  <dimension ref="A1:CD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1:BH4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -2939,16 +3040,16 @@
     <col min="58" max="58" width="34" style="2" customWidth="1"/>
     <col min="59" max="59" width="29.7109375" style="2" customWidth="1"/>
     <col min="60" max="60" width="38.5703125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="41.85546875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="33" style="2" customWidth="1"/>
     <col min="62" max="62" width="40.85546875" style="2" customWidth="1"/>
     <col min="63" max="63" width="24.5703125" style="2" customWidth="1"/>
     <col min="64" max="64" width="20.28515625" style="2" customWidth="1"/>
     <col min="65" max="65" width="17.42578125" style="2" customWidth="1"/>
     <col min="66" max="66" width="16.5703125" style="2" customWidth="1"/>
-    <col min="67" max="67" width="23.42578125" style="2" customWidth="1"/>
+    <col min="67" max="67" width="29.7109375" style="2" customWidth="1"/>
     <col min="68" max="68" width="28.7109375" style="2" customWidth="1"/>
     <col min="69" max="69" width="28" style="2" customWidth="1"/>
-    <col min="70" max="70" width="27.140625" style="2" customWidth="1"/>
+    <col min="70" max="70" width="30.140625" style="2" customWidth="1"/>
     <col min="71" max="71" width="34.7109375" style="2" customWidth="1"/>
     <col min="72" max="72" width="31.42578125" style="2" customWidth="1"/>
     <col min="73" max="73" width="38.28515625" style="2" customWidth="1"/>
@@ -2958,530 +3059,528 @@
     <col min="77" max="77" width="36.5703125" style="2" customWidth="1"/>
     <col min="78" max="78" width="30.85546875" style="2" customWidth="1"/>
     <col min="79" max="79" width="37.42578125" style="2" customWidth="1"/>
-    <col min="80" max="80" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="26.85546875" style="2" customWidth="1"/>
     <col min="82" max="82" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="83" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82">
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:82" ht="21">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
     </row>
     <row r="3" spans="1:82" ht="21">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:82" ht="25.5" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="63" t="s">
+      <c r="D6" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="M6" s="63" t="s">
+      <c r="L6" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="63" t="s">
+      <c r="O6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="63" t="s">
+      <c r="P6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="63" t="s">
+      <c r="Q6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="63" t="s">
+      <c r="R6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="63" t="s">
+      <c r="S6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="63" t="s">
+      <c r="T6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="63" t="s">
+      <c r="V6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="63" t="s">
+      <c r="W6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="63" t="s">
+      <c r="X6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" s="63" t="s">
+      <c r="Y6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Z6" s="63" t="s">
+      <c r="Z6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="63" t="s">
+      <c r="AA6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AB6" s="63" t="s">
+      <c r="AB6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AC6" s="63" t="s">
+      <c r="AC6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AD6" s="63" t="s">
+      <c r="AD6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AE6" s="63" t="s">
+      <c r="AE6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AF6" s="63" t="s">
+      <c r="AF6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AG6" s="63" t="s">
+      <c r="AG6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AH6" s="63" t="s">
+      <c r="AH6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AI6" s="63" t="s">
+      <c r="AI6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AJ6" s="63" t="s">
+      <c r="AJ6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AK6" s="63" t="s">
+      <c r="AK6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AL6" s="63" t="s">
+      <c r="AL6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AM6" s="63" t="s">
+      <c r="AM6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AN6" s="63" t="s">
+      <c r="AN6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AO6" s="63" t="s">
+      <c r="AO6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AP6" s="63" t="s">
+      <c r="AP6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AQ6" s="63" t="s">
+      <c r="AQ6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AR6" s="63" t="s">
+      <c r="AR6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AS6" s="63" t="s">
+      <c r="AS6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AT6" s="63" t="s">
+      <c r="AT6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AU6" s="63" t="s">
+      <c r="AU6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AV6" s="63" t="s">
+      <c r="AV6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW6" s="63" t="s">
+      <c r="AW6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX6" s="63" t="s">
+      <c r="AX6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AY6" s="63" t="s">
+      <c r="AY6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AZ6" s="63" t="s">
+      <c r="AZ6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BA6" s="63" t="s">
+      <c r="BA6" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="BB6" s="63" t="s">
+      <c r="BB6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="BC6" s="63" t="s">
+      <c r="BC6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BD6" s="63" t="s">
+      <c r="BD6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BE6" s="63" t="s">
+      <c r="BE6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BF6" s="63" t="s">
+      <c r="BF6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="BG6" s="63" t="s">
+      <c r="BG6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="BH6" s="63" t="s">
+      <c r="BH6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="BI6" s="63" t="s">
+      <c r="BI6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BJ6" s="63" t="s">
+      <c r="BJ6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="BK6" s="63" t="s">
+      <c r="BK6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="BL6" s="63" t="s">
+      <c r="BL6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="BM6" s="63" t="s">
+      <c r="BM6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BN6" s="63" t="s">
+      <c r="BN6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="BO6" s="63" t="s">
+      <c r="BO6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="BP6" s="63" t="s">
+      <c r="BP6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="BQ6" s="63" t="s">
+      <c r="BQ6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="BR6" s="63" t="s">
+      <c r="BR6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="BS6" s="63" t="s">
+      <c r="BS6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="BT6" s="63" t="s">
+      <c r="BT6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="BU6" s="63" t="s">
+      <c r="BU6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="BV6" s="63" t="s">
+      <c r="BV6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="BW6" s="63" t="s">
+      <c r="BW6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="BX6" s="63" t="s">
+      <c r="BX6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BY6" s="63" t="s">
+      <c r="BY6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="BZ6" s="63" t="s">
+      <c r="BZ6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CA6" s="63" t="s">
+      <c r="CA6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="CB6" s="63" t="s">
+      <c r="CB6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="CC6" s="63" t="s">
+      <c r="CC6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="CD6" s="63" t="s">
+      <c r="CD6" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:82" s="10" customFormat="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="64" t="s">
+      <c r="Z7" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL7" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM7" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN7" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP7" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ7" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="AR7" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AS7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ7" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB7" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="BC7" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD7" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE7" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="BF7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="BG7" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="BH7" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="BI7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ7" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="BK7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="64" t="s">
+      <c r="BL7" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="BM7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="BO7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="BQ7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR7" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BS7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="64" t="s">
+      <c r="BT7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="M7" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="N7" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="O7" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="P7" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q7" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="R7" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="S7" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="T7" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="U7" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="V7" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="W7" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="X7" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z7" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB7" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC7" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF7" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="AG7" s="64" t="s">
+      <c r="BU7" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BV7" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="BW7" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="BX7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="BZ7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="CA7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AH7" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL7" s="64" t="s">
-        <v>319</v>
-      </c>
-      <c r="AM7" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="AN7" s="64" t="s">
-        <v>321</v>
-      </c>
-      <c r="AO7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP7" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="AQ7" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="AR7" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="AS7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX7" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ7" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="BA7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB7" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="BC7" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="BD7" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="BE7" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="BF7" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="BG7" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="BH7" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="BI7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="BJ7" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="BM7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="BO7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="BQ7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR7" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="BS7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU7" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="BV7" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="BW7" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="BX7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="CC7" s="9" t="s">
+      <c r="CC7" s="14" t="s">
         <v>86</v>
       </c>
       <c r="CD7" s="10" t="s">
@@ -3490,7 +3589,7 @@
     </row>
     <row r="8" spans="1:82" s="10" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>87</v>
@@ -3517,65 +3616,65 @@
         <v>86</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O8" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="Q8" s="9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="V8" s="9" t="s">
         <v>91</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AA8" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AB8" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC8" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AC8" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="AD8" s="9" t="s">
         <v>88</v>
       </c>
@@ -3583,7 +3682,7 @@
         <v>88</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AG8" s="9" t="s">
         <v>85</v>
@@ -3601,25 +3700,25 @@
         <v>88</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AO8" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AP8" s="9" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AQ8" s="9" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="AS8" s="9" t="s">
         <v>88</v>
@@ -3643,61 +3742,61 @@
         <v>93</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="BA8" s="9" t="s">
         <v>93</v>
       </c>
       <c r="BB8" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="BC8" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BD8" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BE8" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="BG8" s="9" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="BH8" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="BI8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="BJ8" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="BK8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BL8" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="BM8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BN8" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="BO8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="BQ8" s="9" t="s">
         <v>89</v>
       </c>
       <c r="BR8" s="9" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="BS8" s="9" t="s">
         <v>85</v>
@@ -3706,13 +3805,13 @@
         <v>85</v>
       </c>
       <c r="BU8" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="BV8" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="BW8" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="BX8" s="9" t="s">
         <v>91</v>
@@ -3738,7 +3837,7 @@
     </row>
     <row r="9" spans="1:82" s="10" customFormat="1">
       <c r="A9" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>87</v>
@@ -3765,65 +3864,65 @@
         <v>86</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="Q9" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>91</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="AA9" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AB9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC9" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AC9" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="AD9" s="9" t="s">
         <v>88</v>
       </c>
@@ -3831,7 +3930,7 @@
         <v>88</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="AG9" s="9" t="s">
         <v>85</v>
@@ -3849,25 +3948,25 @@
         <v>88</v>
       </c>
       <c r="AL9" s="9" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AO9" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AP9" s="9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="AS9" s="9" t="s">
         <v>88</v>
@@ -3891,13 +3990,13 @@
         <v>93</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="BA9" s="9" t="s">
         <v>93</v>
       </c>
       <c r="BB9" s="9" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="BC9" s="9" t="s">
         <v>90</v>
@@ -3906,46 +4005,46 @@
         <v>90</v>
       </c>
       <c r="BE9" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="BG9" s="9" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BH9" s="9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="BI9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="BJ9" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="BK9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="BL9" s="9" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="BM9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BN9" s="9" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="BO9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BP9" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="BQ9" s="9" t="s">
         <v>89</v>
       </c>
       <c r="BR9" s="9" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="BS9" s="9" t="s">
         <v>85</v>
@@ -3954,13 +4053,13 @@
         <v>85</v>
       </c>
       <c r="BU9" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="BV9" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="BW9" s="9" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="BX9" s="9" t="s">
         <v>0</v>
@@ -3986,7 +4085,7 @@
     </row>
     <row r="10" spans="1:82" s="10" customFormat="1">
       <c r="A10" s="9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>87</v>
@@ -4013,65 +4112,65 @@
         <v>86</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="Q10" s="9" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="V10" s="9" t="s">
         <v>91</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AA10" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AB10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC10" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AC10" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="AD10" s="9" t="s">
         <v>88</v>
       </c>
@@ -4079,7 +4178,7 @@
         <v>88</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AG10" s="9" t="s">
         <v>85</v>
@@ -4097,28 +4196,28 @@
         <v>88</v>
       </c>
       <c r="AL10" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AM10" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AN10" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AO10" s="9" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AP10" s="9" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="AQ10" s="9" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="AR10" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="AS10" s="9" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>88</v>
@@ -4139,61 +4238,61 @@
         <v>93</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="BA10" s="9" t="s">
         <v>93</v>
       </c>
       <c r="BB10" s="9" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="BC10" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BD10" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BE10" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="BG10" s="9" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="BH10" s="9" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="BI10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="BJ10" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="BK10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="BL10" s="9" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="BM10" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BN10" s="9" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="BO10" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BP10" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="BQ10" s="9" t="s">
         <v>89</v>
       </c>
       <c r="BR10" s="9" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="BS10" s="9" t="s">
         <v>85</v>
@@ -4202,22 +4301,22 @@
         <v>85</v>
       </c>
       <c r="BU10" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="BV10" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="BW10" s="9" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="BX10" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BY10" s="9" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="BZ10" s="9" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="CA10" s="9" t="s">
         <v>88</v>
@@ -4234,7 +4333,7 @@
     </row>
     <row r="11" spans="1:82" s="10" customFormat="1">
       <c r="A11" s="9" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>87</v>
@@ -4261,65 +4360,65 @@
         <v>86</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="P11" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="Q11" s="9" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>91</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="AA11" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AB11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC11" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AC11" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="AD11" s="9" t="s">
         <v>88</v>
       </c>
@@ -4327,7 +4426,7 @@
         <v>88</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="AG11" s="9" t="s">
         <v>85</v>
@@ -4387,61 +4486,61 @@
         <v>93</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="BA11" s="9" t="s">
         <v>93</v>
       </c>
       <c r="BB11" s="9" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="BC11" s="9" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="BD11" s="9" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="BE11" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="BG11" s="9" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="BH11" s="9" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="BI11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="BJ11" s="9" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="BK11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BL11" s="9" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="BM11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BN11" s="9" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="BO11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BP11" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="BQ11" s="9" t="s">
         <v>89</v>
       </c>
       <c r="BR11" s="9" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="BS11" s="9" t="s">
         <v>85</v>
@@ -4450,13 +4549,13 @@
         <v>85</v>
       </c>
       <c r="BU11" s="9" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="BV11" s="9" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="BW11" s="9" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="BX11" s="9" t="s">
         <v>0</v>
@@ -4482,7 +4581,7 @@
     </row>
     <row r="12" spans="1:82" s="10" customFormat="1">
       <c r="A12" s="9" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>91</v>
@@ -4509,65 +4608,65 @@
         <v>86</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="Q12" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="T12" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="Q12" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="U12" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V12" s="9" t="s">
         <v>91</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AA12" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AB12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC12" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AC12" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="AD12" s="9" t="s">
         <v>88</v>
       </c>
@@ -4575,7 +4674,7 @@
         <v>88</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="AG12" s="9" t="s">
         <v>85</v>
@@ -4593,25 +4692,25 @@
         <v>88</v>
       </c>
       <c r="AL12" s="9" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="AM12" s="9" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AO12" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AP12" s="9" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="AQ12" s="9" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="AS12" s="9" t="s">
         <v>88</v>
@@ -4635,61 +4734,61 @@
         <v>93</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="BA12" s="9" t="s">
         <v>93</v>
       </c>
       <c r="BB12" s="9" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="BC12" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BD12" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BE12" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="BG12" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="BH12" s="9" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="BI12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="BJ12" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="BK12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BL12" s="9" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="BM12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BN12" s="9" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="BO12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BP12" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="BQ12" s="9" t="s">
         <v>89</v>
       </c>
       <c r="BR12" s="9" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="BS12" s="9" t="s">
         <v>85</v>
@@ -4698,13 +4797,13 @@
         <v>85</v>
       </c>
       <c r="BU12" s="9" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="BV12" s="9" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="BW12" s="9" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BX12" s="9" t="s">
         <v>0</v>
@@ -4730,7 +4829,7 @@
     </row>
     <row r="13" spans="1:82" s="10" customFormat="1">
       <c r="A13" s="9" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>91</v>
@@ -4757,65 +4856,65 @@
         <v>86</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="Q13" s="9" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="V13" s="9" t="s">
         <v>91</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="AA13" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AB13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC13" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AC13" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="AD13" s="9" t="s">
         <v>88</v>
       </c>
@@ -4823,7 +4922,7 @@
         <v>88</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="AG13" s="9" t="s">
         <v>85</v>
@@ -4841,25 +4940,25 @@
         <v>88</v>
       </c>
       <c r="AL13" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="AM13" s="9" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="AN13" s="9" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="AO13" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AP13" s="9" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="AQ13" s="9" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AR13" s="9" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="AS13" s="9" t="s">
         <v>88</v>
@@ -4883,61 +4982,61 @@
         <v>93</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="BA13" s="9" t="s">
         <v>93</v>
       </c>
       <c r="BB13" s="9" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="BC13" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BD13" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BE13" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="BG13" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="BH13" s="9" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="BI13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="BJ13" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="BK13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="BL13" s="9" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="BM13" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BN13" s="9" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="BO13" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BP13" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="BQ13" s="9" t="s">
         <v>89</v>
       </c>
       <c r="BR13" s="9" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="BS13" s="9" t="s">
         <v>85</v>
@@ -4946,13 +5045,13 @@
         <v>85</v>
       </c>
       <c r="BU13" s="9" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="BV13" s="9" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="BW13" s="9" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BX13" s="9" t="s">
         <v>0</v>
@@ -4978,7 +5077,7 @@
     </row>
     <row r="14" spans="1:82" s="10" customFormat="1">
       <c r="A14" s="9" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>91</v>
@@ -5005,65 +5104,65 @@
         <v>86</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O14" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P14" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="P14" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="Q14" s="9" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="V14" s="9" t="s">
         <v>91</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AA14" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AB14" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC14" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AC14" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="AD14" s="9" t="s">
         <v>88</v>
       </c>
@@ -5071,7 +5170,7 @@
         <v>88</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AG14" s="9" t="s">
         <v>85</v>
@@ -5131,61 +5230,61 @@
         <v>93</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="BA14" s="9" t="s">
         <v>93</v>
       </c>
       <c r="BB14" s="9" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="BC14" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BD14" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BE14" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="BG14" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="BH14" s="9" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="BI14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="BJ14" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="BK14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BL14" s="9" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="BM14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BN14" s="9" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="BO14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BP14" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="BQ14" s="9" t="s">
         <v>89</v>
       </c>
       <c r="BR14" s="9" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="BS14" s="9" t="s">
         <v>85</v>
@@ -5194,22 +5293,22 @@
         <v>85</v>
       </c>
       <c r="BU14" s="9" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="BV14" s="9" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="BW14" s="9" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BX14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BY14" s="9" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="BZ14" s="9" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="CA14" s="9" t="s">
         <v>88</v>
@@ -5226,7 +5325,7 @@
     </row>
     <row r="15" spans="1:82" s="10" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>91</v>
@@ -5253,65 +5352,65 @@
         <v>86</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O15" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="P15" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="Q15" s="9" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="V15" s="9" t="s">
         <v>91</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="AA15" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AB15" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC15" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="AC15" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="AD15" s="9" t="s">
         <v>88</v>
       </c>
@@ -5319,43 +5418,43 @@
         <v>88</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>85</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="AK15" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AL15" s="9" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="AM15" s="9" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AO15" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AP15" s="9" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AQ15" s="9" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="AR15" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="AS15" s="9" t="s">
         <v>88</v>
@@ -5379,61 +5478,61 @@
         <v>93</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="BA15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="BB15" s="9" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="BC15" s="9" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="BD15" s="9" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="BE15" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="BG15" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="BH15" s="9" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="BI15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="BJ15" s="9" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="BK15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BL15" s="9" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="BM15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BN15" s="9" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="BO15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BP15" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="BQ15" s="9" t="s">
         <v>89</v>
       </c>
       <c r="BR15" s="9" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="BS15" s="9" t="s">
         <v>85</v>
@@ -5442,13 +5541,13 @@
         <v>85</v>
       </c>
       <c r="BU15" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="BV15" s="9" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="BW15" s="9" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="BX15" s="9" t="s">
         <v>0</v>
@@ -5474,7 +5573,7 @@
     </row>
     <row r="16" spans="1:82" s="10" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>91</v>
@@ -5501,65 +5600,65 @@
         <v>86</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O16" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="P16" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="Q16" s="9" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="V16" s="9" t="s">
         <v>91</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="AA16" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AB16" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC16" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AC16" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="AD16" s="9" t="s">
         <v>88</v>
       </c>
@@ -5567,7 +5666,7 @@
         <v>88</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="AG16" s="9" t="s">
         <v>85</v>
@@ -5585,25 +5684,25 @@
         <v>88</v>
       </c>
       <c r="AL16" s="9" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="AM16" s="9" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AN16" s="9" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AO16" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AP16" s="9" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="AQ16" s="9" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="AR16" s="9" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="AS16" s="9" t="s">
         <v>88</v>
@@ -5627,61 +5726,61 @@
         <v>93</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="BA16" s="9" t="s">
         <v>93</v>
       </c>
       <c r="BB16" s="9" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="BC16" s="9" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="BD16" s="9" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="BE16" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BF16" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="BG16" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="BH16" s="9" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="BI16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="BJ16" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="BK16" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BL16" s="9" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="BM16" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BN16" s="9" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="BO16" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BP16" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="BQ16" s="9" t="s">
         <v>89</v>
       </c>
       <c r="BR16" s="9" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="BS16" s="9" t="s">
         <v>85</v>
@@ -5690,13 +5789,13 @@
         <v>85</v>
       </c>
       <c r="BU16" s="9" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="BV16" s="9" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="BW16" s="9" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BX16" s="9" t="s">
         <v>0</v>
@@ -5720,1264 +5819,1450 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:79" ht="15" customHeight="1">
-      <c r="A18" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="36"/>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="AZ18" s="36"/>
-      <c r="BA18" s="36"/>
-      <c r="BB18" s="36"/>
-      <c r="BC18" s="36"/>
-      <c r="BD18" s="37"/>
-      <c r="BE18" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="BF18" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG18" s="55" t="s">
+    <row r="18" spans="1:82" ht="15" customHeight="1">
+      <c r="A18" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="30"/>
+      <c r="AY18" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+      <c r="BB18" s="29"/>
+      <c r="BC18" s="29"/>
+      <c r="BD18" s="30"/>
+      <c r="BE18" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="BF18" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="BG18" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH18" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="BH18" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI18" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="BJ18" s="33"/>
-      <c r="BK18" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="BL18" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="BM18" s="17"/>
-      <c r="BN18" s="18"/>
-      <c r="BO18" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="34"/>
-      <c r="BR18" s="34"/>
-      <c r="BS18" s="34"/>
-      <c r="BT18" s="34"/>
-      <c r="BU18" s="34"/>
-      <c r="BV18" s="34"/>
-      <c r="BW18" s="34"/>
-      <c r="BX18" s="34"/>
-      <c r="BY18" s="34"/>
-      <c r="BZ18" s="34"/>
-      <c r="CA18" s="34"/>
-    </row>
-    <row r="19" spans="1:79" ht="11.25" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="39"/>
-      <c r="AR19" s="39"/>
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="39"/>
-      <c r="AU19" s="39"/>
-      <c r="AV19" s="39"/>
-      <c r="AW19" s="39"/>
-      <c r="AX19" s="40"/>
-      <c r="AY19" s="38"/>
-      <c r="AZ19" s="39"/>
-      <c r="BA19" s="39"/>
-      <c r="BB19" s="39"/>
-      <c r="BC19" s="39"/>
-      <c r="BD19" s="40"/>
-      <c r="BE19" s="56"/>
-      <c r="BF19" s="56"/>
-      <c r="BG19" s="56"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="33"/>
-      <c r="BJ19" s="33"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="19"/>
-      <c r="BM19" s="20"/>
-      <c r="BN19" s="21"/>
-      <c r="BO19" s="34"/>
-      <c r="BP19" s="34"/>
-      <c r="BQ19" s="34"/>
-      <c r="BR19" s="34"/>
-      <c r="BS19" s="34"/>
-      <c r="BT19" s="34"/>
-      <c r="BU19" s="34"/>
-      <c r="BV19" s="34"/>
-      <c r="BW19" s="34"/>
-      <c r="BX19" s="34"/>
-      <c r="BY19" s="34"/>
-      <c r="BZ19" s="34"/>
-      <c r="CA19" s="34"/>
-    </row>
-    <row r="20" spans="1:79" ht="11.25" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="42"/>
-      <c r="AV20" s="42"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="43"/>
-      <c r="AY20" s="41"/>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="42"/>
-      <c r="BC20" s="42"/>
-      <c r="BD20" s="43"/>
-      <c r="BE20" s="57"/>
-      <c r="BF20" s="57"/>
-      <c r="BG20" s="57"/>
-      <c r="BH20" s="57"/>
-      <c r="BI20" s="33"/>
-      <c r="BJ20" s="33"/>
-      <c r="BK20" s="57"/>
-      <c r="BL20" s="22"/>
-      <c r="BM20" s="23"/>
-      <c r="BN20" s="24"/>
-      <c r="BO20" s="34"/>
-      <c r="BP20" s="34"/>
-      <c r="BQ20" s="34"/>
-      <c r="BR20" s="34"/>
-      <c r="BS20" s="34"/>
-      <c r="BT20" s="34"/>
-      <c r="BU20" s="34"/>
-      <c r="BV20" s="34"/>
-      <c r="BW20" s="34"/>
-      <c r="BX20" s="34"/>
-      <c r="BY20" s="34"/>
-      <c r="BZ20" s="34"/>
-      <c r="CA20" s="34"/>
-    </row>
-    <row r="21" spans="1:79" ht="11.25" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="BI18" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="BJ18" s="50"/>
+      <c r="BK18" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="BL18" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="BM18" s="18"/>
+      <c r="BN18" s="19"/>
+      <c r="BO18" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="BP18" s="27"/>
+      <c r="BQ18" s="27"/>
+      <c r="BR18" s="27"/>
+      <c r="BS18" s="27"/>
+      <c r="BT18" s="27"/>
+      <c r="BU18" s="27"/>
+      <c r="BV18" s="27"/>
+      <c r="BW18" s="27"/>
+      <c r="BX18" s="27"/>
+      <c r="BY18" s="27"/>
+      <c r="BZ18" s="27"/>
+      <c r="CA18" s="27"/>
+      <c r="CB18" s="74" t="s">
+        <v>525</v>
+      </c>
+      <c r="CC18" s="75"/>
+    </row>
+    <row r="19" spans="1:82" ht="11.25" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="32"/>
+      <c r="AW19" s="32"/>
+      <c r="AX19" s="33"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="32"/>
+      <c r="BA19" s="32"/>
+      <c r="BB19" s="32"/>
+      <c r="BC19" s="32"/>
+      <c r="BD19" s="33"/>
+      <c r="BE19" s="48"/>
+      <c r="BF19" s="48"/>
+      <c r="BG19" s="48"/>
+      <c r="BH19" s="48"/>
+      <c r="BI19" s="50"/>
+      <c r="BJ19" s="50"/>
+      <c r="BK19" s="48"/>
+      <c r="BL19" s="20"/>
+      <c r="BM19" s="21"/>
+      <c r="BN19" s="22"/>
+      <c r="BO19" s="27"/>
+      <c r="BP19" s="27"/>
+      <c r="BQ19" s="27"/>
+      <c r="BR19" s="27"/>
+      <c r="BS19" s="27"/>
+      <c r="BT19" s="27"/>
+      <c r="BU19" s="27"/>
+      <c r="BV19" s="27"/>
+      <c r="BW19" s="27"/>
+      <c r="BX19" s="27"/>
+      <c r="BY19" s="27"/>
+      <c r="BZ19" s="27"/>
+      <c r="CA19" s="27"/>
+      <c r="CB19" s="72"/>
+      <c r="CC19" s="76"/>
+    </row>
+    <row r="20" spans="1:82" ht="11.25" customHeight="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="35"/>
+      <c r="AR20" s="35"/>
+      <c r="AS20" s="35"/>
+      <c r="AT20" s="35"/>
+      <c r="AU20" s="35"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="35"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="34"/>
+      <c r="AZ20" s="35"/>
+      <c r="BA20" s="35"/>
+      <c r="BB20" s="35"/>
+      <c r="BC20" s="35"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="49"/>
+      <c r="BF20" s="49"/>
+      <c r="BG20" s="49"/>
+      <c r="BH20" s="49"/>
+      <c r="BI20" s="50"/>
+      <c r="BJ20" s="50"/>
+      <c r="BK20" s="49"/>
+      <c r="BL20" s="23"/>
+      <c r="BM20" s="24"/>
+      <c r="BN20" s="25"/>
+      <c r="BO20" s="27"/>
+      <c r="BP20" s="27"/>
+      <c r="BQ20" s="27"/>
+      <c r="BR20" s="27"/>
+      <c r="BS20" s="27"/>
+      <c r="BT20" s="27"/>
+      <c r="BU20" s="27"/>
+      <c r="BV20" s="27"/>
+      <c r="BW20" s="27"/>
+      <c r="BX20" s="27"/>
+      <c r="BY20" s="27"/>
+      <c r="BZ20" s="27"/>
+      <c r="CA20" s="27"/>
+      <c r="CB20" s="73"/>
+      <c r="CC20" s="77"/>
+    </row>
+    <row r="21" spans="1:82" ht="11.25" customHeight="1">
+      <c r="A21" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="R21" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="S21" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="T21" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="U21" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="V21" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="W21" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="X21" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y21" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z21" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA21" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB21" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC21" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD21" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE21" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF21" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG21" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH21" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI21" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ21" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK21" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL21" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM21" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN21" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO21" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="AP21" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ21" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR21" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="F21" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" s="61" t="s">
+      <c r="AS21" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT21" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU21" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV21" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="AW21" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX21" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY21" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="AZ21" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="BA21" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB21" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="BC21" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD21" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE21" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="BF21" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG21" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="H21" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="I21" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="J21" s="29" t="s">
+      <c r="BH21" s="51" t="s">
+        <v>520</v>
+      </c>
+      <c r="BI21" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="BJ21" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="BK21" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL21" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="O21" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="P21" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q21" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="R21" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="T21" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="U21" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="V21" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="W21" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="X21" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y21" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z21" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA21" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB21" s="26" t="s">
+      <c r="BM21" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN21" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO21" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="BP21" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="BQ21" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR21" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="BS21" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT21" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="BU21" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="BV21" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="BW21" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="BX21" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="AC21" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD21" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE21" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF21" s="26" t="s">
+      <c r="BY21" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ21" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="CA21" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="AG21" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH21" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI21" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ21" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="AK21" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="AL21" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM21" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN21" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO21" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="AP21" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ21" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="AR21" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="AS21" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="AT21" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU21" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV21" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW21" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="AX21" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY21" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ21" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="BA21" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="BB21" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="BC21" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="BD21" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="BE21" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="BF21" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG21" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="BH21" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="BI21" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="BJ21" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="BK21" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL21" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="BM21" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="BN21" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="BO21" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="BP21" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="BQ21" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="BR21" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="BS21" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="BT21" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="BU21" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="BV21" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="BW21" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="BX21" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="BY21" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="BZ21" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="CA21" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:79">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="27"/>
-      <c r="AR22" s="48"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="27"/>
-      <c r="AU22" s="27"/>
-      <c r="AV22" s="48"/>
-      <c r="AW22" s="32"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="32"/>
-      <c r="AZ22" s="53"/>
-      <c r="BA22" s="32"/>
-      <c r="BB22" s="32"/>
-      <c r="BC22" s="32"/>
-      <c r="BD22" s="32"/>
-      <c r="BE22" s="45"/>
-      <c r="BF22" s="27"/>
-      <c r="BG22" s="27"/>
-      <c r="BH22" s="32"/>
-      <c r="BI22" s="32"/>
-      <c r="BJ22" s="32"/>
-      <c r="BK22" s="25"/>
-      <c r="BL22" s="25"/>
-      <c r="BM22" s="25"/>
-      <c r="BN22" s="25"/>
-      <c r="BO22" s="30"/>
-      <c r="BP22" s="27"/>
-      <c r="BQ22" s="27"/>
-      <c r="BR22" s="27"/>
-      <c r="BS22" s="27"/>
-      <c r="BT22" s="27"/>
-      <c r="BU22" s="27"/>
-      <c r="BV22" s="27"/>
-      <c r="BW22" s="27"/>
-      <c r="BX22" s="27"/>
-      <c r="BY22" s="27"/>
-      <c r="BZ22" s="27"/>
-      <c r="CA22" s="27"/>
-    </row>
-    <row r="23" spans="1:79">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="48"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="48"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="32"/>
-      <c r="BB23" s="32"/>
-      <c r="BC23" s="32"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="45"/>
-      <c r="BF23" s="27"/>
-      <c r="BG23" s="27"/>
-      <c r="BH23" s="32"/>
-      <c r="BI23" s="32"/>
-      <c r="BJ23" s="32"/>
-      <c r="BK23" s="25"/>
-      <c r="BL23" s="25"/>
-      <c r="BM23" s="25"/>
-      <c r="BN23" s="25"/>
-      <c r="BO23" s="30"/>
-      <c r="BP23" s="27"/>
-      <c r="BQ23" s="27"/>
-      <c r="BR23" s="27"/>
-      <c r="BS23" s="27"/>
-      <c r="BT23" s="27"/>
-      <c r="BU23" s="27"/>
-      <c r="BV23" s="27"/>
-      <c r="BW23" s="27"/>
-      <c r="BX23" s="27"/>
-      <c r="BY23" s="27"/>
-      <c r="BZ23" s="27"/>
-      <c r="CA23" s="27"/>
-    </row>
-    <row r="24" spans="1:79">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="27"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="27"/>
-      <c r="AU24" s="27"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="32"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="32"/>
-      <c r="AZ24" s="53"/>
-      <c r="BA24" s="32"/>
-      <c r="BB24" s="32"/>
-      <c r="BC24" s="32"/>
-      <c r="BD24" s="32"/>
-      <c r="BE24" s="45"/>
-      <c r="BF24" s="27"/>
-      <c r="BG24" s="27"/>
-      <c r="BH24" s="32"/>
-      <c r="BI24" s="32"/>
-      <c r="BJ24" s="32"/>
-      <c r="BK24" s="25"/>
-      <c r="BL24" s="25"/>
-      <c r="BM24" s="25"/>
-      <c r="BN24" s="25"/>
-      <c r="BO24" s="30"/>
-      <c r="BP24" s="27"/>
-      <c r="BQ24" s="27"/>
-      <c r="BR24" s="27"/>
-      <c r="BS24" s="27"/>
-      <c r="BT24" s="27"/>
-      <c r="BU24" s="27"/>
-      <c r="BV24" s="27"/>
-      <c r="BW24" s="27"/>
-      <c r="BX24" s="27"/>
-      <c r="BY24" s="27"/>
-      <c r="BZ24" s="27"/>
-      <c r="CA24" s="27"/>
-    </row>
-    <row r="25" spans="1:79">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="51"/>
-      <c r="AQ25" s="27"/>
-      <c r="AR25" s="48"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="27"/>
-      <c r="AU25" s="27"/>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="32"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="32"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="32"/>
-      <c r="BB25" s="32"/>
-      <c r="BC25" s="32"/>
-      <c r="BD25" s="32"/>
-      <c r="BE25" s="45"/>
-      <c r="BF25" s="27"/>
-      <c r="BG25" s="27"/>
-      <c r="BH25" s="32"/>
-      <c r="BI25" s="32"/>
-      <c r="BJ25" s="32"/>
-      <c r="BK25" s="25"/>
-      <c r="BL25" s="25"/>
-      <c r="BM25" s="25"/>
-      <c r="BN25" s="25"/>
-      <c r="BO25" s="30"/>
-      <c r="BP25" s="27"/>
-      <c r="BQ25" s="27"/>
-      <c r="BR25" s="27"/>
-      <c r="BS25" s="27"/>
-      <c r="BT25" s="27"/>
-      <c r="BU25" s="27"/>
-      <c r="BV25" s="27"/>
-      <c r="BW25" s="27"/>
-      <c r="BX25" s="27"/>
-      <c r="BY25" s="27"/>
-      <c r="BZ25" s="27"/>
-      <c r="CA25" s="27"/>
-    </row>
-    <row r="26" spans="1:79">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="52"/>
-      <c r="AQ26" s="28"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="28"/>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="32"/>
-      <c r="AX26" s="49"/>
-      <c r="AY26" s="32"/>
-      <c r="AZ26" s="53"/>
-      <c r="BA26" s="32"/>
-      <c r="BB26" s="32"/>
-      <c r="BC26" s="32"/>
-      <c r="BD26" s="32"/>
-      <c r="BE26" s="46"/>
-      <c r="BF26" s="28"/>
-      <c r="BG26" s="28"/>
-      <c r="BH26" s="32"/>
-      <c r="BI26" s="32"/>
-      <c r="BJ26" s="32"/>
-      <c r="BK26" s="25"/>
-      <c r="BL26" s="25"/>
-      <c r="BM26" s="25"/>
-      <c r="BN26" s="25"/>
-      <c r="BO26" s="31"/>
-      <c r="BP26" s="28"/>
-      <c r="BQ26" s="28"/>
-      <c r="BR26" s="28"/>
-      <c r="BS26" s="28"/>
-      <c r="BT26" s="28"/>
-      <c r="BU26" s="28"/>
-      <c r="BV26" s="28"/>
-      <c r="BW26" s="28"/>
-      <c r="BX26" s="28"/>
-      <c r="BY26" s="28"/>
-      <c r="BZ26" s="28"/>
-      <c r="CA26" s="28"/>
-    </row>
-    <row r="27" spans="1:79" ht="11.25" customHeight="1">
-      <c r="F27" s="59"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="61"/>
-      <c r="AK27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AW27" s="32"/>
-      <c r="AY27" s="32"/>
-      <c r="AZ27" s="53"/>
-      <c r="BA27" s="32"/>
-      <c r="BB27" s="32"/>
-      <c r="BC27" s="32"/>
-      <c r="BD27" s="32"/>
-    </row>
-    <row r="28" spans="1:79" ht="11.25" customHeight="1">
+      <c r="CB21" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="CC21" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="CD21" s="44" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:82">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="59"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="51"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="61"/>
+      <c r="BF22" s="45"/>
+      <c r="BG22" s="45"/>
+      <c r="BH22" s="51"/>
+      <c r="BI22" s="51"/>
+      <c r="BJ22" s="51"/>
+      <c r="BK22" s="26"/>
+      <c r="BL22" s="26"/>
+      <c r="BM22" s="26"/>
+      <c r="BN22" s="26"/>
+      <c r="BO22" s="45"/>
+      <c r="BP22" s="45"/>
+      <c r="BQ22" s="45"/>
+      <c r="BR22" s="45"/>
+      <c r="BS22" s="45"/>
+      <c r="BT22" s="45"/>
+      <c r="BU22" s="45"/>
+      <c r="BV22" s="45"/>
+      <c r="BW22" s="45"/>
+      <c r="BX22" s="45"/>
+      <c r="BY22" s="45"/>
+      <c r="BZ22" s="45"/>
+      <c r="CA22" s="45"/>
+      <c r="CB22" s="45"/>
+      <c r="CC22" s="45"/>
+      <c r="CD22" s="45"/>
+    </row>
+    <row r="23" spans="1:82">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="59"/>
+      <c r="BA23" s="51"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="61"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="51"/>
+      <c r="BI23" s="51"/>
+      <c r="BJ23" s="51"/>
+      <c r="BK23" s="26"/>
+      <c r="BL23" s="26"/>
+      <c r="BM23" s="26"/>
+      <c r="BN23" s="26"/>
+      <c r="BO23" s="45"/>
+      <c r="BP23" s="45"/>
+      <c r="BQ23" s="45"/>
+      <c r="BR23" s="45"/>
+      <c r="BS23" s="45"/>
+      <c r="BT23" s="45"/>
+      <c r="BU23" s="45"/>
+      <c r="BV23" s="45"/>
+      <c r="BW23" s="45"/>
+      <c r="BX23" s="45"/>
+      <c r="BY23" s="45"/>
+      <c r="BZ23" s="45"/>
+      <c r="CA23" s="45"/>
+      <c r="CB23" s="45"/>
+      <c r="CC23" s="45"/>
+      <c r="CD23" s="45"/>
+    </row>
+    <row r="24" spans="1:82">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="53"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="56"/>
+      <c r="AM24" s="45"/>
+      <c r="AN24" s="53"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="56"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="45"/>
+      <c r="AU24" s="45"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="51"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="51"/>
+      <c r="AZ24" s="59"/>
+      <c r="BA24" s="51"/>
+      <c r="BB24" s="51"/>
+      <c r="BC24" s="51"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="61"/>
+      <c r="BF24" s="45"/>
+      <c r="BG24" s="45"/>
+      <c r="BH24" s="51"/>
+      <c r="BI24" s="51"/>
+      <c r="BJ24" s="51"/>
+      <c r="BK24" s="26"/>
+      <c r="BL24" s="26"/>
+      <c r="BM24" s="26"/>
+      <c r="BN24" s="26"/>
+      <c r="BO24" s="45"/>
+      <c r="BP24" s="45"/>
+      <c r="BQ24" s="45"/>
+      <c r="BR24" s="45"/>
+      <c r="BS24" s="45"/>
+      <c r="BT24" s="45"/>
+      <c r="BU24" s="45"/>
+      <c r="BV24" s="45"/>
+      <c r="BW24" s="45"/>
+      <c r="BX24" s="45"/>
+      <c r="BY24" s="45"/>
+      <c r="BZ24" s="45"/>
+      <c r="CA24" s="45"/>
+      <c r="CB24" s="45"/>
+      <c r="CC24" s="45"/>
+      <c r="CD24" s="45"/>
+    </row>
+    <row r="25" spans="1:82">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="51"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="45"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="59"/>
+      <c r="BA25" s="51"/>
+      <c r="BB25" s="51"/>
+      <c r="BC25" s="51"/>
+      <c r="BD25" s="51"/>
+      <c r="BE25" s="61"/>
+      <c r="BF25" s="45"/>
+      <c r="BG25" s="45"/>
+      <c r="BH25" s="51"/>
+      <c r="BI25" s="51"/>
+      <c r="BJ25" s="51"/>
+      <c r="BK25" s="26"/>
+      <c r="BL25" s="26"/>
+      <c r="BM25" s="26"/>
+      <c r="BN25" s="26"/>
+      <c r="BO25" s="45"/>
+      <c r="BP25" s="45"/>
+      <c r="BQ25" s="45"/>
+      <c r="BR25" s="45"/>
+      <c r="BS25" s="45"/>
+      <c r="BT25" s="45"/>
+      <c r="BU25" s="45"/>
+      <c r="BV25" s="45"/>
+      <c r="BW25" s="45"/>
+      <c r="BX25" s="45"/>
+      <c r="BY25" s="45"/>
+      <c r="BZ25" s="45"/>
+      <c r="CA25" s="45"/>
+      <c r="CB25" s="45"/>
+      <c r="CC25" s="45"/>
+      <c r="CD25" s="45"/>
+    </row>
+    <row r="26" spans="1:82">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="46"/>
+      <c r="AU26" s="46"/>
+      <c r="AV26" s="54"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="54"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="59"/>
+      <c r="BA26" s="51"/>
+      <c r="BB26" s="51"/>
+      <c r="BC26" s="51"/>
+      <c r="BD26" s="51"/>
+      <c r="BE26" s="62"/>
+      <c r="BF26" s="46"/>
+      <c r="BG26" s="46"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="51"/>
+      <c r="BJ26" s="51"/>
+      <c r="BK26" s="26"/>
+      <c r="BL26" s="26"/>
+      <c r="BM26" s="26"/>
+      <c r="BN26" s="26"/>
+      <c r="BO26" s="46"/>
+      <c r="BP26" s="46"/>
+      <c r="BQ26" s="46"/>
+      <c r="BR26" s="46"/>
+      <c r="BS26" s="46"/>
+      <c r="BT26" s="46"/>
+      <c r="BU26" s="46"/>
+      <c r="BV26" s="46"/>
+      <c r="BW26" s="46"/>
+      <c r="BX26" s="46"/>
+      <c r="BY26" s="46"/>
+      <c r="BZ26" s="46"/>
+      <c r="CA26" s="46"/>
+      <c r="CB26" s="46"/>
+      <c r="CC26" s="46"/>
+      <c r="CD26" s="46"/>
+    </row>
+    <row r="27" spans="1:82" ht="11.25" customHeight="1">
+      <c r="F27" s="38"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="40"/>
+      <c r="AK27" s="51"/>
+      <c r="AO27" s="51"/>
+      <c r="AS27" s="51"/>
+      <c r="AW27" s="51"/>
+      <c r="AY27" s="51"/>
+      <c r="AZ27" s="59"/>
+      <c r="BA27" s="51"/>
+      <c r="BB27" s="51"/>
+      <c r="BC27" s="51"/>
+      <c r="BD27" s="51"/>
+    </row>
+    <row r="28" spans="1:82" ht="11.25" customHeight="1">
       <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="61"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="26" t="s">
+        <v>229</v>
+      </c>
       <c r="V28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AE28" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AW28" s="32"/>
-      <c r="AY28" s="32"/>
-      <c r="AZ28" s="53"/>
-      <c r="BA28" s="32"/>
-      <c r="BB28" s="32"/>
-      <c r="BC28" s="32"/>
-      <c r="BD28" s="32"/>
-      <c r="BH28" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="BJ28" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="BK28" s="7" t="s">
+      <c r="AE28" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK28" s="51"/>
+      <c r="AO28" s="51"/>
+      <c r="AS28" s="51"/>
+      <c r="AW28" s="51"/>
+      <c r="AY28" s="51"/>
+      <c r="AZ28" s="59"/>
+      <c r="BA28" s="51"/>
+      <c r="BB28" s="51"/>
+      <c r="BC28" s="51"/>
+      <c r="BD28" s="51"/>
+      <c r="BJ28" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="BK28" s="71" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:79" ht="90">
-      <c r="B29" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="V29" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE29" s="32"/>
-      <c r="BJ29" s="32"/>
-      <c r="BK29" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:79" ht="11.25" customHeight="1">
+      <c r="CB28" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="CC28" s="41" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:82">
+      <c r="B29" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="26"/>
+      <c r="V29" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="AE29" s="45"/>
+      <c r="BJ29" s="45"/>
+      <c r="BK29" s="66" t="s">
+        <v>543</v>
+      </c>
+      <c r="CB29" s="42"/>
+      <c r="CC29" s="42"/>
+    </row>
+    <row r="30" spans="1:82" ht="11.25" customHeight="1">
+      <c r="B30" s="64"/>
       <c r="C30" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="V30" s="70" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE30" s="45"/>
+      <c r="BJ30" s="45"/>
+      <c r="BK30" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="CB30" s="42"/>
+      <c r="CC30" s="42"/>
+    </row>
+    <row r="31" spans="1:82" ht="11.25" customHeight="1">
+      <c r="B31" s="64"/>
+      <c r="C31" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="V31" s="70" t="s">
+        <v>538</v>
+      </c>
+      <c r="AE31" s="45"/>
+      <c r="BJ31" s="45"/>
+      <c r="CB31" s="42"/>
+      <c r="CC31" s="42"/>
+    </row>
+    <row r="32" spans="1:82" ht="11.25" customHeight="1">
+      <c r="B32" s="64"/>
+      <c r="C32" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="V32" s="70" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE32" s="45"/>
+      <c r="BJ32" s="45"/>
+      <c r="CB32" s="42"/>
+      <c r="CC32" s="42"/>
+    </row>
+    <row r="33" spans="2:81" ht="11.25" customHeight="1">
+      <c r="B33" s="64"/>
+      <c r="C33" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="V33" s="70" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE33" s="45"/>
+      <c r="BJ33" s="45"/>
+      <c r="CB33" s="43"/>
+      <c r="CC33" s="43"/>
+    </row>
+    <row r="34" spans="2:81" ht="11.25" customHeight="1">
+      <c r="B34" s="64"/>
+      <c r="C34" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="V34" s="70" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE34" s="45"/>
+      <c r="BJ34" s="46"/>
+      <c r="CC34" s="9"/>
+    </row>
+    <row r="35" spans="2:81" ht="11.25" customHeight="1">
+      <c r="B35" s="65"/>
+      <c r="C35" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="V35" s="68" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE35" s="45"/>
+      <c r="CB35" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="CC35" s="44" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="36" spans="2:81">
+      <c r="C36" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="AE36" s="45"/>
+      <c r="CB36" s="45"/>
+      <c r="CC36" s="45"/>
+    </row>
+    <row r="37" spans="2:81">
+      <c r="C37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="AE30" s="32"/>
-    </row>
-    <row r="31" spans="1:79" ht="11.25" customHeight="1">
-      <c r="C31" s="5" t="s">
+      <c r="AE37" s="46"/>
+      <c r="CB37" s="45"/>
+      <c r="CC37" s="45"/>
+    </row>
+    <row r="38" spans="2:81">
+      <c r="C38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BJ31" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:79" ht="11.25" customHeight="1">
-      <c r="C32" s="5" t="s">
+      <c r="CB38" s="45"/>
+      <c r="CC38" s="45"/>
+    </row>
+    <row r="39" spans="2:81">
+      <c r="C39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AE32" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="BJ32" s="25"/>
-    </row>
-    <row r="33" spans="3:62" ht="11.25" customHeight="1">
-      <c r="C33" s="5" t="s">
+      <c r="AE39" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="CB39" s="45"/>
+      <c r="CC39" s="45"/>
+    </row>
+    <row r="40" spans="2:81">
+      <c r="C40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AE33" s="25"/>
-      <c r="BJ33" s="25"/>
-    </row>
-    <row r="34" spans="3:62" ht="11.25" customHeight="1">
-      <c r="C34" s="5" t="s">
+      <c r="AE40" s="42"/>
+      <c r="CB40" s="45"/>
+      <c r="CC40" s="45"/>
+    </row>
+    <row r="41" spans="2:81">
+      <c r="C41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AE34" s="25"/>
-      <c r="BJ34" s="25"/>
-    </row>
-    <row r="35" spans="3:62" ht="11.25" customHeight="1">
-      <c r="C35" s="5" t="s">
+      <c r="AE41" s="42"/>
+      <c r="CB41" s="45"/>
+      <c r="CC41" s="45"/>
+    </row>
+    <row r="42" spans="2:81">
+      <c r="C42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AE35" s="25"/>
-    </row>
-    <row r="36" spans="3:62">
-      <c r="C36" s="5" t="s">
+      <c r="AE42" s="42"/>
+      <c r="CB42" s="45"/>
+      <c r="CC42" s="45"/>
+    </row>
+    <row r="43" spans="2:81">
+      <c r="C43" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AE36" s="25"/>
-    </row>
-    <row r="37" spans="3:62">
-      <c r="C37" s="5" t="s">
+      <c r="AE43" s="42"/>
+      <c r="CB43" s="45"/>
+      <c r="CC43" s="45"/>
+    </row>
+    <row r="44" spans="2:81">
+      <c r="C44" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AE37" s="25"/>
-    </row>
-    <row r="38" spans="3:62">
-      <c r="C38" s="5" t="s">
+      <c r="AE44" s="43"/>
+      <c r="CB44" s="45"/>
+      <c r="CC44" s="45"/>
+    </row>
+    <row r="45" spans="2:81">
+      <c r="C45" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="3:62">
-      <c r="C39" s="5" t="s">
+      <c r="BJ45" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB45" s="45"/>
+      <c r="CC45" s="45"/>
+    </row>
+    <row r="46" spans="2:81">
+      <c r="C46" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="3:62">
-      <c r="C40" s="5" t="s">
+      <c r="BJ46" s="26"/>
+      <c r="CB46" s="45"/>
+      <c r="CC46" s="45"/>
+    </row>
+    <row r="47" spans="2:81">
+      <c r="C47" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="41" spans="3:62">
-      <c r="C41" s="5" t="s">
+      <c r="BJ47" s="26"/>
+      <c r="CB47" s="46"/>
+      <c r="CC47" s="46"/>
+    </row>
+    <row r="48" spans="2:81">
+      <c r="C48" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="3:62">
-      <c r="C42" s="5" t="s">
+      <c r="BJ48" s="26"/>
+    </row>
+    <row r="49" spans="3:81">
+      <c r="C49" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="43" spans="3:62">
-      <c r="C43" s="5" t="s">
+      <c r="CB49" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="CC49" s="41" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="50" spans="3:81">
+      <c r="C50" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="3:62">
-      <c r="C44" s="5" t="s">
+      <c r="CB50" s="42"/>
+      <c r="CC50" s="42"/>
+    </row>
+    <row r="51" spans="3:81">
+      <c r="C51" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" spans="3:62">
-      <c r="C45" s="5" t="s">
+      <c r="CB51" s="42"/>
+      <c r="CC51" s="42"/>
+    </row>
+    <row r="52" spans="3:81">
+      <c r="C52" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="46" spans="3:62">
-      <c r="C46" s="5" t="s">
+      <c r="CB52" s="43"/>
+      <c r="CC52" s="43"/>
+    </row>
+    <row r="53" spans="3:81">
+      <c r="C53" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="3:62">
-      <c r="C47" s="5" t="s">
+    <row r="54" spans="3:81">
+      <c r="C54" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="3:62">
-      <c r="C48" s="5" t="s">
+    <row r="55" spans="3:81">
+      <c r="C55" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="5" t="s">
+    <row r="56" spans="3:81">
+      <c r="C56" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="5" t="s">
+    <row r="57" spans="3:81">
+      <c r="C57" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="5" t="s">
+    <row r="58" spans="3:81">
+      <c r="C58" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="5" t="s">
+    <row r="59" spans="3:81">
+      <c r="C59" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="5" t="s">
+    <row r="60" spans="3:81">
+      <c r="C60" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="5" t="s">
+    <row r="61" spans="3:81">
+      <c r="C61" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="5" t="s">
+    <row r="62" spans="3:81">
+      <c r="C62" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
-      <c r="C56" s="5" t="s">
+    <row r="63" spans="3:81">
+      <c r="C63" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="5" t="s">
+    <row r="64" spans="3:81">
+      <c r="C64" s="5" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="6" t="s">
+    <row r="80" spans="3:3">
+      <c r="C80" s="6" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="BO18:CA20"/>
-    <mergeCell ref="A18:AX20"/>
-    <mergeCell ref="AE32:AE37"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="G21:G29"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="T21:T26"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N21:N26"/>
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="P21:P26"/>
-    <mergeCell ref="Q21:Q26"/>
-    <mergeCell ref="R21:R26"/>
-    <mergeCell ref="BO21:BO26"/>
-    <mergeCell ref="AA21:AA26"/>
-    <mergeCell ref="AB21:AB26"/>
-    <mergeCell ref="AC21:AC26"/>
-    <mergeCell ref="BL18:BN20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="BE18:BE20"/>
-    <mergeCell ref="AY18:BD20"/>
-    <mergeCell ref="BF18:BF20"/>
-    <mergeCell ref="BG18:BG20"/>
-    <mergeCell ref="BH18:BH20"/>
-    <mergeCell ref="BI18:BJ20"/>
-    <mergeCell ref="BK18:BK20"/>
-    <mergeCell ref="AE28:AE30"/>
-    <mergeCell ref="AM21:AM26"/>
-    <mergeCell ref="AN21:AN26"/>
-    <mergeCell ref="AP21:AP26"/>
-    <mergeCell ref="S21:S26"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="L21:L26"/>
+  <mergeCells count="107">
+    <mergeCell ref="CD21:CD26"/>
+    <mergeCell ref="CB35:CB47"/>
+    <mergeCell ref="CB49:CB52"/>
+    <mergeCell ref="CC28:CC33"/>
+    <mergeCell ref="CC35:CC47"/>
+    <mergeCell ref="CC49:CC52"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="J28:J36"/>
+    <mergeCell ref="CB18:CC20"/>
+    <mergeCell ref="CB21:CB26"/>
+    <mergeCell ref="CB28:CB33"/>
+    <mergeCell ref="BJ28:BJ34"/>
+    <mergeCell ref="CC21:CC26"/>
+    <mergeCell ref="BW21:BW26"/>
+    <mergeCell ref="BX21:BX26"/>
+    <mergeCell ref="BZ21:BZ26"/>
+    <mergeCell ref="CA21:CA26"/>
+    <mergeCell ref="BU21:BU26"/>
+    <mergeCell ref="BV21:BV26"/>
+    <mergeCell ref="BE21:BE26"/>
+    <mergeCell ref="BF21:BF26"/>
+    <mergeCell ref="BG21:BG26"/>
+    <mergeCell ref="BH21:BH26"/>
+    <mergeCell ref="BI21:BI26"/>
+    <mergeCell ref="AX21:AX26"/>
+    <mergeCell ref="AR21:AR26"/>
+    <mergeCell ref="BJ45:BJ48"/>
+    <mergeCell ref="BQ21:BQ26"/>
+    <mergeCell ref="BR21:BR26"/>
+    <mergeCell ref="BS21:BS26"/>
+    <mergeCell ref="BB21:BB28"/>
+    <mergeCell ref="BT21:BT26"/>
+    <mergeCell ref="BJ21:BJ26"/>
+    <mergeCell ref="BK21:BK26"/>
+    <mergeCell ref="BL21:BL26"/>
+    <mergeCell ref="BM21:BM26"/>
+    <mergeCell ref="BN21:BN26"/>
+    <mergeCell ref="BP21:BP26"/>
+    <mergeCell ref="AU21:AU26"/>
+    <mergeCell ref="AV21:AV26"/>
+    <mergeCell ref="BD21:BD28"/>
+    <mergeCell ref="BC21:BC28"/>
+    <mergeCell ref="AD21:AD26"/>
+    <mergeCell ref="AE21:AE26"/>
+    <mergeCell ref="AQ21:AQ26"/>
+    <mergeCell ref="AF21:AF26"/>
+    <mergeCell ref="AG21:AG26"/>
+    <mergeCell ref="AH21:AH26"/>
+    <mergeCell ref="AI21:AI26"/>
+    <mergeCell ref="AJ21:AJ26"/>
+    <mergeCell ref="AL21:AL26"/>
+    <mergeCell ref="AT21:AT26"/>
+    <mergeCell ref="AY21:AY28"/>
+    <mergeCell ref="BA21:BA28"/>
     <mergeCell ref="K21:K26"/>
     <mergeCell ref="J21:J26"/>
     <mergeCell ref="D21:D26"/>
@@ -6994,49 +7279,43 @@
     <mergeCell ref="AS21:AS28"/>
     <mergeCell ref="AW21:AW28"/>
     <mergeCell ref="AZ21:AZ28"/>
-    <mergeCell ref="AU21:AU26"/>
-    <mergeCell ref="AV21:AV26"/>
-    <mergeCell ref="BD21:BD28"/>
-    <mergeCell ref="BC21:BC28"/>
-    <mergeCell ref="AD21:AD26"/>
-    <mergeCell ref="AE21:AE26"/>
-    <mergeCell ref="AQ21:AQ26"/>
-    <mergeCell ref="AF21:AF26"/>
-    <mergeCell ref="AG21:AG26"/>
-    <mergeCell ref="AH21:AH26"/>
-    <mergeCell ref="AI21:AI26"/>
-    <mergeCell ref="AJ21:AJ26"/>
-    <mergeCell ref="AL21:AL26"/>
-    <mergeCell ref="BT21:BT26"/>
-    <mergeCell ref="BJ21:BJ26"/>
-    <mergeCell ref="BK21:BK26"/>
-    <mergeCell ref="BL21:BL26"/>
-    <mergeCell ref="BM21:BM26"/>
-    <mergeCell ref="BN21:BN26"/>
-    <mergeCell ref="BP21:BP26"/>
-    <mergeCell ref="AT21:AT26"/>
-    <mergeCell ref="BJ31:BJ34"/>
-    <mergeCell ref="BQ21:BQ26"/>
-    <mergeCell ref="BR21:BR26"/>
-    <mergeCell ref="BS21:BS26"/>
-    <mergeCell ref="BB21:BB28"/>
-    <mergeCell ref="AY21:AY28"/>
-    <mergeCell ref="BA21:BA28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="BW21:BW26"/>
-    <mergeCell ref="BX21:BX26"/>
-    <mergeCell ref="BZ21:BZ26"/>
-    <mergeCell ref="CA21:CA26"/>
-    <mergeCell ref="BJ28:BJ29"/>
-    <mergeCell ref="BU21:BU26"/>
-    <mergeCell ref="BV21:BV26"/>
-    <mergeCell ref="BE21:BE26"/>
-    <mergeCell ref="BF21:BF26"/>
-    <mergeCell ref="BG21:BG26"/>
-    <mergeCell ref="BH21:BH26"/>
-    <mergeCell ref="BI21:BI26"/>
-    <mergeCell ref="AX21:AX26"/>
-    <mergeCell ref="AR21:AR26"/>
+    <mergeCell ref="AM21:AM26"/>
+    <mergeCell ref="AN21:AN26"/>
+    <mergeCell ref="AP21:AP26"/>
+    <mergeCell ref="S21:S26"/>
+    <mergeCell ref="AE28:AE37"/>
+    <mergeCell ref="AB21:AB26"/>
+    <mergeCell ref="AC21:AC26"/>
+    <mergeCell ref="BL18:BN20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="BE18:BE20"/>
+    <mergeCell ref="AY18:BD20"/>
+    <mergeCell ref="BF18:BF20"/>
+    <mergeCell ref="BG18:BG20"/>
+    <mergeCell ref="BH18:BH20"/>
+    <mergeCell ref="BI18:BJ20"/>
+    <mergeCell ref="BK18:BK20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="BO18:CA20"/>
+    <mergeCell ref="A18:AX20"/>
+    <mergeCell ref="AE39:AE44"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="G21:G29"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="T21:T26"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N21:N26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="P21:P26"/>
+    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="R21:R26"/>
+    <mergeCell ref="BO21:BO26"/>
+    <mergeCell ref="AA21:AA26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7061,7 +7340,7 @@
       <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G3" t="str">
@@ -7069,7 +7348,7 @@
         <v>NR_REFERENCIA_FISCAL,</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("'",K3,"',")</f>
@@ -7080,7 +7359,7 @@
       <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G4" t="str">
@@ -7088,7 +7367,7 @@
         <v>CD_SITUACAO_NF,</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L12" si="1">CONCATENATE("'",K4,"',")</f>
@@ -7099,7 +7378,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G5" t="str">
@@ -7107,7 +7386,7 @@
         <v>CD_TIPO_NF,</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
@@ -7118,15 +7397,15 @@
       <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>236</v>
+      <c r="D6" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>NR_REFERENCIA_FISCAL_FATURA,</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
@@ -7137,15 +7416,15 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="63" t="s">
-        <v>237</v>
+      <c r="D7" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>NR_ITEM_NF_FATURA,</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
@@ -7154,9 +7433,9 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="str">
@@ -7164,7 +7443,7 @@
         <v>NR_NF_FATURA,</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
@@ -7175,7 +7454,7 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="str">
@@ -7183,7 +7462,7 @@
         <v>NR_SERIE_NF_FATURA,</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
@@ -7194,7 +7473,7 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="str">
@@ -7202,7 +7481,7 @@
         <v>NR_NF_REMESSA,</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
@@ -7213,7 +7492,7 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="str">
@@ -7221,7 +7500,7 @@
         <v>NR_SERIE_NF_REMESSA,</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
@@ -7232,7 +7511,7 @@
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G12" t="str">
@@ -7240,7 +7519,7 @@
         <v>NR_ORDEM,</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
@@ -7251,7 +7530,7 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G13" t="str">
@@ -7263,8 +7542,8 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>231</v>
+      <c r="D14" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -7275,7 +7554,7 @@
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G15" t="str">
@@ -7287,7 +7566,7 @@
       <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G16" t="str">
@@ -7299,7 +7578,7 @@
       <c r="B17" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G17" t="str">
@@ -7311,7 +7590,7 @@
       <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G18" t="str">
@@ -7323,7 +7602,7 @@
       <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="str">
@@ -7335,7 +7614,7 @@
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="str">
@@ -7347,7 +7626,7 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G21" t="str">
@@ -7359,7 +7638,7 @@
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="13" t="s">
         <v>68</v>
       </c>
       <c r="G22" t="str">
@@ -7371,7 +7650,7 @@
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="13" t="s">
         <v>71</v>
       </c>
       <c r="G23" t="str">
@@ -7383,7 +7662,7 @@
       <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="13" t="s">
         <v>72</v>
       </c>
       <c r="G24" t="str">
@@ -7395,7 +7674,7 @@
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="13" t="s">
         <v>81</v>
       </c>
       <c r="G25" t="str">
@@ -7407,7 +7686,7 @@
       <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="str">
@@ -7419,7 +7698,7 @@
       <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G27" t="str">
@@ -7431,7 +7710,7 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G28" t="str">
@@ -7443,7 +7722,7 @@
       <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G29" t="str">
@@ -7455,7 +7734,7 @@
       <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G30" t="str">
@@ -7467,7 +7746,7 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G31" t="str">
@@ -7479,7 +7758,7 @@
       <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="13" t="s">
         <v>64</v>
       </c>
       <c r="G32" t="str">
@@ -7491,7 +7770,7 @@
       <c r="B33" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="str">
@@ -7503,7 +7782,7 @@
       <c r="B34" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="str">
@@ -7515,7 +7794,7 @@
       <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="13" t="s">
         <v>66</v>
       </c>
       <c r="G35" t="str">
@@ -7527,7 +7806,7 @@
       <c r="B36" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G36" t="str">
@@ -7539,7 +7818,7 @@
       <c r="B37" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G37" t="str">
@@ -7551,7 +7830,7 @@
       <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="13" t="s">
         <v>46</v>
       </c>
       <c r="G38" t="str">
@@ -7563,7 +7842,7 @@
       <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G39" t="str">
@@ -7575,7 +7854,7 @@
       <c r="B40" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G40" t="str">
@@ -7587,7 +7866,7 @@
       <c r="B41" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G41" t="str">
@@ -7599,7 +7878,7 @@
       <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G42" t="str">
@@ -7611,7 +7890,7 @@
       <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="13" t="s">
         <v>53</v>
       </c>
       <c r="G43" t="str">
@@ -7623,7 +7902,7 @@
       <c r="B44" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G44" t="str">
@@ -7635,7 +7914,7 @@
       <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G45" t="str">
@@ -7647,7 +7926,7 @@
       <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G46" t="str">
@@ -7659,7 +7938,7 @@
       <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="63" t="s">
+      <c r="D47" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G47" t="str">
@@ -7671,7 +7950,7 @@
       <c r="B48" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G48" t="str">
@@ -7683,7 +7962,7 @@
       <c r="B49" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="63" t="s">
+      <c r="D49" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G49" t="str">
@@ -7695,7 +7974,7 @@
       <c r="B50" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="D50" s="13" t="s">
         <v>56</v>
       </c>
       <c r="G50" t="str">
@@ -7707,7 +7986,7 @@
       <c r="B51" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="63" t="s">
+      <c r="D51" s="13" t="s">
         <v>57</v>
       </c>
       <c r="G51" t="str">
@@ -7719,7 +7998,7 @@
       <c r="B52" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="63" t="s">
+      <c r="D52" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G52" t="str">
@@ -7731,7 +8010,7 @@
       <c r="B53" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G53" t="str">
@@ -7743,7 +8022,7 @@
       <c r="B54" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="63" t="s">
+      <c r="D54" s="13" t="s">
         <v>79</v>
       </c>
       <c r="G54" t="str">
@@ -7755,7 +8034,7 @@
       <c r="B55" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="63" t="s">
+      <c r="D55" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G55" t="str">
@@ -7767,7 +8046,7 @@
       <c r="B56" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="13" t="s">
         <v>77</v>
       </c>
       <c r="G56" t="str">
@@ -7779,7 +8058,7 @@
       <c r="B57" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G57" t="str">
@@ -7791,7 +8070,7 @@
       <c r="B58" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="63" t="s">
+      <c r="D58" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G58" t="str">
@@ -7803,7 +8082,7 @@
       <c r="B59" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="D59" s="13" t="s">
         <v>61</v>
       </c>
       <c r="G59" t="str">
@@ -7815,7 +8094,7 @@
       <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="63" t="s">
+      <c r="D60" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G60" t="str">
@@ -7827,7 +8106,7 @@
       <c r="B61" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="63" t="s">
+      <c r="D61" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G61" t="str">
@@ -7839,7 +8118,7 @@
       <c r="B62" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="63" t="s">
+      <c r="D62" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G62" t="str">
@@ -7851,7 +8130,7 @@
       <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="63" t="s">
+      <c r="D63" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G63" t="str">
@@ -7863,7 +8142,7 @@
       <c r="B64" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="63" t="s">
+      <c r="D64" s="13" t="s">
         <v>70</v>
       </c>
       <c r="G64" t="str">
@@ -7875,7 +8154,7 @@
       <c r="B65" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="63" t="s">
+      <c r="D65" s="13" t="s">
         <v>43</v>
       </c>
       <c r="G65" t="str">
@@ -7887,7 +8166,7 @@
       <c r="B66" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="63" t="s">
+      <c r="D66" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G66" t="str">
@@ -7899,7 +8178,7 @@
       <c r="B67" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="63" t="s">
+      <c r="D67" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G67" t="str">
@@ -7911,7 +8190,7 @@
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="63" t="s">
+      <c r="D68" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G68" t="str">
@@ -7923,7 +8202,7 @@
       <c r="B69" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="63" t="s">
+      <c r="D69" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G69" t="str">
@@ -7935,7 +8214,7 @@
       <c r="B70" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="63" t="s">
+      <c r="D70" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G70" t="str">
@@ -7947,7 +8226,7 @@
       <c r="B71" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="63" t="s">
+      <c r="D71" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G71" t="str">
@@ -7959,7 +8238,7 @@
       <c r="B72" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="63" t="s">
+      <c r="D72" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G72" t="str">
@@ -7971,7 +8250,7 @@
       <c r="B73" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="63" t="s">
+      <c r="D73" s="13" t="s">
         <v>65</v>
       </c>
       <c r="G73" t="str">
@@ -7983,7 +8262,7 @@
       <c r="B74" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="63" t="s">
+      <c r="D74" s="13" t="s">
         <v>75</v>
       </c>
       <c r="G74" t="str">
@@ -7995,7 +8274,7 @@
       <c r="B75" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="63" t="s">
+      <c r="D75" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G75" t="str">
@@ -8007,7 +8286,7 @@
       <c r="B76" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="63" t="s">
+      <c r="D76" s="13" t="s">
         <v>84</v>
       </c>
       <c r="G76" t="str">
@@ -8019,7 +8298,7 @@
       <c r="B77" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="63" t="s">
+      <c r="D77" s="13" t="s">
         <v>69</v>
       </c>
       <c r="G77" t="str">
@@ -8031,7 +8310,7 @@
       <c r="B78" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="63" t="s">
+      <c r="D78" s="13" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="str">
@@ -8043,7 +8322,7 @@
       <c r="B79" t="s">
         <v>73</v>
       </c>
-      <c r="D79" s="63" t="s">
+      <c r="D79" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G79" t="str">
@@ -8055,7 +8334,7 @@
       <c r="B80" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="63" t="s">
+      <c r="D80" s="13" t="s">
         <v>82</v>
       </c>
       <c r="G80" t="str">
@@ -8067,7 +8346,7 @@
       <c r="B81" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="63" t="s">
+      <c r="D81" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G81" t="str">
@@ -8077,9 +8356,9 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G82" t="str">
@@ -8089,9 +8368,9 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
-        <v>237</v>
-      </c>
-      <c r="D83" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G83" t="str">
@@ -8103,7 +8382,7 @@
       <c r="B84" t="s">
         <v>62</v>
       </c>
-      <c r="D84" s="63" t="s">
+      <c r="D84" s="13" t="s">
         <v>62</v>
       </c>
       <c r="G84" t="str">

--- a/Documentação/Planilhas/Conferencia_FAT.xlsx
+++ b/Documentação/Planilhas/Conferencia_FAT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="535">
   <si>
     <t>1</t>
   </si>
@@ -967,9 +967,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>2014-09-02 08:39:49.000</t>
-  </si>
-  <si>
     <t>17.5240</t>
   </si>
   <si>
@@ -1018,9 +1015,6 @@
     <t>18.8900</t>
   </si>
   <si>
-    <t>18.89</t>
-  </si>
-  <si>
     <t>0.31</t>
   </si>
   <si>
@@ -1033,9 +1027,6 @@
     <t>0.6764</t>
   </si>
   <si>
-    <t>2014-09-02 11:15:36.000</t>
-  </si>
-  <si>
     <t>8.4782</t>
   </si>
   <si>
@@ -1078,9 +1069,6 @@
     <t>473.8900</t>
   </si>
   <si>
-    <t>473.89</t>
-  </si>
-  <si>
     <t>7.82</t>
   </si>
   <si>
@@ -1096,9 +1084,6 @@
     <t>33987051892</t>
   </si>
   <si>
-    <t>2014-09-02 14:25:30.000</t>
-  </si>
-  <si>
     <t>360.4358</t>
   </si>
   <si>
@@ -1144,9 +1129,6 @@
     <t>550.4400</t>
   </si>
   <si>
-    <t>550.44</t>
-  </si>
-  <si>
     <t>9.08</t>
   </si>
   <si>
@@ -1168,9 +1150,6 @@
     <t>16940282831</t>
   </si>
   <si>
-    <t>2014-09-02 16:00:00.000</t>
-  </si>
-  <si>
     <t>356.0494</t>
   </si>
   <si>
@@ -1222,9 +1201,6 @@
     <t>544.8900</t>
   </si>
   <si>
-    <t>544.89</t>
-  </si>
-  <si>
     <t>32690119897</t>
   </si>
   <si>
@@ -1282,9 +1258,6 @@
     <t>103.8900</t>
   </si>
   <si>
-    <t>103.89</t>
-  </si>
-  <si>
     <t>1.71</t>
   </si>
   <si>
@@ -1348,9 +1321,6 @@
     <t>1362.8900</t>
   </si>
   <si>
-    <t>1362.89</t>
-  </si>
-  <si>
     <t>22.49</t>
   </si>
   <si>
@@ -1414,9 +1384,6 @@
     <t>2057.4000</t>
   </si>
   <si>
-    <t>2057.40</t>
-  </si>
-  <si>
     <t>39147387823</t>
   </si>
   <si>
@@ -1537,9 +1504,6 @@
     <t>183.8900</t>
   </si>
   <si>
-    <t>183.89</t>
-  </si>
-  <si>
     <t>3.03</t>
   </si>
   <si>
@@ -1658,6 +1622,33 @@
   </si>
   <si>
     <t>Está vindo branco na view</t>
+  </si>
+  <si>
+    <t>2014-09-17 11:18:50.000</t>
+  </si>
+  <si>
+    <t>2014-09-17 11:18:47.000</t>
+  </si>
+  <si>
+    <t>2014-09-19 12:29:47.000</t>
+  </si>
+  <si>
+    <t>2014-09-17 11:18:51.000</t>
+  </si>
+  <si>
+    <t>2014-09-19 12:30:57.000</t>
+  </si>
+  <si>
+    <t>2014-09-19 12:29:23.000</t>
+  </si>
+  <si>
+    <t>2014-09-17 11:18:49.000</t>
+  </si>
+  <si>
+    <t>2014-09-19 12:28:38.000</t>
+  </si>
+  <si>
+    <t>2014-09-17 11:18:52.000</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1758,12 +1749,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA7E7E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,7 +1923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2023,60 +2008,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2086,43 +2017,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2161,8 +2062,89 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2840,7 +2822,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2932,8 +2914,8 @@
   </sheetPr>
   <dimension ref="A1:CD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3299,7 +3281,7 @@
     </row>
     <row r="7" spans="1:82" s="9" customFormat="1">
       <c r="A7" s="13" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>87</v>
@@ -3326,16 +3308,16 @@
         <v>86</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>287</v>
+        <v>418</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>288</v>
+        <v>397</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>289</v>
+        <v>526</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>290</v>
+        <v>419</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>291</v>
@@ -3347,34 +3329,34 @@
         <v>158</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>292</v>
+        <v>420</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>292</v>
+        <v>420</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>293</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>294</v>
+        <v>421</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>294</v>
+        <v>421</v>
       </c>
       <c r="V7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>295</v>
+        <v>422</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>296</v>
+        <v>423</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>297</v>
+        <v>424</v>
       </c>
       <c r="AA7" s="13" t="s">
         <v>88</v>
@@ -3391,8 +3373,8 @@
       <c r="AE7" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AF7" s="76" t="s">
-        <v>88</v>
+      <c r="AF7" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="AG7" s="13" t="s">
         <v>85</v>
@@ -3410,25 +3392,25 @@
         <v>88</v>
       </c>
       <c r="AL7" s="13" t="s">
-        <v>298</v>
+        <v>425</v>
       </c>
       <c r="AM7" s="13" t="s">
-        <v>299</v>
+        <v>426</v>
       </c>
       <c r="AN7" s="13" t="s">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="AO7" s="13" t="s">
         <v>88</v>
       </c>
       <c r="AP7" s="13" t="s">
-        <v>301</v>
+        <v>428</v>
       </c>
       <c r="AQ7" s="13" t="s">
-        <v>302</v>
+        <v>429</v>
       </c>
       <c r="AR7" s="13" t="s">
-        <v>303</v>
+        <v>430</v>
       </c>
       <c r="AS7" s="13" t="s">
         <v>88</v>
@@ -3452,13 +3434,13 @@
         <v>93</v>
       </c>
       <c r="AZ7" s="13" t="s">
-        <v>304</v>
+        <v>431</v>
       </c>
       <c r="BA7" s="13" t="s">
         <v>93</v>
       </c>
       <c r="BB7" s="13" t="s">
-        <v>304</v>
+        <v>431</v>
       </c>
       <c r="BC7" s="13" t="s">
         <v>195</v>
@@ -3473,28 +3455,28 @@
         <v>306</v>
       </c>
       <c r="BG7" s="13" t="s">
-        <v>307</v>
+        <v>398</v>
       </c>
       <c r="BH7" s="13" t="s">
-        <v>308</v>
+        <v>432</v>
       </c>
       <c r="BI7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="BJ7" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BK7" s="13" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BL7" s="13" t="s">
-        <v>310</v>
+        <v>433</v>
       </c>
       <c r="BM7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="BN7" s="13" t="s">
-        <v>311</v>
+        <v>434</v>
       </c>
       <c r="BO7" s="13" t="s">
         <v>0</v>
@@ -3506,7 +3488,7 @@
         <v>89</v>
       </c>
       <c r="BR7" s="13" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="BS7" s="13" t="s">
         <v>85</v>
@@ -3515,13 +3497,13 @@
         <v>85</v>
       </c>
       <c r="BU7" s="13" t="s">
-        <v>313</v>
+        <v>436</v>
       </c>
       <c r="BV7" s="13" t="s">
-        <v>295</v>
+        <v>422</v>
       </c>
       <c r="BW7" s="13" t="s">
-        <v>314</v>
+        <v>416</v>
       </c>
       <c r="BX7" s="13" t="s">
         <v>0</v>
@@ -3547,7 +3529,7 @@
     </row>
     <row r="8" spans="1:82" s="9" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>315</v>
+        <v>437</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>87</v>
@@ -3574,16 +3556,16 @@
         <v>86</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>316</v>
+        <v>438</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>318</v>
+        <v>527</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>319</v>
+        <v>439</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>291</v>
@@ -3595,34 +3577,34 @@
         <v>158</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>292</v>
+        <v>441</v>
       </c>
       <c r="S8" s="8" t="s">
         <v>293</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>320</v>
+        <v>442</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>320</v>
+        <v>442</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>321</v>
+        <v>443</v>
       </c>
       <c r="X8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>322</v>
+        <v>444</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>323</v>
+        <v>445</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>88</v>
@@ -3639,8 +3621,8 @@
       <c r="AE8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF8" s="76" t="s">
-        <v>324</v>
+      <c r="AF8" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="AG8" s="8" t="s">
         <v>85</v>
@@ -3658,25 +3640,25 @@
         <v>88</v>
       </c>
       <c r="AL8" s="8" t="s">
-        <v>325</v>
+        <v>85</v>
       </c>
       <c r="AM8" s="8" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
       <c r="AN8" s="8" t="s">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="AO8" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP8" s="8" t="s">
-        <v>327</v>
+        <v>85</v>
       </c>
       <c r="AQ8" s="8" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="AR8" s="8" t="s">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="AS8" s="8" t="s">
         <v>88</v>
@@ -3700,13 +3682,13 @@
         <v>93</v>
       </c>
       <c r="AZ8" s="8" t="s">
-        <v>304</v>
+        <v>446</v>
       </c>
       <c r="BA8" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB8" s="8" t="s">
-        <v>304</v>
+        <v>446</v>
       </c>
       <c r="BC8" s="8" t="s">
         <v>195</v>
@@ -3721,28 +3703,28 @@
         <v>306</v>
       </c>
       <c r="BG8" s="8" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="BH8" s="8" t="s">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="BI8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ8" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BK8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL8" s="8" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="BM8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN8" s="8" t="s">
-        <v>332</v>
+        <v>449</v>
       </c>
       <c r="BO8" s="8" t="s">
         <v>0</v>
@@ -3754,7 +3736,7 @@
         <v>89</v>
       </c>
       <c r="BR8" s="8" t="s">
-        <v>333</v>
+        <v>450</v>
       </c>
       <c r="BS8" s="8" t="s">
         <v>85</v>
@@ -3763,22 +3745,22 @@
         <v>85</v>
       </c>
       <c r="BU8" s="8" t="s">
-        <v>313</v>
+        <v>415</v>
       </c>
       <c r="BV8" s="8" t="s">
-        <v>321</v>
+        <v>443</v>
       </c>
       <c r="BW8" s="8" t="s">
-        <v>314</v>
+        <v>416</v>
       </c>
       <c r="BX8" s="8" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="BY8" s="8" t="s">
-        <v>88</v>
+        <v>451</v>
       </c>
       <c r="BZ8" s="8" t="s">
-        <v>88</v>
+        <v>451</v>
       </c>
       <c r="CA8" s="8" t="s">
         <v>88</v>
@@ -3795,7 +3777,7 @@
     </row>
     <row r="9" spans="1:82" s="9" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>194</v>
+        <v>374</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>87</v>
@@ -3822,16 +3804,16 @@
         <v>86</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>291</v>
@@ -3843,34 +3825,34 @@
         <v>158</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="X9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>88</v>
@@ -3887,8 +3869,8 @@
       <c r="AE9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF9" s="76" t="s">
-        <v>344</v>
+      <c r="AF9" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="AG9" s="8" t="s">
         <v>85</v>
@@ -3906,25 +3888,25 @@
         <v>88</v>
       </c>
       <c r="AL9" s="8" t="s">
-        <v>345</v>
+        <v>85</v>
       </c>
       <c r="AM9" s="8" t="s">
-        <v>346</v>
+        <v>88</v>
       </c>
       <c r="AN9" s="8" t="s">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="AO9" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP9" s="8" t="s">
-        <v>347</v>
+        <v>85</v>
       </c>
       <c r="AQ9" s="8" t="s">
-        <v>348</v>
+        <v>88</v>
       </c>
       <c r="AR9" s="8" t="s">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="AS9" s="8" t="s">
         <v>88</v>
@@ -3948,19 +3930,19 @@
         <v>93</v>
       </c>
       <c r="AZ9" s="8" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="BA9" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB9" s="8" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="BC9" s="8" t="s">
-        <v>90</v>
+        <v>386</v>
       </c>
       <c r="BD9" s="8" t="s">
-        <v>90</v>
+        <v>386</v>
       </c>
       <c r="BE9" s="8" t="s">
         <v>305</v>
@@ -3969,28 +3951,28 @@
         <v>306</v>
       </c>
       <c r="BG9" s="8" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="BH9" s="8" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="BI9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ9" s="8" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="BK9" s="8" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="8" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="BM9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN9" s="8" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="BO9" s="8" t="s">
         <v>0</v>
@@ -4002,7 +3984,7 @@
         <v>89</v>
       </c>
       <c r="BR9" s="8" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="BS9" s="8" t="s">
         <v>85</v>
@@ -4011,13 +3993,13 @@
         <v>85</v>
       </c>
       <c r="BU9" s="8" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="BV9" s="8" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="BW9" s="8" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="BX9" s="8" t="s">
         <v>0</v>
@@ -4043,7 +4025,7 @@
     </row>
     <row r="10" spans="1:82" s="9" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>356</v>
+        <v>194</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>87</v>
@@ -4070,16 +4052,16 @@
         <v>86</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>291</v>
@@ -4091,34 +4073,34 @@
         <v>158</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="S10" s="8" t="s">
         <v>293</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="X10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="AA10" s="8" t="s">
         <v>88</v>
@@ -4135,8 +4117,8 @@
       <c r="AE10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF10" s="76" t="s">
-        <v>366</v>
+      <c r="AF10" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="AG10" s="8" t="s">
         <v>85</v>
@@ -4154,28 +4136,28 @@
         <v>88</v>
       </c>
       <c r="AL10" s="8" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="AM10" s="8" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="AN10" s="8" t="s">
         <v>300</v>
       </c>
       <c r="AO10" s="8" t="s">
-        <v>369</v>
+        <v>88</v>
       </c>
       <c r="AP10" s="8" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="AQ10" s="8" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="AR10" s="8" t="s">
         <v>303</v>
       </c>
       <c r="AS10" s="8" t="s">
-        <v>372</v>
+        <v>88</v>
       </c>
       <c r="AT10" s="8" t="s">
         <v>88</v>
@@ -4196,19 +4178,19 @@
         <v>93</v>
       </c>
       <c r="AZ10" s="8" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="BA10" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB10" s="8" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="BD10" s="8" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="BE10" s="8" t="s">
         <v>305</v>
@@ -4217,28 +4199,28 @@
         <v>306</v>
       </c>
       <c r="BG10" s="8" t="s">
-        <v>374</v>
+        <v>528</v>
       </c>
       <c r="BH10" s="8" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="BI10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ10" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BK10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BL10" s="8" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="BM10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN10" s="8" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="BO10" s="8" t="s">
         <v>0</v>
@@ -4250,7 +4232,7 @@
         <v>89</v>
       </c>
       <c r="BR10" s="8" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="BS10" s="8" t="s">
         <v>85</v>
@@ -4259,22 +4241,22 @@
         <v>85</v>
       </c>
       <c r="BU10" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BV10" s="8" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="BW10" s="8" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="BX10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BY10" s="8" t="s">
-        <v>380</v>
+        <v>88</v>
       </c>
       <c r="BZ10" s="8" t="s">
-        <v>380</v>
+        <v>88</v>
       </c>
       <c r="CA10" s="8" t="s">
         <v>88</v>
@@ -4291,7 +4273,7 @@
     </row>
     <row r="11" spans="1:82" s="9" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>87</v>
@@ -4318,16 +4300,16 @@
         <v>86</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>382</v>
+        <v>453</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>384</v>
+        <v>529</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>291</v>
@@ -4339,43 +4321,43 @@
         <v>158</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="V11" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="X11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>391</v>
+        <v>461</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AB11" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AD11" s="8" t="s">
         <v>88</v>
@@ -4383,44 +4365,44 @@
       <c r="AE11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF11" s="76" t="s">
-        <v>392</v>
+      <c r="AF11" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>85</v>
+        <v>463</v>
       </c>
       <c r="AH11" s="8" t="s">
         <v>85</v>
       </c>
       <c r="AI11" s="8" t="s">
-        <v>88</v>
+        <v>464</v>
       </c>
       <c r="AJ11" s="8" t="s">
-        <v>88</v>
+        <v>465</v>
       </c>
       <c r="AK11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AL11" s="8" t="s">
-        <v>85</v>
+        <v>466</v>
       </c>
       <c r="AM11" s="8" t="s">
-        <v>88</v>
+        <v>467</v>
       </c>
       <c r="AN11" s="8" t="s">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="AO11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP11" s="8" t="s">
-        <v>85</v>
+        <v>468</v>
       </c>
       <c r="AQ11" s="8" t="s">
-        <v>88</v>
+        <v>469</v>
       </c>
       <c r="AR11" s="8" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="AS11" s="8" t="s">
         <v>88</v>
@@ -4444,19 +4426,19 @@
         <v>93</v>
       </c>
       <c r="AZ11" s="8" t="s">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="BA11" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB11" s="8" t="s">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>394</v>
+        <v>471</v>
       </c>
       <c r="BD11" s="8" t="s">
-        <v>394</v>
+        <v>471</v>
       </c>
       <c r="BE11" s="8" t="s">
         <v>305</v>
@@ -4465,28 +4447,28 @@
         <v>306</v>
       </c>
       <c r="BG11" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="BH11" s="8" t="s">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="BI11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ11" s="8" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="BK11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL11" s="8" t="s">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="BM11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN11" s="8" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="BO11" s="8" t="s">
         <v>0</v>
@@ -4498,7 +4480,7 @@
         <v>89</v>
       </c>
       <c r="BR11" s="8" t="s">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="BS11" s="8" t="s">
         <v>85</v>
@@ -4507,13 +4489,13 @@
         <v>85</v>
       </c>
       <c r="BU11" s="8" t="s">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="BV11" s="8" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="BW11" s="8" t="s">
-        <v>402</v>
+        <v>477</v>
       </c>
       <c r="BX11" s="8" t="s">
         <v>0</v>
@@ -4539,10 +4521,10 @@
     </row>
     <row r="12" spans="1:82" s="9" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>0</v>
@@ -4566,16 +4548,16 @@
         <v>86</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>291</v>
@@ -4587,34 +4569,34 @@
         <v>158</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>293</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>159</v>
+        <v>357</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>159</v>
+        <v>357</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="X12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="AA12" s="8" t="s">
         <v>88</v>
@@ -4631,8 +4613,8 @@
       <c r="AE12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF12" s="76" t="s">
-        <v>412</v>
+      <c r="AF12" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="AG12" s="8" t="s">
         <v>85</v>
@@ -4650,28 +4632,28 @@
         <v>88</v>
       </c>
       <c r="AL12" s="8" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="AM12" s="8" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="AN12" s="8" t="s">
-        <v>415</v>
+        <v>300</v>
       </c>
       <c r="AO12" s="8" t="s">
-        <v>88</v>
+        <v>363</v>
       </c>
       <c r="AP12" s="8" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="AQ12" s="8" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="AR12" s="8" t="s">
-        <v>418</v>
+        <v>303</v>
       </c>
       <c r="AS12" s="8" t="s">
-        <v>88</v>
+        <v>366</v>
       </c>
       <c r="AT12" s="8" t="s">
         <v>88</v>
@@ -4692,13 +4674,13 @@
         <v>93</v>
       </c>
       <c r="AZ12" s="8" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="BA12" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB12" s="8" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="BC12" s="8" t="s">
         <v>195</v>
@@ -4713,28 +4695,28 @@
         <v>306</v>
       </c>
       <c r="BG12" s="8" t="s">
-        <v>406</v>
+        <v>530</v>
       </c>
       <c r="BH12" s="8" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="BI12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ12" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BK12" s="8" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BL12" s="8" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="BM12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN12" s="8" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="BO12" s="8" t="s">
         <v>0</v>
@@ -4746,7 +4728,7 @@
         <v>89</v>
       </c>
       <c r="BR12" s="8" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="BS12" s="8" t="s">
         <v>85</v>
@@ -4755,22 +4737,22 @@
         <v>85</v>
       </c>
       <c r="BU12" s="8" t="s">
-        <v>424</v>
+        <v>312</v>
       </c>
       <c r="BV12" s="8" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="BW12" s="8" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="BX12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BY12" s="8" t="s">
-        <v>88</v>
+        <v>373</v>
       </c>
       <c r="BZ12" s="8" t="s">
-        <v>88</v>
+        <v>373</v>
       </c>
       <c r="CA12" s="8" t="s">
         <v>88</v>
@@ -4787,10 +4769,10 @@
     </row>
     <row r="13" spans="1:82" s="9" customFormat="1">
       <c r="A13" s="8" t="s">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>0</v>
@@ -4814,16 +4796,16 @@
         <v>86</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>427</v>
+        <v>315</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>406</v>
+        <v>317</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>428</v>
+        <v>318</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>291</v>
@@ -4835,34 +4817,34 @@
         <v>158</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>429</v>
+        <v>292</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>429</v>
+        <v>292</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>293</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>430</v>
+        <v>319</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>430</v>
+        <v>319</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>431</v>
+        <v>320</v>
       </c>
       <c r="X13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>432</v>
+        <v>321</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="AA13" s="8" t="s">
         <v>88</v>
@@ -4879,8 +4861,8 @@
       <c r="AE13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF13" s="76" t="s">
-        <v>434</v>
+      <c r="AF13" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="AG13" s="8" t="s">
         <v>85</v>
@@ -4898,25 +4880,25 @@
         <v>88</v>
       </c>
       <c r="AL13" s="8" t="s">
-        <v>435</v>
+        <v>323</v>
       </c>
       <c r="AM13" s="8" t="s">
-        <v>436</v>
+        <v>324</v>
       </c>
       <c r="AN13" s="8" t="s">
-        <v>437</v>
+        <v>300</v>
       </c>
       <c r="AO13" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP13" s="8" t="s">
-        <v>438</v>
+        <v>325</v>
       </c>
       <c r="AQ13" s="8" t="s">
-        <v>439</v>
+        <v>326</v>
       </c>
       <c r="AR13" s="8" t="s">
-        <v>440</v>
+        <v>303</v>
       </c>
       <c r="AS13" s="8" t="s">
         <v>88</v>
@@ -4940,13 +4922,13 @@
         <v>93</v>
       </c>
       <c r="AZ13" s="8" t="s">
-        <v>441</v>
+        <v>304</v>
       </c>
       <c r="BA13" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB13" s="8" t="s">
-        <v>441</v>
+        <v>304</v>
       </c>
       <c r="BC13" s="8" t="s">
         <v>195</v>
@@ -4961,28 +4943,28 @@
         <v>306</v>
       </c>
       <c r="BG13" s="8" t="s">
-        <v>406</v>
+        <v>531</v>
       </c>
       <c r="BH13" s="8" t="s">
-        <v>442</v>
+        <v>327</v>
       </c>
       <c r="BI13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ13" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BK13" s="8" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="8" t="s">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="BM13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN13" s="8" t="s">
-        <v>444</v>
+        <v>329</v>
       </c>
       <c r="BO13" s="8" t="s">
         <v>0</v>
@@ -4994,7 +4976,7 @@
         <v>89</v>
       </c>
       <c r="BR13" s="8" t="s">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="BS13" s="8" t="s">
         <v>85</v>
@@ -5003,16 +4985,16 @@
         <v>85</v>
       </c>
       <c r="BU13" s="8" t="s">
-        <v>446</v>
+        <v>312</v>
       </c>
       <c r="BV13" s="8" t="s">
-        <v>431</v>
+        <v>320</v>
       </c>
       <c r="BW13" s="8" t="s">
-        <v>425</v>
+        <v>313</v>
       </c>
       <c r="BX13" s="8" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="BY13" s="8" t="s">
         <v>88</v>
@@ -5035,10 +5017,10 @@
     </row>
     <row r="14" spans="1:82" s="9" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>0</v>
@@ -5062,16 +5044,16 @@
         <v>86</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>406</v>
+        <v>532</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>291</v>
@@ -5083,34 +5065,34 @@
         <v>158</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="S14" s="8" t="s">
         <v>293</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>452</v>
+        <v>159</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>452</v>
+        <v>159</v>
       </c>
       <c r="V14" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="X14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="AA14" s="8" t="s">
         <v>88</v>
@@ -5127,8 +5109,8 @@
       <c r="AE14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="76" t="s">
-        <v>456</v>
+      <c r="AF14" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="AG14" s="8" t="s">
         <v>85</v>
@@ -5146,25 +5128,25 @@
         <v>88</v>
       </c>
       <c r="AL14" s="8" t="s">
-        <v>85</v>
+        <v>404</v>
       </c>
       <c r="AM14" s="8" t="s">
-        <v>88</v>
+        <v>405</v>
       </c>
       <c r="AN14" s="8" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="AO14" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP14" s="8" t="s">
-        <v>85</v>
+        <v>407</v>
       </c>
       <c r="AQ14" s="8" t="s">
-        <v>88</v>
+        <v>408</v>
       </c>
       <c r="AR14" s="8" t="s">
-        <v>88</v>
+        <v>409</v>
       </c>
       <c r="AS14" s="8" t="s">
         <v>88</v>
@@ -5188,13 +5170,13 @@
         <v>93</v>
       </c>
       <c r="AZ14" s="8" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="BA14" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB14" s="8" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="BC14" s="8" t="s">
         <v>195</v>
@@ -5209,28 +5191,28 @@
         <v>306</v>
       </c>
       <c r="BG14" s="8" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="BH14" s="8" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="BI14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ14" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BK14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL14" s="8" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="BM14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN14" s="8" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="BO14" s="8" t="s">
         <v>0</v>
@@ -5242,7 +5224,7 @@
         <v>89</v>
       </c>
       <c r="BR14" s="8" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="BS14" s="8" t="s">
         <v>85</v>
@@ -5251,22 +5233,22 @@
         <v>85</v>
       </c>
       <c r="BU14" s="8" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="BV14" s="8" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="BW14" s="8" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="BX14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BY14" s="8" t="s">
-        <v>462</v>
+        <v>88</v>
       </c>
       <c r="BZ14" s="8" t="s">
-        <v>462</v>
+        <v>88</v>
       </c>
       <c r="CA14" s="8" t="s">
         <v>88</v>
@@ -5283,10 +5265,10 @@
     </row>
     <row r="15" spans="1:82" s="9" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>0</v>
@@ -5310,16 +5292,16 @@
         <v>86</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>464</v>
+        <v>287</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>465</v>
+        <v>288</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>406</v>
+        <v>289</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>466</v>
+        <v>290</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>291</v>
@@ -5331,43 +5313,43 @@
         <v>158</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>467</v>
+        <v>292</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>467</v>
+        <v>292</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>468</v>
+        <v>293</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>469</v>
+        <v>294</v>
       </c>
       <c r="U15" s="8" t="s">
-        <v>469</v>
+        <v>294</v>
       </c>
       <c r="V15" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>470</v>
+        <v>295</v>
       </c>
       <c r="X15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>471</v>
+        <v>296</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>472</v>
+        <v>297</v>
       </c>
       <c r="AA15" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AB15" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AD15" s="8" t="s">
         <v>88</v>
@@ -5375,29 +5357,29 @@
       <c r="AE15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF15" s="76" t="s">
-        <v>473</v>
+      <c r="AF15" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="AG15" s="8" t="s">
-        <v>474</v>
+        <v>85</v>
       </c>
       <c r="AH15" s="8" t="s">
         <v>85</v>
       </c>
       <c r="AI15" s="8" t="s">
-        <v>475</v>
+        <v>88</v>
       </c>
       <c r="AJ15" s="8" t="s">
-        <v>476</v>
+        <v>88</v>
       </c>
       <c r="AK15" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AL15" s="8" t="s">
-        <v>477</v>
+        <v>298</v>
       </c>
       <c r="AM15" s="8" t="s">
-        <v>478</v>
+        <v>299</v>
       </c>
       <c r="AN15" s="8" t="s">
         <v>300</v>
@@ -5406,10 +5388,10 @@
         <v>88</v>
       </c>
       <c r="AP15" s="8" t="s">
-        <v>479</v>
+        <v>301</v>
       </c>
       <c r="AQ15" s="8" t="s">
-        <v>480</v>
+        <v>302</v>
       </c>
       <c r="AR15" s="8" t="s">
         <v>303</v>
@@ -5436,19 +5418,19 @@
         <v>93</v>
       </c>
       <c r="AZ15" s="8" t="s">
-        <v>481</v>
+        <v>304</v>
       </c>
       <c r="BA15" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB15" s="8" t="s">
-        <v>481</v>
+        <v>304</v>
       </c>
       <c r="BC15" s="8" t="s">
-        <v>482</v>
+        <v>195</v>
       </c>
       <c r="BD15" s="8" t="s">
-        <v>482</v>
+        <v>195</v>
       </c>
       <c r="BE15" s="8" t="s">
         <v>305</v>
@@ -5457,28 +5439,28 @@
         <v>306</v>
       </c>
       <c r="BG15" s="8" t="s">
-        <v>406</v>
+        <v>533</v>
       </c>
       <c r="BH15" s="8" t="s">
-        <v>483</v>
+        <v>307</v>
       </c>
       <c r="BI15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ15" s="8" t="s">
-        <v>484</v>
+        <v>308</v>
       </c>
       <c r="BK15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL15" s="8" t="s">
-        <v>485</v>
+        <v>309</v>
       </c>
       <c r="BM15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN15" s="8" t="s">
-        <v>486</v>
+        <v>310</v>
       </c>
       <c r="BO15" s="8" t="s">
         <v>0</v>
@@ -5490,7 +5472,7 @@
         <v>89</v>
       </c>
       <c r="BR15" s="8" t="s">
-        <v>487</v>
+        <v>311</v>
       </c>
       <c r="BS15" s="8" t="s">
         <v>85</v>
@@ -5499,13 +5481,13 @@
         <v>85</v>
       </c>
       <c r="BU15" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="BV15" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="BW15" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="BV15" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="BW15" s="8" t="s">
-        <v>488</v>
       </c>
       <c r="BX15" s="8" t="s">
         <v>0</v>
@@ -5531,10 +5513,10 @@
     </row>
     <row r="16" spans="1:82" s="9" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>0</v>
@@ -5558,16 +5540,16 @@
         <v>86</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>406</v>
+        <v>534</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>291</v>
@@ -5579,34 +5561,34 @@
         <v>158</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>293</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="V16" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="X16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="AA16" s="8" t="s">
         <v>88</v>
@@ -5623,8 +5605,8 @@
       <c r="AE16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF16" s="76" t="s">
-        <v>497</v>
+      <c r="AF16" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="AG16" s="8" t="s">
         <v>85</v>
@@ -5642,25 +5624,25 @@
         <v>88</v>
       </c>
       <c r="AL16" s="8" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="AM16" s="8" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="AN16" s="8" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AO16" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP16" s="8" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="AQ16" s="8" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="AR16" s="8" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AS16" s="8" t="s">
         <v>88</v>
@@ -5684,19 +5666,19 @@
         <v>93</v>
       </c>
       <c r="AZ16" s="8" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="BA16" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB16" s="8" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="BC16" s="8" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="BD16" s="8" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="BE16" s="8" t="s">
         <v>305</v>
@@ -5705,28 +5687,28 @@
         <v>306</v>
       </c>
       <c r="BG16" s="8" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="BH16" s="8" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="BI16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ16" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BK16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL16" s="8" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="BM16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN16" s="8" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="BO16" s="8" t="s">
         <v>0</v>
@@ -5738,7 +5720,7 @@
         <v>89</v>
       </c>
       <c r="BR16" s="8" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="BS16" s="8" t="s">
         <v>85</v>
@@ -5747,13 +5729,13 @@
         <v>85</v>
       </c>
       <c r="BU16" s="8" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="BV16" s="8" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="BW16" s="8" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="BX16" s="8" t="s">
         <v>0</v>
@@ -5778,83 +5760,83 @@
       </c>
     </row>
     <row r="18" spans="1:82" ht="15" customHeight="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="35"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="35"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="34" t="s">
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="62"/>
+      <c r="AY18" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="AZ18" s="35"/>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="35"/>
-      <c r="BC18" s="35"/>
-      <c r="BD18" s="36"/>
-      <c r="BE18" s="51" t="s">
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="62"/>
+      <c r="BE18" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="BF18" s="51" t="s">
+      <c r="BF18" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="BG18" s="51" t="s">
+      <c r="BG18" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="BH18" s="51" t="s">
+      <c r="BH18" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="BI18" s="54" t="s">
+      <c r="BI18" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="BJ18" s="54"/>
-      <c r="BK18" s="51" t="s">
+      <c r="BJ18" s="69"/>
+      <c r="BK18" s="57" t="s">
         <v>250</v>
       </c>
       <c r="BL18" s="20" t="s">
@@ -5862,191 +5844,191 @@
       </c>
       <c r="BM18" s="21"/>
       <c r="BN18" s="22"/>
-      <c r="BO18" s="33" t="s">
+      <c r="BO18" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="BP18" s="33"/>
-      <c r="BQ18" s="33"/>
-      <c r="BR18" s="33"/>
-      <c r="BS18" s="33"/>
-      <c r="BT18" s="33"/>
-      <c r="BU18" s="33"/>
-      <c r="BV18" s="33"/>
-      <c r="BW18" s="33"/>
-      <c r="BX18" s="33"/>
-      <c r="BY18" s="33"/>
-      <c r="BZ18" s="33"/>
-      <c r="CA18" s="33"/>
-      <c r="CB18" s="67" t="s">
-        <v>514</v>
-      </c>
-      <c r="CC18" s="68"/>
+      <c r="BP18" s="70"/>
+      <c r="BQ18" s="70"/>
+      <c r="BR18" s="70"/>
+      <c r="BS18" s="70"/>
+      <c r="BT18" s="70"/>
+      <c r="BU18" s="70"/>
+      <c r="BV18" s="70"/>
+      <c r="BW18" s="70"/>
+      <c r="BX18" s="70"/>
+      <c r="BY18" s="70"/>
+      <c r="BZ18" s="70"/>
+      <c r="CA18" s="70"/>
+      <c r="CB18" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="CC18" s="40"/>
     </row>
     <row r="19" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="38"/>
-      <c r="AX19" s="39"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="38"/>
-      <c r="BB19" s="38"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="39"/>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="52"/>
-      <c r="BG19" s="52"/>
-      <c r="BH19" s="52"/>
-      <c r="BI19" s="54"/>
-      <c r="BJ19" s="54"/>
-      <c r="BK19" s="52"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="64"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="64"/>
+      <c r="AK19" s="64"/>
+      <c r="AL19" s="64"/>
+      <c r="AM19" s="64"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="64"/>
+      <c r="AW19" s="64"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="63"/>
+      <c r="AZ19" s="64"/>
+      <c r="BA19" s="64"/>
+      <c r="BB19" s="64"/>
+      <c r="BC19" s="64"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="58"/>
+      <c r="BF19" s="58"/>
+      <c r="BG19" s="58"/>
+      <c r="BH19" s="58"/>
+      <c r="BI19" s="69"/>
+      <c r="BJ19" s="69"/>
+      <c r="BK19" s="58"/>
       <c r="BL19" s="23"/>
       <c r="BM19" s="24"/>
       <c r="BN19" s="25"/>
-      <c r="BO19" s="33"/>
-      <c r="BP19" s="33"/>
-      <c r="BQ19" s="33"/>
-      <c r="BR19" s="33"/>
-      <c r="BS19" s="33"/>
-      <c r="BT19" s="33"/>
-      <c r="BU19" s="33"/>
-      <c r="BV19" s="33"/>
-      <c r="BW19" s="33"/>
-      <c r="BX19" s="33"/>
-      <c r="BY19" s="33"/>
-      <c r="BZ19" s="33"/>
-      <c r="CA19" s="33"/>
-      <c r="CB19" s="69"/>
-      <c r="CC19" s="70"/>
+      <c r="BO19" s="70"/>
+      <c r="BP19" s="70"/>
+      <c r="BQ19" s="70"/>
+      <c r="BR19" s="70"/>
+      <c r="BS19" s="70"/>
+      <c r="BT19" s="70"/>
+      <c r="BU19" s="70"/>
+      <c r="BV19" s="70"/>
+      <c r="BW19" s="70"/>
+      <c r="BX19" s="70"/>
+      <c r="BY19" s="70"/>
+      <c r="BZ19" s="70"/>
+      <c r="CA19" s="70"/>
+      <c r="CB19" s="41"/>
+      <c r="CC19" s="42"/>
     </row>
     <row r="20" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="41"/>
-      <c r="AV20" s="41"/>
-      <c r="AW20" s="41"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="40"/>
-      <c r="AZ20" s="41"/>
-      <c r="BA20" s="41"/>
-      <c r="BB20" s="41"/>
-      <c r="BC20" s="41"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="53"/>
-      <c r="BF20" s="53"/>
-      <c r="BG20" s="53"/>
-      <c r="BH20" s="53"/>
-      <c r="BI20" s="54"/>
-      <c r="BJ20" s="54"/>
-      <c r="BK20" s="53"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="67"/>
+      <c r="AI20" s="67"/>
+      <c r="AJ20" s="67"/>
+      <c r="AK20" s="67"/>
+      <c r="AL20" s="67"/>
+      <c r="AM20" s="67"/>
+      <c r="AN20" s="67"/>
+      <c r="AO20" s="67"/>
+      <c r="AP20" s="67"/>
+      <c r="AQ20" s="67"/>
+      <c r="AR20" s="67"/>
+      <c r="AS20" s="67"/>
+      <c r="AT20" s="67"/>
+      <c r="AU20" s="67"/>
+      <c r="AV20" s="67"/>
+      <c r="AW20" s="67"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="66"/>
+      <c r="AZ20" s="67"/>
+      <c r="BA20" s="67"/>
+      <c r="BB20" s="67"/>
+      <c r="BC20" s="67"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="59"/>
+      <c r="BF20" s="59"/>
+      <c r="BG20" s="59"/>
+      <c r="BH20" s="59"/>
+      <c r="BI20" s="69"/>
+      <c r="BJ20" s="69"/>
+      <c r="BK20" s="59"/>
       <c r="BL20" s="26"/>
       <c r="BM20" s="27"/>
       <c r="BN20" s="28"/>
-      <c r="BO20" s="33"/>
-      <c r="BP20" s="33"/>
-      <c r="BQ20" s="33"/>
-      <c r="BR20" s="33"/>
-      <c r="BS20" s="33"/>
-      <c r="BT20" s="33"/>
-      <c r="BU20" s="33"/>
-      <c r="BV20" s="33"/>
-      <c r="BW20" s="33"/>
-      <c r="BX20" s="33"/>
-      <c r="BY20" s="33"/>
-      <c r="BZ20" s="33"/>
-      <c r="CA20" s="33"/>
-      <c r="CB20" s="71"/>
-      <c r="CC20" s="72"/>
+      <c r="BO20" s="70"/>
+      <c r="BP20" s="70"/>
+      <c r="BQ20" s="70"/>
+      <c r="BR20" s="70"/>
+      <c r="BS20" s="70"/>
+      <c r="BT20" s="70"/>
+      <c r="BU20" s="70"/>
+      <c r="BV20" s="70"/>
+      <c r="BW20" s="70"/>
+      <c r="BX20" s="70"/>
+      <c r="BY20" s="70"/>
+      <c r="BZ20" s="70"/>
+      <c r="CA20" s="70"/>
+      <c r="CB20" s="43"/>
+      <c r="CC20" s="44"/>
     </row>
     <row r="21" spans="1:82" ht="11.25" customHeight="1">
       <c r="A21" s="29" t="s">
@@ -6064,25 +6046,25 @@
       <c r="E21" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="33" t="s">
         <v>150</v>
       </c>
       <c r="M21" s="29" t="s">
@@ -6103,7 +6085,7 @@
       <c r="R21" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="S21" s="48" t="s">
+      <c r="S21" s="30" t="s">
         <v>183</v>
       </c>
       <c r="T21" s="29" t="s">
@@ -6115,125 +6097,125 @@
       <c r="V21" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="W21" s="30" t="s">
+      <c r="W21" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="X21" s="30" t="s">
+      <c r="X21" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="Y21" s="30" t="s">
+      <c r="Y21" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="Z21" s="30" t="s">
+      <c r="Z21" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="AA21" s="30" t="s">
+      <c r="AA21" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="AB21" s="48" t="s">
+      <c r="AB21" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="AC21" s="48" t="s">
+      <c r="AC21" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="AD21" s="48" t="s">
+      <c r="AD21" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="AE21" s="48" t="s">
+      <c r="AE21" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="AF21" s="48" t="s">
+      <c r="AF21" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="AG21" s="30" t="s">
+      <c r="AG21" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="AH21" s="48" t="s">
+      <c r="AH21" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="AI21" s="48" t="s">
+      <c r="AI21" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="AJ21" s="58" t="s">
+      <c r="AJ21" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="AK21" s="56" t="s">
+      <c r="AK21" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="AL21" s="61" t="s">
+      <c r="AL21" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="AM21" s="48" t="s">
+      <c r="AM21" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="AN21" s="58" t="s">
+      <c r="AN21" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="AO21" s="56" t="s">
+      <c r="AO21" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="AP21" s="61" t="s">
+      <c r="AP21" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="AQ21" s="48" t="s">
+      <c r="AQ21" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="AR21" s="58" t="s">
+      <c r="AR21" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="AS21" s="56" t="s">
+      <c r="AS21" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="AT21" s="48" t="s">
+      <c r="AT21" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AU21" s="48" t="s">
+      <c r="AU21" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="AV21" s="58" t="s">
+      <c r="AV21" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="AW21" s="56" t="s">
+      <c r="AW21" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="AX21" s="58" t="s">
+      <c r="AX21" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="AY21" s="56" t="s">
+      <c r="AY21" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="AZ21" s="57" t="s">
+      <c r="AZ21" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="BA21" s="56" t="s">
+      <c r="BA21" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="BB21" s="56" t="s">
+      <c r="BB21" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="BC21" s="56" t="s">
+      <c r="BC21" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BD21" s="56" t="s">
+      <c r="BD21" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="BE21" s="73" t="s">
+      <c r="BE21" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="BF21" s="48" t="s">
+      <c r="BF21" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="BG21" s="48" t="s">
+      <c r="BG21" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="BH21" s="56" t="s">
-        <v>509</v>
-      </c>
-      <c r="BI21" s="56" t="s">
-        <v>510</v>
-      </c>
-      <c r="BJ21" s="56" t="s">
-        <v>511</v>
+      <c r="BH21" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="BI21" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="BJ21" s="48" t="s">
+        <v>499</v>
       </c>
       <c r="BK21" s="29" t="s">
         <v>188</v>
@@ -6247,53 +6229,53 @@
       <c r="BN21" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="BO21" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="BP21" s="48" t="s">
+      <c r="BO21" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="BP21" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="BQ21" s="48" t="s">
+      <c r="BQ21" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="BR21" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="BS21" s="48" t="s">
+      <c r="BR21" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="BS21" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="BT21" s="48" t="s">
+      <c r="BT21" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="BU21" s="48" t="s">
+      <c r="BU21" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="BV21" s="48" t="s">
+      <c r="BV21" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="BW21" s="48" t="s">
+      <c r="BW21" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="BX21" s="48" t="s">
+      <c r="BX21" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="BY21" s="48" t="s">
+      <c r="BY21" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="BZ21" s="48" t="s">
+      <c r="BZ21" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="CA21" s="48" t="s">
+      <c r="CA21" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="CB21" s="48" t="s">
-        <v>515</v>
-      </c>
-      <c r="CC21" s="48" t="s">
-        <v>515</v>
-      </c>
-      <c r="CD21" s="48" t="s">
-        <v>537</v>
+      <c r="CB21" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="CC21" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="CD21" s="30" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:82">
@@ -6302,83 +6284,83 @@
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="55"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
-      <c r="S22" s="49"/>
+      <c r="S22" s="31"/>
       <c r="T22" s="29"/>
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="49"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="56"/>
-      <c r="AT22" s="49"/>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="59"/>
-      <c r="AW22" s="56"/>
-      <c r="AX22" s="59"/>
-      <c r="AY22" s="56"/>
-      <c r="AZ22" s="57"/>
-      <c r="BA22" s="56"/>
-      <c r="BB22" s="56"/>
-      <c r="BC22" s="56"/>
-      <c r="BD22" s="56"/>
-      <c r="BE22" s="74"/>
-      <c r="BF22" s="49"/>
-      <c r="BG22" s="49"/>
-      <c r="BH22" s="56"/>
-      <c r="BI22" s="56"/>
-      <c r="BJ22" s="56"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="48"/>
+      <c r="AZ22" s="56"/>
+      <c r="BA22" s="48"/>
+      <c r="BB22" s="48"/>
+      <c r="BC22" s="48"/>
+      <c r="BD22" s="48"/>
+      <c r="BE22" s="46"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="48"/>
+      <c r="BI22" s="48"/>
+      <c r="BJ22" s="48"/>
       <c r="BK22" s="29"/>
       <c r="BL22" s="29"/>
       <c r="BM22" s="29"/>
       <c r="BN22" s="29"/>
-      <c r="BO22" s="49"/>
-      <c r="BP22" s="49"/>
-      <c r="BQ22" s="49"/>
-      <c r="BR22" s="49"/>
-      <c r="BS22" s="49"/>
-      <c r="BT22" s="49"/>
-      <c r="BU22" s="49"/>
-      <c r="BV22" s="49"/>
-      <c r="BW22" s="49"/>
-      <c r="BX22" s="49"/>
-      <c r="BY22" s="49"/>
-      <c r="BZ22" s="49"/>
-      <c r="CA22" s="49"/>
-      <c r="CB22" s="49"/>
-      <c r="CC22" s="49"/>
-      <c r="CD22" s="49"/>
+      <c r="BO22" s="31"/>
+      <c r="BP22" s="31"/>
+      <c r="BQ22" s="31"/>
+      <c r="BR22" s="31"/>
+      <c r="BS22" s="31"/>
+      <c r="BT22" s="31"/>
+      <c r="BU22" s="31"/>
+      <c r="BV22" s="31"/>
+      <c r="BW22" s="31"/>
+      <c r="BX22" s="31"/>
+      <c r="BY22" s="31"/>
+      <c r="BZ22" s="31"/>
+      <c r="CA22" s="31"/>
+      <c r="CB22" s="31"/>
+      <c r="CC22" s="31"/>
+      <c r="CD22" s="31"/>
     </row>
     <row r="23" spans="1:82">
       <c r="A23" s="29"/>
@@ -6386,83 +6368,83 @@
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="55"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
-      <c r="S23" s="49"/>
+      <c r="S23" s="31"/>
       <c r="T23" s="29"/>
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="59"/>
-      <c r="AS23" s="56"/>
-      <c r="AT23" s="49"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="59"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="59"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="57"/>
-      <c r="BA23" s="56"/>
-      <c r="BB23" s="56"/>
-      <c r="BC23" s="56"/>
-      <c r="BD23" s="56"/>
-      <c r="BE23" s="74"/>
-      <c r="BF23" s="49"/>
-      <c r="BG23" s="49"/>
-      <c r="BH23" s="56"/>
-      <c r="BI23" s="56"/>
-      <c r="BJ23" s="56"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="48"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="48"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="48"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="48"/>
+      <c r="BC23" s="48"/>
+      <c r="BD23" s="48"/>
+      <c r="BE23" s="46"/>
+      <c r="BF23" s="31"/>
+      <c r="BG23" s="31"/>
+      <c r="BH23" s="48"/>
+      <c r="BI23" s="48"/>
+      <c r="BJ23" s="48"/>
       <c r="BK23" s="29"/>
       <c r="BL23" s="29"/>
       <c r="BM23" s="29"/>
       <c r="BN23" s="29"/>
-      <c r="BO23" s="49"/>
-      <c r="BP23" s="49"/>
-      <c r="BQ23" s="49"/>
-      <c r="BR23" s="49"/>
-      <c r="BS23" s="49"/>
-      <c r="BT23" s="49"/>
-      <c r="BU23" s="49"/>
-      <c r="BV23" s="49"/>
-      <c r="BW23" s="49"/>
-      <c r="BX23" s="49"/>
-      <c r="BY23" s="49"/>
-      <c r="BZ23" s="49"/>
-      <c r="CA23" s="49"/>
-      <c r="CB23" s="49"/>
-      <c r="CC23" s="49"/>
-      <c r="CD23" s="49"/>
+      <c r="BO23" s="31"/>
+      <c r="BP23" s="31"/>
+      <c r="BQ23" s="31"/>
+      <c r="BR23" s="31"/>
+      <c r="BS23" s="31"/>
+      <c r="BT23" s="31"/>
+      <c r="BU23" s="31"/>
+      <c r="BV23" s="31"/>
+      <c r="BW23" s="31"/>
+      <c r="BX23" s="31"/>
+      <c r="BY23" s="31"/>
+      <c r="BZ23" s="31"/>
+      <c r="CA23" s="31"/>
+      <c r="CB23" s="31"/>
+      <c r="CC23" s="31"/>
+      <c r="CD23" s="31"/>
     </row>
     <row r="24" spans="1:82">
       <c r="A24" s="29"/>
@@ -6470,83 +6452,83 @@
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="55"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
-      <c r="S24" s="49"/>
+      <c r="S24" s="31"/>
       <c r="T24" s="29"/>
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="56"/>
-      <c r="AL24" s="62"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="56"/>
-      <c r="AP24" s="62"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="56"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="59"/>
-      <c r="AW24" s="56"/>
-      <c r="AX24" s="59"/>
-      <c r="AY24" s="56"/>
-      <c r="AZ24" s="57"/>
-      <c r="BA24" s="56"/>
-      <c r="BB24" s="56"/>
-      <c r="BC24" s="56"/>
-      <c r="BD24" s="56"/>
-      <c r="BE24" s="74"/>
-      <c r="BF24" s="49"/>
-      <c r="BG24" s="49"/>
-      <c r="BH24" s="56"/>
-      <c r="BI24" s="56"/>
-      <c r="BJ24" s="56"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="50"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="53"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="53"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="48"/>
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="48"/>
+      <c r="AZ24" s="56"/>
+      <c r="BA24" s="48"/>
+      <c r="BB24" s="48"/>
+      <c r="BC24" s="48"/>
+      <c r="BD24" s="48"/>
+      <c r="BE24" s="46"/>
+      <c r="BF24" s="31"/>
+      <c r="BG24" s="31"/>
+      <c r="BH24" s="48"/>
+      <c r="BI24" s="48"/>
+      <c r="BJ24" s="48"/>
       <c r="BK24" s="29"/>
       <c r="BL24" s="29"/>
       <c r="BM24" s="29"/>
       <c r="BN24" s="29"/>
-      <c r="BO24" s="49"/>
-      <c r="BP24" s="49"/>
-      <c r="BQ24" s="49"/>
-      <c r="BR24" s="49"/>
-      <c r="BS24" s="49"/>
-      <c r="BT24" s="49"/>
-      <c r="BU24" s="49"/>
-      <c r="BV24" s="49"/>
-      <c r="BW24" s="49"/>
-      <c r="BX24" s="49"/>
-      <c r="BY24" s="49"/>
-      <c r="BZ24" s="49"/>
-      <c r="CA24" s="49"/>
-      <c r="CB24" s="49"/>
-      <c r="CC24" s="49"/>
-      <c r="CD24" s="49"/>
+      <c r="BO24" s="31"/>
+      <c r="BP24" s="31"/>
+      <c r="BQ24" s="31"/>
+      <c r="BR24" s="31"/>
+      <c r="BS24" s="31"/>
+      <c r="BT24" s="31"/>
+      <c r="BU24" s="31"/>
+      <c r="BV24" s="31"/>
+      <c r="BW24" s="31"/>
+      <c r="BX24" s="31"/>
+      <c r="BY24" s="31"/>
+      <c r="BZ24" s="31"/>
+      <c r="CA24" s="31"/>
+      <c r="CB24" s="31"/>
+      <c r="CC24" s="31"/>
+      <c r="CD24" s="31"/>
     </row>
     <row r="25" spans="1:82">
       <c r="A25" s="29"/>
@@ -6554,83 +6536,83 @@
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="55"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
-      <c r="S25" s="49"/>
+      <c r="S25" s="31"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="56"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="59"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="59"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="56"/>
-      <c r="BB25" s="56"/>
-      <c r="BC25" s="56"/>
-      <c r="BD25" s="56"/>
-      <c r="BE25" s="74"/>
-      <c r="BF25" s="49"/>
-      <c r="BG25" s="49"/>
-      <c r="BH25" s="56"/>
-      <c r="BI25" s="56"/>
-      <c r="BJ25" s="56"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="48"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="48"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="48"/>
+      <c r="BB25" s="48"/>
+      <c r="BC25" s="48"/>
+      <c r="BD25" s="48"/>
+      <c r="BE25" s="46"/>
+      <c r="BF25" s="31"/>
+      <c r="BG25" s="31"/>
+      <c r="BH25" s="48"/>
+      <c r="BI25" s="48"/>
+      <c r="BJ25" s="48"/>
       <c r="BK25" s="29"/>
       <c r="BL25" s="29"/>
       <c r="BM25" s="29"/>
       <c r="BN25" s="29"/>
-      <c r="BO25" s="49"/>
-      <c r="BP25" s="49"/>
-      <c r="BQ25" s="49"/>
-      <c r="BR25" s="49"/>
-      <c r="BS25" s="49"/>
-      <c r="BT25" s="49"/>
-      <c r="BU25" s="49"/>
-      <c r="BV25" s="49"/>
-      <c r="BW25" s="49"/>
-      <c r="BX25" s="49"/>
-      <c r="BY25" s="49"/>
-      <c r="BZ25" s="49"/>
-      <c r="CA25" s="49"/>
-      <c r="CB25" s="49"/>
-      <c r="CC25" s="49"/>
-      <c r="CD25" s="49"/>
+      <c r="BO25" s="31"/>
+      <c r="BP25" s="31"/>
+      <c r="BQ25" s="31"/>
+      <c r="BR25" s="31"/>
+      <c r="BS25" s="31"/>
+      <c r="BT25" s="31"/>
+      <c r="BU25" s="31"/>
+      <c r="BV25" s="31"/>
+      <c r="BW25" s="31"/>
+      <c r="BX25" s="31"/>
+      <c r="BY25" s="31"/>
+      <c r="BZ25" s="31"/>
+      <c r="CA25" s="31"/>
+      <c r="CB25" s="31"/>
+      <c r="CC25" s="31"/>
+      <c r="CD25" s="31"/>
     </row>
     <row r="26" spans="1:82">
       <c r="A26" s="29"/>
@@ -6638,99 +6620,99 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="55"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
-      <c r="S26" s="50"/>
+      <c r="S26" s="32"/>
       <c r="T26" s="29"/>
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="63"/>
-      <c r="AM26" s="50"/>
-      <c r="AN26" s="60"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="50"/>
-      <c r="AR26" s="60"/>
-      <c r="AS26" s="56"/>
-      <c r="AT26" s="50"/>
-      <c r="AU26" s="50"/>
-      <c r="AV26" s="60"/>
-      <c r="AW26" s="56"/>
-      <c r="AX26" s="60"/>
-      <c r="AY26" s="56"/>
-      <c r="AZ26" s="57"/>
-      <c r="BA26" s="56"/>
-      <c r="BB26" s="56"/>
-      <c r="BC26" s="56"/>
-      <c r="BD26" s="56"/>
-      <c r="BE26" s="75"/>
-      <c r="BF26" s="50"/>
-      <c r="BG26" s="50"/>
-      <c r="BH26" s="56"/>
-      <c r="BI26" s="56"/>
-      <c r="BJ26" s="56"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="48"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="48"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="48"/>
+      <c r="AZ26" s="56"/>
+      <c r="BA26" s="48"/>
+      <c r="BB26" s="48"/>
+      <c r="BC26" s="48"/>
+      <c r="BD26" s="48"/>
+      <c r="BE26" s="47"/>
+      <c r="BF26" s="32"/>
+      <c r="BG26" s="32"/>
+      <c r="BH26" s="48"/>
+      <c r="BI26" s="48"/>
+      <c r="BJ26" s="48"/>
       <c r="BK26" s="29"/>
       <c r="BL26" s="29"/>
       <c r="BM26" s="29"/>
       <c r="BN26" s="29"/>
-      <c r="BO26" s="50"/>
-      <c r="BP26" s="50"/>
-      <c r="BQ26" s="50"/>
-      <c r="BR26" s="50"/>
-      <c r="BS26" s="50"/>
-      <c r="BT26" s="50"/>
-      <c r="BU26" s="50"/>
-      <c r="BV26" s="50"/>
-      <c r="BW26" s="50"/>
-      <c r="BX26" s="50"/>
-      <c r="BY26" s="50"/>
-      <c r="BZ26" s="50"/>
-      <c r="CA26" s="50"/>
-      <c r="CB26" s="50"/>
-      <c r="CC26" s="50"/>
-      <c r="CD26" s="50"/>
+      <c r="BO26" s="32"/>
+      <c r="BP26" s="32"/>
+      <c r="BQ26" s="32"/>
+      <c r="BR26" s="32"/>
+      <c r="BS26" s="32"/>
+      <c r="BT26" s="32"/>
+      <c r="BU26" s="32"/>
+      <c r="BV26" s="32"/>
+      <c r="BW26" s="32"/>
+      <c r="BX26" s="32"/>
+      <c r="BY26" s="32"/>
+      <c r="BZ26" s="32"/>
+      <c r="CA26" s="32"/>
+      <c r="CB26" s="32"/>
+      <c r="CC26" s="32"/>
+      <c r="CD26" s="32"/>
     </row>
     <row r="27" spans="1:82" ht="11.25" customHeight="1">
-      <c r="F27" s="44"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="46"/>
-      <c r="AK27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AS27" s="56"/>
-      <c r="AW27" s="56"/>
-      <c r="AY27" s="56"/>
-      <c r="AZ27" s="57"/>
-      <c r="BA27" s="56"/>
-      <c r="BB27" s="56"/>
-      <c r="BC27" s="56"/>
-      <c r="BD27" s="56"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="74"/>
+      <c r="AK27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AS27" s="48"/>
+      <c r="AW27" s="48"/>
+      <c r="AY27" s="48"/>
+      <c r="AZ27" s="56"/>
+      <c r="BA27" s="48"/>
+      <c r="BB27" s="48"/>
+      <c r="BC27" s="48"/>
+      <c r="BD27" s="48"/>
     </row>
     <row r="28" spans="1:82" ht="11.25" customHeight="1">
       <c r="B28" s="7" t="s">
@@ -6739,227 +6721,227 @@
       <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="47"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="75"/>
       <c r="J28" s="29" t="s">
         <v>219</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AE28" s="48" t="s">
+      <c r="AE28" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="AK28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AS28" s="56"/>
-      <c r="AW28" s="56"/>
-      <c r="AY28" s="56"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="56"/>
-      <c r="BB28" s="56"/>
-      <c r="BC28" s="56"/>
-      <c r="BD28" s="56"/>
-      <c r="BJ28" s="48" t="s">
+      <c r="AK28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AS28" s="48"/>
+      <c r="AW28" s="48"/>
+      <c r="AY28" s="48"/>
+      <c r="AZ28" s="56"/>
+      <c r="BA28" s="48"/>
+      <c r="BB28" s="48"/>
+      <c r="BC28" s="48"/>
+      <c r="BD28" s="48"/>
+      <c r="BJ28" s="30" t="s">
         <v>253</v>
       </c>
       <c r="BK28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="CB28" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="CC28" s="30" t="s">
-        <v>516</v>
+      <c r="CB28" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="CC28" s="33" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:82">
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="36" t="s">
         <v>189</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="47"/>
+        <v>505</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="75"/>
       <c r="J29" s="29"/>
       <c r="V29" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="AE29" s="49"/>
-      <c r="BJ29" s="49"/>
+        <v>513</v>
+      </c>
+      <c r="AE29" s="31"/>
+      <c r="BJ29" s="31"/>
       <c r="BK29" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="CB29" s="31"/>
-      <c r="CC29" s="31"/>
+        <v>520</v>
+      </c>
+      <c r="CB29" s="34"/>
+      <c r="CC29" s="34"/>
     </row>
     <row r="30" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B30" s="65"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="5" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="J30" s="29"/>
       <c r="V30" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="AE30" s="49"/>
-      <c r="BJ30" s="49"/>
+        <v>514</v>
+      </c>
+      <c r="AE30" s="31"/>
+      <c r="BJ30" s="31"/>
       <c r="BK30" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="CB30" s="31"/>
-      <c r="CC30" s="31"/>
+        <v>521</v>
+      </c>
+      <c r="CB30" s="34"/>
+      <c r="CC30" s="34"/>
     </row>
     <row r="31" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B31" s="65"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="5" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="J31" s="29"/>
       <c r="V31" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE31" s="49"/>
-      <c r="BJ31" s="49"/>
-      <c r="CB31" s="31"/>
-      <c r="CC31" s="31"/>
+        <v>515</v>
+      </c>
+      <c r="AE31" s="31"/>
+      <c r="BJ31" s="31"/>
+      <c r="CB31" s="34"/>
+      <c r="CC31" s="34"/>
     </row>
     <row r="32" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B32" s="65"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="5" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="J32" s="29"/>
       <c r="V32" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="AE32" s="49"/>
-      <c r="BJ32" s="49"/>
-      <c r="CB32" s="31"/>
-      <c r="CC32" s="31"/>
+        <v>516</v>
+      </c>
+      <c r="AE32" s="31"/>
+      <c r="BJ32" s="31"/>
+      <c r="CB32" s="34"/>
+      <c r="CC32" s="34"/>
     </row>
     <row r="33" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B33" s="65"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="5" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="J33" s="29"/>
       <c r="V33" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE33" s="49"/>
-      <c r="BJ33" s="49"/>
-      <c r="CB33" s="32"/>
-      <c r="CC33" s="32"/>
+        <v>517</v>
+      </c>
+      <c r="AE33" s="31"/>
+      <c r="BJ33" s="31"/>
+      <c r="CB33" s="35"/>
+      <c r="CC33" s="35"/>
     </row>
     <row r="34" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B34" s="65"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="5" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="J34" s="29"/>
       <c r="V34" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="AE34" s="49"/>
-      <c r="BJ34" s="50"/>
+        <v>518</v>
+      </c>
+      <c r="AE34" s="31"/>
+      <c r="BJ34" s="32"/>
       <c r="CC34" s="8"/>
     </row>
     <row r="35" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B35" s="66"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="5" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="J35" s="29"/>
       <c r="V35" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="AE35" s="49"/>
-      <c r="CB35" s="48" t="s">
-        <v>534</v>
-      </c>
-      <c r="CC35" s="48" t="s">
-        <v>534</v>
+        <v>519</v>
+      </c>
+      <c r="AE35" s="31"/>
+      <c r="CB35" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="CC35" s="30" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="2:81">
       <c r="C36" s="5" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="J36" s="29"/>
-      <c r="AE36" s="49"/>
-      <c r="CB36" s="49"/>
-      <c r="CC36" s="49"/>
+      <c r="AE36" s="31"/>
+      <c r="CB36" s="31"/>
+      <c r="CC36" s="31"/>
     </row>
     <row r="37" spans="2:81">
       <c r="C37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE37" s="50"/>
-      <c r="CB37" s="49"/>
-      <c r="CC37" s="49"/>
+      <c r="AE37" s="32"/>
+      <c r="CB37" s="31"/>
+      <c r="CC37" s="31"/>
     </row>
     <row r="38" spans="2:81">
       <c r="C38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CB38" s="49"/>
-      <c r="CC38" s="49"/>
+      <c r="CB38" s="31"/>
+      <c r="CC38" s="31"/>
     </row>
     <row r="39" spans="2:81">
       <c r="C39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AE39" s="30" t="s">
+      <c r="AE39" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="CB39" s="49"/>
-      <c r="CC39" s="49"/>
+      <c r="CB39" s="31"/>
+      <c r="CC39" s="31"/>
     </row>
     <row r="40" spans="2:81">
       <c r="C40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AE40" s="31"/>
-      <c r="CB40" s="49"/>
-      <c r="CC40" s="49"/>
+      <c r="AE40" s="34"/>
+      <c r="CB40" s="31"/>
+      <c r="CC40" s="31"/>
     </row>
     <row r="41" spans="2:81">
       <c r="C41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AE41" s="31"/>
-      <c r="CB41" s="49"/>
-      <c r="CC41" s="49"/>
+      <c r="AE41" s="34"/>
+      <c r="CB41" s="31"/>
+      <c r="CC41" s="31"/>
     </row>
     <row r="42" spans="2:81">
       <c r="C42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AE42" s="31"/>
-      <c r="CB42" s="49"/>
-      <c r="CC42" s="49"/>
+      <c r="AE42" s="34"/>
+      <c r="CB42" s="31"/>
+      <c r="CC42" s="31"/>
     </row>
     <row r="43" spans="2:81">
       <c r="C43" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AE43" s="31"/>
-      <c r="CB43" s="49"/>
-      <c r="CC43" s="49"/>
+      <c r="AE43" s="34"/>
+      <c r="CB43" s="31"/>
+      <c r="CC43" s="31"/>
     </row>
     <row r="44" spans="2:81">
       <c r="C44" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AE44" s="32"/>
-      <c r="CB44" s="49"/>
-      <c r="CC44" s="49"/>
+      <c r="AE44" s="35"/>
+      <c r="CB44" s="31"/>
+      <c r="CC44" s="31"/>
     </row>
     <row r="45" spans="2:81">
       <c r="C45" s="5" t="s">
@@ -6968,24 +6950,24 @@
       <c r="BJ45" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="CB45" s="49"/>
-      <c r="CC45" s="49"/>
+      <c r="CB45" s="31"/>
+      <c r="CC45" s="31"/>
     </row>
     <row r="46" spans="2:81">
       <c r="C46" s="5" t="s">
         <v>107</v>
       </c>
       <c r="BJ46" s="29"/>
-      <c r="CB46" s="49"/>
-      <c r="CC46" s="49"/>
+      <c r="CB46" s="31"/>
+      <c r="CC46" s="31"/>
     </row>
     <row r="47" spans="2:81">
       <c r="C47" s="5" t="s">
         <v>108</v>
       </c>
       <c r="BJ47" s="29"/>
-      <c r="CB47" s="50"/>
-      <c r="CC47" s="50"/>
+      <c r="CB47" s="32"/>
+      <c r="CC47" s="32"/>
     </row>
     <row r="48" spans="2:81">
       <c r="C48" s="5" t="s">
@@ -6997,33 +6979,33 @@
       <c r="C49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="CB49" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="CC49" s="30" t="s">
-        <v>536</v>
+      <c r="CB49" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="CC49" s="33" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="50" spans="3:81">
       <c r="C50" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="CB50" s="31"/>
-      <c r="CC50" s="31"/>
+      <c r="CB50" s="34"/>
+      <c r="CC50" s="34"/>
     </row>
     <row r="51" spans="3:81">
       <c r="C51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CB51" s="31"/>
-      <c r="CC51" s="31"/>
+      <c r="CB51" s="34"/>
+      <c r="CC51" s="34"/>
     </row>
     <row r="52" spans="3:81">
       <c r="C52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="CB52" s="32"/>
-      <c r="CC52" s="32"/>
+      <c r="CB52" s="35"/>
+      <c r="CC52" s="35"/>
     </row>
     <row r="53" spans="3:81">
       <c r="C53" s="5" t="s">
@@ -7167,6 +7149,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="BO18:CA20"/>
+    <mergeCell ref="A18:AX20"/>
+    <mergeCell ref="AE39:AE44"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="G21:G29"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="T21:T26"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N21:N26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="P21:P26"/>
+    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="R21:R26"/>
+    <mergeCell ref="BO21:BO26"/>
+    <mergeCell ref="AA21:AA26"/>
+    <mergeCell ref="BL18:BN20"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="BE18:BE20"/>
+    <mergeCell ref="AY18:BD20"/>
+    <mergeCell ref="BF18:BF20"/>
+    <mergeCell ref="BG18:BG20"/>
+    <mergeCell ref="BH18:BH20"/>
+    <mergeCell ref="BI18:BJ20"/>
+    <mergeCell ref="BK18:BK20"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="BY21:BY26"/>
+    <mergeCell ref="U21:U26"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="X21:X26"/>
+    <mergeCell ref="Y21:Y26"/>
+    <mergeCell ref="Z21:Z26"/>
+    <mergeCell ref="AK21:AK28"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AS21:AS28"/>
+    <mergeCell ref="AW21:AW28"/>
+    <mergeCell ref="AZ21:AZ28"/>
+    <mergeCell ref="AM21:AM26"/>
+    <mergeCell ref="AN21:AN26"/>
+    <mergeCell ref="AP21:AP26"/>
+    <mergeCell ref="S21:S26"/>
+    <mergeCell ref="AE28:AE37"/>
+    <mergeCell ref="AB21:AB26"/>
+    <mergeCell ref="AC21:AC26"/>
+    <mergeCell ref="AD21:AD26"/>
+    <mergeCell ref="AE21:AE26"/>
+    <mergeCell ref="AQ21:AQ26"/>
+    <mergeCell ref="AF21:AF26"/>
+    <mergeCell ref="AG21:AG26"/>
+    <mergeCell ref="AH21:AH26"/>
+    <mergeCell ref="AI21:AI26"/>
+    <mergeCell ref="AJ21:AJ26"/>
+    <mergeCell ref="AL21:AL26"/>
+    <mergeCell ref="AX21:AX26"/>
+    <mergeCell ref="AR21:AR26"/>
+    <mergeCell ref="BJ45:BJ48"/>
+    <mergeCell ref="BQ21:BQ26"/>
+    <mergeCell ref="AU21:AU26"/>
+    <mergeCell ref="AV21:AV26"/>
+    <mergeCell ref="AT21:AT26"/>
+    <mergeCell ref="AY21:AY28"/>
+    <mergeCell ref="BA21:BA28"/>
+    <mergeCell ref="BR21:BR26"/>
+    <mergeCell ref="BS21:BS26"/>
+    <mergeCell ref="BB21:BB28"/>
+    <mergeCell ref="BT21:BT26"/>
+    <mergeCell ref="BJ21:BJ26"/>
+    <mergeCell ref="BK21:BK26"/>
+    <mergeCell ref="BL21:BL26"/>
+    <mergeCell ref="BM21:BM26"/>
+    <mergeCell ref="BN21:BN26"/>
+    <mergeCell ref="BP21:BP26"/>
+    <mergeCell ref="BD21:BD28"/>
+    <mergeCell ref="BC21:BC28"/>
     <mergeCell ref="CD21:CD26"/>
     <mergeCell ref="CB35:CB47"/>
     <mergeCell ref="CB49:CB52"/>
@@ -7191,89 +7256,6 @@
     <mergeCell ref="BG21:BG26"/>
     <mergeCell ref="BH21:BH26"/>
     <mergeCell ref="BI21:BI26"/>
-    <mergeCell ref="BR21:BR26"/>
-    <mergeCell ref="BS21:BS26"/>
-    <mergeCell ref="BB21:BB28"/>
-    <mergeCell ref="BT21:BT26"/>
-    <mergeCell ref="BJ21:BJ26"/>
-    <mergeCell ref="BK21:BK26"/>
-    <mergeCell ref="BL21:BL26"/>
-    <mergeCell ref="BM21:BM26"/>
-    <mergeCell ref="BN21:BN26"/>
-    <mergeCell ref="BP21:BP26"/>
-    <mergeCell ref="BD21:BD28"/>
-    <mergeCell ref="BC21:BC28"/>
-    <mergeCell ref="AG21:AG26"/>
-    <mergeCell ref="AH21:AH26"/>
-    <mergeCell ref="AI21:AI26"/>
-    <mergeCell ref="AJ21:AJ26"/>
-    <mergeCell ref="AL21:AL26"/>
-    <mergeCell ref="AX21:AX26"/>
-    <mergeCell ref="AR21:AR26"/>
-    <mergeCell ref="BJ45:BJ48"/>
-    <mergeCell ref="BQ21:BQ26"/>
-    <mergeCell ref="AU21:AU26"/>
-    <mergeCell ref="AV21:AV26"/>
-    <mergeCell ref="AT21:AT26"/>
-    <mergeCell ref="AY21:AY28"/>
-    <mergeCell ref="BA21:BA28"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="BY21:BY26"/>
-    <mergeCell ref="U21:U26"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="X21:X26"/>
-    <mergeCell ref="Y21:Y26"/>
-    <mergeCell ref="Z21:Z26"/>
-    <mergeCell ref="AK21:AK28"/>
-    <mergeCell ref="AO21:AO28"/>
-    <mergeCell ref="AS21:AS28"/>
-    <mergeCell ref="AW21:AW28"/>
-    <mergeCell ref="AZ21:AZ28"/>
-    <mergeCell ref="AM21:AM26"/>
-    <mergeCell ref="AN21:AN26"/>
-    <mergeCell ref="AP21:AP26"/>
-    <mergeCell ref="S21:S26"/>
-    <mergeCell ref="AE28:AE37"/>
-    <mergeCell ref="AB21:AB26"/>
-    <mergeCell ref="AC21:AC26"/>
-    <mergeCell ref="AD21:AD26"/>
-    <mergeCell ref="AE21:AE26"/>
-    <mergeCell ref="AQ21:AQ26"/>
-    <mergeCell ref="AF21:AF26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="BE18:BE20"/>
-    <mergeCell ref="AY18:BD20"/>
-    <mergeCell ref="BF18:BF20"/>
-    <mergeCell ref="BG18:BG20"/>
-    <mergeCell ref="BH18:BH20"/>
-    <mergeCell ref="BI18:BJ20"/>
-    <mergeCell ref="BK18:BK20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="BO18:CA20"/>
-    <mergeCell ref="A18:AX20"/>
-    <mergeCell ref="AE39:AE44"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="G21:G29"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="T21:T26"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N21:N26"/>
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="P21:P26"/>
-    <mergeCell ref="Q21:Q26"/>
-    <mergeCell ref="R21:R26"/>
-    <mergeCell ref="BO21:BO26"/>
-    <mergeCell ref="AA21:AA26"/>
-    <mergeCell ref="BL18:BN20"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="D21:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7284,8 +7266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:L84"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7325,7 +7307,7 @@
         <v>CD_SITUACAO_NF,</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L12" si="1">CONCATENATE("'",K4,"',")</f>
@@ -7363,7 +7345,7 @@
         <v>NR_REFERENCIA_FISCAL_FATURA,</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
@@ -7382,7 +7364,7 @@
         <v>NR_ITEM_NF_FATURA,</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
@@ -7401,7 +7383,7 @@
         <v>NR_NF_FATURA,</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
@@ -7420,7 +7402,7 @@
         <v>NR_SERIE_NF_FATURA,</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
@@ -7439,7 +7421,7 @@
         <v>NR_NF_REMESSA,</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
@@ -7458,7 +7440,7 @@
         <v>NR_SERIE_NF_REMESSA,</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
@@ -7477,7 +7459,7 @@
         <v>NR_ORDEM,</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>

--- a/Documentação/Planilhas/Conferencia_FAT.xlsx
+++ b/Documentação/Planilhas/Conferencia_FAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="stg_fat_cotacao" sheetId="104" r:id="rId1"/>
@@ -780,9 +780,6 @@
     <t>Sessão tccom4530m000 (Endereço)</t>
   </si>
   <si>
-    <t>Sessão brnfel520m00l [Histórico Transm Nfe]</t>
-  </si>
-  <si>
     <t>Na lupinha, limpar todos os campos e informar a referência Fiscal desejada. Pegar a informação da coluna Data, cuja data seja a mais recente [a Ref Fiscal pode ainda não ter sido transmitida, neste caso, retornará nulo]</t>
   </si>
   <si>
@@ -1649,6 +1646,9 @@
   </si>
   <si>
     <t>2014-09-17 11:18:52.000</t>
+  </si>
+  <si>
+    <t>Sessão brnfel520m00l [Histórico Transmissão Nfe]</t>
   </si>
 </sst>
 </file>
@@ -2008,6 +2008,60 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2017,13 +2071,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2061,90 +2145,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2453,9 +2453,7 @@
   </sheetPr>
   <dimension ref="A1:CB25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -2605,16 +2603,16 @@
         <v>202</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>26</v>
@@ -2625,16 +2623,16 @@
         <v>202</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>26</v>
@@ -2645,16 +2643,16 @@
         <v>202</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>26</v>
@@ -2665,16 +2663,16 @@
         <v>202</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>26</v>
@@ -2685,16 +2683,16 @@
         <v>203</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>26</v>
@@ -2705,16 +2703,16 @@
         <v>203</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>272</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>26</v>
@@ -2725,16 +2723,16 @@
         <v>203</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>26</v>
@@ -2745,16 +2743,16 @@
         <v>203</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>0</v>
@@ -2762,19 +2760,19 @@
     </row>
     <row r="15" spans="1:62">
       <c r="A15" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>26</v>
@@ -2782,19 +2780,19 @@
     </row>
     <row r="16" spans="1:62">
       <c r="A16" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>26</v>
@@ -2802,19 +2800,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>0</v>
@@ -2822,7 +2820,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2914,9 +2912,7 @@
   </sheetPr>
   <dimension ref="A1:CD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -3281,7 +3277,7 @@
     </row>
     <row r="7" spans="1:82" s="9" customFormat="1">
       <c r="A7" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>87</v>
@@ -3308,19 +3304,19 @@
         <v>86</v>
       </c>
       <c r="J7" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>419</v>
-      </c>
       <c r="N7" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>157</v>
@@ -3329,34 +3325,34 @@
         <v>158</v>
       </c>
       <c r="Q7" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="T7" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="U7" s="13" t="s">
         <v>420</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>421</v>
       </c>
       <c r="V7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="Y7" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z7" s="13" t="s">
         <v>423</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>424</v>
       </c>
       <c r="AA7" s="13" t="s">
         <v>88</v>
@@ -3392,25 +3388,25 @@
         <v>88</v>
       </c>
       <c r="AL7" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="AM7" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="AM7" s="13" t="s">
+      <c r="AN7" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="AN7" s="13" t="s">
+      <c r="AO7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP7" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="AO7" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP7" s="13" t="s">
+      <c r="AQ7" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="AQ7" s="13" t="s">
+      <c r="AR7" s="13" t="s">
         <v>429</v>
-      </c>
-      <c r="AR7" s="13" t="s">
-        <v>430</v>
       </c>
       <c r="AS7" s="13" t="s">
         <v>88</v>
@@ -3434,13 +3430,13 @@
         <v>93</v>
       </c>
       <c r="AZ7" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="BA7" s="13" t="s">
         <v>93</v>
       </c>
       <c r="BB7" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="BC7" s="13" t="s">
         <v>195</v>
@@ -3449,34 +3445,34 @@
         <v>195</v>
       </c>
       <c r="BE7" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF7" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="BF7" s="13" t="s">
-        <v>306</v>
-      </c>
       <c r="BG7" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BH7" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BI7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="BJ7" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BK7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="BL7" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BM7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="BN7" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BO7" s="13" t="s">
         <v>0</v>
@@ -3488,22 +3484,22 @@
         <v>89</v>
       </c>
       <c r="BR7" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="BS7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU7" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="BS7" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT7" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU7" s="13" t="s">
-        <v>436</v>
-      </c>
       <c r="BV7" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BW7" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BX7" s="13" t="s">
         <v>0</v>
@@ -3529,7 +3525,7 @@
     </row>
     <row r="8" spans="1:82" s="9" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>87</v>
@@ -3556,19 +3552,19 @@
         <v>86</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>439</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>157</v>
@@ -3577,34 +3573,34 @@
         <v>158</v>
       </c>
       <c r="Q8" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="R8" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="S8" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="S8" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>442</v>
-      </c>
       <c r="U8" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="X8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y8" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z8" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>88</v>
@@ -3682,13 +3678,13 @@
         <v>93</v>
       </c>
       <c r="AZ8" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BA8" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB8" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BC8" s="8" t="s">
         <v>195</v>
@@ -3697,34 +3693,34 @@
         <v>195</v>
       </c>
       <c r="BE8" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF8" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="BF8" s="8" t="s">
-        <v>306</v>
-      </c>
       <c r="BG8" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BH8" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BI8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ8" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BK8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL8" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BM8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN8" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BO8" s="8" t="s">
         <v>0</v>
@@ -3736,7 +3732,7 @@
         <v>89</v>
       </c>
       <c r="BR8" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BS8" s="8" t="s">
         <v>85</v>
@@ -3745,22 +3741,22 @@
         <v>85</v>
       </c>
       <c r="BU8" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="BV8" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="BW8" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="BV8" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="BW8" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="BX8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BY8" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BZ8" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="CA8" s="8" t="s">
         <v>88</v>
@@ -3777,7 +3773,7 @@
     </row>
     <row r="9" spans="1:82" s="9" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>87</v>
@@ -3804,19 +3800,19 @@
         <v>86</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>378</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>157</v>
@@ -3825,34 +3821,34 @@
         <v>158</v>
       </c>
       <c r="Q9" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="R9" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="S9" s="8" t="s">
+      <c r="T9" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="T9" s="8" t="s">
-        <v>381</v>
-      </c>
       <c r="U9" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y9" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z9" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>384</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>88</v>
@@ -3930,49 +3926,49 @@
         <v>93</v>
       </c>
       <c r="AZ9" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BA9" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB9" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="BC9" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="BC9" s="8" t="s">
+      <c r="BD9" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE9" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF9" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BG9" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="BD9" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="BE9" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="BF9" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="BG9" s="8" t="s">
+      <c r="BH9" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="BH9" s="8" t="s">
-        <v>388</v>
       </c>
       <c r="BI9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ9" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL9" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BM9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN9" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BO9" s="8" t="s">
         <v>0</v>
@@ -3984,22 +3980,22 @@
         <v>89</v>
       </c>
       <c r="BR9" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="BS9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU9" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="BS9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU9" s="8" t="s">
+      <c r="BV9" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="BW9" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="BV9" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="BW9" s="8" t="s">
-        <v>394</v>
       </c>
       <c r="BX9" s="8" t="s">
         <v>0</v>
@@ -4052,19 +4048,19 @@
         <v>86</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>157</v>
@@ -4073,34 +4069,34 @@
         <v>158</v>
       </c>
       <c r="Q10" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="S10" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="S10" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="U10" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y10" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z10" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="AA10" s="8" t="s">
         <v>88</v>
@@ -4136,25 +4132,25 @@
         <v>88</v>
       </c>
       <c r="AL10" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM10" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="AM10" s="8" t="s">
+      <c r="AN10" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP10" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="AN10" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP10" s="8" t="s">
+      <c r="AQ10" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="AQ10" s="8" t="s">
-        <v>344</v>
-      </c>
       <c r="AR10" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AS10" s="8" t="s">
         <v>88</v>
@@ -4178,13 +4174,13 @@
         <v>93</v>
       </c>
       <c r="AZ10" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BA10" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB10" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BC10" s="8" t="s">
         <v>90</v>
@@ -4193,34 +4189,34 @@
         <v>90</v>
       </c>
       <c r="BE10" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF10" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="BF10" s="8" t="s">
-        <v>306</v>
-      </c>
       <c r="BG10" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="BH10" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BI10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ10" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BK10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BL10" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BM10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN10" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BO10" s="8" t="s">
         <v>0</v>
@@ -4232,22 +4228,22 @@
         <v>89</v>
       </c>
       <c r="BR10" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="BS10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU10" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV10" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="BW10" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="BS10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU10" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="BV10" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="BW10" s="8" t="s">
-        <v>350</v>
       </c>
       <c r="BX10" s="8" t="s">
         <v>0</v>
@@ -4273,7 +4269,7 @@
     </row>
     <row r="11" spans="1:82" s="9" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>87</v>
@@ -4300,19 +4296,19 @@
         <v>86</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>455</v>
-      </c>
       <c r="N11" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>157</v>
@@ -4321,34 +4317,34 @@
         <v>158</v>
       </c>
       <c r="Q11" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="S11" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="R11" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="S11" s="8" t="s">
+      <c r="T11" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="T11" s="8" t="s">
-        <v>458</v>
-      </c>
       <c r="U11" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V11" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="X11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y11" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z11" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>461</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>88</v>
@@ -4366,43 +4362,43 @@
         <v>88</v>
       </c>
       <c r="AF11" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="AG11" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="AG11" s="8" t="s">
+      <c r="AH11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI11" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="AH11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI11" s="8" t="s">
+      <c r="AJ11" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="AJ11" s="8" t="s">
+      <c r="AK11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL11" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="AK11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL11" s="8" t="s">
+      <c r="AM11" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="AM11" s="8" t="s">
+      <c r="AN11" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP11" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="AN11" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP11" s="8" t="s">
+      <c r="AQ11" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="AQ11" s="8" t="s">
-        <v>469</v>
-      </c>
       <c r="AR11" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AS11" s="8" t="s">
         <v>88</v>
@@ -4426,49 +4422,49 @@
         <v>93</v>
       </c>
       <c r="AZ11" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BA11" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB11" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="BC11" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="BC11" s="8" t="s">
+      <c r="BD11" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="BE11" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BG11" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="BH11" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="BD11" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="BE11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="BF11" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="BG11" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="BH11" s="8" t="s">
-        <v>472</v>
       </c>
       <c r="BI11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ11" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BK11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL11" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BM11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN11" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BO11" s="8" t="s">
         <v>0</v>
@@ -4480,22 +4476,22 @@
         <v>89</v>
       </c>
       <c r="BR11" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="BS11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU11" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV11" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="BW11" s="8" t="s">
         <v>476</v>
-      </c>
-      <c r="BS11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU11" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="BV11" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="BW11" s="8" t="s">
-        <v>477</v>
       </c>
       <c r="BX11" s="8" t="s">
         <v>0</v>
@@ -4521,7 +4517,7 @@
     </row>
     <row r="12" spans="1:82" s="9" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>87</v>
@@ -4548,19 +4544,19 @@
         <v>86</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>355</v>
-      </c>
       <c r="N12" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>157</v>
@@ -4569,34 +4565,34 @@
         <v>158</v>
       </c>
       <c r="Q12" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T12" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="U12" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>357</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y12" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z12" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="Z12" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="AA12" s="8" t="s">
         <v>88</v>
@@ -4632,28 +4628,28 @@
         <v>88</v>
       </c>
       <c r="AL12" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM12" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="AM12" s="8" t="s">
+      <c r="AN12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO12" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="AN12" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO12" s="8" t="s">
+      <c r="AP12" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="AP12" s="8" t="s">
+      <c r="AQ12" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="AQ12" s="8" t="s">
+      <c r="AR12" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS12" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="AR12" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="AS12" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="AT12" s="8" t="s">
         <v>88</v>
@@ -4674,13 +4670,13 @@
         <v>93</v>
       </c>
       <c r="AZ12" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BA12" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB12" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BC12" s="8" t="s">
         <v>195</v>
@@ -4689,34 +4685,34 @@
         <v>195</v>
       </c>
       <c r="BE12" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF12" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="BF12" s="8" t="s">
-        <v>306</v>
-      </c>
       <c r="BG12" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BH12" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BI12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ12" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BK12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BL12" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BM12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN12" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BO12" s="8" t="s">
         <v>0</v>
@@ -4728,31 +4724,31 @@
         <v>89</v>
       </c>
       <c r="BR12" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BS12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU12" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV12" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="BW12" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="BS12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU12" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="BV12" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="BW12" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="BX12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BY12" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BZ12" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="CA12" s="8" t="s">
         <v>88</v>
@@ -4769,7 +4765,7 @@
     </row>
     <row r="13" spans="1:82" s="9" customFormat="1">
       <c r="A13" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>87</v>
@@ -4796,19 +4792,19 @@
         <v>86</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>318</v>
-      </c>
       <c r="N13" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>157</v>
@@ -4817,34 +4813,34 @@
         <v>158</v>
       </c>
       <c r="Q13" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="S13" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="R13" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>293</v>
-      </c>
       <c r="T13" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y13" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z13" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="AA13" s="8" t="s">
         <v>88</v>
@@ -4880,25 +4876,25 @@
         <v>88</v>
       </c>
       <c r="AL13" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM13" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="AM13" s="8" t="s">
+      <c r="AN13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP13" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="AN13" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP13" s="8" t="s">
+      <c r="AQ13" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="AQ13" s="8" t="s">
-        <v>326</v>
-      </c>
       <c r="AR13" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AS13" s="8" t="s">
         <v>88</v>
@@ -4922,13 +4918,13 @@
         <v>93</v>
       </c>
       <c r="AZ13" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BA13" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB13" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BC13" s="8" t="s">
         <v>195</v>
@@ -4937,34 +4933,34 @@
         <v>195</v>
       </c>
       <c r="BE13" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF13" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="BF13" s="8" t="s">
-        <v>306</v>
-      </c>
       <c r="BG13" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BH13" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BI13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ13" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BK13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL13" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BM13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN13" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BO13" s="8" t="s">
         <v>0</v>
@@ -4976,7 +4972,7 @@
         <v>89</v>
       </c>
       <c r="BR13" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BS13" s="8" t="s">
         <v>85</v>
@@ -4985,13 +4981,13 @@
         <v>85</v>
       </c>
       <c r="BU13" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV13" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW13" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="BV13" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="BW13" s="8" t="s">
-        <v>313</v>
       </c>
       <c r="BX13" s="8" t="s">
         <v>91</v>
@@ -5017,7 +5013,7 @@
     </row>
     <row r="14" spans="1:82" s="9" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>87</v>
@@ -5044,19 +5040,19 @@
         <v>86</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>397</v>
-      </c>
       <c r="L14" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>157</v>
@@ -5065,13 +5061,13 @@
         <v>158</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T14" s="8" t="s">
         <v>159</v>
@@ -5083,16 +5079,16 @@
         <v>91</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="X14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y14" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z14" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="Z14" s="8" t="s">
-        <v>403</v>
       </c>
       <c r="AA14" s="8" t="s">
         <v>88</v>
@@ -5128,25 +5124,25 @@
         <v>88</v>
       </c>
       <c r="AL14" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM14" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="AM14" s="8" t="s">
+      <c r="AN14" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="AN14" s="8" t="s">
+      <c r="AO14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP14" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="AO14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP14" s="8" t="s">
+      <c r="AQ14" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="AQ14" s="8" t="s">
+      <c r="AR14" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="AR14" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="AS14" s="8" t="s">
         <v>88</v>
@@ -5170,13 +5166,13 @@
         <v>93</v>
       </c>
       <c r="AZ14" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BA14" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB14" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BC14" s="8" t="s">
         <v>195</v>
@@ -5185,34 +5181,34 @@
         <v>195</v>
       </c>
       <c r="BE14" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF14" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="BF14" s="8" t="s">
-        <v>306</v>
-      </c>
       <c r="BG14" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BH14" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BI14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ14" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BK14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL14" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BM14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN14" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BO14" s="8" t="s">
         <v>0</v>
@@ -5224,22 +5220,22 @@
         <v>89</v>
       </c>
       <c r="BR14" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="BS14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU14" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="BS14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU14" s="8" t="s">
+      <c r="BV14" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="BW14" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="BV14" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="BW14" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="BX14" s="8" t="s">
         <v>0</v>
@@ -5265,7 +5261,7 @@
     </row>
     <row r="15" spans="1:82" s="9" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>87</v>
@@ -5292,19 +5288,19 @@
         <v>86</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="N15" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>157</v>
@@ -5313,34 +5309,34 @@
         <v>158</v>
       </c>
       <c r="Q15" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="S15" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="R15" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="S15" s="8" t="s">
+      <c r="T15" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="T15" s="8" t="s">
-        <v>294</v>
-      </c>
       <c r="U15" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V15" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y15" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z15" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="AA15" s="8" t="s">
         <v>88</v>
@@ -5376,25 +5372,25 @@
         <v>88</v>
       </c>
       <c r="AL15" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM15" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="AM15" s="8" t="s">
+      <c r="AN15" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AN15" s="8" t="s">
+      <c r="AO15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP15" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="AO15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP15" s="8" t="s">
+      <c r="AQ15" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="AQ15" s="8" t="s">
+      <c r="AR15" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="AR15" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="AS15" s="8" t="s">
         <v>88</v>
@@ -5418,13 +5414,13 @@
         <v>93</v>
       </c>
       <c r="AZ15" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BA15" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB15" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BC15" s="8" t="s">
         <v>195</v>
@@ -5433,34 +5429,34 @@
         <v>195</v>
       </c>
       <c r="BE15" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF15" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="BF15" s="8" t="s">
+      <c r="BG15" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="BH15" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="BG15" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="BH15" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="BI15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ15" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BK15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL15" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BM15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN15" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BO15" s="8" t="s">
         <v>0</v>
@@ -5472,22 +5468,22 @@
         <v>89</v>
       </c>
       <c r="BR15" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="BS15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU15" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="BS15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU15" s="8" t="s">
+      <c r="BV15" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="BW15" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="BV15" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="BW15" s="8" t="s">
-        <v>313</v>
       </c>
       <c r="BX15" s="8" t="s">
         <v>0</v>
@@ -5513,7 +5509,7 @@
     </row>
     <row r="16" spans="1:82" s="9" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>87</v>
@@ -5540,19 +5536,19 @@
         <v>86</v>
       </c>
       <c r="J16" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="M16" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>480</v>
-      </c>
       <c r="N16" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>157</v>
@@ -5561,34 +5557,34 @@
         <v>158</v>
       </c>
       <c r="Q16" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T16" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="U16" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>482</v>
       </c>
       <c r="V16" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="X16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y16" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z16" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="Z16" s="8" t="s">
-        <v>485</v>
       </c>
       <c r="AA16" s="8" t="s">
         <v>88</v>
@@ -5624,25 +5620,25 @@
         <v>88</v>
       </c>
       <c r="AL16" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="AM16" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="AM16" s="8" t="s">
+      <c r="AN16" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP16" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="AN16" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="AO16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP16" s="8" t="s">
+      <c r="AQ16" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="AQ16" s="8" t="s">
-        <v>489</v>
-      </c>
       <c r="AR16" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AS16" s="8" t="s">
         <v>88</v>
@@ -5666,49 +5662,49 @@
         <v>93</v>
       </c>
       <c r="AZ16" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="BA16" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB16" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="BC16" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="BC16" s="8" t="s">
+      <c r="BD16" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="BE16" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF16" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BG16" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="BH16" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="BD16" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="BE16" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="BF16" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="BG16" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="BH16" s="8" t="s">
-        <v>492</v>
       </c>
       <c r="BI16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ16" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BK16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL16" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BM16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN16" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="BO16" s="8" t="s">
         <v>0</v>
@@ -5720,7 +5716,7 @@
         <v>89</v>
       </c>
       <c r="BR16" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BS16" s="8" t="s">
         <v>85</v>
@@ -5729,13 +5725,13 @@
         <v>85</v>
       </c>
       <c r="BU16" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="BV16" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="BW16" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="BV16" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="BW16" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="BX16" s="8" t="s">
         <v>0</v>
@@ -5760,275 +5756,275 @@
       </c>
     </row>
     <row r="18" spans="1:82" ht="15" customHeight="1">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="61"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="61"/>
-      <c r="AV18" s="61"/>
-      <c r="AW18" s="61"/>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="60" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="AZ18" s="61"/>
-      <c r="BA18" s="61"/>
-      <c r="BB18" s="61"/>
-      <c r="BC18" s="61"/>
-      <c r="BD18" s="62"/>
-      <c r="BE18" s="57" t="s">
+      <c r="AZ18" s="35"/>
+      <c r="BA18" s="35"/>
+      <c r="BB18" s="35"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="BF18" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="BF18" s="57" t="s">
+      <c r="BG18" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="BH18" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="BI18" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="BG18" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="BH18" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="BI18" s="69" t="s">
+      <c r="BJ18" s="54"/>
+      <c r="BK18" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="BJ18" s="69"/>
-      <c r="BK18" s="57" t="s">
+      <c r="BL18" s="20" t="s">
         <v>250</v>
-      </c>
-      <c r="BL18" s="20" t="s">
-        <v>251</v>
       </c>
       <c r="BM18" s="21"/>
       <c r="BN18" s="22"/>
-      <c r="BO18" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="BP18" s="70"/>
-      <c r="BQ18" s="70"/>
-      <c r="BR18" s="70"/>
-      <c r="BS18" s="70"/>
-      <c r="BT18" s="70"/>
-      <c r="BU18" s="70"/>
-      <c r="BV18" s="70"/>
-      <c r="BW18" s="70"/>
-      <c r="BX18" s="70"/>
-      <c r="BY18" s="70"/>
-      <c r="BZ18" s="70"/>
-      <c r="CA18" s="70"/>
-      <c r="CB18" s="39" t="s">
-        <v>502</v>
-      </c>
-      <c r="CC18" s="40"/>
+      <c r="BO18" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="BP18" s="33"/>
+      <c r="BQ18" s="33"/>
+      <c r="BR18" s="33"/>
+      <c r="BS18" s="33"/>
+      <c r="BT18" s="33"/>
+      <c r="BU18" s="33"/>
+      <c r="BV18" s="33"/>
+      <c r="BW18" s="33"/>
+      <c r="BX18" s="33"/>
+      <c r="BY18" s="33"/>
+      <c r="BZ18" s="33"/>
+      <c r="CA18" s="33"/>
+      <c r="CB18" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="CC18" s="68"/>
     </row>
     <row r="19" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="64"/>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="64"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="64"/>
-      <c r="AL19" s="64"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="64"/>
-      <c r="AO19" s="64"/>
-      <c r="AP19" s="64"/>
-      <c r="AQ19" s="64"/>
-      <c r="AR19" s="64"/>
-      <c r="AS19" s="64"/>
-      <c r="AT19" s="64"/>
-      <c r="AU19" s="64"/>
-      <c r="AV19" s="64"/>
-      <c r="AW19" s="64"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="64"/>
-      <c r="BA19" s="64"/>
-      <c r="BB19" s="64"/>
-      <c r="BC19" s="64"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="58"/>
-      <c r="BF19" s="58"/>
-      <c r="BG19" s="58"/>
-      <c r="BH19" s="58"/>
-      <c r="BI19" s="69"/>
-      <c r="BJ19" s="69"/>
-      <c r="BK19" s="58"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="37"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="52"/>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="52"/>
+      <c r="BI19" s="54"/>
+      <c r="BJ19" s="54"/>
+      <c r="BK19" s="52"/>
       <c r="BL19" s="23"/>
       <c r="BM19" s="24"/>
       <c r="BN19" s="25"/>
-      <c r="BO19" s="70"/>
-      <c r="BP19" s="70"/>
-      <c r="BQ19" s="70"/>
-      <c r="BR19" s="70"/>
-      <c r="BS19" s="70"/>
-      <c r="BT19" s="70"/>
-      <c r="BU19" s="70"/>
-      <c r="BV19" s="70"/>
-      <c r="BW19" s="70"/>
-      <c r="BX19" s="70"/>
-      <c r="BY19" s="70"/>
-      <c r="BZ19" s="70"/>
-      <c r="CA19" s="70"/>
-      <c r="CB19" s="41"/>
-      <c r="CC19" s="42"/>
+      <c r="BO19" s="33"/>
+      <c r="BP19" s="33"/>
+      <c r="BQ19" s="33"/>
+      <c r="BR19" s="33"/>
+      <c r="BS19" s="33"/>
+      <c r="BT19" s="33"/>
+      <c r="BU19" s="33"/>
+      <c r="BV19" s="33"/>
+      <c r="BW19" s="33"/>
+      <c r="BX19" s="33"/>
+      <c r="BY19" s="33"/>
+      <c r="BZ19" s="33"/>
+      <c r="CA19" s="33"/>
+      <c r="CB19" s="69"/>
+      <c r="CC19" s="70"/>
     </row>
     <row r="20" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="67"/>
-      <c r="AM20" s="67"/>
-      <c r="AN20" s="67"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="67"/>
-      <c r="AQ20" s="67"/>
-      <c r="AR20" s="67"/>
-      <c r="AS20" s="67"/>
-      <c r="AT20" s="67"/>
-      <c r="AU20" s="67"/>
-      <c r="AV20" s="67"/>
-      <c r="AW20" s="67"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="67"/>
-      <c r="BA20" s="67"/>
-      <c r="BB20" s="67"/>
-      <c r="BC20" s="67"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="59"/>
-      <c r="BF20" s="59"/>
-      <c r="BG20" s="59"/>
-      <c r="BH20" s="59"/>
-      <c r="BI20" s="69"/>
-      <c r="BJ20" s="69"/>
-      <c r="BK20" s="59"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="41"/>
+      <c r="AV20" s="41"/>
+      <c r="AW20" s="41"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="40"/>
+      <c r="AZ20" s="41"/>
+      <c r="BA20" s="41"/>
+      <c r="BB20" s="41"/>
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="53"/>
+      <c r="BF20" s="53"/>
+      <c r="BG20" s="53"/>
+      <c r="BH20" s="53"/>
+      <c r="BI20" s="54"/>
+      <c r="BJ20" s="54"/>
+      <c r="BK20" s="53"/>
       <c r="BL20" s="26"/>
       <c r="BM20" s="27"/>
       <c r="BN20" s="28"/>
-      <c r="BO20" s="70"/>
-      <c r="BP20" s="70"/>
-      <c r="BQ20" s="70"/>
-      <c r="BR20" s="70"/>
-      <c r="BS20" s="70"/>
-      <c r="BT20" s="70"/>
-      <c r="BU20" s="70"/>
-      <c r="BV20" s="70"/>
-      <c r="BW20" s="70"/>
-      <c r="BX20" s="70"/>
-      <c r="BY20" s="70"/>
-      <c r="BZ20" s="70"/>
-      <c r="CA20" s="70"/>
-      <c r="CB20" s="43"/>
-      <c r="CC20" s="44"/>
+      <c r="BO20" s="33"/>
+      <c r="BP20" s="33"/>
+      <c r="BQ20" s="33"/>
+      <c r="BR20" s="33"/>
+      <c r="BS20" s="33"/>
+      <c r="BT20" s="33"/>
+      <c r="BU20" s="33"/>
+      <c r="BV20" s="33"/>
+      <c r="BW20" s="33"/>
+      <c r="BX20" s="33"/>
+      <c r="BY20" s="33"/>
+      <c r="BZ20" s="33"/>
+      <c r="CA20" s="33"/>
+      <c r="CB20" s="71"/>
+      <c r="CC20" s="72"/>
     </row>
     <row r="21" spans="1:82" ht="11.25" customHeight="1">
       <c r="A21" s="29" t="s">
@@ -6046,25 +6042,25 @@
       <c r="E21" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="I21" s="74" t="s">
+      <c r="I21" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="30" t="s">
         <v>150</v>
       </c>
       <c r="M21" s="29" t="s">
@@ -6085,7 +6081,7 @@
       <c r="R21" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="S21" s="48" t="s">
         <v>183</v>
       </c>
       <c r="T21" s="29" t="s">
@@ -6097,125 +6093,125 @@
       <c r="V21" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="W21" s="33" t="s">
+      <c r="W21" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="X21" s="33" t="s">
+      <c r="X21" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="Y21" s="33" t="s">
+      <c r="Y21" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="Z21" s="33" t="s">
+      <c r="Z21" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="AA21" s="33" t="s">
+      <c r="AA21" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="AB21" s="30" t="s">
+      <c r="AB21" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="AC21" s="30" t="s">
+      <c r="AC21" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="AD21" s="30" t="s">
+      <c r="AD21" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="AE21" s="30" t="s">
+      <c r="AE21" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="AF21" s="30" t="s">
+      <c r="AF21" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="AG21" s="33" t="s">
+      <c r="AG21" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="AH21" s="30" t="s">
+      <c r="AH21" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="AI21" s="30" t="s">
+      <c r="AI21" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="AJ21" s="49" t="s">
+      <c r="AJ21" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="AK21" s="48" t="s">
+      <c r="AK21" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="AL21" s="52" t="s">
+      <c r="AL21" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="AM21" s="30" t="s">
+      <c r="AM21" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="AN21" s="49" t="s">
+      <c r="AN21" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="AO21" s="48" t="s">
+      <c r="AO21" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="AP21" s="52" t="s">
+      <c r="AP21" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="AQ21" s="30" t="s">
+      <c r="AQ21" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="AR21" s="49" t="s">
+      <c r="AR21" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="AS21" s="48" t="s">
+      <c r="AS21" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="AT21" s="30" t="s">
+      <c r="AT21" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="AU21" s="30" t="s">
+      <c r="AU21" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="AV21" s="49" t="s">
+      <c r="AV21" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="AW21" s="48" t="s">
+      <c r="AW21" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="AX21" s="49" t="s">
+      <c r="AX21" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="AY21" s="48" t="s">
+      <c r="AY21" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="AZ21" s="56" t="s">
+      <c r="AZ21" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="BA21" s="48" t="s">
+      <c r="BA21" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="BB21" s="48" t="s">
+      <c r="BB21" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="BC21" s="48" t="s">
+      <c r="BC21" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="BD21" s="48" t="s">
+      <c r="BD21" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="BE21" s="45" t="s">
+      <c r="BE21" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="BF21" s="30" t="s">
+      <c r="BF21" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="BG21" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="BH21" s="48" t="s">
+      <c r="BG21" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="BH21" s="56" t="s">
+        <v>496</v>
+      </c>
+      <c r="BI21" s="56" t="s">
         <v>497</v>
       </c>
-      <c r="BI21" s="48" t="s">
+      <c r="BJ21" s="56" t="s">
         <v>498</v>
-      </c>
-      <c r="BJ21" s="48" t="s">
-        <v>499</v>
       </c>
       <c r="BK21" s="29" t="s">
         <v>188</v>
@@ -6229,53 +6225,53 @@
       <c r="BN21" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="BO21" s="30" t="s">
+      <c r="BO21" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="BP21" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ21" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR21" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="BP21" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ21" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR21" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="BS21" s="30" t="s">
+      <c r="BS21" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="BT21" s="30" t="s">
+      <c r="BT21" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="BU21" s="30" t="s">
+      <c r="BU21" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="BV21" s="30" t="s">
+      <c r="BV21" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="BW21" s="30" t="s">
+      <c r="BW21" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="BX21" s="30" t="s">
+      <c r="BX21" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="BY21" s="30" t="s">
+      <c r="BY21" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="BZ21" s="30" t="s">
+      <c r="BZ21" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="CA21" s="30" t="s">
+      <c r="CA21" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="CB21" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="CC21" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="CD21" s="30" t="s">
-        <v>525</v>
+      <c r="CB21" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="CC21" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="CD21" s="48" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:82">
@@ -6284,83 +6280,83 @@
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="55"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
-      <c r="S22" s="31"/>
+      <c r="S22" s="49"/>
       <c r="T22" s="29"/>
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="48"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="48"/>
-      <c r="AZ22" s="56"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="48"/>
-      <c r="BC22" s="48"/>
-      <c r="BD22" s="48"/>
-      <c r="BE22" s="46"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="48"/>
-      <c r="BI22" s="48"/>
-      <c r="BJ22" s="48"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="59"/>
+      <c r="AS22" s="56"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="59"/>
+      <c r="AW22" s="56"/>
+      <c r="AX22" s="59"/>
+      <c r="AY22" s="56"/>
+      <c r="AZ22" s="57"/>
+      <c r="BA22" s="56"/>
+      <c r="BB22" s="56"/>
+      <c r="BC22" s="56"/>
+      <c r="BD22" s="56"/>
+      <c r="BE22" s="74"/>
+      <c r="BF22" s="49"/>
+      <c r="BG22" s="49"/>
+      <c r="BH22" s="56"/>
+      <c r="BI22" s="56"/>
+      <c r="BJ22" s="56"/>
       <c r="BK22" s="29"/>
       <c r="BL22" s="29"/>
       <c r="BM22" s="29"/>
       <c r="BN22" s="29"/>
-      <c r="BO22" s="31"/>
-      <c r="BP22" s="31"/>
-      <c r="BQ22" s="31"/>
-      <c r="BR22" s="31"/>
-      <c r="BS22" s="31"/>
-      <c r="BT22" s="31"/>
-      <c r="BU22" s="31"/>
-      <c r="BV22" s="31"/>
-      <c r="BW22" s="31"/>
-      <c r="BX22" s="31"/>
-      <c r="BY22" s="31"/>
-      <c r="BZ22" s="31"/>
-      <c r="CA22" s="31"/>
-      <c r="CB22" s="31"/>
-      <c r="CC22" s="31"/>
-      <c r="CD22" s="31"/>
+      <c r="BO22" s="49"/>
+      <c r="BP22" s="49"/>
+      <c r="BQ22" s="49"/>
+      <c r="BR22" s="49"/>
+      <c r="BS22" s="49"/>
+      <c r="BT22" s="49"/>
+      <c r="BU22" s="49"/>
+      <c r="BV22" s="49"/>
+      <c r="BW22" s="49"/>
+      <c r="BX22" s="49"/>
+      <c r="BY22" s="49"/>
+      <c r="BZ22" s="49"/>
+      <c r="CA22" s="49"/>
+      <c r="CB22" s="49"/>
+      <c r="CC22" s="49"/>
+      <c r="CD22" s="49"/>
     </row>
     <row r="23" spans="1:82">
       <c r="A23" s="29"/>
@@ -6368,83 +6364,83 @@
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="55"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
-      <c r="S23" s="31"/>
+      <c r="S23" s="49"/>
       <c r="T23" s="29"/>
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="50"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="50"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="48"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="48"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="48"/>
-      <c r="BB23" s="48"/>
-      <c r="BC23" s="48"/>
-      <c r="BD23" s="48"/>
-      <c r="BE23" s="46"/>
-      <c r="BF23" s="31"/>
-      <c r="BG23" s="31"/>
-      <c r="BH23" s="48"/>
-      <c r="BI23" s="48"/>
-      <c r="BJ23" s="48"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="59"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="59"/>
+      <c r="AS23" s="56"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="49"/>
+      <c r="AV23" s="59"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="59"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="56"/>
+      <c r="BB23" s="56"/>
+      <c r="BC23" s="56"/>
+      <c r="BD23" s="56"/>
+      <c r="BE23" s="74"/>
+      <c r="BF23" s="49"/>
+      <c r="BG23" s="49"/>
+      <c r="BH23" s="56"/>
+      <c r="BI23" s="56"/>
+      <c r="BJ23" s="56"/>
       <c r="BK23" s="29"/>
       <c r="BL23" s="29"/>
       <c r="BM23" s="29"/>
       <c r="BN23" s="29"/>
-      <c r="BO23" s="31"/>
-      <c r="BP23" s="31"/>
-      <c r="BQ23" s="31"/>
-      <c r="BR23" s="31"/>
-      <c r="BS23" s="31"/>
-      <c r="BT23" s="31"/>
-      <c r="BU23" s="31"/>
-      <c r="BV23" s="31"/>
-      <c r="BW23" s="31"/>
-      <c r="BX23" s="31"/>
-      <c r="BY23" s="31"/>
-      <c r="BZ23" s="31"/>
-      <c r="CA23" s="31"/>
-      <c r="CB23" s="31"/>
-      <c r="CC23" s="31"/>
-      <c r="CD23" s="31"/>
+      <c r="BO23" s="49"/>
+      <c r="BP23" s="49"/>
+      <c r="BQ23" s="49"/>
+      <c r="BR23" s="49"/>
+      <c r="BS23" s="49"/>
+      <c r="BT23" s="49"/>
+      <c r="BU23" s="49"/>
+      <c r="BV23" s="49"/>
+      <c r="BW23" s="49"/>
+      <c r="BX23" s="49"/>
+      <c r="BY23" s="49"/>
+      <c r="BZ23" s="49"/>
+      <c r="CA23" s="49"/>
+      <c r="CB23" s="49"/>
+      <c r="CC23" s="49"/>
+      <c r="CD23" s="49"/>
     </row>
     <row r="24" spans="1:82">
       <c r="A24" s="29"/>
@@ -6452,83 +6448,83 @@
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="55"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
-      <c r="S24" s="31"/>
+      <c r="S24" s="49"/>
       <c r="T24" s="29"/>
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="53"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="50"/>
-      <c r="AW24" s="48"/>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="48"/>
-      <c r="AZ24" s="56"/>
-      <c r="BA24" s="48"/>
-      <c r="BB24" s="48"/>
-      <c r="BC24" s="48"/>
-      <c r="BD24" s="48"/>
-      <c r="BE24" s="46"/>
-      <c r="BF24" s="31"/>
-      <c r="BG24" s="31"/>
-      <c r="BH24" s="48"/>
-      <c r="BI24" s="48"/>
-      <c r="BJ24" s="48"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="56"/>
+      <c r="AL24" s="62"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="56"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="59"/>
+      <c r="AS24" s="56"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="59"/>
+      <c r="AW24" s="56"/>
+      <c r="AX24" s="59"/>
+      <c r="AY24" s="56"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="56"/>
+      <c r="BB24" s="56"/>
+      <c r="BC24" s="56"/>
+      <c r="BD24" s="56"/>
+      <c r="BE24" s="74"/>
+      <c r="BF24" s="49"/>
+      <c r="BG24" s="49"/>
+      <c r="BH24" s="56"/>
+      <c r="BI24" s="56"/>
+      <c r="BJ24" s="56"/>
       <c r="BK24" s="29"/>
       <c r="BL24" s="29"/>
       <c r="BM24" s="29"/>
       <c r="BN24" s="29"/>
-      <c r="BO24" s="31"/>
-      <c r="BP24" s="31"/>
-      <c r="BQ24" s="31"/>
-      <c r="BR24" s="31"/>
-      <c r="BS24" s="31"/>
-      <c r="BT24" s="31"/>
-      <c r="BU24" s="31"/>
-      <c r="BV24" s="31"/>
-      <c r="BW24" s="31"/>
-      <c r="BX24" s="31"/>
-      <c r="BY24" s="31"/>
-      <c r="BZ24" s="31"/>
-      <c r="CA24" s="31"/>
-      <c r="CB24" s="31"/>
-      <c r="CC24" s="31"/>
-      <c r="CD24" s="31"/>
+      <c r="BO24" s="49"/>
+      <c r="BP24" s="49"/>
+      <c r="BQ24" s="49"/>
+      <c r="BR24" s="49"/>
+      <c r="BS24" s="49"/>
+      <c r="BT24" s="49"/>
+      <c r="BU24" s="49"/>
+      <c r="BV24" s="49"/>
+      <c r="BW24" s="49"/>
+      <c r="BX24" s="49"/>
+      <c r="BY24" s="49"/>
+      <c r="BZ24" s="49"/>
+      <c r="CA24" s="49"/>
+      <c r="CB24" s="49"/>
+      <c r="CC24" s="49"/>
+      <c r="CD24" s="49"/>
     </row>
     <row r="25" spans="1:82">
       <c r="A25" s="29"/>
@@ -6536,83 +6532,83 @@
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="55"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
-      <c r="S25" s="31"/>
+      <c r="S25" s="49"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="50"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="53"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="50"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="50"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="48"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="48"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="48"/>
-      <c r="BB25" s="48"/>
-      <c r="BC25" s="48"/>
-      <c r="BD25" s="48"/>
-      <c r="BE25" s="46"/>
-      <c r="BF25" s="31"/>
-      <c r="BG25" s="31"/>
-      <c r="BH25" s="48"/>
-      <c r="BI25" s="48"/>
-      <c r="BJ25" s="48"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="59"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="59"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="59"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="59"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="56"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="56"/>
+      <c r="BD25" s="56"/>
+      <c r="BE25" s="74"/>
+      <c r="BF25" s="49"/>
+      <c r="BG25" s="49"/>
+      <c r="BH25" s="56"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="56"/>
       <c r="BK25" s="29"/>
       <c r="BL25" s="29"/>
       <c r="BM25" s="29"/>
       <c r="BN25" s="29"/>
-      <c r="BO25" s="31"/>
-      <c r="BP25" s="31"/>
-      <c r="BQ25" s="31"/>
-      <c r="BR25" s="31"/>
-      <c r="BS25" s="31"/>
-      <c r="BT25" s="31"/>
-      <c r="BU25" s="31"/>
-      <c r="BV25" s="31"/>
-      <c r="BW25" s="31"/>
-      <c r="BX25" s="31"/>
-      <c r="BY25" s="31"/>
-      <c r="BZ25" s="31"/>
-      <c r="CA25" s="31"/>
-      <c r="CB25" s="31"/>
-      <c r="CC25" s="31"/>
-      <c r="CD25" s="31"/>
+      <c r="BO25" s="49"/>
+      <c r="BP25" s="49"/>
+      <c r="BQ25" s="49"/>
+      <c r="BR25" s="49"/>
+      <c r="BS25" s="49"/>
+      <c r="BT25" s="49"/>
+      <c r="BU25" s="49"/>
+      <c r="BV25" s="49"/>
+      <c r="BW25" s="49"/>
+      <c r="BX25" s="49"/>
+      <c r="BY25" s="49"/>
+      <c r="BZ25" s="49"/>
+      <c r="CA25" s="49"/>
+      <c r="CB25" s="49"/>
+      <c r="CC25" s="49"/>
+      <c r="CD25" s="49"/>
     </row>
     <row r="26" spans="1:82">
       <c r="A26" s="29"/>
@@ -6620,99 +6616,99 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="55"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
-      <c r="S26" s="32"/>
+      <c r="S26" s="50"/>
       <c r="T26" s="29"/>
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="51"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="48"/>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="48"/>
-      <c r="AZ26" s="56"/>
-      <c r="BA26" s="48"/>
-      <c r="BB26" s="48"/>
-      <c r="BC26" s="48"/>
-      <c r="BD26" s="48"/>
-      <c r="BE26" s="47"/>
-      <c r="BF26" s="32"/>
-      <c r="BG26" s="32"/>
-      <c r="BH26" s="48"/>
-      <c r="BI26" s="48"/>
-      <c r="BJ26" s="48"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="60"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="60"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="60"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
+      <c r="AV26" s="60"/>
+      <c r="AW26" s="56"/>
+      <c r="AX26" s="60"/>
+      <c r="AY26" s="56"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="56"/>
+      <c r="BB26" s="56"/>
+      <c r="BC26" s="56"/>
+      <c r="BD26" s="56"/>
+      <c r="BE26" s="75"/>
+      <c r="BF26" s="50"/>
+      <c r="BG26" s="50"/>
+      <c r="BH26" s="56"/>
+      <c r="BI26" s="56"/>
+      <c r="BJ26" s="56"/>
       <c r="BK26" s="29"/>
       <c r="BL26" s="29"/>
       <c r="BM26" s="29"/>
       <c r="BN26" s="29"/>
-      <c r="BO26" s="32"/>
-      <c r="BP26" s="32"/>
-      <c r="BQ26" s="32"/>
-      <c r="BR26" s="32"/>
-      <c r="BS26" s="32"/>
-      <c r="BT26" s="32"/>
-      <c r="BU26" s="32"/>
-      <c r="BV26" s="32"/>
-      <c r="BW26" s="32"/>
-      <c r="BX26" s="32"/>
-      <c r="BY26" s="32"/>
-      <c r="BZ26" s="32"/>
-      <c r="CA26" s="32"/>
-      <c r="CB26" s="32"/>
-      <c r="CC26" s="32"/>
-      <c r="CD26" s="32"/>
+      <c r="BO26" s="50"/>
+      <c r="BP26" s="50"/>
+      <c r="BQ26" s="50"/>
+      <c r="BR26" s="50"/>
+      <c r="BS26" s="50"/>
+      <c r="BT26" s="50"/>
+      <c r="BU26" s="50"/>
+      <c r="BV26" s="50"/>
+      <c r="BW26" s="50"/>
+      <c r="BX26" s="50"/>
+      <c r="BY26" s="50"/>
+      <c r="BZ26" s="50"/>
+      <c r="CA26" s="50"/>
+      <c r="CB26" s="50"/>
+      <c r="CC26" s="50"/>
+      <c r="CD26" s="50"/>
     </row>
     <row r="27" spans="1:82" ht="11.25" customHeight="1">
-      <c r="F27" s="72"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="74"/>
-      <c r="AK27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AW27" s="48"/>
-      <c r="AY27" s="48"/>
-      <c r="AZ27" s="56"/>
-      <c r="BA27" s="48"/>
-      <c r="BB27" s="48"/>
-      <c r="BC27" s="48"/>
-      <c r="BD27" s="48"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="46"/>
+      <c r="AK27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AS27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="56"/>
+      <c r="BC27" s="56"/>
+      <c r="BD27" s="56"/>
     </row>
     <row r="28" spans="1:82" ht="11.25" customHeight="1">
       <c r="B28" s="7" t="s">
@@ -6721,227 +6717,227 @@
       <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="75"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="29" t="s">
         <v>219</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AE28" s="30" t="s">
+      <c r="AE28" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="AK28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AS28" s="48"/>
-      <c r="AW28" s="48"/>
-      <c r="AY28" s="48"/>
-      <c r="AZ28" s="56"/>
-      <c r="BA28" s="48"/>
-      <c r="BB28" s="48"/>
-      <c r="BC28" s="48"/>
-      <c r="BD28" s="48"/>
-      <c r="BJ28" s="30" t="s">
-        <v>253</v>
+      <c r="AK28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="56"/>
+      <c r="BD28" s="56"/>
+      <c r="BJ28" s="48" t="s">
+        <v>252</v>
       </c>
       <c r="BK28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="CB28" s="33" t="s">
+      <c r="CB28" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="CC28" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:82">
+      <c r="B29" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="CC28" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:82">
-      <c r="B29" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="75"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="47"/>
       <c r="J29" s="29"/>
       <c r="V29" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="AE29" s="31"/>
-      <c r="BJ29" s="31"/>
+        <v>512</v>
+      </c>
+      <c r="AE29" s="49"/>
+      <c r="BJ29" s="49"/>
       <c r="BK29" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="CB29" s="34"/>
-      <c r="CC29" s="34"/>
+        <v>519</v>
+      </c>
+      <c r="CB29" s="31"/>
+      <c r="CC29" s="31"/>
     </row>
     <row r="30" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B30" s="37"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J30" s="29"/>
       <c r="V30" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="AE30" s="31"/>
-      <c r="BJ30" s="31"/>
+        <v>513</v>
+      </c>
+      <c r="AE30" s="49"/>
+      <c r="BJ30" s="49"/>
       <c r="BK30" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="CB30" s="34"/>
-      <c r="CC30" s="34"/>
+        <v>520</v>
+      </c>
+      <c r="CB30" s="31"/>
+      <c r="CC30" s="31"/>
     </row>
     <row r="31" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B31" s="37"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J31" s="29"/>
       <c r="V31" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="AE31" s="31"/>
-      <c r="BJ31" s="31"/>
-      <c r="CB31" s="34"/>
-      <c r="CC31" s="34"/>
+        <v>514</v>
+      </c>
+      <c r="AE31" s="49"/>
+      <c r="BJ31" s="49"/>
+      <c r="CB31" s="31"/>
+      <c r="CC31" s="31"/>
     </row>
     <row r="32" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B32" s="37"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J32" s="29"/>
       <c r="V32" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="AE32" s="31"/>
-      <c r="BJ32" s="31"/>
-      <c r="CB32" s="34"/>
-      <c r="CC32" s="34"/>
+        <v>515</v>
+      </c>
+      <c r="AE32" s="49"/>
+      <c r="BJ32" s="49"/>
+      <c r="CB32" s="31"/>
+      <c r="CC32" s="31"/>
     </row>
     <row r="33" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B33" s="37"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J33" s="29"/>
       <c r="V33" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="AE33" s="31"/>
-      <c r="BJ33" s="31"/>
-      <c r="CB33" s="35"/>
-      <c r="CC33" s="35"/>
+        <v>516</v>
+      </c>
+      <c r="AE33" s="49"/>
+      <c r="BJ33" s="49"/>
+      <c r="CB33" s="32"/>
+      <c r="CC33" s="32"/>
     </row>
     <row r="34" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B34" s="37"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J34" s="29"/>
       <c r="V34" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="AE34" s="31"/>
-      <c r="BJ34" s="32"/>
+        <v>517</v>
+      </c>
+      <c r="AE34" s="49"/>
+      <c r="BJ34" s="50"/>
       <c r="CC34" s="8"/>
     </row>
     <row r="35" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B35" s="38"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J35" s="29"/>
       <c r="V35" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE35" s="31"/>
-      <c r="CB35" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="CC35" s="30" t="s">
-        <v>522</v>
+        <v>518</v>
+      </c>
+      <c r="AE35" s="49"/>
+      <c r="CB35" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="CC35" s="48" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="2:81">
       <c r="C36" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J36" s="29"/>
-      <c r="AE36" s="31"/>
-      <c r="CB36" s="31"/>
-      <c r="CC36" s="31"/>
+      <c r="AE36" s="49"/>
+      <c r="CB36" s="49"/>
+      <c r="CC36" s="49"/>
     </row>
     <row r="37" spans="2:81">
       <c r="C37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE37" s="32"/>
-      <c r="CB37" s="31"/>
-      <c r="CC37" s="31"/>
+      <c r="AE37" s="50"/>
+      <c r="CB37" s="49"/>
+      <c r="CC37" s="49"/>
     </row>
     <row r="38" spans="2:81">
       <c r="C38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CB38" s="31"/>
-      <c r="CC38" s="31"/>
+      <c r="CB38" s="49"/>
+      <c r="CC38" s="49"/>
     </row>
     <row r="39" spans="2:81">
       <c r="C39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AE39" s="33" t="s">
+      <c r="AE39" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="CB39" s="31"/>
-      <c r="CC39" s="31"/>
+      <c r="CB39" s="49"/>
+      <c r="CC39" s="49"/>
     </row>
     <row r="40" spans="2:81">
       <c r="C40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AE40" s="34"/>
-      <c r="CB40" s="31"/>
-      <c r="CC40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="CB40" s="49"/>
+      <c r="CC40" s="49"/>
     </row>
     <row r="41" spans="2:81">
       <c r="C41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AE41" s="34"/>
-      <c r="CB41" s="31"/>
-      <c r="CC41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="CB41" s="49"/>
+      <c r="CC41" s="49"/>
     </row>
     <row r="42" spans="2:81">
       <c r="C42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AE42" s="34"/>
-      <c r="CB42" s="31"/>
-      <c r="CC42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="CB42" s="49"/>
+      <c r="CC42" s="49"/>
     </row>
     <row r="43" spans="2:81">
       <c r="C43" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AE43" s="34"/>
-      <c r="CB43" s="31"/>
-      <c r="CC43" s="31"/>
+      <c r="AE43" s="31"/>
+      <c r="CB43" s="49"/>
+      <c r="CC43" s="49"/>
     </row>
     <row r="44" spans="2:81">
       <c r="C44" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AE44" s="35"/>
-      <c r="CB44" s="31"/>
-      <c r="CC44" s="31"/>
+      <c r="AE44" s="32"/>
+      <c r="CB44" s="49"/>
+      <c r="CC44" s="49"/>
     </row>
     <row r="45" spans="2:81">
       <c r="C45" s="5" t="s">
@@ -6950,24 +6946,24 @@
       <c r="BJ45" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="CB45" s="31"/>
-      <c r="CC45" s="31"/>
+      <c r="CB45" s="49"/>
+      <c r="CC45" s="49"/>
     </row>
     <row r="46" spans="2:81">
       <c r="C46" s="5" t="s">
         <v>107</v>
       </c>
       <c r="BJ46" s="29"/>
-      <c r="CB46" s="31"/>
-      <c r="CC46" s="31"/>
+      <c r="CB46" s="49"/>
+      <c r="CC46" s="49"/>
     </row>
     <row r="47" spans="2:81">
       <c r="C47" s="5" t="s">
         <v>108</v>
       </c>
       <c r="BJ47" s="29"/>
-      <c r="CB47" s="32"/>
-      <c r="CC47" s="32"/>
+      <c r="CB47" s="50"/>
+      <c r="CC47" s="50"/>
     </row>
     <row r="48" spans="2:81">
       <c r="C48" s="5" t="s">
@@ -6979,33 +6975,33 @@
       <c r="C49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="CB49" s="33" t="s">
+      <c r="CB49" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="CC49" s="30" t="s">
         <v>523</v>
-      </c>
-      <c r="CC49" s="33" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="50" spans="3:81">
       <c r="C50" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="CB50" s="34"/>
-      <c r="CC50" s="34"/>
+      <c r="CB50" s="31"/>
+      <c r="CC50" s="31"/>
     </row>
     <row r="51" spans="3:81">
       <c r="C51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CB51" s="34"/>
-      <c r="CC51" s="34"/>
+      <c r="CB51" s="31"/>
+      <c r="CC51" s="31"/>
     </row>
     <row r="52" spans="3:81">
       <c r="C52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="CB52" s="35"/>
-      <c r="CC52" s="35"/>
+      <c r="CB52" s="32"/>
+      <c r="CC52" s="32"/>
     </row>
     <row r="53" spans="3:81">
       <c r="C53" s="5" t="s">
@@ -7149,6 +7145,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="CD21:CD26"/>
+    <mergeCell ref="CB35:CB47"/>
+    <mergeCell ref="CB49:CB52"/>
+    <mergeCell ref="CC28:CC33"/>
+    <mergeCell ref="CC35:CC47"/>
+    <mergeCell ref="CC49:CC52"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="J28:J36"/>
+    <mergeCell ref="CB18:CC20"/>
+    <mergeCell ref="CB21:CB26"/>
+    <mergeCell ref="CB28:CB33"/>
+    <mergeCell ref="BJ28:BJ34"/>
+    <mergeCell ref="CC21:CC26"/>
+    <mergeCell ref="BW21:BW26"/>
+    <mergeCell ref="BX21:BX26"/>
+    <mergeCell ref="BZ21:BZ26"/>
+    <mergeCell ref="CA21:CA26"/>
+    <mergeCell ref="BU21:BU26"/>
+    <mergeCell ref="BV21:BV26"/>
+    <mergeCell ref="BE21:BE26"/>
+    <mergeCell ref="BF21:BF26"/>
+    <mergeCell ref="BG21:BG26"/>
+    <mergeCell ref="BH21:BH26"/>
+    <mergeCell ref="BI21:BI26"/>
+    <mergeCell ref="BR21:BR26"/>
+    <mergeCell ref="BS21:BS26"/>
+    <mergeCell ref="BB21:BB28"/>
+    <mergeCell ref="BT21:BT26"/>
+    <mergeCell ref="BJ21:BJ26"/>
+    <mergeCell ref="BK21:BK26"/>
+    <mergeCell ref="BL21:BL26"/>
+    <mergeCell ref="BM21:BM26"/>
+    <mergeCell ref="BN21:BN26"/>
+    <mergeCell ref="BP21:BP26"/>
+    <mergeCell ref="BD21:BD28"/>
+    <mergeCell ref="BC21:BC28"/>
+    <mergeCell ref="AG21:AG26"/>
+    <mergeCell ref="AH21:AH26"/>
+    <mergeCell ref="AI21:AI26"/>
+    <mergeCell ref="AJ21:AJ26"/>
+    <mergeCell ref="AL21:AL26"/>
+    <mergeCell ref="AX21:AX26"/>
+    <mergeCell ref="AR21:AR26"/>
+    <mergeCell ref="BJ45:BJ48"/>
+    <mergeCell ref="BQ21:BQ26"/>
+    <mergeCell ref="AU21:AU26"/>
+    <mergeCell ref="AV21:AV26"/>
+    <mergeCell ref="AT21:AT26"/>
+    <mergeCell ref="AY21:AY28"/>
+    <mergeCell ref="BA21:BA28"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="BY21:BY26"/>
+    <mergeCell ref="U21:U26"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="X21:X26"/>
+    <mergeCell ref="Y21:Y26"/>
+    <mergeCell ref="Z21:Z26"/>
+    <mergeCell ref="AK21:AK28"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AS21:AS28"/>
+    <mergeCell ref="AW21:AW28"/>
+    <mergeCell ref="AZ21:AZ28"/>
+    <mergeCell ref="AM21:AM26"/>
+    <mergeCell ref="AN21:AN26"/>
+    <mergeCell ref="AP21:AP26"/>
+    <mergeCell ref="S21:S26"/>
+    <mergeCell ref="AE28:AE37"/>
+    <mergeCell ref="AB21:AB26"/>
+    <mergeCell ref="AC21:AC26"/>
+    <mergeCell ref="AD21:AD26"/>
+    <mergeCell ref="AE21:AE26"/>
+    <mergeCell ref="AQ21:AQ26"/>
+    <mergeCell ref="AF21:AF26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="BE18:BE20"/>
+    <mergeCell ref="AY18:BD20"/>
+    <mergeCell ref="BF18:BF20"/>
+    <mergeCell ref="BG18:BG20"/>
+    <mergeCell ref="BH18:BH20"/>
+    <mergeCell ref="BI18:BJ20"/>
+    <mergeCell ref="BK18:BK20"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="C21:C26"/>
@@ -7173,89 +7252,6 @@
     <mergeCell ref="K21:K26"/>
     <mergeCell ref="J21:J26"/>
     <mergeCell ref="D21:D26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="BE18:BE20"/>
-    <mergeCell ref="AY18:BD20"/>
-    <mergeCell ref="BF18:BF20"/>
-    <mergeCell ref="BG18:BG20"/>
-    <mergeCell ref="BH18:BH20"/>
-    <mergeCell ref="BI18:BJ20"/>
-    <mergeCell ref="BK18:BK20"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="BY21:BY26"/>
-    <mergeCell ref="U21:U26"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="X21:X26"/>
-    <mergeCell ref="Y21:Y26"/>
-    <mergeCell ref="Z21:Z26"/>
-    <mergeCell ref="AK21:AK28"/>
-    <mergeCell ref="AO21:AO28"/>
-    <mergeCell ref="AS21:AS28"/>
-    <mergeCell ref="AW21:AW28"/>
-    <mergeCell ref="AZ21:AZ28"/>
-    <mergeCell ref="AM21:AM26"/>
-    <mergeCell ref="AN21:AN26"/>
-    <mergeCell ref="AP21:AP26"/>
-    <mergeCell ref="S21:S26"/>
-    <mergeCell ref="AE28:AE37"/>
-    <mergeCell ref="AB21:AB26"/>
-    <mergeCell ref="AC21:AC26"/>
-    <mergeCell ref="AD21:AD26"/>
-    <mergeCell ref="AE21:AE26"/>
-    <mergeCell ref="AQ21:AQ26"/>
-    <mergeCell ref="AF21:AF26"/>
-    <mergeCell ref="AG21:AG26"/>
-    <mergeCell ref="AH21:AH26"/>
-    <mergeCell ref="AI21:AI26"/>
-    <mergeCell ref="AJ21:AJ26"/>
-    <mergeCell ref="AL21:AL26"/>
-    <mergeCell ref="AX21:AX26"/>
-    <mergeCell ref="AR21:AR26"/>
-    <mergeCell ref="BJ45:BJ48"/>
-    <mergeCell ref="BQ21:BQ26"/>
-    <mergeCell ref="AU21:AU26"/>
-    <mergeCell ref="AV21:AV26"/>
-    <mergeCell ref="AT21:AT26"/>
-    <mergeCell ref="AY21:AY28"/>
-    <mergeCell ref="BA21:BA28"/>
-    <mergeCell ref="BR21:BR26"/>
-    <mergeCell ref="BS21:BS26"/>
-    <mergeCell ref="BB21:BB28"/>
-    <mergeCell ref="BT21:BT26"/>
-    <mergeCell ref="BJ21:BJ26"/>
-    <mergeCell ref="BK21:BK26"/>
-    <mergeCell ref="BL21:BL26"/>
-    <mergeCell ref="BM21:BM26"/>
-    <mergeCell ref="BN21:BN26"/>
-    <mergeCell ref="BP21:BP26"/>
-    <mergeCell ref="BD21:BD28"/>
-    <mergeCell ref="BC21:BC28"/>
-    <mergeCell ref="CD21:CD26"/>
-    <mergeCell ref="CB35:CB47"/>
-    <mergeCell ref="CB49:CB52"/>
-    <mergeCell ref="CC28:CC33"/>
-    <mergeCell ref="CC35:CC47"/>
-    <mergeCell ref="CC49:CC52"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="J28:J36"/>
-    <mergeCell ref="CB18:CC20"/>
-    <mergeCell ref="CB21:CB26"/>
-    <mergeCell ref="CB28:CB33"/>
-    <mergeCell ref="BJ28:BJ34"/>
-    <mergeCell ref="CC21:CC26"/>
-    <mergeCell ref="BW21:BW26"/>
-    <mergeCell ref="BX21:BX26"/>
-    <mergeCell ref="BZ21:BZ26"/>
-    <mergeCell ref="CA21:CA26"/>
-    <mergeCell ref="BU21:BU26"/>
-    <mergeCell ref="BV21:BV26"/>
-    <mergeCell ref="BE21:BE26"/>
-    <mergeCell ref="BF21:BF26"/>
-    <mergeCell ref="BG21:BG26"/>
-    <mergeCell ref="BH21:BH26"/>
-    <mergeCell ref="BI21:BI26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7288,7 +7284,7 @@
         <v>NR_REFERENCIA_FISCAL,</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("'",K3,"',")</f>
@@ -7307,7 +7303,7 @@
         <v>CD_SITUACAO_NF,</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L12" si="1">CONCATENATE("'",K4,"',")</f>
@@ -7345,7 +7341,7 @@
         <v>NR_REFERENCIA_FISCAL_FATURA,</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
@@ -7364,7 +7360,7 @@
         <v>NR_ITEM_NF_FATURA,</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
@@ -7383,7 +7379,7 @@
         <v>NR_NF_FATURA,</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
@@ -7402,7 +7398,7 @@
         <v>NR_SERIE_NF_FATURA,</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
@@ -7421,7 +7417,7 @@
         <v>NR_NF_REMESSA,</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
@@ -7440,7 +7436,7 @@
         <v>NR_SERIE_NF_REMESSA,</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
@@ -7459,7 +7455,7 @@
         <v>NR_ORDEM,</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>

--- a/Documentação/Planilhas/Conferencia_FAT.xlsx
+++ b/Documentação/Planilhas/Conferencia_FAT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="468">
   <si>
     <t>1</t>
   </si>
@@ -495,9 +495,6 @@
     <t>405</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba inferior Linhas - Nota Fiscal, fazer o detalhamento do item desejado. Na aba inferior "Imposto por Linha da nota fiscal", pegar a informação da coluna "Valor", cujo tipo de imposto seja ICMS</t>
   </si>
   <si>
@@ -565,9 +562,6 @@
   </si>
   <si>
     <t>Digitar o NR_PEDIDO na coluna "Pedido do Cliente". Se não encontrar na primeira tela, ir com a seta "Next Group" até encontrar, detalhando na sequência. Na aba inferior "Pedidos de Venda Site - Linha", pegar a informação da coluna "Item Garantido" [se for zero, ele vai considerar a mesma informação existente na coluna "Item"</t>
-  </si>
-  <si>
-    <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba superior "Transportadora", seção "Transportadora" pegar a informação de "Transportadora". Ir para a sessão "tcmcs0580m000" e informar o código na coluna "Transportadora / LSP". Pegar a informação da coluna "Parceiro de Negócio Faturador"</t>
   </si>
   <si>
     <t>Digitar o NR_PEDIDO na coluna "Pedido do Cliente". Se não encontrar na primeira tela, ir com a seta "Next Group" até encontrar, detalhando na sequência. Na aba inferior "Pedidos de Venda Site - Linha", selecionar e detalhar a linha com o NR_ENTREGA e NR_SEQ_ENTREGA desejada. Na aba superior "Expedição", seção "Expedição",  pegar a informação da "Data Prometida da Entrega"</t>
@@ -609,12 +603,6 @@
     <t>000000004</t>
   </si>
   <si>
-    <t>01000</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>COD_COTACAO</t>
   </si>
   <si>
@@ -907,633 +895,30 @@
     <t>000000002</t>
   </si>
   <si>
-    <t>010000001</t>
-  </si>
-  <si>
-    <t>2014-09-02 07:37:15.000</t>
-  </si>
-  <si>
-    <t>2014-09-02 11:31:21.000</t>
-  </si>
-  <si>
-    <t>5441</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>100005471</t>
-  </si>
-  <si>
-    <t>100004636</t>
-  </si>
-  <si>
-    <t>3.5190</t>
-  </si>
-  <si>
-    <t>1638939</t>
-  </si>
-  <si>
-    <t>17.9000</t>
-  </si>
-  <si>
-    <t>27.8900</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.2953</t>
-  </si>
-  <si>
-    <t>0.1648</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>1.3604</t>
-  </si>
-  <si>
-    <t>0.7592</t>
-  </si>
-  <si>
-    <t>2731956623</t>
-  </si>
-  <si>
-    <t>N00012</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>17.5240</t>
-  </si>
-  <si>
-    <t>38.2400</t>
-  </si>
-  <si>
-    <t>46228956</t>
-  </si>
-  <si>
-    <t>4622895601</t>
-  </si>
-  <si>
-    <t>2014-08-27 23:27:00.000</t>
-  </si>
-  <si>
-    <t>9.9900</t>
-  </si>
-  <si>
-    <t>2014-10-01 00:00:00.000</t>
-  </si>
-  <si>
     <t>000000003</t>
   </si>
   <si>
-    <t>010002167</t>
-  </si>
-  <si>
-    <t>2014-09-02 11:12:36.000</t>
-  </si>
-  <si>
-    <t>2014-09-02 11:32:30.000</t>
-  </si>
-  <si>
-    <t>5442</t>
-  </si>
-  <si>
-    <t>0.3000</t>
-  </si>
-  <si>
-    <t>241792</t>
-  </si>
-  <si>
-    <t>8.9000</t>
-  </si>
-  <si>
-    <t>18.8900</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.1468</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>0.6764</t>
-  </si>
-  <si>
-    <t>8.4782</t>
-  </si>
-  <si>
-    <t>46229172</t>
-  </si>
-  <si>
-    <t>4622917201</t>
-  </si>
-  <si>
-    <t>2014-08-27 23:33:00.000</t>
-  </si>
-  <si>
-    <t>010000013</t>
-  </si>
-  <si>
-    <t>2014-09-02 14:24:18.000</t>
-  </si>
-  <si>
-    <t>2014-09-02 16:26:04.000</t>
-  </si>
-  <si>
-    <t>5443</t>
-  </si>
-  <si>
-    <t>100005490</t>
-  </si>
-  <si>
-    <t>100005491</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>2731708</t>
-  </si>
-  <si>
-    <t>463.9000</t>
-  </si>
-  <si>
-    <t>473.8900</t>
-  </si>
-  <si>
-    <t>7.82</t>
-  </si>
-  <si>
-    <t>7.6543</t>
-  </si>
-  <si>
-    <t>36.02</t>
-  </si>
-  <si>
-    <t>35.2564</t>
-  </si>
-  <si>
-    <t>33987051892</t>
-  </si>
-  <si>
-    <t>360.4358</t>
-  </si>
-  <si>
-    <t>45805170</t>
-  </si>
-  <si>
-    <t>4580517001</t>
-  </si>
-  <si>
-    <t>2014-08-18 17:30:00.000</t>
-  </si>
-  <si>
-    <t>2014-09-03 00:00:00.000</t>
-  </si>
-  <si>
     <t>000000005</t>
   </si>
   <si>
-    <t>010000010</t>
-  </si>
-  <si>
-    <t>2014-09-02 15:58:54.000</t>
-  </si>
-  <si>
-    <t>2014-09-02 23:17:50.000</t>
-  </si>
-  <si>
-    <t>5444</t>
-  </si>
-  <si>
-    <t>100005486</t>
-  </si>
-  <si>
-    <t>5.2000</t>
-  </si>
-  <si>
-    <t>2247485</t>
-  </si>
-  <si>
-    <t>509.9000</t>
-  </si>
-  <si>
-    <t>550.4400</t>
-  </si>
-  <si>
-    <t>9.08</t>
-  </si>
-  <si>
-    <t>8.4133</t>
-  </si>
-  <si>
-    <t>0.5018</t>
-  </si>
-  <si>
-    <t>41.83</t>
-  </si>
-  <si>
-    <t>38.7524</t>
-  </si>
-  <si>
-    <t>2.3183</t>
-  </si>
-  <si>
-    <t>16940282831</t>
-  </si>
-  <si>
-    <t>356.0494</t>
-  </si>
-  <si>
-    <t>45747459</t>
-  </si>
-  <si>
-    <t>4574745901</t>
-  </si>
-  <si>
-    <t>2014-08-17 14:57:00.000</t>
-  </si>
-  <si>
-    <t>2014-09-01 00:00:00.000</t>
-  </si>
-  <si>
-    <t>30.5500</t>
-  </si>
-  <si>
     <t>000000006</t>
   </si>
   <si>
-    <t>010000037</t>
-  </si>
-  <si>
-    <t>2014-09-02 17:40:53.000</t>
-  </si>
-  <si>
-    <t>2014-09-02 23:18:51.000</t>
-  </si>
-  <si>
-    <t>5445</t>
-  </si>
-  <si>
-    <t>100005514</t>
-  </si>
-  <si>
-    <t>100004234</t>
-  </si>
-  <si>
-    <t>0.5480</t>
-  </si>
-  <si>
-    <t>2431755</t>
-  </si>
-  <si>
-    <t>543.9000</t>
-  </si>
-  <si>
-    <t>544.8900</t>
-  </si>
-  <si>
-    <t>32690119897</t>
-  </si>
-  <si>
-    <t>14735</t>
-  </si>
-  <si>
-    <t>2014-09-02 17:42:00.000</t>
-  </si>
-  <si>
-    <t>534.3937</t>
-  </si>
-  <si>
-    <t>15.3400</t>
-  </si>
-  <si>
-    <t>46105058</t>
-  </si>
-  <si>
-    <t>4610505801</t>
-  </si>
-  <si>
-    <t>2014-08-25 14:24:00.000</t>
-  </si>
-  <si>
-    <t>0.9900</t>
-  </si>
-  <si>
-    <t>2014-09-17 00:00:00.000</t>
-  </si>
-  <si>
     <t>000005015</t>
   </si>
   <si>
-    <t>010002291</t>
-  </si>
-  <si>
-    <t>2014-09-16 14:01:44.000</t>
-  </si>
-  <si>
-    <t>2014-09-16 14:41:51.000</t>
-  </si>
-  <si>
-    <t>7347</t>
-  </si>
-  <si>
-    <t>100008338</t>
-  </si>
-  <si>
-    <t>3386060</t>
-  </si>
-  <si>
-    <t>97.9000</t>
-  </si>
-  <si>
-    <t>103.8900</t>
-  </si>
-  <si>
-    <t>1.71</t>
-  </si>
-  <si>
-    <t>1.6153</t>
-  </si>
-  <si>
-    <t>0.0988</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>7.4404</t>
-  </si>
-  <si>
-    <t>0.4552</t>
-  </si>
-  <si>
-    <t>36923838860</t>
-  </si>
-  <si>
-    <t>88.7100</t>
-  </si>
-  <si>
-    <t>47008981</t>
-  </si>
-  <si>
-    <t>4700898101</t>
-  </si>
-  <si>
-    <t>2014-09-13 20:33:00.000</t>
-  </si>
-  <si>
-    <t>5.9900</t>
-  </si>
-  <si>
-    <t>2014-10-07 00:00:00.000</t>
-  </si>
-  <si>
     <t>000005016</t>
   </si>
   <si>
-    <t>010002320</t>
-  </si>
-  <si>
-    <t>7346</t>
-  </si>
-  <si>
-    <t>100008365</t>
-  </si>
-  <si>
-    <t>47.5000</t>
-  </si>
-  <si>
-    <t>451769</t>
-  </si>
-  <si>
-    <t>1349.9000</t>
-  </si>
-  <si>
-    <t>1362.8900</t>
-  </si>
-  <si>
-    <t>22.49</t>
-  </si>
-  <si>
-    <t>22.2733</t>
-  </si>
-  <si>
-    <t>0.2143</t>
-  </si>
-  <si>
-    <t>103.58</t>
-  </si>
-  <si>
-    <t>102.5924</t>
-  </si>
-  <si>
-    <t>0.9872</t>
-  </si>
-  <si>
-    <t>3189719845</t>
-  </si>
-  <si>
-    <t>1572.4629</t>
-  </si>
-  <si>
-    <t>47063121</t>
-  </si>
-  <si>
-    <t>4706312101</t>
-  </si>
-  <si>
-    <t>2014-09-14 23:27:00.000</t>
-  </si>
-  <si>
-    <t>12.9900</t>
-  </si>
-  <si>
     <t>000005017</t>
   </si>
   <si>
-    <t>010002323</t>
-  </si>
-  <si>
-    <t>7345</t>
-  </si>
-  <si>
-    <t>100008367</t>
-  </si>
-  <si>
-    <t>100008368</t>
-  </si>
-  <si>
-    <t>3.1150</t>
-  </si>
-  <si>
-    <t>2198090</t>
-  </si>
-  <si>
-    <t>1924.9000</t>
-  </si>
-  <si>
-    <t>2057.4000</t>
-  </si>
-  <si>
-    <t>39147387823</t>
-  </si>
-  <si>
-    <t>1914.3063</t>
-  </si>
-  <si>
-    <t>47114076</t>
-  </si>
-  <si>
-    <t>4711407601</t>
-  </si>
-  <si>
-    <t>2014-09-15 21:05:00.000</t>
-  </si>
-  <si>
-    <t>126.5100</t>
-  </si>
-  <si>
     <t>000005018</t>
   </si>
   <si>
-    <t>010002209</t>
-  </si>
-  <si>
-    <t>2014-09-16 14:02:24.000</t>
-  </si>
-  <si>
-    <t>7349</t>
-  </si>
-  <si>
-    <t>100007904</t>
-  </si>
-  <si>
-    <t>100004488</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>2391102</t>
-  </si>
-  <si>
-    <t>73.9000</t>
-  </si>
-  <si>
-    <t>83.8900</t>
-  </si>
-  <si>
-    <t>83.89</t>
-  </si>
-  <si>
-    <t>15.10</t>
-  </si>
-  <si>
-    <t>13.3020</t>
-  </si>
-  <si>
-    <t>1.7982</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>1.2193</t>
-  </si>
-  <si>
-    <t>6.38</t>
-  </si>
-  <si>
-    <t>5.6164</t>
-  </si>
-  <si>
-    <t>44809146847</t>
-  </si>
-  <si>
-    <t>11300</t>
-  </si>
-  <si>
-    <t>77.7376</t>
-  </si>
-  <si>
-    <t>44.2480</t>
-  </si>
-  <si>
-    <t>46993221</t>
-  </si>
-  <si>
-    <t>4699322101</t>
-  </si>
-  <si>
-    <t>2014-09-13 15:08:00.000</t>
-  </si>
-  <si>
-    <t>2014-10-03 00:00:00.000</t>
-  </si>
-  <si>
     <t>000005019</t>
   </si>
   <si>
-    <t>010002211</t>
-  </si>
-  <si>
-    <t>7348</t>
-  </si>
-  <si>
-    <t>100008263</t>
-  </si>
-  <si>
-    <t>14.7000</t>
-  </si>
-  <si>
-    <t>2755381</t>
-  </si>
-  <si>
-    <t>177.9000</t>
-  </si>
-  <si>
-    <t>183.8900</t>
-  </si>
-  <si>
-    <t>3.03</t>
-  </si>
-  <si>
-    <t>2.9353</t>
-  </si>
-  <si>
-    <t>13.98</t>
-  </si>
-  <si>
-    <t>13.5204</t>
-  </si>
-  <si>
-    <t>962206865</t>
-  </si>
-  <si>
-    <t>08700</t>
-  </si>
-  <si>
-    <t>225.9400</t>
-  </si>
-  <si>
-    <t>47122362</t>
-  </si>
-  <si>
-    <t>4712236201</t>
-  </si>
-  <si>
-    <t>2014-09-15 22:55:00.000</t>
-  </si>
-  <si>
     <t>Sessão tcmcs0108m000 (taxas monetárias) [na lupinha, após limpar todos os campos, selecionar Moeda Base = BRL, Tipo de Taxa de Cambio = COD_COTACAO e Moeda = CD_MOEDA]</t>
   </si>
   <si>
@@ -1624,31 +1009,445 @@
     <t>Está vindo branco na view</t>
   </si>
   <si>
-    <t>2014-09-17 11:18:50.000</t>
-  </si>
-  <si>
-    <t>2014-09-17 11:18:47.000</t>
-  </si>
-  <si>
-    <t>2014-09-19 12:29:47.000</t>
-  </si>
-  <si>
-    <t>2014-09-17 11:18:51.000</t>
-  </si>
-  <si>
-    <t>2014-09-19 12:30:57.000</t>
-  </si>
-  <si>
-    <t>2014-09-19 12:29:23.000</t>
-  </si>
-  <si>
-    <t>2014-09-17 11:18:49.000</t>
-  </si>
-  <si>
-    <t>2014-09-19 12:28:38.000</t>
-  </si>
-  <si>
-    <t>2014-09-17 11:18:52.000</t>
+    <t>F20007023</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>F20007029</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2063</t>
+  </si>
+  <si>
+    <t>V60000140</t>
+  </si>
+  <si>
+    <t>2015-01-30 17:03:26.000</t>
+  </si>
+  <si>
+    <t>2015-02-02 08:55:31.000</t>
+  </si>
+  <si>
+    <t>1558</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>6949</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>600000010</t>
+  </si>
+  <si>
+    <t>000000094</t>
+  </si>
+  <si>
+    <t>8.5500</t>
+  </si>
+  <si>
+    <t>299029</t>
+  </si>
+  <si>
+    <t>89880498704</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>N00002</t>
+  </si>
+  <si>
+    <t>2015-02-02 08:47:39.000</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>000000125</t>
+  </si>
+  <si>
+    <t>5023326001</t>
+  </si>
+  <si>
+    <t>B2B</t>
+  </si>
+  <si>
+    <t>2014-11-18 09:16:00.000</t>
+  </si>
+  <si>
+    <t>3342</t>
+  </si>
+  <si>
+    <t>35.6600</t>
+  </si>
+  <si>
+    <t>2014-11-20 00:00:00.000</t>
+  </si>
+  <si>
+    <t>F20007027</t>
+  </si>
+  <si>
+    <t>F20007026</t>
+  </si>
+  <si>
+    <t>2062</t>
+  </si>
+  <si>
+    <t>V60000161</t>
+  </si>
+  <si>
+    <t>2015-01-31 15:45:08.000</t>
+  </si>
+  <si>
+    <t>2015-01-31 16:18:32.000</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>0.6400</t>
+  </si>
+  <si>
+    <t>1806090</t>
+  </si>
+  <si>
+    <t>2015-01-31 15:46:38.000</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>50234202</t>
+  </si>
+  <si>
+    <t>5023420201</t>
+  </si>
+  <si>
+    <t>2015-01-31 15:16:00.000</t>
+  </si>
+  <si>
+    <t>3.2300</t>
+  </si>
+  <si>
+    <t>2015-02-04 00:00:00.000</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2015-02-02 08:51:05.000</t>
+  </si>
+  <si>
+    <t>2015-02-02 08:58:01.000</t>
+  </si>
+  <si>
+    <t>000011599</t>
+  </si>
+  <si>
+    <t>279.9000</t>
+  </si>
+  <si>
+    <t>315.5600</t>
+  </si>
+  <si>
+    <t>315.56</t>
+  </si>
+  <si>
+    <t>56.80</t>
+  </si>
+  <si>
+    <t>50.3820</t>
+  </si>
+  <si>
+    <t>6.4188</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>4.6183</t>
+  </si>
+  <si>
+    <t>0.5883</t>
+  </si>
+  <si>
+    <t>23.98</t>
+  </si>
+  <si>
+    <t>21.2724</t>
+  </si>
+  <si>
+    <t>2.7101</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>17192451000170</t>
+  </si>
+  <si>
+    <t>08550</t>
+  </si>
+  <si>
+    <t>2015-02-02 08:56:09.000</t>
+  </si>
+  <si>
+    <t>F20006996</t>
+  </si>
+  <si>
+    <t>F20006997</t>
+  </si>
+  <si>
+    <t>2057</t>
+  </si>
+  <si>
+    <t>V60000131</t>
+  </si>
+  <si>
+    <t>2015-01-29 18:02:59.000</t>
+  </si>
+  <si>
+    <t>2015-01-29 19:07:24.000</t>
+  </si>
+  <si>
+    <t>1542</t>
+  </si>
+  <si>
+    <t>2015-01-29 18:36:30.000</t>
+  </si>
+  <si>
+    <t>000000124</t>
+  </si>
+  <si>
+    <t>2015-01-29 18:41:07.000</t>
+  </si>
+  <si>
+    <t>2015-01-29 19:12:28.000</t>
+  </si>
+  <si>
+    <t>2015-01-29 19:11:57.000</t>
+  </si>
+  <si>
+    <t>F20006979</t>
+  </si>
+  <si>
+    <t>F20006980</t>
+  </si>
+  <si>
+    <t>V60000133</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:37:14.000</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:43:22.000</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:42:33.000</t>
+  </si>
+  <si>
+    <t>50234029</t>
+  </si>
+  <si>
+    <t>5023402901</t>
+  </si>
+  <si>
+    <t>2015-01-27 15:21:00.000</t>
+  </si>
+  <si>
+    <t>5.6000</t>
+  </si>
+  <si>
+    <t>F20006920</t>
+  </si>
+  <si>
+    <t>F20006914</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>100001722</t>
+  </si>
+  <si>
+    <t>2015-01-22 08:57:40.000</t>
+  </si>
+  <si>
+    <t>2015-01-22 10:36:06.000</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>000038002</t>
+  </si>
+  <si>
+    <t>2015-01-22 10:35:35.000</t>
+  </si>
+  <si>
+    <t>050233748</t>
+  </si>
+  <si>
+    <t>5023374301</t>
+  </si>
+  <si>
+    <t>2014-12-22 09:52:00.000</t>
+  </si>
+  <si>
+    <t>2014-12-26 00:00:00.000</t>
+  </si>
+  <si>
+    <t>F20006909</t>
+  </si>
+  <si>
+    <t>F20006910</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>V20052618</t>
+  </si>
+  <si>
+    <t>2015-01-21 10:30:38.000</t>
+  </si>
+  <si>
+    <t>2015-01-21 14:32:07.000</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>59498</t>
+  </si>
+  <si>
+    <t>9499</t>
+  </si>
+  <si>
+    <t>000000337</t>
+  </si>
+  <si>
+    <t>2858935</t>
+  </si>
+  <si>
+    <t>33465295846</t>
+  </si>
+  <si>
+    <t>2015-01-21 11:11:53.000</t>
+  </si>
+  <si>
+    <t>272.2500</t>
+  </si>
+  <si>
+    <t>50233945</t>
+  </si>
+  <si>
+    <t>5023394501</t>
+  </si>
+  <si>
+    <t>2015-01-21 10:05:00.000</t>
+  </si>
+  <si>
+    <t>4.9900</t>
+  </si>
+  <si>
+    <t>2015-01-29 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-21 10:30:42.000</t>
+  </si>
+  <si>
+    <t>2015-01-21 11:10:20.000</t>
+  </si>
+  <si>
+    <t>000000304</t>
+  </si>
+  <si>
+    <t>699.0000</t>
+  </si>
+  <si>
+    <t>706.9800</t>
+  </si>
+  <si>
+    <t>11.67</t>
+  </si>
+  <si>
+    <t>11.5335</t>
+  </si>
+  <si>
+    <t>0.0823</t>
+  </si>
+  <si>
+    <t>0.0541</t>
+  </si>
+  <si>
+    <t>53.73</t>
+  </si>
+  <si>
+    <t>53.1240</t>
+  </si>
+  <si>
+    <t>0.3792</t>
+  </si>
+  <si>
+    <t>0.2267</t>
+  </si>
+  <si>
+    <t>2015-01-21 11:09:57.000</t>
+  </si>
+  <si>
+    <t>F20006902</t>
+  </si>
+  <si>
+    <t>F20006901</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>V60000122</t>
+  </si>
+  <si>
+    <t>2015-01-20 19:09:28.000</t>
+  </si>
+  <si>
+    <t>2015-01-20 19:09:23.000</t>
+  </si>
+  <si>
+    <t>1507</t>
+  </si>
+  <si>
+    <t>2015-01-20 19:09:30.000</t>
+  </si>
+  <si>
+    <t>050233841</t>
+  </si>
+  <si>
+    <t>5023384001</t>
+  </si>
+  <si>
+    <t>2015-01-13 18:02:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-15 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba superior "Transportadora", seção "Transportadora" pegar a informação de "Transportadora". Ir para a sessão "tcmcs0580m000" e informar o código na coluna "Transportadora / LSP". Pegar a informação da coluna "Parceiro de Negócio Fornecedor"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o pedido '000000125' existe para a Unid Negócio 5 e 6 no ambiente de homologação e isso está errado </t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2008,6 +1807,54 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2017,13 +1864,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,89 +1939,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2557,7 +2372,7 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AU2" s="10"/>
       <c r="AV2" s="10"/>
@@ -2573,7 +2388,7 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="BJ3" s="10"/>
     </row>
@@ -2582,39 +2397,39 @@
     </row>
     <row r="6" spans="1:62">
       <c r="A6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:62">
       <c r="A7" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>26</v>
@@ -2622,19 +2437,19 @@
     </row>
     <row r="8" spans="1:62">
       <c r="A8" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>26</v>
@@ -2642,19 +2457,19 @@
     </row>
     <row r="9" spans="1:62">
       <c r="A9" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>26</v>
@@ -2662,19 +2477,19 @@
     </row>
     <row r="10" spans="1:62">
       <c r="A10" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>26</v>
@@ -2682,19 +2497,19 @@
     </row>
     <row r="11" spans="1:62">
       <c r="A11" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>26</v>
@@ -2702,19 +2517,19 @@
     </row>
     <row r="12" spans="1:62">
       <c r="A12" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>26</v>
@@ -2722,19 +2537,19 @@
     </row>
     <row r="13" spans="1:62">
       <c r="A13" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>26</v>
@@ -2742,19 +2557,19 @@
     </row>
     <row r="14" spans="1:62">
       <c r="A14" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>0</v>
@@ -2762,19 +2577,19 @@
     </row>
     <row r="15" spans="1:62">
       <c r="A15" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>26</v>
@@ -2782,19 +2597,19 @@
     </row>
     <row r="16" spans="1:62">
       <c r="A16" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>280</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>26</v>
@@ -2802,19 +2617,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>0</v>
@@ -2822,7 +2637,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20" t="s">
-        <v>496</v>
+        <v>291</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2848,22 +2663,22 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="29" t="s">
+      <c r="F22" s="29" t="s">
         <v>207</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2910,12 +2725,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:CD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="BZ13" sqref="BZ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2925,12 +2740,12 @@
     <col min="3" max="3" width="28.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="36.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="32.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="21.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" style="2" customWidth="1"/>
@@ -2938,7 +2753,7 @@
     <col min="16" max="16" width="23.140625" style="2" customWidth="1"/>
     <col min="17" max="17" width="20" style="2" customWidth="1"/>
     <col min="18" max="18" width="20.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="39.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="38.5703125" style="2" customWidth="1"/>
     <col min="20" max="20" width="25.7109375" style="2" customWidth="1"/>
     <col min="21" max="21" width="23.5703125" style="2" customWidth="1"/>
     <col min="22" max="22" width="23.7109375" style="2" customWidth="1"/>
@@ -2949,7 +2764,7 @@
     <col min="27" max="27" width="23.42578125" style="2" customWidth="1"/>
     <col min="28" max="28" width="29.140625" style="2" customWidth="1"/>
     <col min="29" max="29" width="27.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="28" style="2" customWidth="1"/>
+    <col min="30" max="30" width="29.140625" style="2" customWidth="1"/>
     <col min="31" max="31" width="28.7109375" style="2" customWidth="1"/>
     <col min="32" max="32" width="34.85546875" style="2" customWidth="1"/>
     <col min="33" max="33" width="32.7109375" style="2" customWidth="1"/>
@@ -3028,7 +2843,7 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:82" ht="25.5" customHeight="1">
@@ -3042,10 +2857,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>18</v>
@@ -3066,7 +2881,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>28</v>
@@ -3281,25 +3096,25 @@
     </row>
     <row r="7" spans="1:82" s="9" customFormat="1">
       <c r="A7" s="13" t="s">
-        <v>417</v>
+        <v>321</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>0</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>85</v>
@@ -3308,64 +3123,64 @@
         <v>86</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>397</v>
+        <v>327</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>526</v>
+        <v>328</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>419</v>
+        <v>329</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>421</v>
+        <v>335</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>421</v>
+        <v>335</v>
       </c>
       <c r="V7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>423</v>
+        <v>88</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>424</v>
+        <v>88</v>
       </c>
       <c r="AA7" s="13" t="s">
         <v>88</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="AD7" s="13" t="s">
         <v>88</v>
@@ -3392,25 +3207,25 @@
         <v>88</v>
       </c>
       <c r="AL7" s="13" t="s">
-        <v>425</v>
+        <v>85</v>
       </c>
       <c r="AM7" s="13" t="s">
-        <v>426</v>
+        <v>88</v>
       </c>
       <c r="AN7" s="13" t="s">
-        <v>427</v>
+        <v>88</v>
       </c>
       <c r="AO7" s="13" t="s">
         <v>88</v>
       </c>
       <c r="AP7" s="13" t="s">
-        <v>428</v>
+        <v>85</v>
       </c>
       <c r="AQ7" s="13" t="s">
-        <v>429</v>
+        <v>88</v>
       </c>
       <c r="AR7" s="13" t="s">
-        <v>430</v>
+        <v>88</v>
       </c>
       <c r="AS7" s="13" t="s">
         <v>88</v>
@@ -3434,76 +3249,76 @@
         <v>93</v>
       </c>
       <c r="AZ7" s="13" t="s">
-        <v>431</v>
+        <v>337</v>
       </c>
       <c r="BA7" s="13" t="s">
         <v>93</v>
       </c>
       <c r="BB7" s="13" t="s">
-        <v>431</v>
+        <v>337</v>
       </c>
       <c r="BC7" s="13" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="BD7" s="13" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="BE7" s="13" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="BF7" s="13" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="BG7" s="13" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="BH7" s="13" t="s">
-        <v>432</v>
+        <v>341</v>
       </c>
       <c r="BI7" s="13" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="BJ7" s="13" t="s">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="BK7" s="13" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="13" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="BM7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="BN7" s="13" t="s">
-        <v>434</v>
+        <v>343</v>
       </c>
       <c r="BO7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="BP7" s="13" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="BQ7" s="13" t="s">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="BR7" s="13" t="s">
-        <v>435</v>
+        <v>345</v>
       </c>
       <c r="BS7" s="13" t="s">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="BT7" s="13" t="s">
         <v>85</v>
       </c>
       <c r="BU7" s="13" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
       <c r="BV7" s="13" t="s">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="BW7" s="13" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="BX7" s="13" t="s">
         <v>0</v>
@@ -3518,10 +3333,10 @@
         <v>88</v>
       </c>
       <c r="CB7" s="13" t="s">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c r="CC7" s="13" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="CD7" s="9" t="s">
         <v>86</v>
@@ -3529,25 +3344,25 @@
     </row>
     <row r="8" spans="1:82" s="9" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>0</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>85</v>
@@ -3556,64 +3371,64 @@
         <v>86</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>438</v>
+        <v>352</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>527</v>
+        <v>354</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>439</v>
+        <v>355</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>440</v>
+        <v>333</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>442</v>
+        <v>356</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>442</v>
+        <v>356</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
       <c r="X8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>444</v>
+        <v>88</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>445</v>
+        <v>88</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="AD8" s="8" t="s">
         <v>88</v>
@@ -3682,94 +3497,94 @@
         <v>93</v>
       </c>
       <c r="AZ8" s="8" t="s">
-        <v>446</v>
+        <v>337</v>
       </c>
       <c r="BA8" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB8" s="8" t="s">
-        <v>446</v>
+        <v>337</v>
       </c>
       <c r="BC8" s="8" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="BD8" s="8" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="BE8" s="8" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="BF8" s="8" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="BG8" s="8" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="BH8" s="8" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="BI8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="BJ8" s="8" t="s">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="BK8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL8" s="8" t="s">
-        <v>448</v>
+        <v>360</v>
       </c>
       <c r="BM8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN8" s="8" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="BO8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BP8" s="8" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="BQ8" s="8" t="s">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="BR8" s="8" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="BS8" s="8" t="s">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="BT8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU8" s="8" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="BV8" s="8" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
       <c r="BW8" s="8" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="BX8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BY8" s="8" t="s">
-        <v>451</v>
+        <v>88</v>
       </c>
       <c r="BZ8" s="8" t="s">
-        <v>451</v>
+        <v>88</v>
       </c>
       <c r="CA8" s="8" t="s">
         <v>88</v>
       </c>
       <c r="CB8" s="8" t="s">
-        <v>85</v>
+        <v>351</v>
       </c>
       <c r="CC8" s="8" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="CD8" s="9" t="s">
         <v>86</v>
@@ -3777,19 +3592,19 @@
     </row>
     <row r="9" spans="1:82" s="9" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>92</v>
+        <v>321</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>92</v>
+        <v>324</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>85</v>
@@ -3798,25 +3613,25 @@
         <v>86</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>85</v>
+        <v>329</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>157</v>
@@ -3825,43 +3640,43 @@
         <v>158</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>380</v>
+        <v>86</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>381</v>
+        <v>88</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>381</v>
+        <v>88</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="X9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AD9" s="8" t="s">
         <v>88</v>
@@ -3870,43 +3685,43 @@
         <v>88</v>
       </c>
       <c r="AF9" s="8" t="s">
-        <v>85</v>
+        <v>371</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="AH9" s="8" t="s">
         <v>85</v>
       </c>
       <c r="AI9" s="8" t="s">
-        <v>88</v>
+        <v>373</v>
       </c>
       <c r="AJ9" s="8" t="s">
-        <v>88</v>
+        <v>374</v>
       </c>
       <c r="AK9" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AL9" s="8" t="s">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="AM9" s="8" t="s">
-        <v>88</v>
+        <v>376</v>
       </c>
       <c r="AN9" s="8" t="s">
-        <v>88</v>
+        <v>377</v>
       </c>
       <c r="AO9" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP9" s="8" t="s">
-        <v>85</v>
+        <v>378</v>
       </c>
       <c r="AQ9" s="8" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="AR9" s="8" t="s">
-        <v>88</v>
+        <v>380</v>
       </c>
       <c r="AS9" s="8" t="s">
         <v>88</v>
@@ -3927,79 +3742,79 @@
         <v>85</v>
       </c>
       <c r="AY9" s="8" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="AZ9" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="BA9" s="8" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="BB9" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="BC9" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="BD9" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="BE9" s="8" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="BF9" s="8" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="BG9" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="BH9" s="8" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="BI9" s="8" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="BJ9" s="8" t="s">
-        <v>389</v>
+        <v>88</v>
       </c>
       <c r="BK9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL9" s="8" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="BM9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN9" s="8" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="BO9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BP9" s="8" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="BQ9" s="8" t="s">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="BR9" s="8" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="BS9" s="8" t="s">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="BT9" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU9" s="8" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="BV9" s="8" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="BW9" s="8" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="BX9" s="8" t="s">
         <v>0</v>
@@ -4014,10 +3829,10 @@
         <v>88</v>
       </c>
       <c r="CB9" s="8" t="s">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c r="CC9" s="8" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="CD9" s="9" t="s">
         <v>86</v>
@@ -4025,25 +3840,25 @@
     </row>
     <row r="10" spans="1:82" s="9" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>194</v>
+        <v>385</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>0</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>85</v>
@@ -4052,64 +3867,64 @@
         <v>86</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="P10" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="Q10" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="R10" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="S10" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" s="8" t="s">
+      <c r="T10" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="R10" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="U10" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="X10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>339</v>
+        <v>88</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>340</v>
+        <v>88</v>
       </c>
       <c r="AA10" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="AD10" s="8" t="s">
         <v>88</v>
@@ -4136,25 +3951,25 @@
         <v>88</v>
       </c>
       <c r="AL10" s="8" t="s">
-        <v>341</v>
+        <v>85</v>
       </c>
       <c r="AM10" s="8" t="s">
-        <v>342</v>
+        <v>88</v>
       </c>
       <c r="AN10" s="8" t="s">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="AO10" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP10" s="8" t="s">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="AQ10" s="8" t="s">
-        <v>344</v>
+        <v>88</v>
       </c>
       <c r="AR10" s="8" t="s">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="AS10" s="8" t="s">
         <v>88</v>
@@ -4178,76 +3993,76 @@
         <v>93</v>
       </c>
       <c r="AZ10" s="8" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="BA10" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB10" s="8" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>90</v>
+        <v>338</v>
       </c>
       <c r="BD10" s="8" t="s">
-        <v>90</v>
+        <v>338</v>
       </c>
       <c r="BE10" s="8" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="BF10" s="8" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="BG10" s="8" t="s">
-        <v>528</v>
+        <v>392</v>
       </c>
       <c r="BH10" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="BI10" s="8" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="BJ10" s="8" t="s">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="BK10" s="8" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="8" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="BM10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN10" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="BO10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BP10" s="8" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="BQ10" s="8" t="s">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="BR10" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="BS10" s="8" t="s">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="BT10" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU10" s="8" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="BV10" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BW10" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BX10" s="8" t="s">
         <v>0</v>
@@ -4262,10 +4077,10 @@
         <v>88</v>
       </c>
       <c r="CB10" s="8" t="s">
-        <v>85</v>
+        <v>387</v>
       </c>
       <c r="CC10" s="8" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="CD10" s="9" t="s">
         <v>86</v>
@@ -4273,19 +4088,19 @@
     </row>
     <row r="11" spans="1:82" s="9" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>92</v>
+        <v>385</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>92</v>
+        <v>324</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>85</v>
@@ -4294,25 +4109,25 @@
         <v>86</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>85</v>
+        <v>391</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>157</v>
@@ -4321,34 +4136,34 @@
         <v>158</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>457</v>
+        <v>86</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>458</v>
+        <v>88</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>458</v>
+        <v>88</v>
       </c>
       <c r="V11" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>459</v>
+        <v>336</v>
       </c>
       <c r="X11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>460</v>
+        <v>369</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>88</v>
@@ -4366,43 +4181,43 @@
         <v>88</v>
       </c>
       <c r="AF11" s="8" t="s">
-        <v>462</v>
+        <v>371</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>463</v>
+        <v>372</v>
       </c>
       <c r="AH11" s="8" t="s">
         <v>85</v>
       </c>
       <c r="AI11" s="8" t="s">
-        <v>464</v>
+        <v>373</v>
       </c>
       <c r="AJ11" s="8" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="AK11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AL11" s="8" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="AM11" s="8" t="s">
-        <v>467</v>
+        <v>376</v>
       </c>
       <c r="AN11" s="8" t="s">
-        <v>300</v>
+        <v>377</v>
       </c>
       <c r="AO11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP11" s="8" t="s">
-        <v>468</v>
+        <v>378</v>
       </c>
       <c r="AQ11" s="8" t="s">
-        <v>469</v>
+        <v>379</v>
       </c>
       <c r="AR11" s="8" t="s">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="AS11" s="8" t="s">
         <v>88</v>
@@ -4423,79 +4238,79 @@
         <v>85</v>
       </c>
       <c r="AY11" s="8" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="AZ11" s="8" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="BA11" s="8" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="BB11" s="8" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>471</v>
+        <v>383</v>
       </c>
       <c r="BD11" s="8" t="s">
-        <v>471</v>
+        <v>383</v>
       </c>
       <c r="BE11" s="8" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="BF11" s="8" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="BG11" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="BH11" s="8" t="s">
-        <v>472</v>
+        <v>341</v>
       </c>
       <c r="BI11" s="8" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="BJ11" s="8" t="s">
-        <v>473</v>
+        <v>88</v>
       </c>
       <c r="BK11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL11" s="8" t="s">
-        <v>474</v>
+        <v>393</v>
       </c>
       <c r="BM11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN11" s="8" t="s">
-        <v>475</v>
+        <v>343</v>
       </c>
       <c r="BO11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BP11" s="8" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="BQ11" s="8" t="s">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="BR11" s="8" t="s">
-        <v>476</v>
+        <v>345</v>
       </c>
       <c r="BS11" s="8" t="s">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="BT11" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU11" s="8" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="BV11" s="8" t="s">
-        <v>459</v>
+        <v>336</v>
       </c>
       <c r="BW11" s="8" t="s">
-        <v>477</v>
+        <v>348</v>
       </c>
       <c r="BX11" s="8" t="s">
         <v>0</v>
@@ -4510,10 +4325,10 @@
         <v>88</v>
       </c>
       <c r="CB11" s="8" t="s">
-        <v>85</v>
+        <v>387</v>
       </c>
       <c r="CC11" s="8" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="CD11" s="9" t="s">
         <v>86</v>
@@ -4521,25 +4336,25 @@
     </row>
     <row r="12" spans="1:82" s="9" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>92</v>
+        <v>398</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>92</v>
+        <v>324</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>85</v>
@@ -4548,64 +4363,64 @@
         <v>86</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="X12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>359</v>
+        <v>88</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>360</v>
+        <v>88</v>
       </c>
       <c r="AA12" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="AD12" s="8" t="s">
         <v>88</v>
@@ -4632,28 +4447,28 @@
         <v>88</v>
       </c>
       <c r="AL12" s="8" t="s">
-        <v>361</v>
+        <v>85</v>
       </c>
       <c r="AM12" s="8" t="s">
-        <v>362</v>
+        <v>88</v>
       </c>
       <c r="AN12" s="8" t="s">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="AO12" s="8" t="s">
-        <v>363</v>
+        <v>88</v>
       </c>
       <c r="AP12" s="8" t="s">
-        <v>364</v>
+        <v>85</v>
       </c>
       <c r="AQ12" s="8" t="s">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="AR12" s="8" t="s">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="AS12" s="8" t="s">
-        <v>366</v>
+        <v>88</v>
       </c>
       <c r="AT12" s="8" t="s">
         <v>88</v>
@@ -4674,85 +4489,85 @@
         <v>93</v>
       </c>
       <c r="AZ12" s="8" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="BA12" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB12" s="8" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="BD12" s="8" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="BE12" s="8" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="BF12" s="8" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="BG12" s="8" t="s">
-        <v>530</v>
+        <v>403</v>
       </c>
       <c r="BH12" s="8" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="BI12" s="8" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="BJ12" s="8" t="s">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="BK12" s="8" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="8" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="BM12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN12" s="8" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="BO12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BP12" s="8" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="BQ12" s="8" t="s">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="BR12" s="8" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="BS12" s="8" t="s">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="BT12" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU12" s="8" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="BV12" s="8" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="BW12" s="8" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="BX12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BY12" s="8" t="s">
-        <v>373</v>
+        <v>88</v>
       </c>
       <c r="BZ12" s="8" t="s">
-        <v>373</v>
+        <v>88</v>
       </c>
       <c r="CA12" s="8" t="s">
         <v>88</v>
@@ -4761,7 +4576,7 @@
         <v>85</v>
       </c>
       <c r="CC12" s="8" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="CD12" s="9" t="s">
         <v>86</v>
@@ -4769,25 +4584,25 @@
     </row>
     <row r="13" spans="1:82" s="9" customFormat="1">
       <c r="A13" s="8" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>0</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>85</v>
@@ -4796,64 +4611,64 @@
         <v>86</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>315</v>
+        <v>411</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>316</v>
+        <v>412</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>318</v>
+        <v>414</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>292</v>
+        <v>415</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>292</v>
+        <v>415</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="X13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>321</v>
+        <v>88</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>322</v>
+        <v>88</v>
       </c>
       <c r="AA13" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AB13" s="8" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="AD13" s="8" t="s">
         <v>88</v>
@@ -4880,25 +4695,25 @@
         <v>88</v>
       </c>
       <c r="AL13" s="8" t="s">
-        <v>323</v>
+        <v>85</v>
       </c>
       <c r="AM13" s="8" t="s">
-        <v>324</v>
+        <v>88</v>
       </c>
       <c r="AN13" s="8" t="s">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="AO13" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP13" s="8" t="s">
-        <v>325</v>
+        <v>85</v>
       </c>
       <c r="AQ13" s="8" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
       <c r="AR13" s="8" t="s">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="AS13" s="8" t="s">
         <v>88</v>
@@ -4922,79 +4737,79 @@
         <v>93</v>
       </c>
       <c r="AZ13" s="8" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="BA13" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB13" s="8" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="BC13" s="8" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="BD13" s="8" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="BE13" s="8" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="BF13" s="8" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="BG13" s="8" t="s">
-        <v>531</v>
+        <v>416</v>
       </c>
       <c r="BH13" s="8" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="BI13" s="8" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="BJ13" s="8" t="s">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="BK13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL13" s="8" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="BM13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN13" s="8" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="BO13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BP13" s="8" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="BQ13" s="8" t="s">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="BR13" s="8" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BS13" s="8" t="s">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="BT13" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU13" s="8" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="BV13" s="8" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="BW13" s="8" t="s">
-        <v>313</v>
+        <v>420</v>
       </c>
       <c r="BX13" s="8" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="BY13" s="8" t="s">
         <v>88</v>
@@ -5006,10 +4821,10 @@
         <v>88</v>
       </c>
       <c r="CB13" s="8" t="s">
-        <v>85</v>
+        <v>410</v>
       </c>
       <c r="CC13" s="8" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="CD13" s="9" t="s">
         <v>86</v>
@@ -5017,25 +4832,25 @@
     </row>
     <row r="14" spans="1:82" s="9" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>0</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>85</v>
@@ -5044,64 +4859,64 @@
         <v>86</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>532</v>
+        <v>426</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>157</v>
+        <v>428</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>158</v>
+        <v>429</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="V14" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="X14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>402</v>
+        <v>88</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>403</v>
+        <v>88</v>
       </c>
       <c r="AA14" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>157</v>
+        <v>428</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>158</v>
+        <v>429</v>
       </c>
       <c r="AD14" s="8" t="s">
         <v>88</v>
@@ -5128,25 +4943,25 @@
         <v>88</v>
       </c>
       <c r="AL14" s="8" t="s">
-        <v>404</v>
+        <v>85</v>
       </c>
       <c r="AM14" s="8" t="s">
-        <v>405</v>
+        <v>88</v>
       </c>
       <c r="AN14" s="8" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="AO14" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP14" s="8" t="s">
-        <v>407</v>
+        <v>85</v>
       </c>
       <c r="AQ14" s="8" t="s">
-        <v>408</v>
+        <v>88</v>
       </c>
       <c r="AR14" s="8" t="s">
-        <v>409</v>
+        <v>88</v>
       </c>
       <c r="AS14" s="8" t="s">
         <v>88</v>
@@ -5170,61 +4985,61 @@
         <v>93</v>
       </c>
       <c r="AZ14" s="8" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="BA14" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB14" s="8" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="BC14" s="8" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="BD14" s="8" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="BE14" s="8" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="BF14" s="8" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="BG14" s="8" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="BH14" s="8" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="BI14" s="8" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="BJ14" s="8" t="s">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="BK14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL14" s="8" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="BM14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN14" s="8" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="BO14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BP14" s="8" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="BQ14" s="8" t="s">
         <v>89</v>
       </c>
       <c r="BR14" s="8" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="BS14" s="8" t="s">
         <v>85</v>
@@ -5233,13 +5048,13 @@
         <v>85</v>
       </c>
       <c r="BU14" s="8" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="BV14" s="8" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="BW14" s="8" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="BX14" s="8" t="s">
         <v>0</v>
@@ -5265,19 +5080,19 @@
     </row>
     <row r="15" spans="1:82" s="9" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>286</v>
+        <v>422</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>92</v>
+        <v>421</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>92</v>
+        <v>324</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>85</v>
@@ -5286,25 +5101,25 @@
         <v>86</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>85</v>
+        <v>427</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>287</v>
+        <v>424</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>288</v>
+        <v>440</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>289</v>
+        <v>441</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>290</v>
+        <v>423</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>157</v>
@@ -5313,34 +5128,34 @@
         <v>158</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>293</v>
+        <v>86</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>294</v>
+        <v>88</v>
       </c>
       <c r="U15" s="8" t="s">
-        <v>294</v>
+        <v>88</v>
       </c>
       <c r="V15" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>295</v>
+        <v>431</v>
       </c>
       <c r="X15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>296</v>
+        <v>443</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>297</v>
+        <v>444</v>
       </c>
       <c r="AA15" s="8" t="s">
         <v>88</v>
@@ -5376,28 +5191,28 @@
         <v>88</v>
       </c>
       <c r="AL15" s="8" t="s">
-        <v>298</v>
+        <v>445</v>
       </c>
       <c r="AM15" s="8" t="s">
-        <v>299</v>
+        <v>446</v>
       </c>
       <c r="AN15" s="8" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="AO15" s="8" t="s">
-        <v>88</v>
+        <v>448</v>
       </c>
       <c r="AP15" s="8" t="s">
-        <v>301</v>
+        <v>449</v>
       </c>
       <c r="AQ15" s="8" t="s">
-        <v>302</v>
+        <v>450</v>
       </c>
       <c r="AR15" s="8" t="s">
-        <v>303</v>
+        <v>451</v>
       </c>
       <c r="AS15" s="8" t="s">
-        <v>88</v>
+        <v>452</v>
       </c>
       <c r="AT15" s="8" t="s">
         <v>88</v>
@@ -5418,61 +5233,61 @@
         <v>93</v>
       </c>
       <c r="AZ15" s="8" t="s">
-        <v>304</v>
+        <v>432</v>
       </c>
       <c r="BA15" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB15" s="8" t="s">
-        <v>304</v>
+        <v>432</v>
       </c>
       <c r="BC15" s="8" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="BD15" s="8" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="BE15" s="8" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="BF15" s="8" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="BG15" s="8" t="s">
-        <v>533</v>
+        <v>453</v>
       </c>
       <c r="BH15" s="8" t="s">
-        <v>307</v>
+        <v>434</v>
       </c>
       <c r="BI15" s="8" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="BJ15" s="8" t="s">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="BK15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL15" s="8" t="s">
-        <v>309</v>
+        <v>435</v>
       </c>
       <c r="BM15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN15" s="8" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="BO15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BP15" s="8" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="BQ15" s="8" t="s">
         <v>89</v>
       </c>
       <c r="BR15" s="8" t="s">
-        <v>311</v>
+        <v>437</v>
       </c>
       <c r="BS15" s="8" t="s">
         <v>85</v>
@@ -5481,13 +5296,13 @@
         <v>85</v>
       </c>
       <c r="BU15" s="8" t="s">
-        <v>312</v>
+        <v>438</v>
       </c>
       <c r="BV15" s="8" t="s">
-        <v>295</v>
+        <v>431</v>
       </c>
       <c r="BW15" s="8" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
       <c r="BX15" s="8" t="s">
         <v>0</v>
@@ -5513,25 +5328,25 @@
     </row>
     <row r="16" spans="1:82" s="9" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>0</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>85</v>
@@ -5540,64 +5355,64 @@
         <v>86</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>534</v>
+        <v>459</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>482</v>
+        <v>335</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>482</v>
+        <v>335</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>483</v>
+        <v>336</v>
       </c>
       <c r="X16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>484</v>
+        <v>88</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>485</v>
+        <v>88</v>
       </c>
       <c r="AA16" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="AD16" s="8" t="s">
         <v>88</v>
@@ -5624,25 +5439,25 @@
         <v>88</v>
       </c>
       <c r="AL16" s="8" t="s">
-        <v>486</v>
+        <v>85</v>
       </c>
       <c r="AM16" s="8" t="s">
-        <v>487</v>
+        <v>88</v>
       </c>
       <c r="AN16" s="8" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="AO16" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP16" s="8" t="s">
-        <v>488</v>
+        <v>85</v>
       </c>
       <c r="AQ16" s="8" t="s">
-        <v>489</v>
+        <v>88</v>
       </c>
       <c r="AR16" s="8" t="s">
-        <v>409</v>
+        <v>88</v>
       </c>
       <c r="AS16" s="8" t="s">
         <v>88</v>
@@ -5666,76 +5481,76 @@
         <v>93</v>
       </c>
       <c r="AZ16" s="8" t="s">
-        <v>490</v>
+        <v>337</v>
       </c>
       <c r="BA16" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB16" s="8" t="s">
-        <v>490</v>
+        <v>337</v>
       </c>
       <c r="BC16" s="8" t="s">
-        <v>491</v>
+        <v>338</v>
       </c>
       <c r="BD16" s="8" t="s">
-        <v>491</v>
+        <v>338</v>
       </c>
       <c r="BE16" s="8" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="BF16" s="8" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="BG16" s="8" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="BH16" s="8" t="s">
-        <v>492</v>
+        <v>341</v>
       </c>
       <c r="BI16" s="8" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="BJ16" s="8" t="s">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="BK16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BL16" s="8" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="BM16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN16" s="8" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="BO16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BP16" s="8" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="BQ16" s="8" t="s">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="BR16" s="8" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="BS16" s="8" t="s">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="BT16" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU16" s="8" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="BV16" s="8" t="s">
-        <v>483</v>
+        <v>336</v>
       </c>
       <c r="BW16" s="8" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="BX16" s="8" t="s">
         <v>0</v>
@@ -5750,285 +5565,285 @@
         <v>88</v>
       </c>
       <c r="CB16" s="8" t="s">
-        <v>85</v>
+        <v>456</v>
       </c>
       <c r="CC16" s="8" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="CD16" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:82" ht="15" customHeight="1">
-      <c r="A18" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="61"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="61"/>
-      <c r="AV18" s="61"/>
-      <c r="AW18" s="61"/>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="60" t="s">
+      <c r="A18" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AZ18" s="35"/>
+      <c r="BA18" s="35"/>
+      <c r="BB18" s="35"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="BF18" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="AZ18" s="61"/>
-      <c r="BA18" s="61"/>
-      <c r="BB18" s="61"/>
-      <c r="BC18" s="61"/>
-      <c r="BD18" s="62"/>
-      <c r="BE18" s="57" t="s">
+      <c r="BG18" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="BH18" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="BI18" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ18" s="52"/>
+      <c r="BK18" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="BL18" s="20" t="s">
         <v>247</v>
-      </c>
-      <c r="BF18" s="57" t="s">
-        <v>248</v>
-      </c>
-      <c r="BG18" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="BH18" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="BI18" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="BJ18" s="69"/>
-      <c r="BK18" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="BL18" s="20" t="s">
-        <v>251</v>
       </c>
       <c r="BM18" s="21"/>
       <c r="BN18" s="22"/>
-      <c r="BO18" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="BP18" s="70"/>
-      <c r="BQ18" s="70"/>
-      <c r="BR18" s="70"/>
-      <c r="BS18" s="70"/>
-      <c r="BT18" s="70"/>
-      <c r="BU18" s="70"/>
-      <c r="BV18" s="70"/>
-      <c r="BW18" s="70"/>
-      <c r="BX18" s="70"/>
-      <c r="BY18" s="70"/>
-      <c r="BZ18" s="70"/>
-      <c r="CA18" s="70"/>
-      <c r="CB18" s="39" t="s">
-        <v>502</v>
-      </c>
-      <c r="CC18" s="40"/>
+      <c r="BO18" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="BP18" s="33"/>
+      <c r="BQ18" s="33"/>
+      <c r="BR18" s="33"/>
+      <c r="BS18" s="33"/>
+      <c r="BT18" s="33"/>
+      <c r="BU18" s="33"/>
+      <c r="BV18" s="33"/>
+      <c r="BW18" s="33"/>
+      <c r="BX18" s="33"/>
+      <c r="BY18" s="33"/>
+      <c r="BZ18" s="33"/>
+      <c r="CA18" s="33"/>
+      <c r="CB18" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="CC18" s="66"/>
     </row>
     <row r="19" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="64"/>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="64"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="64"/>
-      <c r="AL19" s="64"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="64"/>
-      <c r="AO19" s="64"/>
-      <c r="AP19" s="64"/>
-      <c r="AQ19" s="64"/>
-      <c r="AR19" s="64"/>
-      <c r="AS19" s="64"/>
-      <c r="AT19" s="64"/>
-      <c r="AU19" s="64"/>
-      <c r="AV19" s="64"/>
-      <c r="AW19" s="64"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="64"/>
-      <c r="BA19" s="64"/>
-      <c r="BB19" s="64"/>
-      <c r="BC19" s="64"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="58"/>
-      <c r="BF19" s="58"/>
-      <c r="BG19" s="58"/>
-      <c r="BH19" s="58"/>
-      <c r="BI19" s="69"/>
-      <c r="BJ19" s="69"/>
-      <c r="BK19" s="58"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="37"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="50"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="52"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="50"/>
       <c r="BL19" s="23"/>
       <c r="BM19" s="24"/>
       <c r="BN19" s="25"/>
-      <c r="BO19" s="70"/>
-      <c r="BP19" s="70"/>
-      <c r="BQ19" s="70"/>
-      <c r="BR19" s="70"/>
-      <c r="BS19" s="70"/>
-      <c r="BT19" s="70"/>
-      <c r="BU19" s="70"/>
-      <c r="BV19" s="70"/>
-      <c r="BW19" s="70"/>
-      <c r="BX19" s="70"/>
-      <c r="BY19" s="70"/>
-      <c r="BZ19" s="70"/>
-      <c r="CA19" s="70"/>
-      <c r="CB19" s="41"/>
-      <c r="CC19" s="42"/>
+      <c r="BO19" s="33"/>
+      <c r="BP19" s="33"/>
+      <c r="BQ19" s="33"/>
+      <c r="BR19" s="33"/>
+      <c r="BS19" s="33"/>
+      <c r="BT19" s="33"/>
+      <c r="BU19" s="33"/>
+      <c r="BV19" s="33"/>
+      <c r="BW19" s="33"/>
+      <c r="BX19" s="33"/>
+      <c r="BY19" s="33"/>
+      <c r="BZ19" s="33"/>
+      <c r="CA19" s="33"/>
+      <c r="CB19" s="67"/>
+      <c r="CC19" s="68"/>
     </row>
     <row r="20" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="67"/>
-      <c r="AM20" s="67"/>
-      <c r="AN20" s="67"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="67"/>
-      <c r="AQ20" s="67"/>
-      <c r="AR20" s="67"/>
-      <c r="AS20" s="67"/>
-      <c r="AT20" s="67"/>
-      <c r="AU20" s="67"/>
-      <c r="AV20" s="67"/>
-      <c r="AW20" s="67"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="67"/>
-      <c r="BA20" s="67"/>
-      <c r="BB20" s="67"/>
-      <c r="BC20" s="67"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="59"/>
-      <c r="BF20" s="59"/>
-      <c r="BG20" s="59"/>
-      <c r="BH20" s="59"/>
-      <c r="BI20" s="69"/>
-      <c r="BJ20" s="69"/>
-      <c r="BK20" s="59"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="41"/>
+      <c r="AV20" s="41"/>
+      <c r="AW20" s="41"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="40"/>
+      <c r="AZ20" s="41"/>
+      <c r="BA20" s="41"/>
+      <c r="BB20" s="41"/>
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="51"/>
+      <c r="BF20" s="51"/>
+      <c r="BG20" s="51"/>
+      <c r="BH20" s="51"/>
+      <c r="BI20" s="52"/>
+      <c r="BJ20" s="52"/>
+      <c r="BK20" s="51"/>
       <c r="BL20" s="26"/>
       <c r="BM20" s="27"/>
       <c r="BN20" s="28"/>
-      <c r="BO20" s="70"/>
-      <c r="BP20" s="70"/>
-      <c r="BQ20" s="70"/>
-      <c r="BR20" s="70"/>
-      <c r="BS20" s="70"/>
-      <c r="BT20" s="70"/>
-      <c r="BU20" s="70"/>
-      <c r="BV20" s="70"/>
-      <c r="BW20" s="70"/>
-      <c r="BX20" s="70"/>
-      <c r="BY20" s="70"/>
-      <c r="BZ20" s="70"/>
-      <c r="CA20" s="70"/>
-      <c r="CB20" s="43"/>
-      <c r="CC20" s="44"/>
+      <c r="BO20" s="33"/>
+      <c r="BP20" s="33"/>
+      <c r="BQ20" s="33"/>
+      <c r="BR20" s="33"/>
+      <c r="BS20" s="33"/>
+      <c r="BT20" s="33"/>
+      <c r="BU20" s="33"/>
+      <c r="BV20" s="33"/>
+      <c r="BW20" s="33"/>
+      <c r="BX20" s="33"/>
+      <c r="BY20" s="33"/>
+      <c r="BZ20" s="33"/>
+      <c r="CA20" s="33"/>
+      <c r="CB20" s="69"/>
+      <c r="CC20" s="70"/>
     </row>
     <row r="21" spans="1:82" ht="11.25" customHeight="1">
       <c r="A21" s="29" t="s">
@@ -6041,30 +5856,30 @@
         <v>97</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="G21" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="H21" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="I21" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="J21" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="J21" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="L21" s="33" t="s">
+      <c r="K21" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" s="30" t="s">
         <v>150</v>
       </c>
       <c r="M21" s="29" t="s">
@@ -6085,140 +5900,140 @@
       <c r="R21" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="S21" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="T21" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="T21" s="29" t="s">
-        <v>185</v>
-      </c>
       <c r="U21" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="V21" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="X21" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z21" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA21" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB21" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC21" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD21" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE21" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF21" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG21" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH21" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI21" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ21" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK21" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL21" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM21" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN21" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO21" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP21" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ21" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR21" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS21" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT21" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU21" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV21" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW21" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX21" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY21" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ21" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA21" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB21" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="BC21" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD21" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE21" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF21" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG21" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH21" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="BI21" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="BJ21" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="BK21" s="29" t="s">
         <v>186</v>
-      </c>
-      <c r="V21" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="W21" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="X21" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y21" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z21" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA21" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB21" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC21" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD21" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE21" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF21" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG21" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH21" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI21" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="AJ21" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK21" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL21" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM21" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="AN21" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="AO21" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP21" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ21" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR21" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="AS21" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="AT21" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU21" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="AV21" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AW21" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="AX21" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="AY21" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="AZ21" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="BA21" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="BB21" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="BC21" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD21" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="BE21" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="BF21" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="BG21" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="BH21" s="48" t="s">
-        <v>497</v>
-      </c>
-      <c r="BI21" s="48" t="s">
-        <v>498</v>
-      </c>
-      <c r="BJ21" s="48" t="s">
-        <v>499</v>
-      </c>
-      <c r="BK21" s="29" t="s">
-        <v>188</v>
       </c>
       <c r="BL21" s="29" t="s">
         <v>153</v>
@@ -6229,53 +6044,53 @@
       <c r="BN21" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="BO21" s="30" t="s">
-        <v>500</v>
-      </c>
-      <c r="BP21" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ21" s="30" t="s">
+      <c r="BO21" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="BP21" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="BR21" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="BS21" s="30" t="s">
+      <c r="BQ21" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR21" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="BS21" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="BT21" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU21" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV21" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="BT21" s="30" t="s">
+      <c r="BW21" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="BX21" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="BU21" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="BV21" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW21" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="BX21" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="BY21" s="30" t="s">
+      <c r="BY21" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ21" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="CA21" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="BZ21" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="CA21" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="CB21" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="CC21" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="CD21" s="30" t="s">
-        <v>525</v>
+      <c r="CB21" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="CC21" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD21" s="46" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:82">
@@ -6283,436 +6098,436 @@
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
-      <c r="S22" s="31"/>
+      <c r="S22" s="47"/>
       <c r="T22" s="29"/>
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="48"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="48"/>
-      <c r="AZ22" s="56"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="48"/>
-      <c r="BC22" s="48"/>
-      <c r="BD22" s="48"/>
-      <c r="BE22" s="46"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="48"/>
-      <c r="BI22" s="48"/>
-      <c r="BJ22" s="48"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="54"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="54"/>
+      <c r="AP22" s="60"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="54"/>
+      <c r="AT22" s="47"/>
+      <c r="AU22" s="47"/>
+      <c r="AV22" s="57"/>
+      <c r="AW22" s="54"/>
+      <c r="AX22" s="57"/>
+      <c r="AY22" s="54"/>
+      <c r="AZ22" s="55"/>
+      <c r="BA22" s="54"/>
+      <c r="BB22" s="54"/>
+      <c r="BC22" s="54"/>
+      <c r="BD22" s="54"/>
+      <c r="BE22" s="72"/>
+      <c r="BF22" s="47"/>
+      <c r="BG22" s="47"/>
+      <c r="BH22" s="54"/>
+      <c r="BI22" s="54"/>
+      <c r="BJ22" s="54"/>
       <c r="BK22" s="29"/>
       <c r="BL22" s="29"/>
       <c r="BM22" s="29"/>
       <c r="BN22" s="29"/>
-      <c r="BO22" s="31"/>
-      <c r="BP22" s="31"/>
-      <c r="BQ22" s="31"/>
-      <c r="BR22" s="31"/>
-      <c r="BS22" s="31"/>
-      <c r="BT22" s="31"/>
-      <c r="BU22" s="31"/>
-      <c r="BV22" s="31"/>
-      <c r="BW22" s="31"/>
-      <c r="BX22" s="31"/>
-      <c r="BY22" s="31"/>
-      <c r="BZ22" s="31"/>
-      <c r="CA22" s="31"/>
-      <c r="CB22" s="31"/>
-      <c r="CC22" s="31"/>
-      <c r="CD22" s="31"/>
+      <c r="BO22" s="47"/>
+      <c r="BP22" s="47"/>
+      <c r="BQ22" s="47"/>
+      <c r="BR22" s="47"/>
+      <c r="BS22" s="47"/>
+      <c r="BT22" s="47"/>
+      <c r="BU22" s="47"/>
+      <c r="BV22" s="47"/>
+      <c r="BW22" s="47"/>
+      <c r="BX22" s="47"/>
+      <c r="BY22" s="47"/>
+      <c r="BZ22" s="47"/>
+      <c r="CA22" s="47"/>
+      <c r="CB22" s="47"/>
+      <c r="CC22" s="47"/>
+      <c r="CD22" s="47"/>
     </row>
     <row r="23" spans="1:82">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
-      <c r="S23" s="31"/>
+      <c r="S23" s="47"/>
       <c r="T23" s="29"/>
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="50"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="50"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="48"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="48"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="48"/>
-      <c r="BB23" s="48"/>
-      <c r="BC23" s="48"/>
-      <c r="BD23" s="48"/>
-      <c r="BE23" s="46"/>
-      <c r="BF23" s="31"/>
-      <c r="BG23" s="31"/>
-      <c r="BH23" s="48"/>
-      <c r="BI23" s="48"/>
-      <c r="BJ23" s="48"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="57"/>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="60"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="57"/>
+      <c r="AO23" s="54"/>
+      <c r="AP23" s="60"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="54"/>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="47"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="54"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="55"/>
+      <c r="BA23" s="54"/>
+      <c r="BB23" s="54"/>
+      <c r="BC23" s="54"/>
+      <c r="BD23" s="54"/>
+      <c r="BE23" s="72"/>
+      <c r="BF23" s="47"/>
+      <c r="BG23" s="47"/>
+      <c r="BH23" s="54"/>
+      <c r="BI23" s="54"/>
+      <c r="BJ23" s="54"/>
       <c r="BK23" s="29"/>
       <c r="BL23" s="29"/>
       <c r="BM23" s="29"/>
       <c r="BN23" s="29"/>
-      <c r="BO23" s="31"/>
-      <c r="BP23" s="31"/>
-      <c r="BQ23" s="31"/>
-      <c r="BR23" s="31"/>
-      <c r="BS23" s="31"/>
-      <c r="BT23" s="31"/>
-      <c r="BU23" s="31"/>
-      <c r="BV23" s="31"/>
-      <c r="BW23" s="31"/>
-      <c r="BX23" s="31"/>
-      <c r="BY23" s="31"/>
-      <c r="BZ23" s="31"/>
-      <c r="CA23" s="31"/>
-      <c r="CB23" s="31"/>
-      <c r="CC23" s="31"/>
-      <c r="CD23" s="31"/>
+      <c r="BO23" s="47"/>
+      <c r="BP23" s="47"/>
+      <c r="BQ23" s="47"/>
+      <c r="BR23" s="47"/>
+      <c r="BS23" s="47"/>
+      <c r="BT23" s="47"/>
+      <c r="BU23" s="47"/>
+      <c r="BV23" s="47"/>
+      <c r="BW23" s="47"/>
+      <c r="BX23" s="47"/>
+      <c r="BY23" s="47"/>
+      <c r="BZ23" s="47"/>
+      <c r="CA23" s="47"/>
+      <c r="CB23" s="47"/>
+      <c r="CC23" s="47"/>
+      <c r="CD23" s="47"/>
     </row>
     <row r="24" spans="1:82">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
-      <c r="S24" s="31"/>
+      <c r="S24" s="47"/>
       <c r="T24" s="29"/>
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="53"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="50"/>
-      <c r="AW24" s="48"/>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="48"/>
-      <c r="AZ24" s="56"/>
-      <c r="BA24" s="48"/>
-      <c r="BB24" s="48"/>
-      <c r="BC24" s="48"/>
-      <c r="BD24" s="48"/>
-      <c r="BE24" s="46"/>
-      <c r="BF24" s="31"/>
-      <c r="BG24" s="31"/>
-      <c r="BH24" s="48"/>
-      <c r="BI24" s="48"/>
-      <c r="BJ24" s="48"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="54"/>
+      <c r="AL24" s="60"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="57"/>
+      <c r="AO24" s="54"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="54"/>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="54"/>
+      <c r="AX24" s="57"/>
+      <c r="AY24" s="54"/>
+      <c r="AZ24" s="55"/>
+      <c r="BA24" s="54"/>
+      <c r="BB24" s="54"/>
+      <c r="BC24" s="54"/>
+      <c r="BD24" s="54"/>
+      <c r="BE24" s="72"/>
+      <c r="BF24" s="47"/>
+      <c r="BG24" s="47"/>
+      <c r="BH24" s="54"/>
+      <c r="BI24" s="54"/>
+      <c r="BJ24" s="54"/>
       <c r="BK24" s="29"/>
       <c r="BL24" s="29"/>
       <c r="BM24" s="29"/>
       <c r="BN24" s="29"/>
-      <c r="BO24" s="31"/>
-      <c r="BP24" s="31"/>
-      <c r="BQ24" s="31"/>
-      <c r="BR24" s="31"/>
-      <c r="BS24" s="31"/>
-      <c r="BT24" s="31"/>
-      <c r="BU24" s="31"/>
-      <c r="BV24" s="31"/>
-      <c r="BW24" s="31"/>
-      <c r="BX24" s="31"/>
-      <c r="BY24" s="31"/>
-      <c r="BZ24" s="31"/>
-      <c r="CA24" s="31"/>
-      <c r="CB24" s="31"/>
-      <c r="CC24" s="31"/>
-      <c r="CD24" s="31"/>
+      <c r="BO24" s="47"/>
+      <c r="BP24" s="47"/>
+      <c r="BQ24" s="47"/>
+      <c r="BR24" s="47"/>
+      <c r="BS24" s="47"/>
+      <c r="BT24" s="47"/>
+      <c r="BU24" s="47"/>
+      <c r="BV24" s="47"/>
+      <c r="BW24" s="47"/>
+      <c r="BX24" s="47"/>
+      <c r="BY24" s="47"/>
+      <c r="BZ24" s="47"/>
+      <c r="CA24" s="47"/>
+      <c r="CB24" s="47"/>
+      <c r="CC24" s="47"/>
+      <c r="CD24" s="47"/>
     </row>
     <row r="25" spans="1:82">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
-      <c r="S25" s="31"/>
+      <c r="S25" s="47"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="50"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="53"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="50"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="50"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="48"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="48"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="48"/>
-      <c r="BB25" s="48"/>
-      <c r="BC25" s="48"/>
-      <c r="BD25" s="48"/>
-      <c r="BE25" s="46"/>
-      <c r="BF25" s="31"/>
-      <c r="BG25" s="31"/>
-      <c r="BH25" s="48"/>
-      <c r="BI25" s="48"/>
-      <c r="BJ25" s="48"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="60"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="54"/>
+      <c r="AP25" s="60"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="54"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="54"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="55"/>
+      <c r="BA25" s="54"/>
+      <c r="BB25" s="54"/>
+      <c r="BC25" s="54"/>
+      <c r="BD25" s="54"/>
+      <c r="BE25" s="72"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="54"/>
+      <c r="BI25" s="54"/>
+      <c r="BJ25" s="54"/>
       <c r="BK25" s="29"/>
       <c r="BL25" s="29"/>
       <c r="BM25" s="29"/>
       <c r="BN25" s="29"/>
-      <c r="BO25" s="31"/>
-      <c r="BP25" s="31"/>
-      <c r="BQ25" s="31"/>
-      <c r="BR25" s="31"/>
-      <c r="BS25" s="31"/>
-      <c r="BT25" s="31"/>
-      <c r="BU25" s="31"/>
-      <c r="BV25" s="31"/>
-      <c r="BW25" s="31"/>
-      <c r="BX25" s="31"/>
-      <c r="BY25" s="31"/>
-      <c r="BZ25" s="31"/>
-      <c r="CA25" s="31"/>
-      <c r="CB25" s="31"/>
-      <c r="CC25" s="31"/>
-      <c r="CD25" s="31"/>
+      <c r="BO25" s="47"/>
+      <c r="BP25" s="47"/>
+      <c r="BQ25" s="47"/>
+      <c r="BR25" s="47"/>
+      <c r="BS25" s="47"/>
+      <c r="BT25" s="47"/>
+      <c r="BU25" s="47"/>
+      <c r="BV25" s="47"/>
+      <c r="BW25" s="47"/>
+      <c r="BX25" s="47"/>
+      <c r="BY25" s="47"/>
+      <c r="BZ25" s="47"/>
+      <c r="CA25" s="47"/>
+      <c r="CB25" s="47"/>
+      <c r="CC25" s="47"/>
+      <c r="CD25" s="47"/>
     </row>
     <row r="26" spans="1:82">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
-      <c r="S26" s="32"/>
+      <c r="S26" s="48"/>
       <c r="T26" s="29"/>
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="51"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="48"/>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="48"/>
-      <c r="AZ26" s="56"/>
-      <c r="BA26" s="48"/>
-      <c r="BB26" s="48"/>
-      <c r="BC26" s="48"/>
-      <c r="BD26" s="48"/>
-      <c r="BE26" s="47"/>
-      <c r="BF26" s="32"/>
-      <c r="BG26" s="32"/>
-      <c r="BH26" s="48"/>
-      <c r="BI26" s="48"/>
-      <c r="BJ26" s="48"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="61"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="58"/>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="58"/>
+      <c r="AS26" s="54"/>
+      <c r="AT26" s="48"/>
+      <c r="AU26" s="48"/>
+      <c r="AV26" s="58"/>
+      <c r="AW26" s="54"/>
+      <c r="AX26" s="58"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="55"/>
+      <c r="BA26" s="54"/>
+      <c r="BB26" s="54"/>
+      <c r="BC26" s="54"/>
+      <c r="BD26" s="54"/>
+      <c r="BE26" s="73"/>
+      <c r="BF26" s="48"/>
+      <c r="BG26" s="48"/>
+      <c r="BH26" s="54"/>
+      <c r="BI26" s="54"/>
+      <c r="BJ26" s="54"/>
       <c r="BK26" s="29"/>
       <c r="BL26" s="29"/>
       <c r="BM26" s="29"/>
       <c r="BN26" s="29"/>
-      <c r="BO26" s="32"/>
-      <c r="BP26" s="32"/>
-      <c r="BQ26" s="32"/>
-      <c r="BR26" s="32"/>
-      <c r="BS26" s="32"/>
-      <c r="BT26" s="32"/>
-      <c r="BU26" s="32"/>
-      <c r="BV26" s="32"/>
-      <c r="BW26" s="32"/>
-      <c r="BX26" s="32"/>
-      <c r="BY26" s="32"/>
-      <c r="BZ26" s="32"/>
-      <c r="CA26" s="32"/>
-      <c r="CB26" s="32"/>
-      <c r="CC26" s="32"/>
-      <c r="CD26" s="32"/>
+      <c r="BO26" s="48"/>
+      <c r="BP26" s="48"/>
+      <c r="BQ26" s="48"/>
+      <c r="BR26" s="48"/>
+      <c r="BS26" s="48"/>
+      <c r="BT26" s="48"/>
+      <c r="BU26" s="48"/>
+      <c r="BV26" s="48"/>
+      <c r="BW26" s="48"/>
+      <c r="BX26" s="48"/>
+      <c r="BY26" s="48"/>
+      <c r="BZ26" s="48"/>
+      <c r="CA26" s="48"/>
+      <c r="CB26" s="48"/>
+      <c r="CC26" s="48"/>
+      <c r="CD26" s="48"/>
     </row>
     <row r="27" spans="1:82" ht="11.25" customHeight="1">
-      <c r="F27" s="72"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="74"/>
-      <c r="AK27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AW27" s="48"/>
-      <c r="AY27" s="48"/>
-      <c r="AZ27" s="56"/>
-      <c r="BA27" s="48"/>
-      <c r="BB27" s="48"/>
-      <c r="BC27" s="48"/>
-      <c r="BD27" s="48"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="AK27" s="54"/>
+      <c r="AO27" s="54"/>
+      <c r="AS27" s="54"/>
+      <c r="AW27" s="54"/>
+      <c r="AY27" s="54"/>
+      <c r="AZ27" s="55"/>
+      <c r="BA27" s="54"/>
+      <c r="BB27" s="54"/>
+      <c r="BC27" s="54"/>
+      <c r="BD27" s="54"/>
     </row>
     <row r="28" spans="1:82" ht="11.25" customHeight="1">
       <c r="B28" s="7" t="s">
@@ -6721,253 +6536,281 @@
       <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="75"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
       <c r="J28" s="29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AE28" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AS28" s="48"/>
-      <c r="AW28" s="48"/>
-      <c r="AY28" s="48"/>
-      <c r="AZ28" s="56"/>
-      <c r="BA28" s="48"/>
-      <c r="BB28" s="48"/>
-      <c r="BC28" s="48"/>
-      <c r="BD28" s="48"/>
-      <c r="BJ28" s="30" t="s">
-        <v>253</v>
+      <c r="AE28" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK28" s="54"/>
+      <c r="AO28" s="54"/>
+      <c r="AS28" s="54"/>
+      <c r="AW28" s="54"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="55"/>
+      <c r="BA28" s="54"/>
+      <c r="BB28" s="54"/>
+      <c r="BC28" s="54"/>
+      <c r="BD28" s="54"/>
+      <c r="BJ28" s="46" t="s">
+        <v>249</v>
       </c>
       <c r="BK28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="CB28" s="33" t="s">
-        <v>504</v>
-      </c>
-      <c r="CC28" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:82">
-      <c r="B29" s="36" t="s">
-        <v>189</v>
+      <c r="CB28" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="CC28" s="30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:82" ht="11.25" customHeight="1">
+      <c r="B29" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="75"/>
+        <v>300</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="29"/>
       <c r="V29" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="AE29" s="31"/>
-      <c r="BJ29" s="31"/>
+        <v>308</v>
+      </c>
+      <c r="AE29" s="47"/>
+      <c r="BJ29" s="47"/>
       <c r="BK29" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="CB29" s="34"/>
-      <c r="CC29" s="34"/>
+        <v>315</v>
+      </c>
+      <c r="BP29" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="BQ29" s="78"/>
+      <c r="CB29" s="31"/>
+      <c r="CC29" s="31"/>
     </row>
     <row r="30" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B30" s="37"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="5" t="s">
-        <v>506</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
       <c r="J30" s="29"/>
       <c r="V30" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="AE30" s="31"/>
-      <c r="BJ30" s="31"/>
+        <v>309</v>
+      </c>
+      <c r="AE30" s="47"/>
+      <c r="BJ30" s="47"/>
       <c r="BK30" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="CB30" s="34"/>
-      <c r="CC30" s="34"/>
+        <v>316</v>
+      </c>
+      <c r="BP30" s="76"/>
+      <c r="BQ30" s="79"/>
+      <c r="CB30" s="31"/>
+      <c r="CC30" s="31"/>
     </row>
     <row r="31" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B31" s="37"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="5" t="s">
-        <v>507</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
       <c r="J31" s="29"/>
       <c r="V31" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="AE31" s="31"/>
-      <c r="BJ31" s="31"/>
-      <c r="CB31" s="34"/>
-      <c r="CC31" s="34"/>
+        <v>310</v>
+      </c>
+      <c r="AE31" s="47"/>
+      <c r="BJ31" s="47"/>
+      <c r="BP31" s="76"/>
+      <c r="BQ31" s="79"/>
+      <c r="CB31" s="31"/>
+      <c r="CC31" s="31"/>
     </row>
     <row r="32" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B32" s="37"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="5" t="s">
-        <v>508</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="29"/>
       <c r="V32" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="AE32" s="31"/>
-      <c r="BJ32" s="31"/>
-      <c r="CB32" s="34"/>
-      <c r="CC32" s="34"/>
+        <v>311</v>
+      </c>
+      <c r="AE32" s="47"/>
+      <c r="BJ32" s="47"/>
+      <c r="BP32" s="76"/>
+      <c r="BQ32" s="79"/>
+      <c r="CB32" s="31"/>
+      <c r="CC32" s="31"/>
     </row>
     <row r="33" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B33" s="37"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="5" t="s">
-        <v>509</v>
+        <v>304</v>
       </c>
       <c r="J33" s="29"/>
       <c r="V33" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="AE33" s="31"/>
-      <c r="BJ33" s="31"/>
-      <c r="CB33" s="35"/>
-      <c r="CC33" s="35"/>
+        <v>312</v>
+      </c>
+      <c r="AE33" s="47"/>
+      <c r="BJ33" s="47"/>
+      <c r="BP33" s="76"/>
+      <c r="BQ33" s="79"/>
+      <c r="CB33" s="32"/>
+      <c r="CC33" s="32"/>
     </row>
     <row r="34" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B34" s="37"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="5" t="s">
-        <v>510</v>
+        <v>305</v>
       </c>
       <c r="J34" s="29"/>
       <c r="V34" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="AE34" s="31"/>
-      <c r="BJ34" s="32"/>
+        <v>313</v>
+      </c>
+      <c r="AE34" s="47"/>
+      <c r="BJ34" s="48"/>
+      <c r="BP34" s="76"/>
+      <c r="BQ34" s="79"/>
       <c r="CC34" s="8"/>
     </row>
     <row r="35" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B35" s="38"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="5" t="s">
-        <v>511</v>
+        <v>306</v>
       </c>
       <c r="J35" s="29"/>
       <c r="V35" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE35" s="31"/>
-      <c r="CB35" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="CC35" s="30" t="s">
-        <v>522</v>
+        <v>314</v>
+      </c>
+      <c r="AE35" s="47"/>
+      <c r="BP35" s="80"/>
+      <c r="BQ35" s="81"/>
+      <c r="CB35" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="CC35" s="46" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="2:81">
       <c r="C36" s="5" t="s">
-        <v>512</v>
+        <v>307</v>
       </c>
       <c r="J36" s="29"/>
-      <c r="AE36" s="31"/>
-      <c r="CB36" s="31"/>
-      <c r="CC36" s="31"/>
+      <c r="AE36" s="47"/>
+      <c r="CB36" s="47"/>
+      <c r="CC36" s="47"/>
     </row>
     <row r="37" spans="2:81">
       <c r="C37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE37" s="32"/>
-      <c r="CB37" s="31"/>
-      <c r="CC37" s="31"/>
+      <c r="AE37" s="48"/>
+      <c r="CB37" s="47"/>
+      <c r="CC37" s="47"/>
     </row>
     <row r="38" spans="2:81">
       <c r="C38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CB38" s="31"/>
-      <c r="CC38" s="31"/>
+      <c r="CB38" s="47"/>
+      <c r="CC38" s="47"/>
     </row>
     <row r="39" spans="2:81">
       <c r="C39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AE39" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="CB39" s="31"/>
-      <c r="CC39" s="31"/>
+      <c r="AE39" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="CB39" s="47"/>
+      <c r="CC39" s="47"/>
     </row>
     <row r="40" spans="2:81">
       <c r="C40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AE40" s="34"/>
-      <c r="CB40" s="31"/>
-      <c r="CC40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="CB40" s="47"/>
+      <c r="CC40" s="47"/>
     </row>
     <row r="41" spans="2:81">
       <c r="C41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AE41" s="34"/>
-      <c r="CB41" s="31"/>
-      <c r="CC41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="CB41" s="47"/>
+      <c r="CC41" s="47"/>
     </row>
     <row r="42" spans="2:81">
       <c r="C42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AE42" s="34"/>
-      <c r="CB42" s="31"/>
-      <c r="CC42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="CB42" s="47"/>
+      <c r="CC42" s="47"/>
     </row>
     <row r="43" spans="2:81">
       <c r="C43" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AE43" s="34"/>
-      <c r="CB43" s="31"/>
-      <c r="CC43" s="31"/>
+      <c r="AE43" s="31"/>
+      <c r="CB43" s="47"/>
+      <c r="CC43" s="47"/>
     </row>
     <row r="44" spans="2:81">
       <c r="C44" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AE44" s="35"/>
-      <c r="CB44" s="31"/>
-      <c r="CC44" s="31"/>
+      <c r="AE44" s="32"/>
+      <c r="CB44" s="47"/>
+      <c r="CC44" s="47"/>
     </row>
     <row r="45" spans="2:81">
       <c r="C45" s="5" t="s">
         <v>106</v>
       </c>
       <c r="BJ45" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="CB45" s="31"/>
-      <c r="CC45" s="31"/>
+        <v>185</v>
+      </c>
+      <c r="CB45" s="47"/>
+      <c r="CC45" s="47"/>
     </row>
     <row r="46" spans="2:81">
       <c r="C46" s="5" t="s">
         <v>107</v>
       </c>
       <c r="BJ46" s="29"/>
-      <c r="CB46" s="31"/>
-      <c r="CC46" s="31"/>
+      <c r="CB46" s="47"/>
+      <c r="CC46" s="47"/>
     </row>
     <row r="47" spans="2:81">
       <c r="C47" s="5" t="s">
         <v>108</v>
       </c>
       <c r="BJ47" s="29"/>
-      <c r="CB47" s="32"/>
-      <c r="CC47" s="32"/>
+      <c r="CB47" s="48"/>
+      <c r="CC47" s="48"/>
     </row>
     <row r="48" spans="2:81">
       <c r="C48" s="5" t="s">
@@ -6979,33 +6822,33 @@
       <c r="C49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="CB49" s="33" t="s">
-        <v>523</v>
-      </c>
-      <c r="CC49" s="33" t="s">
-        <v>524</v>
+      <c r="CB49" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="CC49" s="30" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="3:81">
       <c r="C50" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="CB50" s="34"/>
-      <c r="CC50" s="34"/>
+      <c r="CB50" s="31"/>
+      <c r="CC50" s="31"/>
     </row>
     <row r="51" spans="3:81">
       <c r="C51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CB51" s="34"/>
-      <c r="CC51" s="34"/>
+      <c r="CB51" s="31"/>
+      <c r="CC51" s="31"/>
     </row>
     <row r="52" spans="3:81">
       <c r="C52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="CB52" s="35"/>
-      <c r="CC52" s="35"/>
+      <c r="CB52" s="32"/>
+      <c r="CC52" s="32"/>
     </row>
     <row r="53" spans="3:81">
       <c r="C53" s="5" t="s">
@@ -7148,40 +6991,62 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="BO18:CA20"/>
-    <mergeCell ref="A18:AX20"/>
-    <mergeCell ref="AE39:AE44"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="G21:G29"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="T21:T26"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N21:N26"/>
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="P21:P26"/>
-    <mergeCell ref="Q21:Q26"/>
-    <mergeCell ref="R21:R26"/>
-    <mergeCell ref="BO21:BO26"/>
-    <mergeCell ref="AA21:AA26"/>
-    <mergeCell ref="BL18:BN20"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="BE18:BE20"/>
-    <mergeCell ref="AY18:BD20"/>
-    <mergeCell ref="BF18:BF20"/>
-    <mergeCell ref="BG18:BG20"/>
-    <mergeCell ref="BH18:BH20"/>
-    <mergeCell ref="BI18:BJ20"/>
-    <mergeCell ref="BK18:BK20"/>
+  <mergeCells count="108">
+    <mergeCell ref="F21:F32"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="H21:H32"/>
+    <mergeCell ref="I21:I32"/>
+    <mergeCell ref="BP29:BQ35"/>
+    <mergeCell ref="CD21:CD26"/>
+    <mergeCell ref="CB35:CB47"/>
+    <mergeCell ref="CB49:CB52"/>
+    <mergeCell ref="CC28:CC33"/>
+    <mergeCell ref="CC35:CC47"/>
+    <mergeCell ref="CC49:CC52"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="J28:J36"/>
+    <mergeCell ref="CB18:CC20"/>
+    <mergeCell ref="CB21:CB26"/>
+    <mergeCell ref="CB28:CB33"/>
+    <mergeCell ref="BJ28:BJ34"/>
+    <mergeCell ref="CC21:CC26"/>
+    <mergeCell ref="BW21:BW26"/>
+    <mergeCell ref="BX21:BX26"/>
+    <mergeCell ref="BZ21:BZ26"/>
+    <mergeCell ref="CA21:CA26"/>
+    <mergeCell ref="BU21:BU26"/>
+    <mergeCell ref="BV21:BV26"/>
+    <mergeCell ref="BE21:BE26"/>
+    <mergeCell ref="BF21:BF26"/>
+    <mergeCell ref="BG21:BG26"/>
+    <mergeCell ref="BH21:BH26"/>
+    <mergeCell ref="BI21:BI26"/>
+    <mergeCell ref="BR21:BR26"/>
+    <mergeCell ref="BS21:BS26"/>
+    <mergeCell ref="BB21:BB28"/>
+    <mergeCell ref="BT21:BT26"/>
+    <mergeCell ref="BJ21:BJ26"/>
+    <mergeCell ref="BK21:BK26"/>
+    <mergeCell ref="BL21:BL26"/>
+    <mergeCell ref="BM21:BM26"/>
+    <mergeCell ref="BN21:BN26"/>
+    <mergeCell ref="BP21:BP26"/>
+    <mergeCell ref="BD21:BD28"/>
+    <mergeCell ref="BC21:BC28"/>
+    <mergeCell ref="AG21:AG26"/>
+    <mergeCell ref="AH21:AH26"/>
+    <mergeCell ref="AI21:AI26"/>
+    <mergeCell ref="AJ21:AJ26"/>
+    <mergeCell ref="AL21:AL26"/>
+    <mergeCell ref="AX21:AX26"/>
+    <mergeCell ref="AR21:AR26"/>
+    <mergeCell ref="BJ45:BJ48"/>
+    <mergeCell ref="BQ21:BQ26"/>
+    <mergeCell ref="AU21:AU26"/>
+    <mergeCell ref="AV21:AV26"/>
+    <mergeCell ref="AT21:AT26"/>
+    <mergeCell ref="AY21:AY28"/>
+    <mergeCell ref="BA21:BA28"/>
     <mergeCell ref="E21:E26"/>
     <mergeCell ref="BY21:BY26"/>
     <mergeCell ref="U21:U26"/>
@@ -7206,56 +7071,35 @@
     <mergeCell ref="AE21:AE26"/>
     <mergeCell ref="AQ21:AQ26"/>
     <mergeCell ref="AF21:AF26"/>
-    <mergeCell ref="AG21:AG26"/>
-    <mergeCell ref="AH21:AH26"/>
-    <mergeCell ref="AI21:AI26"/>
-    <mergeCell ref="AJ21:AJ26"/>
-    <mergeCell ref="AL21:AL26"/>
-    <mergeCell ref="AX21:AX26"/>
-    <mergeCell ref="AR21:AR26"/>
-    <mergeCell ref="BJ45:BJ48"/>
-    <mergeCell ref="BQ21:BQ26"/>
-    <mergeCell ref="AU21:AU26"/>
-    <mergeCell ref="AV21:AV26"/>
-    <mergeCell ref="AT21:AT26"/>
-    <mergeCell ref="AY21:AY28"/>
-    <mergeCell ref="BA21:BA28"/>
-    <mergeCell ref="BR21:BR26"/>
-    <mergeCell ref="BS21:BS26"/>
-    <mergeCell ref="BB21:BB28"/>
-    <mergeCell ref="BT21:BT26"/>
-    <mergeCell ref="BJ21:BJ26"/>
-    <mergeCell ref="BK21:BK26"/>
-    <mergeCell ref="BL21:BL26"/>
-    <mergeCell ref="BM21:BM26"/>
-    <mergeCell ref="BN21:BN26"/>
-    <mergeCell ref="BP21:BP26"/>
-    <mergeCell ref="BD21:BD28"/>
-    <mergeCell ref="BC21:BC28"/>
-    <mergeCell ref="CD21:CD26"/>
-    <mergeCell ref="CB35:CB47"/>
-    <mergeCell ref="CB49:CB52"/>
-    <mergeCell ref="CC28:CC33"/>
-    <mergeCell ref="CC35:CC47"/>
-    <mergeCell ref="CC49:CC52"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="J28:J36"/>
-    <mergeCell ref="CB18:CC20"/>
-    <mergeCell ref="CB21:CB26"/>
-    <mergeCell ref="CB28:CB33"/>
-    <mergeCell ref="BJ28:BJ34"/>
-    <mergeCell ref="CC21:CC26"/>
-    <mergeCell ref="BW21:BW26"/>
-    <mergeCell ref="BX21:BX26"/>
-    <mergeCell ref="BZ21:BZ26"/>
-    <mergeCell ref="CA21:CA26"/>
-    <mergeCell ref="BU21:BU26"/>
-    <mergeCell ref="BV21:BV26"/>
-    <mergeCell ref="BE21:BE26"/>
-    <mergeCell ref="BF21:BF26"/>
-    <mergeCell ref="BG21:BG26"/>
-    <mergeCell ref="BH21:BH26"/>
-    <mergeCell ref="BI21:BI26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="BE18:BE20"/>
+    <mergeCell ref="AY18:BD20"/>
+    <mergeCell ref="BF18:BF20"/>
+    <mergeCell ref="BG18:BG20"/>
+    <mergeCell ref="BH18:BH20"/>
+    <mergeCell ref="BI18:BJ20"/>
+    <mergeCell ref="BK18:BK20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="BO18:CA20"/>
+    <mergeCell ref="A18:AX20"/>
+    <mergeCell ref="AE39:AE44"/>
+    <mergeCell ref="T21:T26"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N21:N26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="P21:P26"/>
+    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="R21:R26"/>
+    <mergeCell ref="BO21:BO26"/>
+    <mergeCell ref="AA21:AA26"/>
+    <mergeCell ref="BL18:BN20"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="D21:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7264,1068 +7108,822 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:L84"/>
+  <dimension ref="C3:K84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L12"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F84" sqref="F3:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23" style="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12">
-      <c r="B3" t="s">
+    <row r="3" spans="3:11">
+      <c r="C3" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" t="str">
-        <f>CONCATENATE(D3,",")</f>
+      <c r="F3" t="str">
+        <f>CONCATENATE(C3,",")</f>
         <v>NR_REFERENCIA_FISCAL,</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="L3" t="str">
-        <f>CONCATENATE("'",K3,"',")</f>
+      <c r="J3" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="K3" t="str">
+        <f>CONCATENATE("'",J3,"',")</f>
         <v>'000000002',</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4" t="s">
+    <row r="4" spans="3:11">
+      <c r="C4" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4:G67" si="0">CONCATENATE(D4,",")</f>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F67" si="0">CONCATENATE(C4,",")</f>
         <v>CD_SITUACAO_NF,</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:L12" si="1">CONCATENATE("'",K4,"',")</f>
+      <c r="J4" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K12" si="1">CONCATENATE("'",J4,"',")</f>
         <v>'000000003',</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" t="s">
+    <row r="5" spans="3:11">
+      <c r="C5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>CD_TIPO_NF,</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="J5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" t="str">
         <f t="shared" si="1"/>
         <v>'000000004',</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" t="str">
+    <row r="6" spans="3:11">
+      <c r="C6" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>NR_REFERENCIA_FISCAL_FATURA,</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="J6" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="1"/>
         <v>'000000005',</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" t="str">
+    <row r="7" spans="3:11">
+      <c r="C7" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>NR_ITEM_NF_FATURA,</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="L7" t="str">
+      <c r="J7" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="1"/>
         <v>'000000006',</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="12" t="s">
+    <row r="8" spans="3:11">
+      <c r="C8" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>NR_NF_FATURA,</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="L8" t="str">
+      <c r="J8" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="K8" t="str">
         <f t="shared" si="1"/>
         <v>'000005015',</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="12" t="s">
+    <row r="9" spans="3:11">
+      <c r="C9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>NR_SERIE_NF_FATURA,</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="L9" t="str">
+      <c r="J9" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="1"/>
         <v>'000005016',</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="12" t="s">
+    <row r="10" spans="3:11">
+      <c r="C10" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>NR_NF_REMESSA,</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="L10" t="str">
+      <c r="J10" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="1"/>
         <v>'000005017',</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12" t="s">
+    <row r="11" spans="3:11">
+      <c r="C11" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="str">
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>NR_SERIE_NF_REMESSA,</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="L11" t="str">
+      <c r="J11" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="K11" t="str">
         <f t="shared" si="1"/>
         <v>'000005018',</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="12" t="s">
+    <row r="12" spans="3:11">
+      <c r="C12" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G12" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>NR_ORDEM,</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="L12" t="str">
+      <c r="J12" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="1"/>
         <v>'000005019',</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="12" t="s">
+    <row r="13" spans="3:11">
+      <c r="C13" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="G13" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>DT_FATURA,</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" t="str">
+    <row r="14" spans="3:11">
+      <c r="C14" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>DT_ULT_ATUALIZACAO,</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12" t="s">
+    <row r="15" spans="3:11">
+      <c r="C15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G15" t="str">
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>NR_NF,</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="12" t="s">
+    <row r="16" spans="3:11">
+      <c r="C16" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="str">
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>NR_SERIE_NF,</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="12" t="s">
+    <row r="17" spans="3:6">
+      <c r="C17" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="G17" t="str">
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>CD_NATUREZA_OPERACAO,</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="12" t="s">
+    <row r="18" spans="3:6">
+      <c r="C18" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="G18" t="str">
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>SQ_NATUREZA_OPERACAO,</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="12" t="s">
+    <row r="19" spans="3:6">
+      <c r="C19" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G19" t="str">
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>CD_CLIENTE_FATURA,</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="12" t="s">
+    <row r="20" spans="3:6">
+      <c r="C20" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="G20" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>CD_CLIENTE_ENTREGA,</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="12" t="s">
+    <row r="21" spans="3:6">
+      <c r="C21" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="G21" t="str">
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>CD_TRANSPORTADORA,</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="12" t="s">
+    <row r="22" spans="3:6">
+      <c r="C22" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="G22" t="str">
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>VL_PESO_BRUTO,</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="12" t="s">
+    <row r="23" spans="3:6">
+      <c r="C23" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="G23" t="str">
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>VL_PESO_LIQUIDO,</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="12" t="s">
+    <row r="24" spans="3:6">
+      <c r="C24" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G24" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>CD_STATUS_SEFAZ,</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="12" t="s">
+    <row r="25" spans="3:6">
+      <c r="C25" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G25" t="str">
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>CD_ITEM,</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="12" t="s">
+    <row r="26" spans="3:6">
+      <c r="C26" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G26" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>QT_FATURADA,</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="12" t="s">
+    <row r="27" spans="3:6">
+      <c r="C27" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="str">
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>VL_PRODUTO,</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="12" t="s">
+    <row r="28" spans="3:6">
+      <c r="C28" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G28" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>VL_TOTAL_ITEM,</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="12" t="s">
+    <row r="29" spans="3:6">
+      <c r="C29" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="G29" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>VL_DESCONTO,</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="12" t="s">
+    <row r="30" spans="3:6">
+      <c r="C30" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G30" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>CD_NATUREZA_OPERACAO_ITEM,</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="12" t="s">
+    <row r="31" spans="3:6">
+      <c r="C31" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="G31" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v>SQ_NATUREZA_OPERACAO_ITEM,</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="12" t="s">
+    <row r="32" spans="3:6">
+      <c r="C32" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G32" t="str">
+      <c r="F32" t="str">
         <f t="shared" si="0"/>
         <v>VL_DESCONTO_INCONDICIONAL,</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="12" t="s">
+    <row r="33" spans="3:6">
+      <c r="C33" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="G33" t="str">
+      <c r="F33" t="str">
         <f t="shared" si="0"/>
         <v>VL_DESPESA,</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="12" t="s">
+    <row r="34" spans="3:6">
+      <c r="C34" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="str">
+      <c r="F34" t="str">
         <f t="shared" si="0"/>
         <v>VL_BASE_ICMS,</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="12" t="s">
+    <row r="35" spans="3:6">
+      <c r="C35" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G35" t="str">
+      <c r="F35" t="str">
         <f t="shared" si="0"/>
         <v>VL_ICMS,</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="12" t="s">
+    <row r="36" spans="3:6">
+      <c r="C36" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="G36" t="str">
+      <c r="F36" t="str">
         <f t="shared" si="0"/>
         <v>VL_ICMS_ST,</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="12" t="s">
+    <row r="37" spans="3:6">
+      <c r="C37" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="G37" t="str">
+      <c r="F37" t="str">
         <f t="shared" si="0"/>
         <v>VL_ICMS_PRODUTO,</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="12" t="s">
+    <row r="38" spans="3:6">
+      <c r="C38" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G38" t="str">
+      <c r="F38" t="str">
         <f t="shared" si="0"/>
         <v>VL_ICMS_FRETE,</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="12" t="s">
+    <row r="39" spans="3:6">
+      <c r="C39" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G39" t="str">
+      <c r="F39" t="str">
         <f t="shared" si="0"/>
         <v>VL_ICMS_OUTROS,</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="12" t="s">
+    <row r="40" spans="3:6">
+      <c r="C40" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G40" t="str">
+      <c r="F40" t="str">
         <f t="shared" si="0"/>
         <v>VL_PIS,</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="12" t="s">
+    <row r="41" spans="3:6">
+      <c r="C41" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="G41" t="str">
+      <c r="F41" t="str">
         <f t="shared" si="0"/>
         <v>VL_PIS_PRODUTO,</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="12" t="s">
+    <row r="42" spans="3:6">
+      <c r="C42" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G42" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="0"/>
         <v>VL_PIS_FRETE,</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="12" t="s">
+    <row r="43" spans="3:6">
+      <c r="C43" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="G43" t="str">
+      <c r="F43" t="str">
         <f t="shared" si="0"/>
         <v>VL_PIS_OUTROS,</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="12" t="s">
+    <row r="44" spans="3:6">
+      <c r="C44" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G44" t="str">
+      <c r="F44" t="str">
         <f t="shared" si="0"/>
         <v>VL_COFINS,</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="12" t="s">
+    <row r="45" spans="3:6">
+      <c r="C45" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="G45" t="str">
+      <c r="F45" t="str">
         <f t="shared" si="0"/>
         <v>VL_COFINS_PRODUTO,</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
-      <c r="B46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="12" t="s">
+    <row r="46" spans="3:6">
+      <c r="C46" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="G46" t="str">
+      <c r="F46" t="str">
         <f t="shared" si="0"/>
         <v>VL_COFINS_FRETE,</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="12" t="s">
+    <row r="47" spans="3:6">
+      <c r="C47" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="G47" t="str">
+      <c r="F47" t="str">
         <f t="shared" si="0"/>
         <v>VL_COFINS_OUTROS,</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="12" t="s">
+    <row r="48" spans="3:6">
+      <c r="C48" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="G48" t="str">
+      <c r="F48" t="str">
         <f t="shared" si="0"/>
         <v>VL_CSLL,</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="12" t="s">
+    <row r="49" spans="3:6">
+      <c r="C49" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="G49" t="str">
+      <c r="F49" t="str">
         <f t="shared" si="0"/>
         <v>VL_CSLL_PRODUTO,</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="12" t="s">
+    <row r="50" spans="3:6">
+      <c r="C50" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="G50" t="str">
+      <c r="F50" t="str">
         <f t="shared" si="0"/>
         <v>VL_CSLL_FRETE,</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="12" t="s">
+    <row r="51" spans="3:6">
+      <c r="C51" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="G51" t="str">
+      <c r="F51" t="str">
         <f t="shared" si="0"/>
         <v>VL_CSLL_OUTROS,</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="12" t="s">
+    <row r="52" spans="3:6">
+      <c r="C52" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="G52" t="str">
+      <c r="F52" t="str">
         <f t="shared" si="0"/>
         <v>VL_BASE_IPI,</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="12" t="s">
+    <row r="53" spans="3:6">
+      <c r="C53" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="G53" t="str">
+      <c r="F53" t="str">
         <f t="shared" si="0"/>
         <v>CD_TIPO_CLIENTE_FATURA,</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="12" t="s">
+    <row r="54" spans="3:6">
+      <c r="C54" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="G54" t="str">
+      <c r="F54" t="str">
         <f t="shared" si="0"/>
         <v>NR_CNPJ_CPF_FATURA,</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
-      <c r="B55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="12" t="s">
+    <row r="55" spans="3:6">
+      <c r="C55" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="G55" t="str">
+      <c r="F55" t="str">
         <f t="shared" si="0"/>
         <v>CD_TIPO_CLIENTE_ENTREGA,</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
-      <c r="B56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="12" t="s">
+    <row r="56" spans="3:6">
+      <c r="C56" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="G56" t="str">
+      <c r="F56" t="str">
         <f t="shared" si="0"/>
         <v>NR_CNPJ_CPF_ENTREGA,</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
-      <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="12" t="s">
+    <row r="57" spans="3:6">
+      <c r="C57" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="G57" t="str">
+      <c r="F57" t="str">
         <f t="shared" si="0"/>
         <v>CD_CIDADE_FATURA,</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
-      <c r="B58" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="12" t="s">
+    <row r="58" spans="3:6">
+      <c r="C58" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="G58" t="str">
+      <c r="F58" t="str">
         <f t="shared" si="0"/>
         <v>CD_CIDADE_ENTREGA,</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="12" t="s">
+    <row r="59" spans="3:6">
+      <c r="C59" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G59" t="str">
+      <c r="F59" t="str">
         <f t="shared" si="0"/>
         <v>CD_UNIDADE_EMPRESARIAL,</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="12" t="s">
+    <row r="60" spans="3:6">
+      <c r="C60" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G60" t="str">
+      <c r="F60" t="str">
         <f t="shared" si="0"/>
         <v>CD_FILIAL,</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="12" t="s">
+    <row r="61" spans="3:6">
+      <c r="C61" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="G61" t="str">
+      <c r="F61" t="str">
         <f t="shared" si="0"/>
         <v>DT_STATUS,</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="12" t="s">
+    <row r="62" spans="3:6">
+      <c r="C62" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="G62" t="str">
+      <c r="F62" t="str">
         <f t="shared" si="0"/>
         <v>VL_CMV,</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="12" t="s">
+    <row r="63" spans="3:6">
+      <c r="C63" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="G63" t="str">
+      <c r="F63" t="str">
         <f t="shared" si="0"/>
         <v>QT_VOLUME,</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
-      <c r="B64" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="12" t="s">
+    <row r="64" spans="3:6">
+      <c r="C64" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G64" t="str">
+      <c r="F64" t="str">
         <f t="shared" si="0"/>
         <v>VL_FRETE_CIA,</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="12" t="s">
+    <row r="65" spans="3:6">
+      <c r="C65" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="G65" t="str">
+      <c r="F65" t="str">
         <f t="shared" si="0"/>
         <v>CD_TIPO_TRANSPORTE,</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
-      <c r="B66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="12" t="s">
+    <row r="66" spans="3:6">
+      <c r="C66" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="G66" t="str">
+      <c r="F66" t="str">
         <f t="shared" si="0"/>
         <v>NR_PEDIDO,</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
-      <c r="B67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="12" t="s">
+    <row r="67" spans="3:6">
+      <c r="C67" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="G67" t="str">
+      <c r="F67" t="str">
         <f t="shared" si="0"/>
         <v>NR_SEQ_ENTREGA,</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="12" t="s">
+    <row r="68" spans="3:6">
+      <c r="C68" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="G68" t="str">
-        <f t="shared" ref="G68:G84" si="2">CONCATENATE(D68,",")</f>
+      <c r="F68" t="str">
+        <f t="shared" ref="F68:F84" si="2">CONCATENATE(C68,",")</f>
         <v>NR_ENTREGA,</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
-      <c r="B69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="12" t="s">
+    <row r="69" spans="3:6">
+      <c r="C69" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G69" t="str">
+      <c r="F69" t="str">
         <f t="shared" si="2"/>
         <v>CD_CIA,</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
-      <c r="B70" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="12" t="s">
+    <row r="70" spans="3:6">
+      <c r="C70" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G70" t="str">
+      <c r="F70" t="str">
         <f t="shared" si="2"/>
         <v>CD_UNIDADE_NEGOCIO,</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
-      <c r="B71" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="12" t="s">
+    <row r="71" spans="3:6">
+      <c r="C71" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="G71" t="str">
+      <c r="F71" t="str">
         <f t="shared" si="2"/>
         <v>CD_CANAL,</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
-      <c r="B72" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" s="12" t="s">
+    <row r="72" spans="3:6">
+      <c r="C72" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="G72" t="str">
+      <c r="F72" t="str">
         <f t="shared" si="2"/>
         <v>DT_PEDIDO,</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
-      <c r="B73" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="12" t="s">
+    <row r="73" spans="3:6">
+      <c r="C73" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G73" t="str">
+      <c r="F73" t="str">
         <f t="shared" si="2"/>
         <v>CD_VENDEDOR,</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
-      <c r="B74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="12" t="s">
+    <row r="74" spans="3:6">
+      <c r="C74" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="G74" t="str">
+      <c r="F74" t="str">
         <f t="shared" si="2"/>
         <v>NR_LISTA_CASAMENTO,</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
-      <c r="B75" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="12" t="s">
+    <row r="75" spans="3:6">
+      <c r="C75" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G75" t="str">
+      <c r="F75" t="str">
         <f t="shared" si="2"/>
         <v>VL_FRETE,</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="12" t="s">
+    <row r="76" spans="3:6">
+      <c r="C76" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="G76" t="str">
+      <c r="F76" t="str">
         <f t="shared" si="2"/>
         <v>CD_PRODUTO,</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="12" t="s">
+    <row r="77" spans="3:6">
+      <c r="C77" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="G77" t="str">
+      <c r="F77" t="str">
         <f t="shared" si="2"/>
         <v>DT_ENTREGA,</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
-      <c r="B78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="12" t="s">
+    <row r="78" spans="3:6">
+      <c r="C78" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="G78" t="str">
+      <c r="F78" t="str">
         <f t="shared" si="2"/>
         <v>CD_TIPO_ENTREGA,</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
-      <c r="B79" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="12" t="s">
+    <row r="79" spans="3:6">
+      <c r="C79" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G79" t="str">
+      <c r="F79" t="str">
         <f t="shared" si="2"/>
         <v>VL_DESPESA_FINANCEIRA,</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
-      <c r="B80" t="s">
+    <row r="80" spans="3:6">
+      <c r="C80" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G80" t="str">
+      <c r="F80" t="str">
         <f t="shared" si="2"/>
         <v>VL_JUROS,</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
-      <c r="B81" t="s">
+    <row r="81" spans="3:6">
+      <c r="C81" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G81" t="str">
+      <c r="F81" t="str">
         <f t="shared" si="2"/>
         <v>VL_JUROS_ADMINISTRADORA,</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
-      <c r="B82" t="s">
-        <v>217</v>
-      </c>
-      <c r="D82" s="12" t="s">
+    <row r="82" spans="3:6">
+      <c r="C82" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="G82" t="str">
+      <c r="F82" t="str">
         <f t="shared" si="2"/>
         <v>NR_NF_CONSOLIDADA,</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
-      <c r="B83" t="s">
-        <v>218</v>
-      </c>
-      <c r="D83" s="12" t="s">
+    <row r="83" spans="3:6">
+      <c r="C83" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G83" t="str">
+      <c r="F83" t="str">
         <f t="shared" si="2"/>
         <v>NR_SERIE_NF_CONSOLIDADA,</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
-      <c r="B84" t="s">
+    <row r="84" spans="3:6">
+      <c r="C84" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G84" t="str">
+      <c r="F84" t="str">
         <f t="shared" si="2"/>
         <v>CD_MODULO_GERENCIAL,</v>
       </c>

--- a/Documentação/Planilhas/Conferencia_FAT.xlsx
+++ b/Documentação/Planilhas/Conferencia_FAT.xlsx
@@ -672,12 +672,6 @@
     <t>Se no menu "Specific" essa opção não estiver habilitada, fazer o detalhamento da Referência. Na aba inferior "Linhas - Nota fiscal", pegar a informação da coluna "Referência Fiscal Relativa"  e buscar a Ordem de Compra por essa Referência Fiscal Relativa</t>
   </si>
   <si>
-    <t>Pegar a informação da coluna "Tipo Doc. Fiscal" . Se for "Remessa Op. Triangular", pedir o detalhamento da Referência Fiscal e na aba inferior "Linhas Nota Fiscal", pegar a informação da coluna "Referência Fiscal Relativa"</t>
-  </si>
-  <si>
-    <t>Pegar a informação da coluna "Tipo Doc. Fiscal" . Se for "Remessa Op. Triangular", pedir o detalhamento da Referência Fiscal e na aba inferior "Linhas Nota Fiscal", pegar a informação da coluna "Linha" da Referência Fiscal Relativa, referente ao item vendido</t>
-  </si>
-  <si>
     <t>Ir para a sessão "znslsc525m000" e informar o NR_ORDEM na coluna "Ordem de Venda". Pegar a informação da coluna "Pedido do Cliente". 
 Ir para a sessão "znslsc500m000" e informar o NR Pedido cliente na coluna "Pedido Cliente". Fazer o detalhamento do mesmo. Na aba inferior "Pedido de Venda Site - Pagamento", pegar a informação da coluna "Valor dos Juros"</t>
   </si>
@@ -1448,6 +1442,12 @@
   </si>
   <si>
     <t xml:space="preserve">o pedido '000000125' existe para a Unid Negócio 5 e 6 no ambiente de homologação e isso está errado </t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Tipo Doc. Fiscal" . Se for "Fatura Op. Triangular", pedir o detalhamento da Referência Fiscal e na aba inferior "Linhas Nota Fiscal", pegar a informação da coluna "Referência Fiscal Relativa"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Tipo Doc. Fiscal" . Se for "Fatura Op. Triangular", pedir o detalhamento da Referência Fiscal e na aba inferior "Linhas Nota Fiscal", pegar a informação da coluna "Linha" da Referência Fiscal Relativa, referente ao item vendido</t>
   </si>
 </sst>
 </file>
@@ -1774,6 +1774,10 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1807,15 +1811,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1846,14 +1841,14 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1876,15 +1871,6 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1892,6 +1878,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1939,17 +1934,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2367,10 +2367,10 @@
       <c r="BJ1" s="10"/>
     </row>
     <row r="2" spans="1:62" ht="21">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3" t="s">
         <v>206</v>
       </c>
@@ -2383,10 +2383,10 @@
       <c r="BJ2" s="10"/>
     </row>
     <row r="3" spans="1:62" ht="21">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
         <v>200</v>
       </c>
@@ -2420,16 +2420,16 @@
         <v>198</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>26</v>
@@ -2440,16 +2440,16 @@
         <v>198</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>26</v>
@@ -2460,16 +2460,16 @@
         <v>198</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>26</v>
@@ -2480,16 +2480,16 @@
         <v>198</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>253</v>
-      </c>
       <c r="D10" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>26</v>
@@ -2500,16 +2500,16 @@
         <v>199</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>26</v>
@@ -2520,16 +2520,16 @@
         <v>199</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>26</v>
@@ -2540,16 +2540,16 @@
         <v>199</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>26</v>
@@ -2560,16 +2560,16 @@
         <v>199</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>0</v>
@@ -2577,19 +2577,19 @@
     </row>
     <row r="15" spans="1:62">
       <c r="A15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>26</v>
@@ -2597,19 +2597,19 @@
     </row>
     <row r="16" spans="1:62">
       <c r="A16" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>26</v>
@@ -2617,93 +2617,93 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="A19" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="31" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2729,8 +2729,8 @@
   </sheetPr>
   <dimension ref="A1:CD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
-      <selection activeCell="BZ13" sqref="BZ13"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BF6" sqref="BF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2829,19 +2829,19 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:82" ht="21">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:82" ht="21">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
         <v>191</v>
       </c>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="7" spans="1:82" s="9" customFormat="1">
       <c r="A7" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>323</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>325</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>0</v>
@@ -3123,46 +3123,46 @@
         <v>86</v>
       </c>
       <c r="J7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="M7" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="N7" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="P7" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="Q7" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="R7" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="T7" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="U7" s="13" t="s">
         <v>333</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>335</v>
       </c>
       <c r="V7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>25</v>
@@ -3177,10 +3177,10 @@
         <v>88</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AD7" s="13" t="s">
         <v>88</v>
@@ -3249,31 +3249,31 @@
         <v>93</v>
       </c>
       <c r="AZ7" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA7" s="13" t="s">
         <v>93</v>
       </c>
       <c r="BB7" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="BC7" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="BD7" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="BE7" s="13" t="s">
         <v>337</v>
-      </c>
-      <c r="BC7" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="BD7" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="BE7" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="BF7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="BG7" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="BH7" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BI7" s="13" t="s">
         <v>92</v>
@@ -3285,13 +3285,13 @@
         <v>0</v>
       </c>
       <c r="BL7" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BM7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="BN7" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BO7" s="13" t="s">
         <v>0</v>
@@ -3300,25 +3300,25 @@
         <v>87</v>
       </c>
       <c r="BQ7" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR7" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="BS7" s="13" t="s">
         <v>344</v>
-      </c>
-      <c r="BR7" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="BS7" s="13" t="s">
-        <v>346</v>
       </c>
       <c r="BT7" s="13" t="s">
         <v>85</v>
       </c>
       <c r="BU7" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BV7" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BW7" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BX7" s="13" t="s">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>88</v>
       </c>
       <c r="CB7" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="CC7" s="13" t="s">
         <v>0</v>
@@ -3344,22 +3344,22 @@
     </row>
     <row r="8" spans="1:82" s="9" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>0</v>
@@ -3371,46 +3371,46 @@
         <v>86</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="N8" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>356</v>
-      </c>
       <c r="U8" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X8" s="8" t="s">
         <v>25</v>
@@ -3425,10 +3425,10 @@
         <v>88</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AD8" s="8" t="s">
         <v>88</v>
@@ -3497,31 +3497,31 @@
         <v>93</v>
       </c>
       <c r="AZ8" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA8" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB8" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="BC8" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="BD8" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="BE8" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="BC8" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="BD8" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="BE8" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="BF8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG8" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BH8" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BI8" s="8" t="s">
         <v>25</v>
@@ -3533,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="BL8" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="BM8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN8" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="BO8" s="8" t="s">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>87</v>
       </c>
       <c r="BQ8" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR8" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="BS8" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="BR8" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="BS8" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="BT8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU8" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="BV8" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BW8" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX8" s="8" t="s">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>88</v>
       </c>
       <c r="CB8" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="CC8" s="8" t="s">
         <v>0</v>
@@ -3592,19 +3592,19 @@
     </row>
     <row r="9" spans="1:82" s="9" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>85</v>
@@ -3613,22 +3613,22 @@
         <v>86</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>0</v>
@@ -3640,10 +3640,10 @@
         <v>158</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>86</v>
@@ -3658,16 +3658,16 @@
         <v>91</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="X9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>88</v>
@@ -3685,43 +3685,43 @@
         <v>88</v>
       </c>
       <c r="AF9" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AH9" s="8" t="s">
         <v>85</v>
       </c>
       <c r="AI9" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL9" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="AJ9" s="8" t="s">
+      <c r="AM9" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="AK9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL9" s="8" t="s">
+      <c r="AN9" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="AM9" s="8" t="s">
+      <c r="AO9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP9" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="AN9" s="8" t="s">
+      <c r="AQ9" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="AO9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP9" s="8" t="s">
+      <c r="AR9" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="AQ9" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="AR9" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="AS9" s="8" t="s">
         <v>88</v>
@@ -3742,34 +3742,34 @@
         <v>85</v>
       </c>
       <c r="AY9" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="AZ9" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA9" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="BB9" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC9" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="AZ9" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA9" s="8" t="s">
+      <c r="BD9" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="BB9" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="BC9" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD9" s="8" t="s">
-        <v>383</v>
-      </c>
       <c r="BE9" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="BF9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG9" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="BH9" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BI9" s="8" t="s">
         <v>92</v>
@@ -3781,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="BL9" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BM9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN9" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BO9" s="8" t="s">
         <v>0</v>
@@ -3796,25 +3796,25 @@
         <v>87</v>
       </c>
       <c r="BQ9" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR9" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="BS9" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="BR9" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="BS9" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="BT9" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU9" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BV9" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BW9" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BX9" s="8" t="s">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>88</v>
       </c>
       <c r="CB9" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="CC9" s="8" t="s">
         <v>0</v>
@@ -3840,22 +3840,22 @@
     </row>
     <row r="10" spans="1:82" s="9" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>0</v>
@@ -3867,46 +3867,46 @@
         <v>86</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>391</v>
-      </c>
       <c r="N10" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="P10" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="Q10" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="R10" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="S10" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="T10" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="U10" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="X10" s="8" t="s">
         <v>25</v>
@@ -3921,10 +3921,10 @@
         <v>88</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AD10" s="8" t="s">
         <v>88</v>
@@ -3993,31 +3993,31 @@
         <v>93</v>
       </c>
       <c r="AZ10" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA10" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB10" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="BC10" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="BD10" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="BE10" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="BC10" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="BD10" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="BE10" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="BF10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG10" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="BH10" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BI10" s="8" t="s">
         <v>92</v>
@@ -4029,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="BL10" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="BM10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN10" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BO10" s="8" t="s">
         <v>0</v>
@@ -4044,25 +4044,25 @@
         <v>87</v>
       </c>
       <c r="BQ10" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR10" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="BS10" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="BR10" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="BS10" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="BT10" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU10" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BV10" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BW10" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BX10" s="8" t="s">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>88</v>
       </c>
       <c r="CB10" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="CC10" s="8" t="s">
         <v>0</v>
@@ -4088,19 +4088,19 @@
     </row>
     <row r="11" spans="1:82" s="9" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>85</v>
@@ -4109,22 +4109,22 @@
         <v>86</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>0</v>
@@ -4136,10 +4136,10 @@
         <v>158</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>86</v>
@@ -4154,16 +4154,16 @@
         <v>91</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="X11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>88</v>
@@ -4181,43 +4181,43 @@
         <v>88</v>
       </c>
       <c r="AF11" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AH11" s="8" t="s">
         <v>85</v>
       </c>
       <c r="AI11" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL11" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="AJ11" s="8" t="s">
+      <c r="AM11" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="AK11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL11" s="8" t="s">
+      <c r="AN11" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="AM11" s="8" t="s">
+      <c r="AO11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP11" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="AN11" s="8" t="s">
+      <c r="AQ11" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="AO11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP11" s="8" t="s">
+      <c r="AR11" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="AQ11" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="AR11" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="AS11" s="8" t="s">
         <v>88</v>
@@ -4238,34 +4238,34 @@
         <v>85</v>
       </c>
       <c r="AY11" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="AZ11" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA11" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="BB11" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC11" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="AZ11" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA11" s="8" t="s">
+      <c r="BD11" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="BB11" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="BC11" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD11" s="8" t="s">
-        <v>383</v>
-      </c>
       <c r="BE11" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="BF11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG11" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="BH11" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BI11" s="8" t="s">
         <v>92</v>
@@ -4277,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="BL11" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="BM11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN11" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BO11" s="8" t="s">
         <v>0</v>
@@ -4292,25 +4292,25 @@
         <v>87</v>
       </c>
       <c r="BQ11" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR11" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="BS11" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="BR11" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="BS11" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="BT11" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU11" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BV11" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BW11" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BX11" s="8" t="s">
         <v>0</v>
@@ -4325,7 +4325,7 @@
         <v>88</v>
       </c>
       <c r="CB11" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="CC11" s="8" t="s">
         <v>0</v>
@@ -4336,19 +4336,19 @@
     </row>
     <row r="12" spans="1:82" s="9" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>85</v>
@@ -4363,46 +4363,46 @@
         <v>86</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>402</v>
-      </c>
       <c r="N12" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="Q12" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="R12" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="T12" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="U12" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="X12" s="8" t="s">
         <v>25</v>
@@ -4417,10 +4417,10 @@
         <v>88</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AD12" s="8" t="s">
         <v>88</v>
@@ -4489,31 +4489,31 @@
         <v>93</v>
       </c>
       <c r="AZ12" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA12" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB12" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="BC12" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="BD12" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="BE12" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="BC12" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="BD12" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="BE12" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="BF12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG12" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="BH12" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BI12" s="8" t="s">
         <v>92</v>
@@ -4525,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="BL12" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="BM12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN12" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="BO12" s="8" t="s">
         <v>0</v>
@@ -4540,25 +4540,25 @@
         <v>87</v>
       </c>
       <c r="BQ12" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR12" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="BS12" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="BR12" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="BS12" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="BT12" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU12" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BV12" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BW12" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX12" s="8" t="s">
         <v>0</v>
@@ -4584,22 +4584,22 @@
     </row>
     <row r="13" spans="1:82" s="9" customFormat="1">
       <c r="A13" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -4611,46 +4611,46 @@
         <v>86</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="N13" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="P13" s="8" t="s">
+      <c r="R13" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="S13" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="T13" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X13" s="8" t="s">
         <v>25</v>
@@ -4665,10 +4665,10 @@
         <v>88</v>
       </c>
       <c r="AB13" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AD13" s="8" t="s">
         <v>88</v>
@@ -4737,31 +4737,31 @@
         <v>93</v>
       </c>
       <c r="AZ13" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA13" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB13" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="BC13" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="BD13" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="BE13" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="BC13" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="BD13" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="BE13" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="BF13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG13" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="BH13" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BI13" s="8" t="s">
         <v>92</v>
@@ -4773,13 +4773,13 @@
         <v>0</v>
       </c>
       <c r="BL13" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BM13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN13" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="BO13" s="8" t="s">
         <v>0</v>
@@ -4788,25 +4788,25 @@
         <v>91</v>
       </c>
       <c r="BQ13" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR13" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="BS13" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="BR13" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="BS13" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="BT13" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU13" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="BV13" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BW13" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="BX13" s="8" t="s">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>88</v>
       </c>
       <c r="CB13" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="CC13" s="8" t="s">
         <v>0</v>
@@ -4832,22 +4832,22 @@
     </row>
     <row r="14" spans="1:82" s="9" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="F14" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -4859,34 +4859,34 @@
         <v>86</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="N14" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="P14" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="O14" s="8" t="s">
+      <c r="Q14" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="P14" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>430</v>
-      </c>
       <c r="R14" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="T14" s="8" t="s">
         <v>25</v>
@@ -4898,7 +4898,7 @@
         <v>91</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="X14" s="8" t="s">
         <v>25</v>
@@ -4913,10 +4913,10 @@
         <v>88</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AD14" s="8" t="s">
         <v>88</v>
@@ -4985,13 +4985,13 @@
         <v>93</v>
       </c>
       <c r="AZ14" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="BA14" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB14" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="BC14" s="8" t="s">
         <v>90</v>
@@ -5000,16 +5000,16 @@
         <v>90</v>
       </c>
       <c r="BE14" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="BF14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG14" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="BH14" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BI14" s="8" t="s">
         <v>92</v>
@@ -5021,13 +5021,13 @@
         <v>0</v>
       </c>
       <c r="BL14" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BM14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN14" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BO14" s="8" t="s">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>89</v>
       </c>
       <c r="BR14" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="BS14" s="8" t="s">
         <v>85</v>
@@ -5048,13 +5048,13 @@
         <v>85</v>
       </c>
       <c r="BU14" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="BV14" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="BW14" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="BX14" s="8" t="s">
         <v>0</v>
@@ -5080,19 +5080,19 @@
     </row>
     <row r="15" spans="1:82" s="9" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>85</v>
@@ -5101,22 +5101,22 @@
         <v>86</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>158</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>86</v>
@@ -5146,16 +5146,16 @@
         <v>91</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="X15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AA15" s="8" t="s">
         <v>88</v>
@@ -5191,28 +5191,28 @@
         <v>88</v>
       </c>
       <c r="AL15" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN15" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="AM15" s="8" t="s">
+      <c r="AO15" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="AN15" s="8" t="s">
+      <c r="AP15" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="AO15" s="8" t="s">
+      <c r="AQ15" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="AP15" s="8" t="s">
+      <c r="AR15" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="AQ15" s="8" t="s">
+      <c r="AS15" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="AR15" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="AS15" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="AT15" s="8" t="s">
         <v>88</v>
@@ -5233,13 +5233,13 @@
         <v>93</v>
       </c>
       <c r="AZ15" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="BA15" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB15" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="BC15" s="8" t="s">
         <v>90</v>
@@ -5248,16 +5248,16 @@
         <v>90</v>
       </c>
       <c r="BE15" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="BF15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG15" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BH15" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BI15" s="8" t="s">
         <v>92</v>
@@ -5269,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="BL15" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BM15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN15" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BO15" s="8" t="s">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>89</v>
       </c>
       <c r="BR15" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="BS15" s="8" t="s">
         <v>85</v>
@@ -5296,13 +5296,13 @@
         <v>85</v>
       </c>
       <c r="BU15" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="BV15" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="BW15" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="BX15" s="8" t="s">
         <v>0</v>
@@ -5328,22 +5328,22 @@
     </row>
     <row r="16" spans="1:82" s="9" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -5355,46 +5355,46 @@
         <v>86</v>
       </c>
       <c r="J16" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>460</v>
-      </c>
       <c r="N16" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="Q16" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="R16" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="S16" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="T16" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="U16" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="V16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="X16" s="8" t="s">
         <v>25</v>
@@ -5409,10 +5409,10 @@
         <v>88</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AD16" s="8" t="s">
         <v>88</v>
@@ -5481,31 +5481,31 @@
         <v>93</v>
       </c>
       <c r="AZ16" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA16" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB16" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="BC16" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="BD16" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="BE16" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="BC16" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="BD16" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="BE16" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="BF16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG16" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BH16" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BI16" s="8" t="s">
         <v>92</v>
@@ -5517,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="BL16" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="BM16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN16" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="BO16" s="8" t="s">
         <v>0</v>
@@ -5532,25 +5532,25 @@
         <v>87</v>
       </c>
       <c r="BQ16" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR16" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="BS16" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="BR16" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="BS16" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="BT16" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU16" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BV16" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BW16" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BX16" s="8" t="s">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>88</v>
       </c>
       <c r="CB16" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="CC16" s="8" t="s">
         <v>0</v>
@@ -5575,959 +5575,959 @@
       </c>
     </row>
     <row r="18" spans="1:82" ht="15" customHeight="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="35"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="35"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="34" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="34"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="34"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF18" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="BG18" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH18" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="BI18" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="BL18" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="BM18" s="23"/>
+      <c r="BN18" s="24"/>
+      <c r="BO18" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="BP18" s="32"/>
+      <c r="BQ18" s="32"/>
+      <c r="BR18" s="32"/>
+      <c r="BS18" s="32"/>
+      <c r="BT18" s="32"/>
+      <c r="BU18" s="32"/>
+      <c r="BV18" s="32"/>
+      <c r="BW18" s="32"/>
+      <c r="BX18" s="32"/>
+      <c r="BY18" s="32"/>
+      <c r="BZ18" s="32"/>
+      <c r="CA18" s="32"/>
+      <c r="CB18" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="CC18" s="65"/>
+    </row>
+    <row r="19" spans="1:82" ht="11.25" customHeight="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37"/>
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="37"/>
+      <c r="AT19" s="37"/>
+      <c r="AU19" s="37"/>
+      <c r="AV19" s="37"/>
+      <c r="AW19" s="37"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="37"/>
+      <c r="BA19" s="37"/>
+      <c r="BB19" s="37"/>
+      <c r="BC19" s="37"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="49"/>
+      <c r="BF19" s="49"/>
+      <c r="BG19" s="49"/>
+      <c r="BH19" s="49"/>
+      <c r="BI19" s="51"/>
+      <c r="BJ19" s="51"/>
+      <c r="BK19" s="49"/>
+      <c r="BL19" s="25"/>
+      <c r="BM19" s="26"/>
+      <c r="BN19" s="27"/>
+      <c r="BO19" s="32"/>
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="32"/>
+      <c r="BS19" s="32"/>
+      <c r="BT19" s="32"/>
+      <c r="BU19" s="32"/>
+      <c r="BV19" s="32"/>
+      <c r="BW19" s="32"/>
+      <c r="BX19" s="32"/>
+      <c r="BY19" s="32"/>
+      <c r="BZ19" s="32"/>
+      <c r="CA19" s="32"/>
+      <c r="CB19" s="66"/>
+      <c r="CC19" s="67"/>
+    </row>
+    <row r="20" spans="1:82" ht="11.25" customHeight="1">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="40"/>
+      <c r="AU20" s="40"/>
+      <c r="AV20" s="40"/>
+      <c r="AW20" s="40"/>
+      <c r="AX20" s="41"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="40"/>
+      <c r="BB20" s="40"/>
+      <c r="BC20" s="40"/>
+      <c r="BD20" s="41"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="50"/>
+      <c r="BG20" s="50"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="51"/>
+      <c r="BJ20" s="51"/>
+      <c r="BK20" s="50"/>
+      <c r="BL20" s="28"/>
+      <c r="BM20" s="29"/>
+      <c r="BN20" s="30"/>
+      <c r="BO20" s="32"/>
+      <c r="BP20" s="32"/>
+      <c r="BQ20" s="32"/>
+      <c r="BR20" s="32"/>
+      <c r="BS20" s="32"/>
+      <c r="BT20" s="32"/>
+      <c r="BU20" s="32"/>
+      <c r="BV20" s="32"/>
+      <c r="BW20" s="32"/>
+      <c r="BX20" s="32"/>
+      <c r="BY20" s="32"/>
+      <c r="BZ20" s="32"/>
+      <c r="CA20" s="32"/>
+      <c r="CB20" s="68"/>
+      <c r="CC20" s="69"/>
+    </row>
+    <row r="21" spans="1:82" ht="11.25" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="I21" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="S21" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="T21" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="U21" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="V21" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="W21" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="X21" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z21" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA21" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB21" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC21" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD21" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE21" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF21" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG21" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH21" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI21" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ21" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK21" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL21" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM21" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN21" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO21" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP21" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ21" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR21" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS21" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT21" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU21" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV21" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW21" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX21" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY21" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ21" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA21" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB21" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="BC21" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD21" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE21" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF21" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG21" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="AZ18" s="35"/>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="35"/>
-      <c r="BC18" s="35"/>
-      <c r="BD18" s="36"/>
-      <c r="BE18" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="BF18" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="BG18" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="BH18" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="BI18" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="BJ18" s="52"/>
-      <c r="BK18" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="BL18" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="BM18" s="21"/>
-      <c r="BN18" s="22"/>
-      <c r="BO18" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="BP18" s="33"/>
-      <c r="BQ18" s="33"/>
-      <c r="BR18" s="33"/>
-      <c r="BS18" s="33"/>
-      <c r="BT18" s="33"/>
-      <c r="BU18" s="33"/>
-      <c r="BV18" s="33"/>
-      <c r="BW18" s="33"/>
-      <c r="BX18" s="33"/>
-      <c r="BY18" s="33"/>
-      <c r="BZ18" s="33"/>
-      <c r="CA18" s="33"/>
-      <c r="CB18" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="CC18" s="66"/>
-    </row>
-    <row r="19" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="38"/>
-      <c r="AX19" s="39"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="38"/>
-      <c r="BB19" s="38"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="39"/>
-      <c r="BE19" s="50"/>
-      <c r="BF19" s="50"/>
-      <c r="BG19" s="50"/>
-      <c r="BH19" s="50"/>
-      <c r="BI19" s="52"/>
-      <c r="BJ19" s="52"/>
-      <c r="BK19" s="50"/>
-      <c r="BL19" s="23"/>
-      <c r="BM19" s="24"/>
-      <c r="BN19" s="25"/>
-      <c r="BO19" s="33"/>
-      <c r="BP19" s="33"/>
-      <c r="BQ19" s="33"/>
-      <c r="BR19" s="33"/>
-      <c r="BS19" s="33"/>
-      <c r="BT19" s="33"/>
-      <c r="BU19" s="33"/>
-      <c r="BV19" s="33"/>
-      <c r="BW19" s="33"/>
-      <c r="BX19" s="33"/>
-      <c r="BY19" s="33"/>
-      <c r="BZ19" s="33"/>
-      <c r="CA19" s="33"/>
-      <c r="CB19" s="67"/>
-      <c r="CC19" s="68"/>
-    </row>
-    <row r="20" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="41"/>
-      <c r="AV20" s="41"/>
-      <c r="AW20" s="41"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="40"/>
-      <c r="AZ20" s="41"/>
-      <c r="BA20" s="41"/>
-      <c r="BB20" s="41"/>
-      <c r="BC20" s="41"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="51"/>
-      <c r="BF20" s="51"/>
-      <c r="BG20" s="51"/>
-      <c r="BH20" s="51"/>
-      <c r="BI20" s="52"/>
-      <c r="BJ20" s="52"/>
-      <c r="BK20" s="51"/>
-      <c r="BL20" s="26"/>
-      <c r="BM20" s="27"/>
-      <c r="BN20" s="28"/>
-      <c r="BO20" s="33"/>
-      <c r="BP20" s="33"/>
-      <c r="BQ20" s="33"/>
-      <c r="BR20" s="33"/>
-      <c r="BS20" s="33"/>
-      <c r="BT20" s="33"/>
-      <c r="BU20" s="33"/>
-      <c r="BV20" s="33"/>
-      <c r="BW20" s="33"/>
-      <c r="BX20" s="33"/>
-      <c r="BY20" s="33"/>
-      <c r="BZ20" s="33"/>
-      <c r="CA20" s="33"/>
-      <c r="CB20" s="69"/>
-      <c r="CC20" s="70"/>
-    </row>
-    <row r="21" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="O21" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="P21" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q21" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="S21" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="T21" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="U21" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="V21" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="W21" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="X21" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y21" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z21" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA21" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB21" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC21" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD21" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE21" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF21" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG21" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH21" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI21" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ21" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK21" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL21" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM21" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN21" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="AO21" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="AP21" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ21" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR21" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="AS21" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="AT21" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU21" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV21" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="AW21" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="AX21" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY21" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ21" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="BA21" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB21" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="BC21" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD21" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE21" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF21" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="BG21" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="BH21" s="54" t="s">
+      <c r="BH21" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI21" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="BJ21" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="BI21" s="54" t="s">
+      <c r="BK21" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL21" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM21" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="BN21" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO21" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="BJ21" s="54" t="s">
+      <c r="BP21" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="BQ21" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR21" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="BK21" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL21" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="BM21" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="BN21" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="BO21" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="BP21" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="BQ21" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="BR21" s="46" t="s">
+      <c r="BS21" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="BT21" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU21" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV21" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW21" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="BX21" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY21" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ21" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="CA21" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="CB21" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="BS21" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="BT21" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="BU21" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="BV21" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW21" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX21" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="BY21" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="BZ21" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="CA21" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="CB21" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="CC21" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="CD21" s="46" t="s">
-        <v>320</v>
+      <c r="CC21" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="CD21" s="45" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:82">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="57"/>
-      <c r="AK22" s="54"/>
-      <c r="AL22" s="60"/>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="54"/>
-      <c r="AP22" s="60"/>
-      <c r="AQ22" s="47"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="54"/>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="47"/>
-      <c r="AV22" s="57"/>
-      <c r="AW22" s="54"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="54"/>
-      <c r="AZ22" s="55"/>
-      <c r="BA22" s="54"/>
-      <c r="BB22" s="54"/>
-      <c r="BC22" s="54"/>
-      <c r="BD22" s="54"/>
-      <c r="BE22" s="72"/>
-      <c r="BF22" s="47"/>
-      <c r="BG22" s="47"/>
-      <c r="BH22" s="54"/>
-      <c r="BI22" s="54"/>
-      <c r="BJ22" s="54"/>
-      <c r="BK22" s="29"/>
-      <c r="BL22" s="29"/>
-      <c r="BM22" s="29"/>
-      <c r="BN22" s="29"/>
-      <c r="BO22" s="47"/>
-      <c r="BP22" s="47"/>
-      <c r="BQ22" s="47"/>
-      <c r="BR22" s="47"/>
-      <c r="BS22" s="47"/>
-      <c r="BT22" s="47"/>
-      <c r="BU22" s="47"/>
-      <c r="BV22" s="47"/>
-      <c r="BW22" s="47"/>
-      <c r="BX22" s="47"/>
-      <c r="BY22" s="47"/>
-      <c r="BZ22" s="47"/>
-      <c r="CA22" s="47"/>
-      <c r="CB22" s="47"/>
-      <c r="CC22" s="47"/>
-      <c r="CD22" s="47"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="46"/>
+      <c r="AU22" s="46"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="55"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="55"/>
+      <c r="AZ22" s="57"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="55"/>
+      <c r="BC22" s="55"/>
+      <c r="BD22" s="55"/>
+      <c r="BE22" s="71"/>
+      <c r="BF22" s="46"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="55"/>
+      <c r="BI22" s="55"/>
+      <c r="BJ22" s="55"/>
+      <c r="BK22" s="31"/>
+      <c r="BL22" s="31"/>
+      <c r="BM22" s="31"/>
+      <c r="BN22" s="31"/>
+      <c r="BO22" s="46"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="46"/>
+      <c r="BR22" s="46"/>
+      <c r="BS22" s="46"/>
+      <c r="BT22" s="46"/>
+      <c r="BU22" s="46"/>
+      <c r="BV22" s="46"/>
+      <c r="BW22" s="46"/>
+      <c r="BX22" s="46"/>
+      <c r="BY22" s="46"/>
+      <c r="BZ22" s="46"/>
+      <c r="CA22" s="46"/>
+      <c r="CB22" s="46"/>
+      <c r="CC22" s="46"/>
+      <c r="CD22" s="46"/>
     </row>
     <row r="23" spans="1:82">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="57"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="60"/>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="57"/>
-      <c r="AO23" s="54"/>
-      <c r="AP23" s="60"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="57"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="47"/>
-      <c r="AU23" s="47"/>
-      <c r="AV23" s="57"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="57"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="55"/>
-      <c r="BA23" s="54"/>
-      <c r="BB23" s="54"/>
-      <c r="BC23" s="54"/>
-      <c r="BD23" s="54"/>
-      <c r="BE23" s="72"/>
-      <c r="BF23" s="47"/>
-      <c r="BG23" s="47"/>
-      <c r="BH23" s="54"/>
-      <c r="BI23" s="54"/>
-      <c r="BJ23" s="54"/>
-      <c r="BK23" s="29"/>
-      <c r="BL23" s="29"/>
-      <c r="BM23" s="29"/>
-      <c r="BN23" s="29"/>
-      <c r="BO23" s="47"/>
-      <c r="BP23" s="47"/>
-      <c r="BQ23" s="47"/>
-      <c r="BR23" s="47"/>
-      <c r="BS23" s="47"/>
-      <c r="BT23" s="47"/>
-      <c r="BU23" s="47"/>
-      <c r="BV23" s="47"/>
-      <c r="BW23" s="47"/>
-      <c r="BX23" s="47"/>
-      <c r="BY23" s="47"/>
-      <c r="BZ23" s="47"/>
-      <c r="CA23" s="47"/>
-      <c r="CB23" s="47"/>
-      <c r="CC23" s="47"/>
-      <c r="CD23" s="47"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="55"/>
+      <c r="AP23" s="59"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="46"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="55"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="55"/>
+      <c r="BB23" s="55"/>
+      <c r="BC23" s="55"/>
+      <c r="BD23" s="55"/>
+      <c r="BE23" s="71"/>
+      <c r="BF23" s="46"/>
+      <c r="BG23" s="46"/>
+      <c r="BH23" s="55"/>
+      <c r="BI23" s="55"/>
+      <c r="BJ23" s="55"/>
+      <c r="BK23" s="31"/>
+      <c r="BL23" s="31"/>
+      <c r="BM23" s="31"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="46"/>
+      <c r="BP23" s="46"/>
+      <c r="BQ23" s="46"/>
+      <c r="BR23" s="46"/>
+      <c r="BS23" s="46"/>
+      <c r="BT23" s="46"/>
+      <c r="BU23" s="46"/>
+      <c r="BV23" s="46"/>
+      <c r="BW23" s="46"/>
+      <c r="BX23" s="46"/>
+      <c r="BY23" s="46"/>
+      <c r="BZ23" s="46"/>
+      <c r="CA23" s="46"/>
+      <c r="CB23" s="46"/>
+      <c r="CC23" s="46"/>
+      <c r="CD23" s="46"/>
     </row>
     <row r="24" spans="1:82">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="47"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="54"/>
-      <c r="AL24" s="60"/>
-      <c r="AM24" s="47"/>
-      <c r="AN24" s="57"/>
-      <c r="AO24" s="54"/>
-      <c r="AP24" s="60"/>
-      <c r="AQ24" s="47"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="54"/>
-      <c r="AT24" s="47"/>
-      <c r="AU24" s="47"/>
-      <c r="AV24" s="57"/>
-      <c r="AW24" s="54"/>
-      <c r="AX24" s="57"/>
-      <c r="AY24" s="54"/>
-      <c r="AZ24" s="55"/>
-      <c r="BA24" s="54"/>
-      <c r="BB24" s="54"/>
-      <c r="BC24" s="54"/>
-      <c r="BD24" s="54"/>
-      <c r="BE24" s="72"/>
-      <c r="BF24" s="47"/>
-      <c r="BG24" s="47"/>
-      <c r="BH24" s="54"/>
-      <c r="BI24" s="54"/>
-      <c r="BJ24" s="54"/>
-      <c r="BK24" s="29"/>
-      <c r="BL24" s="29"/>
-      <c r="BM24" s="29"/>
-      <c r="BN24" s="29"/>
-      <c r="BO24" s="47"/>
-      <c r="BP24" s="47"/>
-      <c r="BQ24" s="47"/>
-      <c r="BR24" s="47"/>
-      <c r="BS24" s="47"/>
-      <c r="BT24" s="47"/>
-      <c r="BU24" s="47"/>
-      <c r="BV24" s="47"/>
-      <c r="BW24" s="47"/>
-      <c r="BX24" s="47"/>
-      <c r="BY24" s="47"/>
-      <c r="BZ24" s="47"/>
-      <c r="CA24" s="47"/>
-      <c r="CB24" s="47"/>
-      <c r="CC24" s="47"/>
-      <c r="CD24" s="47"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="46"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="53"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="53"/>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="46"/>
+      <c r="AU24" s="46"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="55"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="55"/>
+      <c r="BB24" s="55"/>
+      <c r="BC24" s="55"/>
+      <c r="BD24" s="55"/>
+      <c r="BE24" s="71"/>
+      <c r="BF24" s="46"/>
+      <c r="BG24" s="46"/>
+      <c r="BH24" s="55"/>
+      <c r="BI24" s="55"/>
+      <c r="BJ24" s="55"/>
+      <c r="BK24" s="31"/>
+      <c r="BL24" s="31"/>
+      <c r="BM24" s="31"/>
+      <c r="BN24" s="31"/>
+      <c r="BO24" s="46"/>
+      <c r="BP24" s="46"/>
+      <c r="BQ24" s="46"/>
+      <c r="BR24" s="46"/>
+      <c r="BS24" s="46"/>
+      <c r="BT24" s="46"/>
+      <c r="BU24" s="46"/>
+      <c r="BV24" s="46"/>
+      <c r="BW24" s="46"/>
+      <c r="BX24" s="46"/>
+      <c r="BY24" s="46"/>
+      <c r="BZ24" s="46"/>
+      <c r="CA24" s="46"/>
+      <c r="CB24" s="46"/>
+      <c r="CC24" s="46"/>
+      <c r="CD24" s="46"/>
     </row>
     <row r="25" spans="1:82">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="47"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="47"/>
-      <c r="AI25" s="47"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="54"/>
-      <c r="AL25" s="60"/>
-      <c r="AM25" s="47"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="54"/>
-      <c r="AP25" s="60"/>
-      <c r="AQ25" s="47"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="47"/>
-      <c r="AU25" s="47"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="54"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="55"/>
-      <c r="BA25" s="54"/>
-      <c r="BB25" s="54"/>
-      <c r="BC25" s="54"/>
-      <c r="BD25" s="54"/>
-      <c r="BE25" s="72"/>
-      <c r="BF25" s="47"/>
-      <c r="BG25" s="47"/>
-      <c r="BH25" s="54"/>
-      <c r="BI25" s="54"/>
-      <c r="BJ25" s="54"/>
-      <c r="BK25" s="29"/>
-      <c r="BL25" s="29"/>
-      <c r="BM25" s="29"/>
-      <c r="BN25" s="29"/>
-      <c r="BO25" s="47"/>
-      <c r="BP25" s="47"/>
-      <c r="BQ25" s="47"/>
-      <c r="BR25" s="47"/>
-      <c r="BS25" s="47"/>
-      <c r="BT25" s="47"/>
-      <c r="BU25" s="47"/>
-      <c r="BV25" s="47"/>
-      <c r="BW25" s="47"/>
-      <c r="BX25" s="47"/>
-      <c r="BY25" s="47"/>
-      <c r="BZ25" s="47"/>
-      <c r="CA25" s="47"/>
-      <c r="CB25" s="47"/>
-      <c r="CC25" s="47"/>
-      <c r="CD25" s="47"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="59"/>
+      <c r="AQ25" s="46"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="46"/>
+      <c r="AU25" s="46"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="55"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="55"/>
+      <c r="BC25" s="55"/>
+      <c r="BD25" s="55"/>
+      <c r="BE25" s="71"/>
+      <c r="BF25" s="46"/>
+      <c r="BG25" s="46"/>
+      <c r="BH25" s="55"/>
+      <c r="BI25" s="55"/>
+      <c r="BJ25" s="55"/>
+      <c r="BK25" s="31"/>
+      <c r="BL25" s="31"/>
+      <c r="BM25" s="31"/>
+      <c r="BN25" s="31"/>
+      <c r="BO25" s="46"/>
+      <c r="BP25" s="46"/>
+      <c r="BQ25" s="46"/>
+      <c r="BR25" s="46"/>
+      <c r="BS25" s="46"/>
+      <c r="BT25" s="46"/>
+      <c r="BU25" s="46"/>
+      <c r="BV25" s="46"/>
+      <c r="BW25" s="46"/>
+      <c r="BX25" s="46"/>
+      <c r="BY25" s="46"/>
+      <c r="BZ25" s="46"/>
+      <c r="CA25" s="46"/>
+      <c r="CB25" s="46"/>
+      <c r="CC25" s="46"/>
+      <c r="CD25" s="46"/>
     </row>
     <row r="26" spans="1:82">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="58"/>
-      <c r="AO26" s="54"/>
-      <c r="AP26" s="61"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="58"/>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="48"/>
-      <c r="AU26" s="48"/>
-      <c r="AV26" s="58"/>
-      <c r="AW26" s="54"/>
-      <c r="AX26" s="58"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="55"/>
-      <c r="BA26" s="54"/>
-      <c r="BB26" s="54"/>
-      <c r="BC26" s="54"/>
-      <c r="BD26" s="54"/>
-      <c r="BE26" s="73"/>
-      <c r="BF26" s="48"/>
-      <c r="BG26" s="48"/>
-      <c r="BH26" s="54"/>
-      <c r="BI26" s="54"/>
-      <c r="BJ26" s="54"/>
-      <c r="BK26" s="29"/>
-      <c r="BL26" s="29"/>
-      <c r="BM26" s="29"/>
-      <c r="BN26" s="29"/>
-      <c r="BO26" s="48"/>
-      <c r="BP26" s="48"/>
-      <c r="BQ26" s="48"/>
-      <c r="BR26" s="48"/>
-      <c r="BS26" s="48"/>
-      <c r="BT26" s="48"/>
-      <c r="BU26" s="48"/>
-      <c r="BV26" s="48"/>
-      <c r="BW26" s="48"/>
-      <c r="BX26" s="48"/>
-      <c r="BY26" s="48"/>
-      <c r="BZ26" s="48"/>
-      <c r="CA26" s="48"/>
-      <c r="CB26" s="48"/>
-      <c r="CC26" s="48"/>
-      <c r="CD26" s="48"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="55"/>
+      <c r="AP26" s="60"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="55"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="54"/>
+      <c r="AW26" s="55"/>
+      <c r="AX26" s="54"/>
+      <c r="AY26" s="55"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="55"/>
+      <c r="BB26" s="55"/>
+      <c r="BC26" s="55"/>
+      <c r="BD26" s="55"/>
+      <c r="BE26" s="72"/>
+      <c r="BF26" s="47"/>
+      <c r="BG26" s="47"/>
+      <c r="BH26" s="55"/>
+      <c r="BI26" s="55"/>
+      <c r="BJ26" s="55"/>
+      <c r="BK26" s="31"/>
+      <c r="BL26" s="31"/>
+      <c r="BM26" s="31"/>
+      <c r="BN26" s="31"/>
+      <c r="BO26" s="47"/>
+      <c r="BP26" s="47"/>
+      <c r="BQ26" s="47"/>
+      <c r="BR26" s="47"/>
+      <c r="BS26" s="47"/>
+      <c r="BT26" s="47"/>
+      <c r="BU26" s="47"/>
+      <c r="BV26" s="47"/>
+      <c r="BW26" s="47"/>
+      <c r="BX26" s="47"/>
+      <c r="BY26" s="47"/>
+      <c r="BZ26" s="47"/>
+      <c r="CA26" s="47"/>
+      <c r="CB26" s="47"/>
+      <c r="CC26" s="47"/>
+      <c r="CD26" s="47"/>
     </row>
     <row r="27" spans="1:82" ht="11.25" customHeight="1">
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="AK27" s="54"/>
-      <c r="AO27" s="54"/>
-      <c r="AS27" s="54"/>
-      <c r="AW27" s="54"/>
-      <c r="AY27" s="54"/>
-      <c r="AZ27" s="55"/>
-      <c r="BA27" s="54"/>
-      <c r="BB27" s="54"/>
-      <c r="BC27" s="54"/>
-      <c r="BD27" s="54"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="AK27" s="55"/>
+      <c r="AO27" s="55"/>
+      <c r="AS27" s="55"/>
+      <c r="AW27" s="55"/>
+      <c r="AY27" s="55"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="55"/>
+      <c r="BB27" s="55"/>
+      <c r="BC27" s="55"/>
+      <c r="BD27" s="55"/>
     </row>
     <row r="28" spans="1:82" ht="11.25" customHeight="1">
       <c r="B28" s="7" t="s">
@@ -6536,319 +6536,319 @@
       <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="29" t="s">
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="31" t="s">
         <v>215</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AE28" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK28" s="54"/>
-      <c r="AO28" s="54"/>
-      <c r="AS28" s="54"/>
-      <c r="AW28" s="54"/>
-      <c r="AY28" s="54"/>
-      <c r="AZ28" s="55"/>
-      <c r="BA28" s="54"/>
-      <c r="BB28" s="54"/>
-      <c r="BC28" s="54"/>
-      <c r="BD28" s="54"/>
-      <c r="BJ28" s="46" t="s">
-        <v>249</v>
+      <c r="AE28" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK28" s="55"/>
+      <c r="AO28" s="55"/>
+      <c r="AS28" s="55"/>
+      <c r="AW28" s="55"/>
+      <c r="AY28" s="55"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="55"/>
+      <c r="BB28" s="55"/>
+      <c r="BC28" s="55"/>
+      <c r="BD28" s="55"/>
+      <c r="BJ28" s="45" t="s">
+        <v>247</v>
       </c>
       <c r="BK28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="CB28" s="30" t="s">
+      <c r="CB28" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="CC28" s="42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:82" ht="11.25" customHeight="1">
+      <c r="B29" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="31"/>
+      <c r="V29" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE29" s="46"/>
+      <c r="BJ29" s="46"/>
+      <c r="BK29" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="BP29" s="76" t="s">
+        <v>465</v>
+      </c>
+      <c r="BQ29" s="77"/>
+      <c r="CB29" s="43"/>
+      <c r="CC29" s="43"/>
+    </row>
+    <row r="30" spans="1:82" ht="11.25" customHeight="1">
+      <c r="B30" s="62"/>
+      <c r="C30" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="CC28" s="30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B29" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="31"/>
+      <c r="V30" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE30" s="46"/>
+      <c r="BJ30" s="46"/>
+      <c r="BK30" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="BP30" s="78"/>
+      <c r="BQ30" s="79"/>
+      <c r="CB30" s="43"/>
+      <c r="CC30" s="43"/>
+    </row>
+    <row r="31" spans="1:82" ht="11.25" customHeight="1">
+      <c r="B31" s="62"/>
+      <c r="C31" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="29"/>
-      <c r="V29" s="15" t="s">
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="31"/>
+      <c r="V31" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="AE29" s="47"/>
-      <c r="BJ29" s="47"/>
-      <c r="BK29" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="BP29" s="77" t="s">
-        <v>467</v>
-      </c>
-      <c r="BQ29" s="78"/>
-      <c r="CB29" s="31"/>
-      <c r="CC29" s="31"/>
-    </row>
-    <row r="30" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B30" s="63"/>
-      <c r="C30" s="5" t="s">
+      <c r="AE31" s="46"/>
+      <c r="BJ31" s="46"/>
+      <c r="BP31" s="78"/>
+      <c r="BQ31" s="79"/>
+      <c r="CB31" s="43"/>
+      <c r="CC31" s="43"/>
+    </row>
+    <row r="32" spans="1:82" ht="11.25" customHeight="1">
+      <c r="B32" s="62"/>
+      <c r="C32" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="29"/>
-      <c r="V30" s="17" t="s">
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="31"/>
+      <c r="V32" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="AE30" s="47"/>
-      <c r="BJ30" s="47"/>
-      <c r="BK30" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="BP30" s="76"/>
-      <c r="BQ30" s="79"/>
-      <c r="CB30" s="31"/>
-      <c r="CC30" s="31"/>
-    </row>
-    <row r="31" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B31" s="63"/>
-      <c r="C31" s="5" t="s">
+      <c r="AE32" s="46"/>
+      <c r="BJ32" s="46"/>
+      <c r="BP32" s="78"/>
+      <c r="BQ32" s="79"/>
+      <c r="CB32" s="43"/>
+      <c r="CC32" s="43"/>
+    </row>
+    <row r="33" spans="2:81" ht="11.25" customHeight="1">
+      <c r="B33" s="62"/>
+      <c r="C33" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="29"/>
-      <c r="V31" s="17" t="s">
+      <c r="J33" s="31"/>
+      <c r="V33" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="AE31" s="47"/>
-      <c r="BJ31" s="47"/>
-      <c r="BP31" s="76"/>
-      <c r="BQ31" s="79"/>
-      <c r="CB31" s="31"/>
-      <c r="CC31" s="31"/>
-    </row>
-    <row r="32" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B32" s="63"/>
-      <c r="C32" s="5" t="s">
+      <c r="AE33" s="46"/>
+      <c r="BJ33" s="46"/>
+      <c r="BP33" s="78"/>
+      <c r="BQ33" s="79"/>
+      <c r="CB33" s="44"/>
+      <c r="CC33" s="44"/>
+    </row>
+    <row r="34" spans="2:81" ht="11.25" customHeight="1">
+      <c r="B34" s="62"/>
+      <c r="C34" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="29"/>
-      <c r="V32" s="17" t="s">
+      <c r="J34" s="31"/>
+      <c r="V34" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="AE32" s="47"/>
-      <c r="BJ32" s="47"/>
-      <c r="BP32" s="76"/>
-      <c r="BQ32" s="79"/>
-      <c r="CB32" s="31"/>
-      <c r="CC32" s="31"/>
-    </row>
-    <row r="33" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B33" s="63"/>
-      <c r="C33" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J33" s="29"/>
-      <c r="V33" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE33" s="47"/>
-      <c r="BJ33" s="47"/>
-      <c r="BP33" s="76"/>
-      <c r="BQ33" s="79"/>
-      <c r="CB33" s="32"/>
-      <c r="CC33" s="32"/>
-    </row>
-    <row r="34" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B34" s="63"/>
-      <c r="C34" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J34" s="29"/>
-      <c r="V34" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE34" s="47"/>
-      <c r="BJ34" s="48"/>
-      <c r="BP34" s="76"/>
+      <c r="AE34" s="46"/>
+      <c r="BJ34" s="47"/>
+      <c r="BP34" s="78"/>
       <c r="BQ34" s="79"/>
       <c r="CC34" s="8"/>
     </row>
     <row r="35" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B35" s="64"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="J35" s="29"/>
+        <v>304</v>
+      </c>
+      <c r="J35" s="31"/>
       <c r="V35" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE35" s="47"/>
+        <v>312</v>
+      </c>
+      <c r="AE35" s="46"/>
       <c r="BP35" s="80"/>
       <c r="BQ35" s="81"/>
-      <c r="CB35" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="CC35" s="46" t="s">
-        <v>317</v>
+      <c r="CB35" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="CC35" s="45" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="2:81">
       <c r="C36" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="J36" s="29"/>
-      <c r="AE36" s="47"/>
-      <c r="CB36" s="47"/>
-      <c r="CC36" s="47"/>
+        <v>305</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="AE36" s="46"/>
+      <c r="CB36" s="46"/>
+      <c r="CC36" s="46"/>
     </row>
     <row r="37" spans="2:81">
       <c r="C37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE37" s="48"/>
-      <c r="CB37" s="47"/>
-      <c r="CC37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="CB37" s="46"/>
+      <c r="CC37" s="46"/>
     </row>
     <row r="38" spans="2:81">
       <c r="C38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CB38" s="47"/>
-      <c r="CC38" s="47"/>
+      <c r="CB38" s="46"/>
+      <c r="CC38" s="46"/>
     </row>
     <row r="39" spans="2:81">
       <c r="C39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AE39" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="CB39" s="47"/>
-      <c r="CC39" s="47"/>
+      <c r="AE39" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="CB39" s="46"/>
+      <c r="CC39" s="46"/>
     </row>
     <row r="40" spans="2:81">
       <c r="C40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AE40" s="31"/>
-      <c r="CB40" s="47"/>
-      <c r="CC40" s="47"/>
+      <c r="AE40" s="43"/>
+      <c r="CB40" s="46"/>
+      <c r="CC40" s="46"/>
     </row>
     <row r="41" spans="2:81">
       <c r="C41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AE41" s="31"/>
-      <c r="CB41" s="47"/>
-      <c r="CC41" s="47"/>
+      <c r="AE41" s="43"/>
+      <c r="CB41" s="46"/>
+      <c r="CC41" s="46"/>
     </row>
     <row r="42" spans="2:81">
       <c r="C42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AE42" s="31"/>
-      <c r="CB42" s="47"/>
-      <c r="CC42" s="47"/>
+      <c r="AE42" s="43"/>
+      <c r="CB42" s="46"/>
+      <c r="CC42" s="46"/>
     </row>
     <row r="43" spans="2:81">
       <c r="C43" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AE43" s="31"/>
-      <c r="CB43" s="47"/>
-      <c r="CC43" s="47"/>
+      <c r="AE43" s="43"/>
+      <c r="CB43" s="46"/>
+      <c r="CC43" s="46"/>
     </row>
     <row r="44" spans="2:81">
       <c r="C44" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AE44" s="32"/>
-      <c r="CB44" s="47"/>
-      <c r="CC44" s="47"/>
+      <c r="AE44" s="44"/>
+      <c r="CB44" s="46"/>
+      <c r="CC44" s="46"/>
     </row>
     <row r="45" spans="2:81">
       <c r="C45" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BJ45" s="29" t="s">
+      <c r="BJ45" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="CB45" s="47"/>
-      <c r="CC45" s="47"/>
+      <c r="CB45" s="46"/>
+      <c r="CC45" s="46"/>
     </row>
     <row r="46" spans="2:81">
       <c r="C46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BJ46" s="29"/>
-      <c r="CB46" s="47"/>
-      <c r="CC46" s="47"/>
+      <c r="BJ46" s="31"/>
+      <c r="CB46" s="46"/>
+      <c r="CC46" s="46"/>
     </row>
     <row r="47" spans="2:81">
       <c r="C47" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="BJ47" s="29"/>
-      <c r="CB47" s="48"/>
-      <c r="CC47" s="48"/>
+      <c r="BJ47" s="31"/>
+      <c r="CB47" s="47"/>
+      <c r="CC47" s="47"/>
     </row>
     <row r="48" spans="2:81">
       <c r="C48" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BJ48" s="29"/>
+      <c r="BJ48" s="31"/>
     </row>
     <row r="49" spans="3:81">
       <c r="C49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="CB49" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="CC49" s="30" t="s">
-        <v>319</v>
+      <c r="CB49" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="CC49" s="42" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="3:81">
       <c r="C50" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="CB50" s="31"/>
-      <c r="CC50" s="31"/>
+      <c r="CB50" s="43"/>
+      <c r="CC50" s="43"/>
     </row>
     <row r="51" spans="3:81">
       <c r="C51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CB51" s="31"/>
-      <c r="CC51" s="31"/>
+      <c r="CB51" s="43"/>
+      <c r="CC51" s="43"/>
     </row>
     <row r="52" spans="3:81">
       <c r="C52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="CB52" s="32"/>
-      <c r="CC52" s="32"/>
+      <c r="CB52" s="44"/>
+      <c r="CC52" s="44"/>
     </row>
     <row r="53" spans="3:81">
       <c r="C53" s="5" t="s">
@@ -6992,19 +6992,16 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="F21:F32"/>
-    <mergeCell ref="G21:G32"/>
-    <mergeCell ref="H21:H32"/>
-    <mergeCell ref="I21:I32"/>
-    <mergeCell ref="BP29:BQ35"/>
     <mergeCell ref="CD21:CD26"/>
     <mergeCell ref="CB35:CB47"/>
     <mergeCell ref="CB49:CB52"/>
     <mergeCell ref="CC28:CC33"/>
     <mergeCell ref="CC35:CC47"/>
     <mergeCell ref="CC49:CC52"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="J28:J36"/>
+    <mergeCell ref="BL21:BL26"/>
+    <mergeCell ref="BM21:BM26"/>
+    <mergeCell ref="BN21:BN26"/>
+    <mergeCell ref="BP21:BP26"/>
     <mergeCell ref="CB18:CC20"/>
     <mergeCell ref="CB21:CB26"/>
     <mergeCell ref="CB28:CB33"/>
@@ -7016,38 +7013,12 @@
     <mergeCell ref="CA21:CA26"/>
     <mergeCell ref="BU21:BU26"/>
     <mergeCell ref="BV21:BV26"/>
-    <mergeCell ref="BE21:BE26"/>
-    <mergeCell ref="BF21:BF26"/>
-    <mergeCell ref="BG21:BG26"/>
-    <mergeCell ref="BH21:BH26"/>
-    <mergeCell ref="BI21:BI26"/>
     <mergeCell ref="BR21:BR26"/>
     <mergeCell ref="BS21:BS26"/>
-    <mergeCell ref="BB21:BB28"/>
     <mergeCell ref="BT21:BT26"/>
     <mergeCell ref="BJ21:BJ26"/>
     <mergeCell ref="BK21:BK26"/>
-    <mergeCell ref="BL21:BL26"/>
-    <mergeCell ref="BM21:BM26"/>
-    <mergeCell ref="BN21:BN26"/>
-    <mergeCell ref="BP21:BP26"/>
-    <mergeCell ref="BD21:BD28"/>
-    <mergeCell ref="BC21:BC28"/>
-    <mergeCell ref="AG21:AG26"/>
-    <mergeCell ref="AH21:AH26"/>
-    <mergeCell ref="AI21:AI26"/>
-    <mergeCell ref="AJ21:AJ26"/>
-    <mergeCell ref="AL21:AL26"/>
-    <mergeCell ref="AX21:AX26"/>
-    <mergeCell ref="AR21:AR26"/>
-    <mergeCell ref="BJ45:BJ48"/>
-    <mergeCell ref="BQ21:BQ26"/>
-    <mergeCell ref="AU21:AU26"/>
-    <mergeCell ref="AV21:AV26"/>
-    <mergeCell ref="AT21:AT26"/>
-    <mergeCell ref="AY21:AY28"/>
-    <mergeCell ref="BA21:BA28"/>
-    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="BP29:BQ35"/>
     <mergeCell ref="BY21:BY26"/>
     <mergeCell ref="U21:U26"/>
     <mergeCell ref="V21:V26"/>
@@ -7063,7 +7034,41 @@
     <mergeCell ref="AM21:AM26"/>
     <mergeCell ref="AN21:AN26"/>
     <mergeCell ref="AP21:AP26"/>
+    <mergeCell ref="BE21:BE26"/>
+    <mergeCell ref="BF21:BF26"/>
+    <mergeCell ref="BG21:BG26"/>
+    <mergeCell ref="BH21:BH26"/>
+    <mergeCell ref="BI21:BI26"/>
+    <mergeCell ref="BB21:BB28"/>
+    <mergeCell ref="BD21:BD28"/>
+    <mergeCell ref="BC21:BC28"/>
+    <mergeCell ref="AG21:AG26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="BJ45:BJ48"/>
+    <mergeCell ref="BQ21:BQ26"/>
+    <mergeCell ref="AU21:AU26"/>
+    <mergeCell ref="AV21:AV26"/>
+    <mergeCell ref="AT21:AT26"/>
+    <mergeCell ref="AY21:AY28"/>
+    <mergeCell ref="BA21:BA28"/>
+    <mergeCell ref="E21:E26"/>
     <mergeCell ref="S21:S26"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="J28:J36"/>
+    <mergeCell ref="F21:F32"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="H21:H32"/>
+    <mergeCell ref="I21:I32"/>
+    <mergeCell ref="AH21:AH26"/>
+    <mergeCell ref="AI21:AI26"/>
+    <mergeCell ref="AJ21:AJ26"/>
+    <mergeCell ref="AL21:AL26"/>
+    <mergeCell ref="AX21:AX26"/>
+    <mergeCell ref="AR21:AR26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="L21:L26"/>
     <mergeCell ref="AE28:AE37"/>
     <mergeCell ref="AB21:AB26"/>
     <mergeCell ref="AC21:AC26"/>
@@ -7071,19 +7076,6 @@
     <mergeCell ref="AE21:AE26"/>
     <mergeCell ref="AQ21:AQ26"/>
     <mergeCell ref="AF21:AF26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="BE18:BE20"/>
-    <mergeCell ref="AY18:BD20"/>
-    <mergeCell ref="BF18:BF20"/>
-    <mergeCell ref="BG18:BG20"/>
-    <mergeCell ref="BH18:BH20"/>
-    <mergeCell ref="BI18:BJ20"/>
-    <mergeCell ref="BK18:BK20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="L21:L26"/>
     <mergeCell ref="BO18:CA20"/>
     <mergeCell ref="A18:AX20"/>
     <mergeCell ref="AE39:AE44"/>
@@ -7100,6 +7092,14 @@
     <mergeCell ref="K21:K26"/>
     <mergeCell ref="J21:J26"/>
     <mergeCell ref="D21:D26"/>
+    <mergeCell ref="BE18:BE20"/>
+    <mergeCell ref="AY18:BD20"/>
+    <mergeCell ref="BF18:BF20"/>
+    <mergeCell ref="BG18:BG20"/>
+    <mergeCell ref="BH18:BH20"/>
+    <mergeCell ref="BI18:BJ20"/>
+    <mergeCell ref="BK18:BK20"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7117,11 +7117,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="19" t="s">
         <v>80</v>
       </c>
       <c r="F3" t="str">
@@ -7129,7 +7129,7 @@
         <v>NR_REFERENCIA_FISCAL,</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE("'",J3,"',")</f>
@@ -7137,7 +7137,7 @@
       </c>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F4" t="str">
@@ -7145,7 +7145,7 @@
         <v>CD_SITUACAO_NF,</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K12" si="1">CONCATENATE("'",J4,"',")</f>
@@ -7153,7 +7153,7 @@
       </c>
     </row>
     <row r="5" spans="3:11">
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="str">
@@ -7169,7 +7169,7 @@
       </c>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="19" t="s">
         <v>213</v>
       </c>
       <c r="F6" t="str">
@@ -7177,7 +7177,7 @@
         <v>NR_REFERENCIA_FISCAL_FATURA,</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -7185,7 +7185,7 @@
       </c>
     </row>
     <row r="7" spans="3:11">
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="19" t="s">
         <v>214</v>
       </c>
       <c r="F7" t="str">
@@ -7193,7 +7193,7 @@
         <v>NR_ITEM_NF_FATURA,</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -7201,7 +7201,7 @@
       </c>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="str">
@@ -7209,7 +7209,7 @@
         <v>NR_NF_FATURA,</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -7217,7 +7217,7 @@
       </c>
     </row>
     <row r="9" spans="3:11">
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="str">
@@ -7225,7 +7225,7 @@
         <v>NR_SERIE_NF_FATURA,</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -7233,7 +7233,7 @@
       </c>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="str">
@@ -7241,7 +7241,7 @@
         <v>NR_NF_REMESSA,</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -7249,7 +7249,7 @@
       </c>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F11" t="str">
@@ -7257,7 +7257,7 @@
         <v>NR_SERIE_NF_REMESSA,</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -7265,7 +7265,7 @@
       </c>
     </row>
     <row r="12" spans="3:11">
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="19" t="s">
         <v>37</v>
       </c>
       <c r="F12" t="str">
@@ -7273,7 +7273,7 @@
         <v>NR_ORDEM,</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
@@ -7281,7 +7281,7 @@
       </c>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F13" t="str">
@@ -7290,7 +7290,7 @@
       </c>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="19" t="s">
         <v>208</v>
       </c>
       <c r="F14" t="str">
@@ -7299,7 +7299,7 @@
       </c>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="F15" t="str">
@@ -7308,7 +7308,7 @@
       </c>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="19" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="str">
@@ -7317,7 +7317,7 @@
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F17" t="str">
@@ -7326,7 +7326,7 @@
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F18" t="str">
@@ -7335,7 +7335,7 @@
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F19" t="str">
@@ -7344,7 +7344,7 @@
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="F20" t="str">
@@ -7353,7 +7353,7 @@
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="19" t="s">
         <v>68</v>
       </c>
       <c r="F21" t="str">
@@ -7362,7 +7362,7 @@
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F22" t="str">
@@ -7371,7 +7371,7 @@
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="19" t="s">
         <v>72</v>
       </c>
       <c r="F23" t="str">
@@ -7380,7 +7380,7 @@
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="19" t="s">
         <v>81</v>
       </c>
       <c r="F24" t="str">
@@ -7389,7 +7389,7 @@
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="str">
@@ -7398,7 +7398,7 @@
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="str">
@@ -7407,7 +7407,7 @@
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F27" t="str">
@@ -7416,7 +7416,7 @@
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="str">
@@ -7425,7 +7425,7 @@
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F29" t="str">
@@ -7434,7 +7434,7 @@
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="19" t="s">
         <v>63</v>
       </c>
       <c r="F30" t="str">
@@ -7443,7 +7443,7 @@
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="19" t="s">
         <v>64</v>
       </c>
       <c r="F31" t="str">
@@ -7452,7 +7452,7 @@
       </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="str">
@@ -7461,7 +7461,7 @@
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="str">
@@ -7470,7 +7470,7 @@
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="19" t="s">
         <v>66</v>
       </c>
       <c r="F34" t="str">
@@ -7479,7 +7479,7 @@
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="str">
@@ -7488,7 +7488,7 @@
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F36" t="str">
@@ -7497,7 +7497,7 @@
       </c>
     </row>
     <row r="37" spans="3:6">
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F37" t="str">
@@ -7506,7 +7506,7 @@
       </c>
     </row>
     <row r="38" spans="3:6">
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F38" t="str">
@@ -7515,7 +7515,7 @@
       </c>
     </row>
     <row r="39" spans="3:6">
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="19" t="s">
         <v>48</v>
       </c>
       <c r="F39" t="str">
@@ -7524,7 +7524,7 @@
       </c>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="str">
@@ -7533,7 +7533,7 @@
       </c>
     </row>
     <row r="41" spans="3:6">
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F41" t="str">
@@ -7542,7 +7542,7 @@
       </c>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="74" t="s">
+      <c r="C42" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F42" t="str">
@@ -7551,7 +7551,7 @@
       </c>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F43" t="str">
@@ -7560,7 +7560,7 @@
       </c>
     </row>
     <row r="44" spans="3:6">
-      <c r="C44" s="74" t="s">
+      <c r="C44" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F44" t="str">
@@ -7569,7 +7569,7 @@
       </c>
     </row>
     <row r="45" spans="3:6">
-      <c r="C45" s="74" t="s">
+      <c r="C45" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F45" t="str">
@@ -7578,7 +7578,7 @@
       </c>
     </row>
     <row r="46" spans="3:6">
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F46" t="str">
@@ -7587,7 +7587,7 @@
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="19" t="s">
         <v>51</v>
       </c>
       <c r="F47" t="str">
@@ -7596,7 +7596,7 @@
       </c>
     </row>
     <row r="48" spans="3:6">
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F48" t="str">
@@ -7605,7 +7605,7 @@
       </c>
     </row>
     <row r="49" spans="3:6">
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F49" t="str">
@@ -7614,7 +7614,7 @@
       </c>
     </row>
     <row r="50" spans="3:6">
-      <c r="C50" s="74" t="s">
+      <c r="C50" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F50" t="str">
@@ -7623,7 +7623,7 @@
       </c>
     </row>
     <row r="51" spans="3:6">
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F51" t="str">
@@ -7632,7 +7632,7 @@
       </c>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="19" t="s">
         <v>67</v>
       </c>
       <c r="F52" t="str">
@@ -7641,7 +7641,7 @@
       </c>
     </row>
     <row r="53" spans="3:6">
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F53" t="str">
@@ -7650,7 +7650,7 @@
       </c>
     </row>
     <row r="54" spans="3:6">
-      <c r="C54" s="74" t="s">
+      <c r="C54" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F54" t="str">
@@ -7659,7 +7659,7 @@
       </c>
     </row>
     <row r="55" spans="3:6">
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="19" t="s">
         <v>77</v>
       </c>
       <c r="F55" t="str">
@@ -7668,7 +7668,7 @@
       </c>
     </row>
     <row r="56" spans="3:6">
-      <c r="C56" s="74" t="s">
+      <c r="C56" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F56" t="str">
@@ -7677,7 +7677,7 @@
       </c>
     </row>
     <row r="57" spans="3:6">
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="19" t="s">
         <v>60</v>
       </c>
       <c r="F57" t="str">
@@ -7686,7 +7686,7 @@
       </c>
     </row>
     <row r="58" spans="3:6">
-      <c r="C58" s="74" t="s">
+      <c r="C58" s="19" t="s">
         <v>61</v>
       </c>
       <c r="F58" t="str">
@@ -7695,7 +7695,7 @@
       </c>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F59" t="str">
@@ -7704,7 +7704,7 @@
       </c>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="74" t="s">
+      <c r="C60" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F60" t="str">
@@ -7713,7 +7713,7 @@
       </c>
     </row>
     <row r="61" spans="3:6">
-      <c r="C61" s="74" t="s">
+      <c r="C61" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F61" t="str">
@@ -7722,7 +7722,7 @@
       </c>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="74" t="s">
+      <c r="C62" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F62" t="str">
@@ -7731,7 +7731,7 @@
       </c>
     </row>
     <row r="63" spans="3:6">
-      <c r="C63" s="74" t="s">
+      <c r="C63" s="19" t="s">
         <v>70</v>
       </c>
       <c r="F63" t="str">
@@ -7740,7 +7740,7 @@
       </c>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="74" t="s">
+      <c r="C64" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F64" t="str">
@@ -7749,7 +7749,7 @@
       </c>
     </row>
     <row r="65" spans="3:6">
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="19" t="s">
         <v>74</v>
       </c>
       <c r="F65" t="str">
@@ -7758,7 +7758,7 @@
       </c>
     </row>
     <row r="66" spans="3:6">
-      <c r="C66" s="74" t="s">
+      <c r="C66" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F66" t="str">
@@ -7767,7 +7767,7 @@
       </c>
     </row>
     <row r="67" spans="3:6">
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="19" t="s">
         <v>35</v>
       </c>
       <c r="F67" t="str">
@@ -7776,7 +7776,7 @@
       </c>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="74" t="s">
+      <c r="C68" s="19" t="s">
         <v>36</v>
       </c>
       <c r="F68" t="str">
@@ -7785,7 +7785,7 @@
       </c>
     </row>
     <row r="69" spans="3:6">
-      <c r="C69" s="74" t="s">
+      <c r="C69" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F69" t="str">
@@ -7794,7 +7794,7 @@
       </c>
     </row>
     <row r="70" spans="3:6">
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F70" t="str">
@@ -7803,7 +7803,7 @@
       </c>
     </row>
     <row r="71" spans="3:6">
-      <c r="C71" s="74" t="s">
+      <c r="C71" s="19" t="s">
         <v>59</v>
       </c>
       <c r="F71" t="str">
@@ -7812,7 +7812,7 @@
       </c>
     </row>
     <row r="72" spans="3:6">
-      <c r="C72" s="74" t="s">
+      <c r="C72" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F72" t="str">
@@ -7821,7 +7821,7 @@
       </c>
     </row>
     <row r="73" spans="3:6">
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F73" t="str">
@@ -7830,7 +7830,7 @@
       </c>
     </row>
     <row r="74" spans="3:6">
-      <c r="C74" s="74" t="s">
+      <c r="C74" s="19" t="s">
         <v>75</v>
       </c>
       <c r="F74" t="str">
@@ -7839,7 +7839,7 @@
       </c>
     </row>
     <row r="75" spans="3:6">
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F75" t="str">
@@ -7848,7 +7848,7 @@
       </c>
     </row>
     <row r="76" spans="3:6">
-      <c r="C76" s="74" t="s">
+      <c r="C76" s="19" t="s">
         <v>84</v>
       </c>
       <c r="F76" t="str">
@@ -7857,7 +7857,7 @@
       </c>
     </row>
     <row r="77" spans="3:6">
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F77" t="str">
@@ -7866,7 +7866,7 @@
       </c>
     </row>
     <row r="78" spans="3:6">
-      <c r="C78" s="74" t="s">
+      <c r="C78" s="19" t="s">
         <v>73</v>
       </c>
       <c r="F78" t="str">
@@ -7875,7 +7875,7 @@
       </c>
     </row>
     <row r="79" spans="3:6">
-      <c r="C79" s="74" t="s">
+      <c r="C79" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F79" t="str">
@@ -7884,7 +7884,7 @@
       </c>
     </row>
     <row r="80" spans="3:6">
-      <c r="C80" s="74" t="s">
+      <c r="C80" s="19" t="s">
         <v>82</v>
       </c>
       <c r="F80" t="str">
@@ -7893,7 +7893,7 @@
       </c>
     </row>
     <row r="81" spans="3:6">
-      <c r="C81" s="74" t="s">
+      <c r="C81" s="19" t="s">
         <v>83</v>
       </c>
       <c r="F81" t="str">
@@ -7902,7 +7902,7 @@
       </c>
     </row>
     <row r="82" spans="3:6">
-      <c r="C82" s="74" t="s">
+      <c r="C82" s="19" t="s">
         <v>38</v>
       </c>
       <c r="F82" t="str">
@@ -7911,7 +7911,7 @@
       </c>
     </row>
     <row r="83" spans="3:6">
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="19" t="s">
         <v>39</v>
       </c>
       <c r="F83" t="str">
@@ -7920,7 +7920,7 @@
       </c>
     </row>
     <row r="84" spans="3:6">
-      <c r="C84" s="74" t="s">
+      <c r="C84" s="19" t="s">
         <v>62</v>
       </c>
       <c r="F84" t="str">

--- a/Documentação/Planilhas/Conferencia_FAT.xlsx
+++ b/Documentação/Planilhas/Conferencia_FAT.xlsx
@@ -654,9 +654,6 @@
     <t>Sessão cislil504m00l (Nota Fiscal)</t>
   </si>
   <si>
-    <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba superior "Geral", seção "Datas", pegar a informação da coluna "Data da Geração"</t>
-  </si>
-  <si>
     <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba inferior Linhas - Nota Fiscal, pegar a informação da coluna "Quantidade" do item desejado</t>
   </si>
   <si>
@@ -1448,6 +1445,9 @@
   </si>
   <si>
     <t>Pegar a informação da coluna "Tipo Doc. Fiscal" . Se for "Fatura Op. Triangular", pedir o detalhamento da Referência Fiscal e na aba inferior "Linhas Nota Fiscal", pegar a informação da coluna "Linha" da Referência Fiscal Relativa, referente ao item vendido</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba superior "Geral", seção "Datas", pegar a informação da coluna "Data da Emissão"</t>
   </si>
 </sst>
 </file>
@@ -1811,6 +1811,114 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1841,24 +1949,6 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1870,96 +1960,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2420,16 +2420,16 @@
         <v>198</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>26</v>
@@ -2440,16 +2440,16 @@
         <v>198</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>26</v>
@@ -2460,16 +2460,16 @@
         <v>198</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>26</v>
@@ -2480,16 +2480,16 @@
         <v>198</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>26</v>
@@ -2500,16 +2500,16 @@
         <v>199</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>26</v>
@@ -2520,16 +2520,16 @@
         <v>199</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>266</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>26</v>
@@ -2540,16 +2540,16 @@
         <v>199</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>26</v>
@@ -2560,16 +2560,16 @@
         <v>199</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>0</v>
@@ -2577,19 +2577,19 @@
     </row>
     <row r="15" spans="1:62">
       <c r="A15" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>26</v>
@@ -2597,19 +2597,19 @@
     </row>
     <row r="16" spans="1:62">
       <c r="A16" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>26</v>
@@ -2617,19 +2617,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -2729,8 +2729,8 @@
   </sheetPr>
   <dimension ref="A1:CD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BF6" sqref="BF6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2857,10 +2857,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>18</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="7" spans="1:82" s="9" customFormat="1">
       <c r="A7" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>322</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>323</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>0</v>
@@ -3123,46 +3123,46 @@
         <v>86</v>
       </c>
       <c r="J7" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="P7" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="Q7" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="R7" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="R7" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="S7" s="13" t="s">
+      <c r="T7" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="T7" s="13" t="s">
-        <v>333</v>
-      </c>
       <c r="U7" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>25</v>
@@ -3177,10 +3177,10 @@
         <v>88</v>
       </c>
       <c r="AB7" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC7" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>330</v>
       </c>
       <c r="AD7" s="13" t="s">
         <v>88</v>
@@ -3249,31 +3249,31 @@
         <v>93</v>
       </c>
       <c r="AZ7" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BA7" s="13" t="s">
         <v>93</v>
       </c>
       <c r="BB7" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC7" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="BC7" s="13" t="s">
+      <c r="BD7" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="BE7" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="BD7" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="BE7" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="BF7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="BG7" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="BH7" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="BH7" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="BI7" s="13" t="s">
         <v>92</v>
@@ -3285,13 +3285,13 @@
         <v>0</v>
       </c>
       <c r="BL7" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BM7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="BN7" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BO7" s="13" t="s">
         <v>0</v>
@@ -3300,25 +3300,25 @@
         <v>87</v>
       </c>
       <c r="BQ7" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="BR7" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="BR7" s="13" t="s">
+      <c r="BS7" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="BS7" s="13" t="s">
-        <v>344</v>
       </c>
       <c r="BT7" s="13" t="s">
         <v>85</v>
       </c>
       <c r="BU7" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="BV7" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="BW7" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="BV7" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="BW7" s="13" t="s">
-        <v>346</v>
       </c>
       <c r="BX7" s="13" t="s">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>88</v>
       </c>
       <c r="CB7" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="CC7" s="13" t="s">
         <v>0</v>
@@ -3344,22 +3344,22 @@
     </row>
     <row r="8" spans="1:82" s="9" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>0</v>
@@ -3371,46 +3371,46 @@
         <v>86</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="N8" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>354</v>
-      </c>
       <c r="U8" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X8" s="8" t="s">
         <v>25</v>
@@ -3425,10 +3425,10 @@
         <v>88</v>
       </c>
       <c r="AB8" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC8" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="AD8" s="8" t="s">
         <v>88</v>
@@ -3497,31 +3497,31 @@
         <v>93</v>
       </c>
       <c r="AZ8" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BA8" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB8" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC8" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="BC8" s="8" t="s">
+      <c r="BD8" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="BE8" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="BD8" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="BE8" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="BF8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG8" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BH8" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="BH8" s="8" t="s">
-        <v>357</v>
       </c>
       <c r="BI8" s="8" t="s">
         <v>25</v>
@@ -3533,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="BL8" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BM8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN8" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BO8" s="8" t="s">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>87</v>
       </c>
       <c r="BQ8" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BR8" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BS8" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BT8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU8" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="BV8" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BW8" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="BV8" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="BW8" s="8" t="s">
-        <v>362</v>
       </c>
       <c r="BX8" s="8" t="s">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>88</v>
       </c>
       <c r="CB8" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="CC8" s="8" t="s">
         <v>0</v>
@@ -3592,19 +3592,19 @@
     </row>
     <row r="9" spans="1:82" s="9" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>85</v>
@@ -3613,22 +3613,22 @@
         <v>86</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>328</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>365</v>
-      </c>
       <c r="M9" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>0</v>
@@ -3640,10 +3640,10 @@
         <v>158</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>86</v>
@@ -3658,16 +3658,16 @@
         <v>91</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y9" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z9" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>368</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>88</v>
@@ -3685,43 +3685,43 @@
         <v>88</v>
       </c>
       <c r="AF9" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG9" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="AG9" s="8" t="s">
-        <v>370</v>
       </c>
       <c r="AH9" s="8" t="s">
         <v>85</v>
       </c>
       <c r="AI9" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="AJ9" s="8" t="s">
+      <c r="AK9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL9" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="AK9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL9" s="8" t="s">
+      <c r="AM9" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="AM9" s="8" t="s">
+      <c r="AN9" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="AN9" s="8" t="s">
+      <c r="AO9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP9" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="AO9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP9" s="8" t="s">
+      <c r="AQ9" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="AQ9" s="8" t="s">
+      <c r="AR9" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="AR9" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="AS9" s="8" t="s">
         <v>88</v>
@@ -3742,34 +3742,34 @@
         <v>85</v>
       </c>
       <c r="AY9" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ9" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="AZ9" s="8" t="s">
+      <c r="BA9" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="BB9" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="BC9" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="BA9" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="BB9" s="8" t="s">
+      <c r="BD9" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="BC9" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="BD9" s="8" t="s">
-        <v>381</v>
-      </c>
       <c r="BE9" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BF9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG9" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BH9" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BI9" s="8" t="s">
         <v>92</v>
@@ -3781,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="BL9" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BM9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN9" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BO9" s="8" t="s">
         <v>0</v>
@@ -3796,25 +3796,25 @@
         <v>87</v>
       </c>
       <c r="BQ9" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="BR9" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="BR9" s="8" t="s">
+      <c r="BS9" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="BS9" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="BT9" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU9" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="BV9" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="BW9" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="BV9" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="BW9" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="BX9" s="8" t="s">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>88</v>
       </c>
       <c r="CB9" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="CC9" s="8" t="s">
         <v>0</v>
@@ -3840,22 +3840,22 @@
     </row>
     <row r="10" spans="1:82" s="9" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>0</v>
@@ -3867,46 +3867,46 @@
         <v>86</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>389</v>
-      </c>
       <c r="N10" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="P10" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="Q10" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="R10" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="S10" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="R10" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="S10" s="8" t="s">
+      <c r="T10" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="T10" s="8" t="s">
-        <v>333</v>
-      </c>
       <c r="U10" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X10" s="8" t="s">
         <v>25</v>
@@ -3921,10 +3921,10 @@
         <v>88</v>
       </c>
       <c r="AB10" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC10" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="AC10" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="AD10" s="8" t="s">
         <v>88</v>
@@ -3993,31 +3993,31 @@
         <v>93</v>
       </c>
       <c r="AZ10" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BA10" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB10" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC10" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="BC10" s="8" t="s">
+      <c r="BD10" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="BE10" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="BD10" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="BE10" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="BF10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG10" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BH10" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BI10" s="8" t="s">
         <v>92</v>
@@ -4029,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="BL10" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BM10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN10" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BO10" s="8" t="s">
         <v>0</v>
@@ -4044,25 +4044,25 @@
         <v>87</v>
       </c>
       <c r="BQ10" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="BR10" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="BR10" s="8" t="s">
+      <c r="BS10" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="BS10" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="BT10" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU10" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="BV10" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="BW10" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="BV10" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="BW10" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="BX10" s="8" t="s">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>88</v>
       </c>
       <c r="CB10" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="CC10" s="8" t="s">
         <v>0</v>
@@ -4088,19 +4088,19 @@
     </row>
     <row r="11" spans="1:82" s="9" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>85</v>
@@ -4109,22 +4109,22 @@
         <v>86</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K11" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>393</v>
-      </c>
       <c r="M11" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>0</v>
@@ -4136,10 +4136,10 @@
         <v>158</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>86</v>
@@ -4154,16 +4154,16 @@
         <v>91</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y11" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z11" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>368</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>88</v>
@@ -4181,43 +4181,43 @@
         <v>88</v>
       </c>
       <c r="AF11" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG11" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="AG11" s="8" t="s">
-        <v>370</v>
       </c>
       <c r="AH11" s="8" t="s">
         <v>85</v>
       </c>
       <c r="AI11" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="AJ11" s="8" t="s">
+      <c r="AK11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL11" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="AK11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL11" s="8" t="s">
+      <c r="AM11" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="AM11" s="8" t="s">
+      <c r="AN11" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="AN11" s="8" t="s">
+      <c r="AO11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP11" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="AO11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP11" s="8" t="s">
+      <c r="AQ11" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="AQ11" s="8" t="s">
+      <c r="AR11" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="AR11" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="AS11" s="8" t="s">
         <v>88</v>
@@ -4238,34 +4238,34 @@
         <v>85</v>
       </c>
       <c r="AY11" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ11" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="AZ11" s="8" t="s">
+      <c r="BA11" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="BB11" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="BC11" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="BA11" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="BB11" s="8" t="s">
+      <c r="BD11" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="BC11" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="BD11" s="8" t="s">
-        <v>381</v>
-      </c>
       <c r="BE11" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BF11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG11" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BH11" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BI11" s="8" t="s">
         <v>92</v>
@@ -4277,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="BL11" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BM11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN11" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BO11" s="8" t="s">
         <v>0</v>
@@ -4292,25 +4292,25 @@
         <v>87</v>
       </c>
       <c r="BQ11" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="BR11" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="BR11" s="8" t="s">
+      <c r="BS11" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="BS11" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="BT11" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU11" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="BV11" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="BW11" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="BV11" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="BW11" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="BX11" s="8" t="s">
         <v>0</v>
@@ -4325,7 +4325,7 @@
         <v>88</v>
       </c>
       <c r="CB11" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="CC11" s="8" t="s">
         <v>0</v>
@@ -4336,19 +4336,19 @@
     </row>
     <row r="12" spans="1:82" s="9" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>85</v>
@@ -4363,46 +4363,46 @@
         <v>86</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>400</v>
-      </c>
       <c r="N12" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="P12" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="Q12" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="R12" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="R12" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="S12" s="8" t="s">
+      <c r="T12" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="T12" s="8" t="s">
-        <v>333</v>
-      </c>
       <c r="U12" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X12" s="8" t="s">
         <v>25</v>
@@ -4417,10 +4417,10 @@
         <v>88</v>
       </c>
       <c r="AB12" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC12" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="AC12" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="AD12" s="8" t="s">
         <v>88</v>
@@ -4489,31 +4489,31 @@
         <v>93</v>
       </c>
       <c r="AZ12" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BA12" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB12" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC12" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="BC12" s="8" t="s">
+      <c r="BD12" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="BE12" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="BD12" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="BE12" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="BF12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG12" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BH12" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BI12" s="8" t="s">
         <v>92</v>
@@ -4525,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="BL12" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BM12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN12" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BO12" s="8" t="s">
         <v>0</v>
@@ -4540,25 +4540,25 @@
         <v>87</v>
       </c>
       <c r="BQ12" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BR12" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BS12" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BT12" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU12" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BV12" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BW12" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BX12" s="8" t="s">
         <v>0</v>
@@ -4584,22 +4584,22 @@
     </row>
     <row r="13" spans="1:82" s="9" customFormat="1">
       <c r="A13" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>408</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -4611,46 +4611,46 @@
         <v>86</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="N13" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>413</v>
-      </c>
       <c r="R13" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X13" s="8" t="s">
         <v>25</v>
@@ -4665,10 +4665,10 @@
         <v>88</v>
       </c>
       <c r="AB13" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC13" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="AD13" s="8" t="s">
         <v>88</v>
@@ -4737,31 +4737,31 @@
         <v>93</v>
       </c>
       <c r="AZ13" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BA13" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB13" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC13" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="BC13" s="8" t="s">
+      <c r="BD13" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="BE13" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="BD13" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="BE13" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="BF13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG13" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BH13" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BI13" s="8" t="s">
         <v>92</v>
@@ -4773,13 +4773,13 @@
         <v>0</v>
       </c>
       <c r="BL13" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BM13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN13" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BO13" s="8" t="s">
         <v>0</v>
@@ -4788,25 +4788,25 @@
         <v>91</v>
       </c>
       <c r="BQ13" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BR13" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="BS13" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BT13" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU13" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BV13" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BW13" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BX13" s="8" t="s">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>88</v>
       </c>
       <c r="CB13" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="CC13" s="8" t="s">
         <v>0</v>
@@ -4832,22 +4832,22 @@
     </row>
     <row r="14" spans="1:82" s="9" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>421</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -4859,34 +4859,34 @@
         <v>86</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="N14" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="O14" s="8" t="s">
+      <c r="P14" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="Q14" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="Q14" s="8" t="s">
-        <v>428</v>
-      </c>
       <c r="R14" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T14" s="8" t="s">
         <v>25</v>
@@ -4898,7 +4898,7 @@
         <v>91</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="X14" s="8" t="s">
         <v>25</v>
@@ -4913,10 +4913,10 @@
         <v>88</v>
       </c>
       <c r="AB14" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC14" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="AC14" s="8" t="s">
-        <v>427</v>
       </c>
       <c r="AD14" s="8" t="s">
         <v>88</v>
@@ -4985,13 +4985,13 @@
         <v>93</v>
       </c>
       <c r="AZ14" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BA14" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB14" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BC14" s="8" t="s">
         <v>90</v>
@@ -5000,16 +5000,16 @@
         <v>90</v>
       </c>
       <c r="BE14" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BF14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG14" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="BH14" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="BH14" s="8" t="s">
-        <v>432</v>
       </c>
       <c r="BI14" s="8" t="s">
         <v>92</v>
@@ -5021,13 +5021,13 @@
         <v>0</v>
       </c>
       <c r="BL14" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BM14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN14" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BO14" s="8" t="s">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>89</v>
       </c>
       <c r="BR14" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BS14" s="8" t="s">
         <v>85</v>
@@ -5048,13 +5048,13 @@
         <v>85</v>
       </c>
       <c r="BU14" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="BV14" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="BW14" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="BV14" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="BW14" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="BX14" s="8" t="s">
         <v>0</v>
@@ -5080,19 +5080,19 @@
     </row>
     <row r="15" spans="1:82" s="9" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>85</v>
@@ -5101,22 +5101,22 @@
         <v>86</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K15" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>439</v>
-      </c>
       <c r="M15" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>158</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>86</v>
@@ -5146,16 +5146,16 @@
         <v>91</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="X15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y15" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z15" s="8" t="s">
         <v>441</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>442</v>
       </c>
       <c r="AA15" s="8" t="s">
         <v>88</v>
@@ -5191,28 +5191,28 @@
         <v>88</v>
       </c>
       <c r="AL15" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM15" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="AM15" s="8" t="s">
+      <c r="AN15" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="AN15" s="8" t="s">
+      <c r="AO15" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="AO15" s="8" t="s">
+      <c r="AP15" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="AP15" s="8" t="s">
+      <c r="AQ15" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="AQ15" s="8" t="s">
+      <c r="AR15" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="AR15" s="8" t="s">
+      <c r="AS15" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="AS15" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="AT15" s="8" t="s">
         <v>88</v>
@@ -5233,13 +5233,13 @@
         <v>93</v>
       </c>
       <c r="AZ15" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BA15" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB15" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BC15" s="8" t="s">
         <v>90</v>
@@ -5248,16 +5248,16 @@
         <v>90</v>
       </c>
       <c r="BE15" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BF15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG15" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BH15" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BI15" s="8" t="s">
         <v>92</v>
@@ -5269,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="BL15" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BM15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN15" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BO15" s="8" t="s">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>89</v>
       </c>
       <c r="BR15" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BS15" s="8" t="s">
         <v>85</v>
@@ -5296,13 +5296,13 @@
         <v>85</v>
       </c>
       <c r="BU15" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="BV15" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="BW15" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="BV15" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="BW15" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="BX15" s="8" t="s">
         <v>0</v>
@@ -5328,22 +5328,22 @@
     </row>
     <row r="16" spans="1:82" s="9" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -5355,46 +5355,46 @@
         <v>86</v>
       </c>
       <c r="J16" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="L16" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>458</v>
-      </c>
       <c r="N16" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="O16" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="P16" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="Q16" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="R16" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="S16" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="R16" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="S16" s="8" t="s">
+      <c r="T16" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="T16" s="8" t="s">
-        <v>333</v>
-      </c>
       <c r="U16" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X16" s="8" t="s">
         <v>25</v>
@@ -5409,10 +5409,10 @@
         <v>88</v>
       </c>
       <c r="AB16" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC16" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="AD16" s="8" t="s">
         <v>88</v>
@@ -5481,31 +5481,31 @@
         <v>93</v>
       </c>
       <c r="AZ16" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BA16" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB16" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC16" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="BC16" s="8" t="s">
+      <c r="BD16" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="BE16" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="BD16" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="BE16" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="BF16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG16" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BH16" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BI16" s="8" t="s">
         <v>92</v>
@@ -5517,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="BL16" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BM16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN16" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BO16" s="8" t="s">
         <v>0</v>
@@ -5532,25 +5532,25 @@
         <v>87</v>
       </c>
       <c r="BQ16" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BR16" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BS16" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BT16" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU16" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BV16" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BW16" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BX16" s="8" t="s">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>88</v>
       </c>
       <c r="CB16" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="CC16" s="8" t="s">
         <v>0</v>
@@ -5575,275 +5575,275 @@
       </c>
     </row>
     <row r="18" spans="1:82" ht="15" customHeight="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="34"/>
-      <c r="AX18" s="35"/>
-      <c r="AY18" s="33" t="s">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="70"/>
+      <c r="AL18" s="70"/>
+      <c r="AM18" s="70"/>
+      <c r="AN18" s="70"/>
+      <c r="AO18" s="70"/>
+      <c r="AP18" s="70"/>
+      <c r="AQ18" s="70"/>
+      <c r="AR18" s="70"/>
+      <c r="AS18" s="70"/>
+      <c r="AT18" s="70"/>
+      <c r="AU18" s="70"/>
+      <c r="AV18" s="70"/>
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="71"/>
+      <c r="AY18" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="AZ18" s="70"/>
+      <c r="BA18" s="70"/>
+      <c r="BB18" s="70"/>
+      <c r="BC18" s="70"/>
+      <c r="BD18" s="71"/>
+      <c r="BE18" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="BF18" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG18" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="AZ18" s="34"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="34"/>
-      <c r="BC18" s="34"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="BF18" s="48" t="s">
+      <c r="BH18" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="BI18" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="BG18" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="BH18" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="BI18" s="51" t="s">
+      <c r="BJ18" s="81"/>
+      <c r="BK18" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="BJ18" s="51"/>
-      <c r="BK18" s="48" t="s">
+      <c r="BL18" s="22" t="s">
         <v>244</v>
-      </c>
-      <c r="BL18" s="22" t="s">
-        <v>245</v>
       </c>
       <c r="BM18" s="23"/>
       <c r="BN18" s="24"/>
-      <c r="BO18" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="BP18" s="32"/>
-      <c r="BQ18" s="32"/>
-      <c r="BR18" s="32"/>
-      <c r="BS18" s="32"/>
-      <c r="BT18" s="32"/>
-      <c r="BU18" s="32"/>
-      <c r="BV18" s="32"/>
-      <c r="BW18" s="32"/>
-      <c r="BX18" s="32"/>
-      <c r="BY18" s="32"/>
-      <c r="BZ18" s="32"/>
-      <c r="CA18" s="32"/>
-      <c r="CB18" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="CC18" s="65"/>
+      <c r="BO18" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="BP18" s="68"/>
+      <c r="BQ18" s="68"/>
+      <c r="BR18" s="68"/>
+      <c r="BS18" s="68"/>
+      <c r="BT18" s="68"/>
+      <c r="BU18" s="68"/>
+      <c r="BV18" s="68"/>
+      <c r="BW18" s="68"/>
+      <c r="BX18" s="68"/>
+      <c r="BY18" s="68"/>
+      <c r="BZ18" s="68"/>
+      <c r="CA18" s="68"/>
+      <c r="CB18" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="CC18" s="39"/>
     </row>
     <row r="19" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="37"/>
-      <c r="AS19" s="37"/>
-      <c r="AT19" s="37"/>
-      <c r="AU19" s="37"/>
-      <c r="AV19" s="37"/>
-      <c r="AW19" s="37"/>
-      <c r="AX19" s="38"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="37"/>
-      <c r="BA19" s="37"/>
-      <c r="BB19" s="37"/>
-      <c r="BC19" s="37"/>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="49"/>
-      <c r="BF19" s="49"/>
-      <c r="BG19" s="49"/>
-      <c r="BH19" s="49"/>
-      <c r="BI19" s="51"/>
-      <c r="BJ19" s="51"/>
-      <c r="BK19" s="49"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="73"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="73"/>
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="73"/>
+      <c r="AR19" s="73"/>
+      <c r="AS19" s="73"/>
+      <c r="AT19" s="73"/>
+      <c r="AU19" s="73"/>
+      <c r="AV19" s="73"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="74"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="73"/>
+      <c r="BA19" s="73"/>
+      <c r="BB19" s="73"/>
+      <c r="BC19" s="73"/>
+      <c r="BD19" s="74"/>
+      <c r="BE19" s="79"/>
+      <c r="BF19" s="79"/>
+      <c r="BG19" s="79"/>
+      <c r="BH19" s="79"/>
+      <c r="BI19" s="81"/>
+      <c r="BJ19" s="81"/>
+      <c r="BK19" s="79"/>
       <c r="BL19" s="25"/>
       <c r="BM19" s="26"/>
       <c r="BN19" s="27"/>
-      <c r="BO19" s="32"/>
-      <c r="BP19" s="32"/>
-      <c r="BQ19" s="32"/>
-      <c r="BR19" s="32"/>
-      <c r="BS19" s="32"/>
-      <c r="BT19" s="32"/>
-      <c r="BU19" s="32"/>
-      <c r="BV19" s="32"/>
-      <c r="BW19" s="32"/>
-      <c r="BX19" s="32"/>
-      <c r="BY19" s="32"/>
-      <c r="BZ19" s="32"/>
-      <c r="CA19" s="32"/>
-      <c r="CB19" s="66"/>
-      <c r="CC19" s="67"/>
+      <c r="BO19" s="68"/>
+      <c r="BP19" s="68"/>
+      <c r="BQ19" s="68"/>
+      <c r="BR19" s="68"/>
+      <c r="BS19" s="68"/>
+      <c r="BT19" s="68"/>
+      <c r="BU19" s="68"/>
+      <c r="BV19" s="68"/>
+      <c r="BW19" s="68"/>
+      <c r="BX19" s="68"/>
+      <c r="BY19" s="68"/>
+      <c r="BZ19" s="68"/>
+      <c r="CA19" s="68"/>
+      <c r="CB19" s="40"/>
+      <c r="CC19" s="41"/>
     </row>
     <row r="20" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="40"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="40"/>
-      <c r="AU20" s="40"/>
-      <c r="AV20" s="40"/>
-      <c r="AW20" s="40"/>
-      <c r="AX20" s="41"/>
-      <c r="AY20" s="39"/>
-      <c r="AZ20" s="40"/>
-      <c r="BA20" s="40"/>
-      <c r="BB20" s="40"/>
-      <c r="BC20" s="40"/>
-      <c r="BD20" s="41"/>
-      <c r="BE20" s="50"/>
-      <c r="BF20" s="50"/>
-      <c r="BG20" s="50"/>
-      <c r="BH20" s="50"/>
-      <c r="BI20" s="51"/>
-      <c r="BJ20" s="51"/>
-      <c r="BK20" s="50"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="77"/>
+      <c r="AY20" s="75"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="76"/>
+      <c r="BB20" s="76"/>
+      <c r="BC20" s="76"/>
+      <c r="BD20" s="77"/>
+      <c r="BE20" s="80"/>
+      <c r="BF20" s="80"/>
+      <c r="BG20" s="80"/>
+      <c r="BH20" s="80"/>
+      <c r="BI20" s="81"/>
+      <c r="BJ20" s="81"/>
+      <c r="BK20" s="80"/>
       <c r="BL20" s="28"/>
       <c r="BM20" s="29"/>
       <c r="BN20" s="30"/>
-      <c r="BO20" s="32"/>
-      <c r="BP20" s="32"/>
-      <c r="BQ20" s="32"/>
-      <c r="BR20" s="32"/>
-      <c r="BS20" s="32"/>
-      <c r="BT20" s="32"/>
-      <c r="BU20" s="32"/>
-      <c r="BV20" s="32"/>
-      <c r="BW20" s="32"/>
-      <c r="BX20" s="32"/>
-      <c r="BY20" s="32"/>
-      <c r="BZ20" s="32"/>
-      <c r="CA20" s="32"/>
-      <c r="CB20" s="68"/>
-      <c r="CC20" s="69"/>
+      <c r="BO20" s="68"/>
+      <c r="BP20" s="68"/>
+      <c r="BQ20" s="68"/>
+      <c r="BR20" s="68"/>
+      <c r="BS20" s="68"/>
+      <c r="BT20" s="68"/>
+      <c r="BU20" s="68"/>
+      <c r="BV20" s="68"/>
+      <c r="BW20" s="68"/>
+      <c r="BX20" s="68"/>
+      <c r="BY20" s="68"/>
+      <c r="BZ20" s="68"/>
+      <c r="CA20" s="68"/>
+      <c r="CB20" s="42"/>
+      <c r="CC20" s="43"/>
     </row>
     <row r="21" spans="1:82" ht="11.25" customHeight="1">
       <c r="A21" s="31" t="s">
@@ -5856,30 +5856,30 @@
         <v>97</v>
       </c>
       <c r="D21" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="E21" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="F21" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="F21" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="H21" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="I21" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="35" t="s">
         <v>150</v>
       </c>
       <c r="M21" s="31" t="s">
@@ -5900,8 +5900,8 @@
       <c r="R21" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="S21" s="45" t="s">
-        <v>464</v>
+      <c r="S21" s="32" t="s">
+        <v>463</v>
       </c>
       <c r="T21" s="31" t="s">
         <v>183</v>
@@ -5912,125 +5912,125 @@
       <c r="V21" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="W21" s="42" t="s">
+      <c r="W21" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="X21" s="42" t="s">
+      <c r="X21" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y21" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z21" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="Y21" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z21" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA21" s="42" t="s">
+      <c r="AA21" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="AB21" s="45" t="s">
+      <c r="AB21" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="AC21" s="45" t="s">
+      <c r="AC21" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="AD21" s="45" t="s">
+      <c r="AD21" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="AE21" s="45" t="s">
+      <c r="AE21" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="AF21" s="45" t="s">
+      <c r="AF21" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AG21" s="42" t="s">
+      <c r="AG21" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="AH21" s="45" t="s">
+      <c r="AH21" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="AI21" s="45" t="s">
+      <c r="AI21" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ21" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="AJ21" s="52" t="s">
+      <c r="AK21" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL21" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM21" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AK21" s="55" t="s">
+      <c r="AN21" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO21" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="AL21" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM21" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN21" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="AO21" s="55" t="s">
+      <c r="AP21" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ21" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR21" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="AP21" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ21" s="45" t="s">
+      <c r="AS21" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT21" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU21" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV21" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="AR21" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS21" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="AT21" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU21" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV21" s="52" t="s">
+      <c r="AW21" s="44" t="s">
         <v>228</v>
-      </c>
-      <c r="AW21" s="55" t="s">
-        <v>229</v>
       </c>
       <c r="AX21" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="AY21" s="55" t="s">
+      <c r="AY21" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="AZ21" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="BA21" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="AZ21" s="57" t="s">
+      <c r="BB21" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="BA21" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="BB21" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC21" s="55" t="s">
+      <c r="BC21" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="BD21" s="55" t="s">
+      <c r="BD21" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="BE21" s="70" t="s">
+      <c r="BE21" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="BF21" s="45" t="s">
+      <c r="BF21" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="BG21" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="BH21" s="55" t="s">
+      <c r="BG21" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH21" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="BI21" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="BI21" s="55" t="s">
+      <c r="BJ21" s="44" t="s">
         <v>291</v>
-      </c>
-      <c r="BJ21" s="55" t="s">
-        <v>292</v>
       </c>
       <c r="BK21" s="31" t="s">
         <v>186</v>
@@ -6044,53 +6044,53 @@
       <c r="BN21" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="BO21" s="45" t="s">
+      <c r="BO21" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="BP21" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="BQ21" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR21" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="BP21" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="BQ21" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="BR21" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="BS21" s="45" t="s">
+      <c r="BS21" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="BT21" s="45" t="s">
+      <c r="BT21" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="BU21" s="45" t="s">
+      <c r="BU21" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="BV21" s="45" t="s">
+      <c r="BV21" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="BW21" s="45" t="s">
+      <c r="BW21" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="BX21" s="45" t="s">
+      <c r="BX21" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="BY21" s="45" t="s">
+      <c r="BY21" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="BZ21" s="45" t="s">
+      <c r="BZ21" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="CA21" s="45" t="s">
+      <c r="CA21" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="CB21" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="CC21" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="CD21" s="45" t="s">
-        <v>318</v>
+      <c r="CB21" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="CC21" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="CD21" s="32" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:82">
@@ -6098,436 +6098,436 @@
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="31"/>
       <c r="R22" s="31"/>
-      <c r="S22" s="46"/>
+      <c r="S22" s="33"/>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="43"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="46"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
       <c r="AJ22" s="53"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="46"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="33"/>
       <c r="AN22" s="53"/>
-      <c r="AO22" s="55"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="46"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="33"/>
       <c r="AR22" s="53"/>
-      <c r="AS22" s="55"/>
-      <c r="AT22" s="46"/>
-      <c r="AU22" s="46"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="33"/>
+      <c r="AU22" s="33"/>
       <c r="AV22" s="53"/>
-      <c r="AW22" s="55"/>
+      <c r="AW22" s="44"/>
       <c r="AX22" s="53"/>
-      <c r="AY22" s="55"/>
-      <c r="AZ22" s="57"/>
-      <c r="BA22" s="55"/>
-      <c r="BB22" s="55"/>
-      <c r="BC22" s="55"/>
-      <c r="BD22" s="55"/>
-      <c r="BE22" s="71"/>
-      <c r="BF22" s="46"/>
-      <c r="BG22" s="46"/>
-      <c r="BH22" s="55"/>
-      <c r="BI22" s="55"/>
-      <c r="BJ22" s="55"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="44"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="44"/>
+      <c r="BD22" s="44"/>
+      <c r="BE22" s="59"/>
+      <c r="BF22" s="33"/>
+      <c r="BG22" s="33"/>
+      <c r="BH22" s="44"/>
+      <c r="BI22" s="44"/>
+      <c r="BJ22" s="44"/>
       <c r="BK22" s="31"/>
       <c r="BL22" s="31"/>
       <c r="BM22" s="31"/>
       <c r="BN22" s="31"/>
-      <c r="BO22" s="46"/>
-      <c r="BP22" s="46"/>
-      <c r="BQ22" s="46"/>
-      <c r="BR22" s="46"/>
-      <c r="BS22" s="46"/>
-      <c r="BT22" s="46"/>
-      <c r="BU22" s="46"/>
-      <c r="BV22" s="46"/>
-      <c r="BW22" s="46"/>
-      <c r="BX22" s="46"/>
-      <c r="BY22" s="46"/>
-      <c r="BZ22" s="46"/>
-      <c r="CA22" s="46"/>
-      <c r="CB22" s="46"/>
-      <c r="CC22" s="46"/>
-      <c r="CD22" s="46"/>
+      <c r="BO22" s="33"/>
+      <c r="BP22" s="33"/>
+      <c r="BQ22" s="33"/>
+      <c r="BR22" s="33"/>
+      <c r="BS22" s="33"/>
+      <c r="BT22" s="33"/>
+      <c r="BU22" s="33"/>
+      <c r="BV22" s="33"/>
+      <c r="BW22" s="33"/>
+      <c r="BX22" s="33"/>
+      <c r="BY22" s="33"/>
+      <c r="BZ22" s="33"/>
+      <c r="CA22" s="33"/>
+      <c r="CB22" s="33"/>
+      <c r="CC22" s="33"/>
+      <c r="CD22" s="33"/>
     </row>
     <row r="23" spans="1:82">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
-      <c r="S23" s="46"/>
+      <c r="S23" s="33"/>
       <c r="T23" s="31"/>
       <c r="U23" s="31"/>
       <c r="V23" s="31"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
       <c r="AJ23" s="53"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="46"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="33"/>
       <c r="AN23" s="53"/>
-      <c r="AO23" s="55"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="46"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="33"/>
       <c r="AR23" s="53"/>
-      <c r="AS23" s="55"/>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="46"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="33"/>
+      <c r="AU23" s="33"/>
       <c r="AV23" s="53"/>
-      <c r="AW23" s="55"/>
+      <c r="AW23" s="44"/>
       <c r="AX23" s="53"/>
-      <c r="AY23" s="55"/>
-      <c r="AZ23" s="57"/>
-      <c r="BA23" s="55"/>
-      <c r="BB23" s="55"/>
-      <c r="BC23" s="55"/>
-      <c r="BD23" s="55"/>
-      <c r="BE23" s="71"/>
-      <c r="BF23" s="46"/>
-      <c r="BG23" s="46"/>
-      <c r="BH23" s="55"/>
-      <c r="BI23" s="55"/>
-      <c r="BJ23" s="55"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="44"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="44"/>
+      <c r="BD23" s="44"/>
+      <c r="BE23" s="59"/>
+      <c r="BF23" s="33"/>
+      <c r="BG23" s="33"/>
+      <c r="BH23" s="44"/>
+      <c r="BI23" s="44"/>
+      <c r="BJ23" s="44"/>
       <c r="BK23" s="31"/>
       <c r="BL23" s="31"/>
       <c r="BM23" s="31"/>
       <c r="BN23" s="31"/>
-      <c r="BO23" s="46"/>
-      <c r="BP23" s="46"/>
-      <c r="BQ23" s="46"/>
-      <c r="BR23" s="46"/>
-      <c r="BS23" s="46"/>
-      <c r="BT23" s="46"/>
-      <c r="BU23" s="46"/>
-      <c r="BV23" s="46"/>
-      <c r="BW23" s="46"/>
-      <c r="BX23" s="46"/>
-      <c r="BY23" s="46"/>
-      <c r="BZ23" s="46"/>
-      <c r="CA23" s="46"/>
-      <c r="CB23" s="46"/>
-      <c r="CC23" s="46"/>
-      <c r="CD23" s="46"/>
+      <c r="BO23" s="33"/>
+      <c r="BP23" s="33"/>
+      <c r="BQ23" s="33"/>
+      <c r="BR23" s="33"/>
+      <c r="BS23" s="33"/>
+      <c r="BT23" s="33"/>
+      <c r="BU23" s="33"/>
+      <c r="BV23" s="33"/>
+      <c r="BW23" s="33"/>
+      <c r="BX23" s="33"/>
+      <c r="BY23" s="33"/>
+      <c r="BZ23" s="33"/>
+      <c r="CA23" s="33"/>
+      <c r="CB23" s="33"/>
+      <c r="CC23" s="33"/>
+      <c r="CD23" s="33"/>
     </row>
     <row r="24" spans="1:82">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="31"/>
       <c r="R24" s="31"/>
-      <c r="S24" s="46"/>
+      <c r="S24" s="33"/>
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
       <c r="V24" s="31"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="46"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
       <c r="AJ24" s="53"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="46"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="56"/>
+      <c r="AM24" s="33"/>
       <c r="AN24" s="53"/>
-      <c r="AO24" s="55"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="46"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="56"/>
+      <c r="AQ24" s="33"/>
       <c r="AR24" s="53"/>
-      <c r="AS24" s="55"/>
-      <c r="AT24" s="46"/>
-      <c r="AU24" s="46"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="33"/>
+      <c r="AU24" s="33"/>
       <c r="AV24" s="53"/>
-      <c r="AW24" s="55"/>
+      <c r="AW24" s="44"/>
       <c r="AX24" s="53"/>
-      <c r="AY24" s="55"/>
-      <c r="AZ24" s="57"/>
-      <c r="BA24" s="55"/>
-      <c r="BB24" s="55"/>
-      <c r="BC24" s="55"/>
-      <c r="BD24" s="55"/>
-      <c r="BE24" s="71"/>
-      <c r="BF24" s="46"/>
-      <c r="BG24" s="46"/>
-      <c r="BH24" s="55"/>
-      <c r="BI24" s="55"/>
-      <c r="BJ24" s="55"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="44"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="44"/>
+      <c r="BE24" s="59"/>
+      <c r="BF24" s="33"/>
+      <c r="BG24" s="33"/>
+      <c r="BH24" s="44"/>
+      <c r="BI24" s="44"/>
+      <c r="BJ24" s="44"/>
       <c r="BK24" s="31"/>
       <c r="BL24" s="31"/>
       <c r="BM24" s="31"/>
       <c r="BN24" s="31"/>
-      <c r="BO24" s="46"/>
-      <c r="BP24" s="46"/>
-      <c r="BQ24" s="46"/>
-      <c r="BR24" s="46"/>
-      <c r="BS24" s="46"/>
-      <c r="BT24" s="46"/>
-      <c r="BU24" s="46"/>
-      <c r="BV24" s="46"/>
-      <c r="BW24" s="46"/>
-      <c r="BX24" s="46"/>
-      <c r="BY24" s="46"/>
-      <c r="BZ24" s="46"/>
-      <c r="CA24" s="46"/>
-      <c r="CB24" s="46"/>
-      <c r="CC24" s="46"/>
-      <c r="CD24" s="46"/>
+      <c r="BO24" s="33"/>
+      <c r="BP24" s="33"/>
+      <c r="BQ24" s="33"/>
+      <c r="BR24" s="33"/>
+      <c r="BS24" s="33"/>
+      <c r="BT24" s="33"/>
+      <c r="BU24" s="33"/>
+      <c r="BV24" s="33"/>
+      <c r="BW24" s="33"/>
+      <c r="BX24" s="33"/>
+      <c r="BY24" s="33"/>
+      <c r="BZ24" s="33"/>
+      <c r="CA24" s="33"/>
+      <c r="CB24" s="33"/>
+      <c r="CC24" s="33"/>
+      <c r="CD24" s="33"/>
     </row>
     <row r="25" spans="1:82">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="31"/>
       <c r="Q25" s="31"/>
       <c r="R25" s="31"/>
-      <c r="S25" s="46"/>
+      <c r="S25" s="33"/>
       <c r="T25" s="31"/>
       <c r="U25" s="31"/>
       <c r="V25" s="31"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="46"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="33"/>
       <c r="AJ25" s="53"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="46"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="33"/>
       <c r="AN25" s="53"/>
-      <c r="AO25" s="55"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="46"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="33"/>
       <c r="AR25" s="53"/>
-      <c r="AS25" s="55"/>
-      <c r="AT25" s="46"/>
-      <c r="AU25" s="46"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="33"/>
+      <c r="AU25" s="33"/>
       <c r="AV25" s="53"/>
-      <c r="AW25" s="55"/>
+      <c r="AW25" s="44"/>
       <c r="AX25" s="53"/>
-      <c r="AY25" s="55"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="55"/>
-      <c r="BB25" s="55"/>
-      <c r="BC25" s="55"/>
-      <c r="BD25" s="55"/>
-      <c r="BE25" s="71"/>
-      <c r="BF25" s="46"/>
-      <c r="BG25" s="46"/>
-      <c r="BH25" s="55"/>
-      <c r="BI25" s="55"/>
-      <c r="BJ25" s="55"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="44"/>
+      <c r="BE25" s="59"/>
+      <c r="BF25" s="33"/>
+      <c r="BG25" s="33"/>
+      <c r="BH25" s="44"/>
+      <c r="BI25" s="44"/>
+      <c r="BJ25" s="44"/>
       <c r="BK25" s="31"/>
       <c r="BL25" s="31"/>
       <c r="BM25" s="31"/>
       <c r="BN25" s="31"/>
-      <c r="BO25" s="46"/>
-      <c r="BP25" s="46"/>
-      <c r="BQ25" s="46"/>
-      <c r="BR25" s="46"/>
-      <c r="BS25" s="46"/>
-      <c r="BT25" s="46"/>
-      <c r="BU25" s="46"/>
-      <c r="BV25" s="46"/>
-      <c r="BW25" s="46"/>
-      <c r="BX25" s="46"/>
-      <c r="BY25" s="46"/>
-      <c r="BZ25" s="46"/>
-      <c r="CA25" s="46"/>
-      <c r="CB25" s="46"/>
-      <c r="CC25" s="46"/>
-      <c r="CD25" s="46"/>
+      <c r="BO25" s="33"/>
+      <c r="BP25" s="33"/>
+      <c r="BQ25" s="33"/>
+      <c r="BR25" s="33"/>
+      <c r="BS25" s="33"/>
+      <c r="BT25" s="33"/>
+      <c r="BU25" s="33"/>
+      <c r="BV25" s="33"/>
+      <c r="BW25" s="33"/>
+      <c r="BX25" s="33"/>
+      <c r="BY25" s="33"/>
+      <c r="BZ25" s="33"/>
+      <c r="CA25" s="33"/>
+      <c r="CB25" s="33"/>
+      <c r="CC25" s="33"/>
+      <c r="CD25" s="33"/>
     </row>
     <row r="26" spans="1:82">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
-      <c r="S26" s="47"/>
+      <c r="S26" s="34"/>
       <c r="T26" s="31"/>
       <c r="U26" s="31"/>
       <c r="V26" s="31"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
       <c r="AJ26" s="54"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="47"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="34"/>
       <c r="AN26" s="54"/>
-      <c r="AO26" s="55"/>
-      <c r="AP26" s="60"/>
-      <c r="AQ26" s="47"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="34"/>
       <c r="AR26" s="54"/>
-      <c r="AS26" s="55"/>
-      <c r="AT26" s="47"/>
-      <c r="AU26" s="47"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
       <c r="AV26" s="54"/>
-      <c r="AW26" s="55"/>
+      <c r="AW26" s="44"/>
       <c r="AX26" s="54"/>
-      <c r="AY26" s="55"/>
-      <c r="AZ26" s="57"/>
-      <c r="BA26" s="55"/>
-      <c r="BB26" s="55"/>
-      <c r="BC26" s="55"/>
-      <c r="BD26" s="55"/>
-      <c r="BE26" s="72"/>
-      <c r="BF26" s="47"/>
-      <c r="BG26" s="47"/>
-      <c r="BH26" s="55"/>
-      <c r="BI26" s="55"/>
-      <c r="BJ26" s="55"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="44"/>
+      <c r="BB26" s="44"/>
+      <c r="BC26" s="44"/>
+      <c r="BD26" s="44"/>
+      <c r="BE26" s="60"/>
+      <c r="BF26" s="34"/>
+      <c r="BG26" s="34"/>
+      <c r="BH26" s="44"/>
+      <c r="BI26" s="44"/>
+      <c r="BJ26" s="44"/>
       <c r="BK26" s="31"/>
       <c r="BL26" s="31"/>
       <c r="BM26" s="31"/>
       <c r="BN26" s="31"/>
-      <c r="BO26" s="47"/>
-      <c r="BP26" s="47"/>
-      <c r="BQ26" s="47"/>
-      <c r="BR26" s="47"/>
-      <c r="BS26" s="47"/>
-      <c r="BT26" s="47"/>
-      <c r="BU26" s="47"/>
-      <c r="BV26" s="47"/>
-      <c r="BW26" s="47"/>
-      <c r="BX26" s="47"/>
-      <c r="BY26" s="47"/>
-      <c r="BZ26" s="47"/>
-      <c r="CA26" s="47"/>
-      <c r="CB26" s="47"/>
-      <c r="CC26" s="47"/>
-      <c r="CD26" s="47"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="34"/>
+      <c r="BQ26" s="34"/>
+      <c r="BR26" s="34"/>
+      <c r="BS26" s="34"/>
+      <c r="BT26" s="34"/>
+      <c r="BU26" s="34"/>
+      <c r="BV26" s="34"/>
+      <c r="BW26" s="34"/>
+      <c r="BX26" s="34"/>
+      <c r="BY26" s="34"/>
+      <c r="BZ26" s="34"/>
+      <c r="CA26" s="34"/>
+      <c r="CB26" s="34"/>
+      <c r="CC26" s="34"/>
+      <c r="CD26" s="34"/>
     </row>
     <row r="27" spans="1:82" ht="11.25" customHeight="1">
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="AK27" s="55"/>
-      <c r="AO27" s="55"/>
-      <c r="AS27" s="55"/>
-      <c r="AW27" s="55"/>
-      <c r="AY27" s="55"/>
-      <c r="AZ27" s="57"/>
-      <c r="BA27" s="55"/>
-      <c r="BB27" s="55"/>
-      <c r="BC27" s="55"/>
-      <c r="BD27" s="55"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="AK27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AW27" s="44"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="51"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="44"/>
+      <c r="BC27" s="44"/>
+      <c r="BD27" s="44"/>
     </row>
     <row r="28" spans="1:82" ht="11.25" customHeight="1">
       <c r="B28" s="7" t="s">
@@ -6536,255 +6536,255 @@
       <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
       <c r="J28" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AE28" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK28" s="55"/>
-      <c r="AO28" s="55"/>
-      <c r="AS28" s="55"/>
-      <c r="AW28" s="55"/>
-      <c r="AY28" s="55"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="55"/>
-      <c r="BB28" s="55"/>
-      <c r="BC28" s="55"/>
-      <c r="BD28" s="55"/>
-      <c r="BJ28" s="45" t="s">
-        <v>247</v>
+      <c r="AE28" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AW28" s="44"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="51"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="44"/>
+      <c r="BJ28" s="32" t="s">
+        <v>246</v>
       </c>
       <c r="BK28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="CB28" s="42" t="s">
+      <c r="CB28" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="CC28" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:82" ht="11.25" customHeight="1">
+      <c r="B29" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="CC28" s="42" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B29" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="31"/>
       <c r="V29" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE29" s="46"/>
-      <c r="BJ29" s="46"/>
+        <v>305</v>
+      </c>
+      <c r="AE29" s="33"/>
+      <c r="BJ29" s="33"/>
       <c r="BK29" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="BP29" s="76" t="s">
-        <v>465</v>
-      </c>
-      <c r="BQ29" s="77"/>
-      <c r="CB29" s="43"/>
-      <c r="CC29" s="43"/>
+        <v>312</v>
+      </c>
+      <c r="BP29" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="BQ29" s="46"/>
+      <c r="CB29" s="36"/>
+      <c r="CC29" s="36"/>
     </row>
     <row r="30" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B30" s="62"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
+        <v>298</v>
+      </c>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
       <c r="J30" s="31"/>
       <c r="V30" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE30" s="46"/>
-      <c r="BJ30" s="46"/>
+        <v>306</v>
+      </c>
+      <c r="AE30" s="33"/>
+      <c r="BJ30" s="33"/>
       <c r="BK30" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="BP30" s="78"/>
-      <c r="BQ30" s="79"/>
-      <c r="CB30" s="43"/>
-      <c r="CC30" s="43"/>
+        <v>313</v>
+      </c>
+      <c r="BP30" s="47"/>
+      <c r="BQ30" s="48"/>
+      <c r="CB30" s="36"/>
+      <c r="CC30" s="36"/>
     </row>
     <row r="31" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B31" s="62"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
+        <v>299</v>
+      </c>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
       <c r="J31" s="31"/>
       <c r="V31" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE31" s="46"/>
-      <c r="BJ31" s="46"/>
-      <c r="BP31" s="78"/>
-      <c r="BQ31" s="79"/>
-      <c r="CB31" s="43"/>
-      <c r="CC31" s="43"/>
+        <v>307</v>
+      </c>
+      <c r="AE31" s="33"/>
+      <c r="BJ31" s="33"/>
+      <c r="BP31" s="47"/>
+      <c r="BQ31" s="48"/>
+      <c r="CB31" s="36"/>
+      <c r="CC31" s="36"/>
     </row>
     <row r="32" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B32" s="62"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
+        <v>300</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="31"/>
       <c r="V32" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE32" s="46"/>
-      <c r="BJ32" s="46"/>
-      <c r="BP32" s="78"/>
-      <c r="BQ32" s="79"/>
-      <c r="CB32" s="43"/>
-      <c r="CC32" s="43"/>
+        <v>308</v>
+      </c>
+      <c r="AE32" s="33"/>
+      <c r="BJ32" s="33"/>
+      <c r="BP32" s="47"/>
+      <c r="BQ32" s="48"/>
+      <c r="CB32" s="36"/>
+      <c r="CC32" s="36"/>
     </row>
     <row r="33" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B33" s="62"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J33" s="31"/>
       <c r="V33" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE33" s="46"/>
-      <c r="BJ33" s="46"/>
-      <c r="BP33" s="78"/>
-      <c r="BQ33" s="79"/>
-      <c r="CB33" s="44"/>
-      <c r="CC33" s="44"/>
+        <v>309</v>
+      </c>
+      <c r="AE33" s="33"/>
+      <c r="BJ33" s="33"/>
+      <c r="BP33" s="47"/>
+      <c r="BQ33" s="48"/>
+      <c r="CB33" s="37"/>
+      <c r="CC33" s="37"/>
     </row>
     <row r="34" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B34" s="62"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J34" s="31"/>
       <c r="V34" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="AE34" s="46"/>
-      <c r="BJ34" s="47"/>
-      <c r="BP34" s="78"/>
-      <c r="BQ34" s="79"/>
+        <v>310</v>
+      </c>
+      <c r="AE34" s="33"/>
+      <c r="BJ34" s="34"/>
+      <c r="BP34" s="47"/>
+      <c r="BQ34" s="48"/>
       <c r="CC34" s="8"/>
     </row>
     <row r="35" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B35" s="63"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J35" s="31"/>
       <c r="V35" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE35" s="46"/>
-      <c r="BP35" s="80"/>
-      <c r="BQ35" s="81"/>
-      <c r="CB35" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="CC35" s="45" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="AE35" s="33"/>
+      <c r="BP35" s="49"/>
+      <c r="BQ35" s="50"/>
+      <c r="CB35" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CC35" s="32" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="2:81">
       <c r="C36" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J36" s="31"/>
-      <c r="AE36" s="46"/>
-      <c r="CB36" s="46"/>
-      <c r="CC36" s="46"/>
+      <c r="AE36" s="33"/>
+      <c r="CB36" s="33"/>
+      <c r="CC36" s="33"/>
     </row>
     <row r="37" spans="2:81">
       <c r="C37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE37" s="47"/>
-      <c r="CB37" s="46"/>
-      <c r="CC37" s="46"/>
+      <c r="AE37" s="34"/>
+      <c r="CB37" s="33"/>
+      <c r="CC37" s="33"/>
     </row>
     <row r="38" spans="2:81">
       <c r="C38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CB38" s="46"/>
-      <c r="CC38" s="46"/>
+      <c r="CB38" s="33"/>
+      <c r="CC38" s="33"/>
     </row>
     <row r="39" spans="2:81">
       <c r="C39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AE39" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="CB39" s="46"/>
-      <c r="CC39" s="46"/>
+      <c r="AE39" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="CB39" s="33"/>
+      <c r="CC39" s="33"/>
     </row>
     <row r="40" spans="2:81">
       <c r="C40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AE40" s="43"/>
-      <c r="CB40" s="46"/>
-      <c r="CC40" s="46"/>
+      <c r="AE40" s="36"/>
+      <c r="CB40" s="33"/>
+      <c r="CC40" s="33"/>
     </row>
     <row r="41" spans="2:81">
       <c r="C41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AE41" s="43"/>
-      <c r="CB41" s="46"/>
-      <c r="CC41" s="46"/>
+      <c r="AE41" s="36"/>
+      <c r="CB41" s="33"/>
+      <c r="CC41" s="33"/>
     </row>
     <row r="42" spans="2:81">
       <c r="C42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AE42" s="43"/>
-      <c r="CB42" s="46"/>
-      <c r="CC42" s="46"/>
+      <c r="AE42" s="36"/>
+      <c r="CB42" s="33"/>
+      <c r="CC42" s="33"/>
     </row>
     <row r="43" spans="2:81">
       <c r="C43" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AE43" s="43"/>
-      <c r="CB43" s="46"/>
-      <c r="CC43" s="46"/>
+      <c r="AE43" s="36"/>
+      <c r="CB43" s="33"/>
+      <c r="CC43" s="33"/>
     </row>
     <row r="44" spans="2:81">
       <c r="C44" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AE44" s="44"/>
-      <c r="CB44" s="46"/>
-      <c r="CC44" s="46"/>
+      <c r="AE44" s="37"/>
+      <c r="CB44" s="33"/>
+      <c r="CC44" s="33"/>
     </row>
     <row r="45" spans="2:81">
       <c r="C45" s="5" t="s">
@@ -6793,24 +6793,24 @@
       <c r="BJ45" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="CB45" s="46"/>
-      <c r="CC45" s="46"/>
+      <c r="CB45" s="33"/>
+      <c r="CC45" s="33"/>
     </row>
     <row r="46" spans="2:81">
       <c r="C46" s="5" t="s">
         <v>107</v>
       </c>
       <c r="BJ46" s="31"/>
-      <c r="CB46" s="46"/>
-      <c r="CC46" s="46"/>
+      <c r="CB46" s="33"/>
+      <c r="CC46" s="33"/>
     </row>
     <row r="47" spans="2:81">
       <c r="C47" s="5" t="s">
         <v>108</v>
       </c>
       <c r="BJ47" s="31"/>
-      <c r="CB47" s="47"/>
-      <c r="CC47" s="47"/>
+      <c r="CB47" s="34"/>
+      <c r="CC47" s="34"/>
     </row>
     <row r="48" spans="2:81">
       <c r="C48" s="5" t="s">
@@ -6822,33 +6822,33 @@
       <c r="C49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="CB49" s="42" t="s">
+      <c r="CB49" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="CC49" s="35" t="s">
         <v>316</v>
-      </c>
-      <c r="CC49" s="42" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="50" spans="3:81">
       <c r="C50" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="CB50" s="43"/>
-      <c r="CC50" s="43"/>
+      <c r="CB50" s="36"/>
+      <c r="CC50" s="36"/>
     </row>
     <row r="51" spans="3:81">
       <c r="C51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CB51" s="43"/>
-      <c r="CC51" s="43"/>
+      <c r="CB51" s="36"/>
+      <c r="CC51" s="36"/>
     </row>
     <row r="52" spans="3:81">
       <c r="C52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="CB52" s="44"/>
-      <c r="CC52" s="44"/>
+      <c r="CB52" s="37"/>
+      <c r="CC52" s="37"/>
     </row>
     <row r="53" spans="3:81">
       <c r="C53" s="5" t="s">
@@ -6992,52 +6992,37 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="CD21:CD26"/>
-    <mergeCell ref="CB35:CB47"/>
-    <mergeCell ref="CB49:CB52"/>
-    <mergeCell ref="CC28:CC33"/>
-    <mergeCell ref="CC35:CC47"/>
-    <mergeCell ref="CC49:CC52"/>
-    <mergeCell ref="BL21:BL26"/>
-    <mergeCell ref="BM21:BM26"/>
-    <mergeCell ref="BN21:BN26"/>
-    <mergeCell ref="BP21:BP26"/>
-    <mergeCell ref="CB18:CC20"/>
-    <mergeCell ref="CB21:CB26"/>
-    <mergeCell ref="CB28:CB33"/>
-    <mergeCell ref="BJ28:BJ34"/>
-    <mergeCell ref="CC21:CC26"/>
-    <mergeCell ref="BW21:BW26"/>
-    <mergeCell ref="BX21:BX26"/>
-    <mergeCell ref="BZ21:BZ26"/>
-    <mergeCell ref="CA21:CA26"/>
-    <mergeCell ref="BU21:BU26"/>
-    <mergeCell ref="BV21:BV26"/>
-    <mergeCell ref="BR21:BR26"/>
-    <mergeCell ref="BS21:BS26"/>
-    <mergeCell ref="BT21:BT26"/>
-    <mergeCell ref="BJ21:BJ26"/>
-    <mergeCell ref="BK21:BK26"/>
-    <mergeCell ref="BP29:BQ35"/>
-    <mergeCell ref="BY21:BY26"/>
-    <mergeCell ref="U21:U26"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="X21:X26"/>
-    <mergeCell ref="Y21:Y26"/>
-    <mergeCell ref="Z21:Z26"/>
-    <mergeCell ref="AK21:AK28"/>
-    <mergeCell ref="AO21:AO28"/>
-    <mergeCell ref="AS21:AS28"/>
-    <mergeCell ref="AW21:AW28"/>
-    <mergeCell ref="AZ21:AZ28"/>
-    <mergeCell ref="AM21:AM26"/>
-    <mergeCell ref="AN21:AN26"/>
-    <mergeCell ref="AP21:AP26"/>
-    <mergeCell ref="BE21:BE26"/>
-    <mergeCell ref="BF21:BF26"/>
-    <mergeCell ref="BG21:BG26"/>
-    <mergeCell ref="BH21:BH26"/>
+    <mergeCell ref="BE18:BE20"/>
+    <mergeCell ref="AY18:BD20"/>
+    <mergeCell ref="BF18:BF20"/>
+    <mergeCell ref="BG18:BG20"/>
+    <mergeCell ref="BH18:BH20"/>
+    <mergeCell ref="BI18:BJ20"/>
+    <mergeCell ref="BK18:BK20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A18:AX20"/>
+    <mergeCell ref="AE39:AE44"/>
+    <mergeCell ref="T21:T26"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N21:N26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="P21:P26"/>
+    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="R21:R26"/>
+    <mergeCell ref="AA21:AA26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="AE28:AE37"/>
+    <mergeCell ref="AB21:AB26"/>
+    <mergeCell ref="AC21:AC26"/>
+    <mergeCell ref="AD21:AD26"/>
+    <mergeCell ref="AE21:AE26"/>
+    <mergeCell ref="AQ21:AQ26"/>
+    <mergeCell ref="AF21:AF26"/>
     <mergeCell ref="BI21:BI26"/>
     <mergeCell ref="BB21:BB28"/>
     <mergeCell ref="BD21:BD28"/>
@@ -7062,44 +7047,59 @@
     <mergeCell ref="I21:I32"/>
     <mergeCell ref="AH21:AH26"/>
     <mergeCell ref="AI21:AI26"/>
+    <mergeCell ref="AW21:AW28"/>
+    <mergeCell ref="AZ21:AZ28"/>
+    <mergeCell ref="AM21:AM26"/>
+    <mergeCell ref="AN21:AN26"/>
+    <mergeCell ref="AP21:AP26"/>
+    <mergeCell ref="BE21:BE26"/>
+    <mergeCell ref="BF21:BF26"/>
+    <mergeCell ref="BG21:BG26"/>
+    <mergeCell ref="BH21:BH26"/>
+    <mergeCell ref="AX21:AX26"/>
+    <mergeCell ref="AR21:AR26"/>
+    <mergeCell ref="U21:U26"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="X21:X26"/>
+    <mergeCell ref="Y21:Y26"/>
+    <mergeCell ref="Z21:Z26"/>
+    <mergeCell ref="AK21:AK28"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AS21:AS28"/>
     <mergeCell ref="AJ21:AJ26"/>
     <mergeCell ref="AL21:AL26"/>
-    <mergeCell ref="AX21:AX26"/>
-    <mergeCell ref="AR21:AR26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="AE28:AE37"/>
-    <mergeCell ref="AB21:AB26"/>
-    <mergeCell ref="AC21:AC26"/>
-    <mergeCell ref="AD21:AD26"/>
-    <mergeCell ref="AE21:AE26"/>
-    <mergeCell ref="AQ21:AQ26"/>
-    <mergeCell ref="AF21:AF26"/>
+    <mergeCell ref="CB18:CC20"/>
+    <mergeCell ref="CB21:CB26"/>
+    <mergeCell ref="CB28:CB33"/>
+    <mergeCell ref="BJ28:BJ34"/>
+    <mergeCell ref="CC21:CC26"/>
+    <mergeCell ref="BW21:BW26"/>
+    <mergeCell ref="BX21:BX26"/>
+    <mergeCell ref="BZ21:BZ26"/>
+    <mergeCell ref="CA21:CA26"/>
+    <mergeCell ref="BU21:BU26"/>
+    <mergeCell ref="BV21:BV26"/>
+    <mergeCell ref="BR21:BR26"/>
+    <mergeCell ref="BS21:BS26"/>
+    <mergeCell ref="BT21:BT26"/>
+    <mergeCell ref="BJ21:BJ26"/>
+    <mergeCell ref="BK21:BK26"/>
+    <mergeCell ref="BP29:BQ35"/>
+    <mergeCell ref="BY21:BY26"/>
     <mergeCell ref="BO18:CA20"/>
-    <mergeCell ref="A18:AX20"/>
-    <mergeCell ref="AE39:AE44"/>
-    <mergeCell ref="T21:T26"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N21:N26"/>
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="P21:P26"/>
-    <mergeCell ref="Q21:Q26"/>
-    <mergeCell ref="R21:R26"/>
     <mergeCell ref="BO21:BO26"/>
-    <mergeCell ref="AA21:AA26"/>
     <mergeCell ref="BL18:BN20"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="BE18:BE20"/>
-    <mergeCell ref="AY18:BD20"/>
-    <mergeCell ref="BF18:BF20"/>
-    <mergeCell ref="BG18:BG20"/>
-    <mergeCell ref="BH18:BH20"/>
-    <mergeCell ref="BI18:BJ20"/>
-    <mergeCell ref="BK18:BK20"/>
-    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="CD21:CD26"/>
+    <mergeCell ref="CB35:CB47"/>
+    <mergeCell ref="CB49:CB52"/>
+    <mergeCell ref="CC28:CC33"/>
+    <mergeCell ref="CC35:CC47"/>
+    <mergeCell ref="CC49:CC52"/>
+    <mergeCell ref="BL21:BL26"/>
+    <mergeCell ref="BM21:BM26"/>
+    <mergeCell ref="BN21:BN26"/>
+    <mergeCell ref="BP21:BP26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7129,7 +7129,7 @@
         <v>NR_REFERENCIA_FISCAL,</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE("'",J3,"',")</f>
@@ -7145,7 +7145,7 @@
         <v>CD_SITUACAO_NF,</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K12" si="1">CONCATENATE("'",J4,"',")</f>
@@ -7170,14 +7170,14 @@
     </row>
     <row r="6" spans="3:11">
       <c r="C6" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>NR_REFERENCIA_FISCAL_FATURA,</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -7186,14 +7186,14 @@
     </row>
     <row r="7" spans="3:11">
       <c r="C7" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>NR_ITEM_NF_FATURA,</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -7209,7 +7209,7 @@
         <v>NR_NF_FATURA,</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -7225,7 +7225,7 @@
         <v>NR_SERIE_NF_FATURA,</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -7241,7 +7241,7 @@
         <v>NR_NF_REMESSA,</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -7257,7 +7257,7 @@
         <v>NR_SERIE_NF_REMESSA,</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -7273,7 +7273,7 @@
         <v>NR_ORDEM,</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>

--- a/Documentação/Planilhas/Conferencia_FAT.xlsx
+++ b/Documentação/Planilhas/Conferencia_FAT.xlsx
@@ -654,6 +654,9 @@
     <t>Sessão cislil504m00l (Nota Fiscal)</t>
   </si>
   <si>
+    <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba superior "Geral", seção "Datas", pegar a informação da coluna "Data da Geração"</t>
+  </si>
+  <si>
     <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba inferior Linhas - Nota Fiscal, pegar a informação da coluna "Quantidade" do item desejado</t>
   </si>
   <si>
@@ -1445,9 +1448,6 @@
   </si>
   <si>
     <t>Pegar a informação da coluna "Tipo Doc. Fiscal" . Se for "Fatura Op. Triangular", pedir o detalhamento da Referência Fiscal e na aba inferior "Linhas Nota Fiscal", pegar a informação da coluna "Linha" da Referência Fiscal Relativa, referente ao item vendido</t>
-  </si>
-  <si>
-    <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba superior "Geral", seção "Datas", pegar a informação da coluna "Data da Emissão"</t>
   </si>
 </sst>
 </file>
@@ -1811,114 +1811,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1949,6 +1841,24 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1960,6 +1870,96 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2420,16 +2420,16 @@
         <v>198</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>255</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>26</v>
@@ -2440,16 +2440,16 @@
         <v>198</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>26</v>
@@ -2460,16 +2460,16 @@
         <v>198</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>26</v>
@@ -2480,16 +2480,16 @@
         <v>198</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="E10" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>26</v>
@@ -2500,16 +2500,16 @@
         <v>199</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>26</v>
@@ -2520,16 +2520,16 @@
         <v>199</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>26</v>
@@ -2540,16 +2540,16 @@
         <v>199</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>255</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>26</v>
@@ -2560,16 +2560,16 @@
         <v>199</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>0</v>
@@ -2577,19 +2577,19 @@
     </row>
     <row r="15" spans="1:62">
       <c r="A15" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>26</v>
@@ -2597,19 +2597,19 @@
     </row>
     <row r="16" spans="1:62">
       <c r="A16" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>26</v>
@@ -2617,19 +2617,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -2729,8 +2729,8 @@
   </sheetPr>
   <dimension ref="A1:CD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BF6" sqref="BF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2857,10 +2857,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>18</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="7" spans="1:82" s="9" customFormat="1">
       <c r="A7" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>0</v>
@@ -3123,46 +3123,46 @@
         <v>86</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>25</v>
@@ -3177,10 +3177,10 @@
         <v>88</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AD7" s="13" t="s">
         <v>88</v>
@@ -3249,31 +3249,31 @@
         <v>93</v>
       </c>
       <c r="AZ7" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BA7" s="13" t="s">
         <v>93</v>
       </c>
       <c r="BB7" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BC7" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BD7" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE7" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BF7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="BG7" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="BH7" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BI7" s="13" t="s">
         <v>92</v>
@@ -3285,13 +3285,13 @@
         <v>0</v>
       </c>
       <c r="BL7" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="BM7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="BN7" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="BO7" s="13" t="s">
         <v>0</v>
@@ -3300,25 +3300,25 @@
         <v>87</v>
       </c>
       <c r="BQ7" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BR7" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BS7" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BT7" s="13" t="s">
         <v>85</v>
       </c>
       <c r="BU7" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BV7" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="BW7" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="BX7" s="13" t="s">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>88</v>
       </c>
       <c r="CB7" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="CC7" s="13" t="s">
         <v>0</v>
@@ -3344,22 +3344,22 @@
     </row>
     <row r="8" spans="1:82" s="9" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>0</v>
@@ -3371,46 +3371,46 @@
         <v>86</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="X8" s="8" t="s">
         <v>25</v>
@@ -3425,10 +3425,10 @@
         <v>88</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AD8" s="8" t="s">
         <v>88</v>
@@ -3497,31 +3497,31 @@
         <v>93</v>
       </c>
       <c r="AZ8" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BA8" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB8" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BC8" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BD8" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE8" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BF8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG8" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BH8" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="BI8" s="8" t="s">
         <v>25</v>
@@ -3533,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="BL8" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="BM8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN8" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="BO8" s="8" t="s">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>87</v>
       </c>
       <c r="BQ8" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BR8" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BS8" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BT8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU8" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="BV8" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BW8" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="BX8" s="8" t="s">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>88</v>
       </c>
       <c r="CB8" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="CC8" s="8" t="s">
         <v>0</v>
@@ -3592,19 +3592,19 @@
     </row>
     <row r="9" spans="1:82" s="9" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>85</v>
@@ -3613,22 +3613,22 @@
         <v>86</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>0</v>
@@ -3640,10 +3640,10 @@
         <v>158</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>86</v>
@@ -3658,16 +3658,16 @@
         <v>91</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>88</v>
@@ -3685,43 +3685,43 @@
         <v>88</v>
       </c>
       <c r="AF9" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH9" s="8" t="s">
         <v>85</v>
       </c>
       <c r="AI9" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ9" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AK9" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AL9" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM9" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN9" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO9" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP9" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AQ9" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AR9" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AS9" s="8" t="s">
         <v>88</v>
@@ -3742,34 +3742,34 @@
         <v>85</v>
       </c>
       <c r="AY9" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AZ9" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA9" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="BA9" s="8" t="s">
-        <v>378</v>
-      </c>
       <c r="BB9" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="BC9" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BD9" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BE9" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BF9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG9" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="BH9" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BI9" s="8" t="s">
         <v>92</v>
@@ -3781,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="BL9" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="BM9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN9" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="BO9" s="8" t="s">
         <v>0</v>
@@ -3796,25 +3796,25 @@
         <v>87</v>
       </c>
       <c r="BQ9" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BR9" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BS9" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BT9" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU9" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BV9" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="BW9" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="BX9" s="8" t="s">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>88</v>
       </c>
       <c r="CB9" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="CC9" s="8" t="s">
         <v>0</v>
@@ -3840,22 +3840,22 @@
     </row>
     <row r="10" spans="1:82" s="9" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>0</v>
@@ -3867,46 +3867,46 @@
         <v>86</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X10" s="8" t="s">
         <v>25</v>
@@ -3921,10 +3921,10 @@
         <v>88</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AD10" s="8" t="s">
         <v>88</v>
@@ -3993,31 +3993,31 @@
         <v>93</v>
       </c>
       <c r="AZ10" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BA10" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB10" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BD10" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE10" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BF10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG10" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BH10" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BI10" s="8" t="s">
         <v>92</v>
@@ -4029,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="BL10" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BM10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN10" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="BO10" s="8" t="s">
         <v>0</v>
@@ -4044,25 +4044,25 @@
         <v>87</v>
       </c>
       <c r="BQ10" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BR10" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BS10" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BT10" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU10" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BV10" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="BW10" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="BX10" s="8" t="s">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>88</v>
       </c>
       <c r="CB10" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="CC10" s="8" t="s">
         <v>0</v>
@@ -4088,19 +4088,19 @@
     </row>
     <row r="11" spans="1:82" s="9" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>85</v>
@@ -4109,22 +4109,22 @@
         <v>86</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>384</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>0</v>
@@ -4136,10 +4136,10 @@
         <v>158</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>86</v>
@@ -4154,16 +4154,16 @@
         <v>91</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>88</v>
@@ -4181,43 +4181,43 @@
         <v>88</v>
       </c>
       <c r="AF11" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH11" s="8" t="s">
         <v>85</v>
       </c>
       <c r="AI11" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ11" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AK11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AL11" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM11" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN11" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AP11" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AQ11" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AR11" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AS11" s="8" t="s">
         <v>88</v>
@@ -4238,34 +4238,34 @@
         <v>85</v>
       </c>
       <c r="AY11" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AZ11" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA11" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="BA11" s="8" t="s">
-        <v>378</v>
-      </c>
       <c r="BB11" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BD11" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BE11" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BF11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG11" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="BH11" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BI11" s="8" t="s">
         <v>92</v>
@@ -4277,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="BL11" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BM11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN11" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="BO11" s="8" t="s">
         <v>0</v>
@@ -4292,25 +4292,25 @@
         <v>87</v>
       </c>
       <c r="BQ11" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BR11" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BS11" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BT11" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU11" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BV11" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="BW11" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="BX11" s="8" t="s">
         <v>0</v>
@@ -4325,7 +4325,7 @@
         <v>88</v>
       </c>
       <c r="CB11" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="CC11" s="8" t="s">
         <v>0</v>
@@ -4336,19 +4336,19 @@
     </row>
     <row r="12" spans="1:82" s="9" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>85</v>
@@ -4363,46 +4363,46 @@
         <v>86</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X12" s="8" t="s">
         <v>25</v>
@@ -4417,10 +4417,10 @@
         <v>88</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AD12" s="8" t="s">
         <v>88</v>
@@ -4489,31 +4489,31 @@
         <v>93</v>
       </c>
       <c r="AZ12" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BA12" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB12" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BD12" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE12" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BF12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG12" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BH12" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BI12" s="8" t="s">
         <v>92</v>
@@ -4525,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="BL12" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BM12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN12" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BO12" s="8" t="s">
         <v>0</v>
@@ -4540,25 +4540,25 @@
         <v>87</v>
       </c>
       <c r="BQ12" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BR12" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BS12" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BT12" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU12" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BV12" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="BW12" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="BX12" s="8" t="s">
         <v>0</v>
@@ -4584,22 +4584,22 @@
     </row>
     <row r="13" spans="1:82" s="9" customFormat="1">
       <c r="A13" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -4611,46 +4611,46 @@
         <v>86</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="X13" s="8" t="s">
         <v>25</v>
@@ -4665,10 +4665,10 @@
         <v>88</v>
       </c>
       <c r="AB13" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AD13" s="8" t="s">
         <v>88</v>
@@ -4737,31 +4737,31 @@
         <v>93</v>
       </c>
       <c r="AZ13" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BA13" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB13" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BC13" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BD13" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE13" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BF13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG13" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BH13" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="BI13" s="8" t="s">
         <v>92</v>
@@ -4773,13 +4773,13 @@
         <v>0</v>
       </c>
       <c r="BL13" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BM13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN13" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BO13" s="8" t="s">
         <v>0</v>
@@ -4788,25 +4788,25 @@
         <v>91</v>
       </c>
       <c r="BQ13" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BR13" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BS13" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BT13" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU13" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="BV13" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BW13" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BX13" s="8" t="s">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>88</v>
       </c>
       <c r="CB13" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="CC13" s="8" t="s">
         <v>0</v>
@@ -4832,22 +4832,22 @@
     </row>
     <row r="14" spans="1:82" s="9" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -4859,34 +4859,34 @@
         <v>86</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T14" s="8" t="s">
         <v>25</v>
@@ -4898,7 +4898,7 @@
         <v>91</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="X14" s="8" t="s">
         <v>25</v>
@@ -4913,10 +4913,10 @@
         <v>88</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AD14" s="8" t="s">
         <v>88</v>
@@ -4985,13 +4985,13 @@
         <v>93</v>
       </c>
       <c r="AZ14" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BA14" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB14" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BC14" s="8" t="s">
         <v>90</v>
@@ -5000,16 +5000,16 @@
         <v>90</v>
       </c>
       <c r="BE14" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BF14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG14" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BH14" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BI14" s="8" t="s">
         <v>92</v>
@@ -5021,13 +5021,13 @@
         <v>0</v>
       </c>
       <c r="BL14" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BM14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN14" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BO14" s="8" t="s">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>89</v>
       </c>
       <c r="BR14" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BS14" s="8" t="s">
         <v>85</v>
@@ -5048,13 +5048,13 @@
         <v>85</v>
       </c>
       <c r="BU14" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BV14" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BW14" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BX14" s="8" t="s">
         <v>0</v>
@@ -5080,19 +5080,19 @@
     </row>
     <row r="15" spans="1:82" s="9" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>85</v>
@@ -5101,22 +5101,22 @@
         <v>86</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>158</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>86</v>
@@ -5146,16 +5146,16 @@
         <v>91</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="X15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA15" s="8" t="s">
         <v>88</v>
@@ -5191,28 +5191,28 @@
         <v>88</v>
       </c>
       <c r="AL15" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM15" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN15" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO15" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AP15" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AQ15" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AR15" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AS15" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AT15" s="8" t="s">
         <v>88</v>
@@ -5233,13 +5233,13 @@
         <v>93</v>
       </c>
       <c r="AZ15" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BA15" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB15" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BC15" s="8" t="s">
         <v>90</v>
@@ -5248,16 +5248,16 @@
         <v>90</v>
       </c>
       <c r="BE15" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BF15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG15" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="BH15" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BI15" s="8" t="s">
         <v>92</v>
@@ -5269,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="BL15" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BM15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN15" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BO15" s="8" t="s">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>89</v>
       </c>
       <c r="BR15" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BS15" s="8" t="s">
         <v>85</v>
@@ -5296,13 +5296,13 @@
         <v>85</v>
       </c>
       <c r="BU15" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BV15" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BW15" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BX15" s="8" t="s">
         <v>0</v>
@@ -5328,22 +5328,22 @@
     </row>
     <row r="16" spans="1:82" s="9" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -5355,46 +5355,46 @@
         <v>86</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X16" s="8" t="s">
         <v>25</v>
@@ -5409,10 +5409,10 @@
         <v>88</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AD16" s="8" t="s">
         <v>88</v>
@@ -5481,31 +5481,31 @@
         <v>93</v>
       </c>
       <c r="AZ16" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BA16" s="8" t="s">
         <v>93</v>
       </c>
       <c r="BB16" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BC16" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BD16" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE16" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BF16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BG16" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BH16" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BI16" s="8" t="s">
         <v>92</v>
@@ -5517,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="BL16" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BM16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="BN16" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="BO16" s="8" t="s">
         <v>0</v>
@@ -5532,25 +5532,25 @@
         <v>87</v>
       </c>
       <c r="BQ16" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BR16" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="BS16" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BT16" s="8" t="s">
         <v>85</v>
       </c>
       <c r="BU16" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BV16" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="BW16" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="BX16" s="8" t="s">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>88</v>
       </c>
       <c r="CB16" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="CC16" s="8" t="s">
         <v>0</v>
@@ -5575,275 +5575,275 @@
       </c>
     </row>
     <row r="18" spans="1:82" ht="15" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="70"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="70"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="70"/>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="70"/>
-      <c r="AM18" s="70"/>
-      <c r="AN18" s="70"/>
-      <c r="AO18" s="70"/>
-      <c r="AP18" s="70"/>
-      <c r="AQ18" s="70"/>
-      <c r="AR18" s="70"/>
-      <c r="AS18" s="70"/>
-      <c r="AT18" s="70"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="71"/>
-      <c r="AY18" s="69" t="s">
-        <v>237</v>
-      </c>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
-      <c r="BC18" s="70"/>
-      <c r="BD18" s="71"/>
-      <c r="BE18" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="BF18" s="78" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="34"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="34"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="BG18" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="BH18" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="BI18" s="81" t="s">
+      <c r="BF18" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="BJ18" s="81"/>
-      <c r="BK18" s="78" t="s">
+      <c r="BG18" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH18" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="BI18" s="51" t="s">
         <v>243</v>
       </c>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="48" t="s">
+        <v>244</v>
+      </c>
       <c r="BL18" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BM18" s="23"/>
       <c r="BN18" s="24"/>
-      <c r="BO18" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="BP18" s="68"/>
-      <c r="BQ18" s="68"/>
-      <c r="BR18" s="68"/>
-      <c r="BS18" s="68"/>
-      <c r="BT18" s="68"/>
-      <c r="BU18" s="68"/>
-      <c r="BV18" s="68"/>
-      <c r="BW18" s="68"/>
-      <c r="BX18" s="68"/>
-      <c r="BY18" s="68"/>
-      <c r="BZ18" s="68"/>
-      <c r="CA18" s="68"/>
-      <c r="CB18" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="CC18" s="39"/>
+      <c r="BO18" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="BP18" s="32"/>
+      <c r="BQ18" s="32"/>
+      <c r="BR18" s="32"/>
+      <c r="BS18" s="32"/>
+      <c r="BT18" s="32"/>
+      <c r="BU18" s="32"/>
+      <c r="BV18" s="32"/>
+      <c r="BW18" s="32"/>
+      <c r="BX18" s="32"/>
+      <c r="BY18" s="32"/>
+      <c r="BZ18" s="32"/>
+      <c r="CA18" s="32"/>
+      <c r="CB18" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="CC18" s="65"/>
     </row>
     <row r="19" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="73"/>
-      <c r="AC19" s="73"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="74"/>
-      <c r="AY19" s="72"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
-      <c r="BC19" s="73"/>
-      <c r="BD19" s="74"/>
-      <c r="BE19" s="79"/>
-      <c r="BF19" s="79"/>
-      <c r="BG19" s="79"/>
-      <c r="BH19" s="79"/>
-      <c r="BI19" s="81"/>
-      <c r="BJ19" s="81"/>
-      <c r="BK19" s="79"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37"/>
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="37"/>
+      <c r="AT19" s="37"/>
+      <c r="AU19" s="37"/>
+      <c r="AV19" s="37"/>
+      <c r="AW19" s="37"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="37"/>
+      <c r="BA19" s="37"/>
+      <c r="BB19" s="37"/>
+      <c r="BC19" s="37"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="49"/>
+      <c r="BF19" s="49"/>
+      <c r="BG19" s="49"/>
+      <c r="BH19" s="49"/>
+      <c r="BI19" s="51"/>
+      <c r="BJ19" s="51"/>
+      <c r="BK19" s="49"/>
       <c r="BL19" s="25"/>
       <c r="BM19" s="26"/>
       <c r="BN19" s="27"/>
-      <c r="BO19" s="68"/>
-      <c r="BP19" s="68"/>
-      <c r="BQ19" s="68"/>
-      <c r="BR19" s="68"/>
-      <c r="BS19" s="68"/>
-      <c r="BT19" s="68"/>
-      <c r="BU19" s="68"/>
-      <c r="BV19" s="68"/>
-      <c r="BW19" s="68"/>
-      <c r="BX19" s="68"/>
-      <c r="BY19" s="68"/>
-      <c r="BZ19" s="68"/>
-      <c r="CA19" s="68"/>
-      <c r="CB19" s="40"/>
-      <c r="CC19" s="41"/>
+      <c r="BO19" s="32"/>
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="32"/>
+      <c r="BS19" s="32"/>
+      <c r="BT19" s="32"/>
+      <c r="BU19" s="32"/>
+      <c r="BV19" s="32"/>
+      <c r="BW19" s="32"/>
+      <c r="BX19" s="32"/>
+      <c r="BY19" s="32"/>
+      <c r="BZ19" s="32"/>
+      <c r="CA19" s="32"/>
+      <c r="CB19" s="66"/>
+      <c r="CC19" s="67"/>
     </row>
     <row r="20" spans="1:82" ht="11.25" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="76"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="76"/>
-      <c r="AU20" s="76"/>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="76"/>
-      <c r="AX20" s="77"/>
-      <c r="AY20" s="75"/>
-      <c r="AZ20" s="76"/>
-      <c r="BA20" s="76"/>
-      <c r="BB20" s="76"/>
-      <c r="BC20" s="76"/>
-      <c r="BD20" s="77"/>
-      <c r="BE20" s="80"/>
-      <c r="BF20" s="80"/>
-      <c r="BG20" s="80"/>
-      <c r="BH20" s="80"/>
-      <c r="BI20" s="81"/>
-      <c r="BJ20" s="81"/>
-      <c r="BK20" s="80"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="40"/>
+      <c r="AU20" s="40"/>
+      <c r="AV20" s="40"/>
+      <c r="AW20" s="40"/>
+      <c r="AX20" s="41"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="40"/>
+      <c r="BB20" s="40"/>
+      <c r="BC20" s="40"/>
+      <c r="BD20" s="41"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="50"/>
+      <c r="BG20" s="50"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="51"/>
+      <c r="BJ20" s="51"/>
+      <c r="BK20" s="50"/>
       <c r="BL20" s="28"/>
       <c r="BM20" s="29"/>
       <c r="BN20" s="30"/>
-      <c r="BO20" s="68"/>
-      <c r="BP20" s="68"/>
-      <c r="BQ20" s="68"/>
-      <c r="BR20" s="68"/>
-      <c r="BS20" s="68"/>
-      <c r="BT20" s="68"/>
-      <c r="BU20" s="68"/>
-      <c r="BV20" s="68"/>
-      <c r="BW20" s="68"/>
-      <c r="BX20" s="68"/>
-      <c r="BY20" s="68"/>
-      <c r="BZ20" s="68"/>
-      <c r="CA20" s="68"/>
-      <c r="CB20" s="42"/>
-      <c r="CC20" s="43"/>
+      <c r="BO20" s="32"/>
+      <c r="BP20" s="32"/>
+      <c r="BQ20" s="32"/>
+      <c r="BR20" s="32"/>
+      <c r="BS20" s="32"/>
+      <c r="BT20" s="32"/>
+      <c r="BU20" s="32"/>
+      <c r="BV20" s="32"/>
+      <c r="BW20" s="32"/>
+      <c r="BX20" s="32"/>
+      <c r="BY20" s="32"/>
+      <c r="BZ20" s="32"/>
+      <c r="CA20" s="32"/>
+      <c r="CB20" s="68"/>
+      <c r="CC20" s="69"/>
     </row>
     <row r="21" spans="1:82" ht="11.25" customHeight="1">
       <c r="A21" s="31" t="s">
@@ -5856,30 +5856,30 @@
         <v>97</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="E21" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="F21" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="G21" s="65" t="s">
+      <c r="E21" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="F21" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="H21" s="65" t="s">
+      <c r="G21" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="H21" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="I21" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="35" t="s">
-        <v>467</v>
-      </c>
-      <c r="L21" s="35" t="s">
+      <c r="K21" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" s="42" t="s">
         <v>150</v>
       </c>
       <c r="M21" s="31" t="s">
@@ -5900,8 +5900,8 @@
       <c r="R21" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="S21" s="32" t="s">
-        <v>463</v>
+      <c r="S21" s="45" t="s">
+        <v>464</v>
       </c>
       <c r="T21" s="31" t="s">
         <v>183</v>
@@ -5912,125 +5912,125 @@
       <c r="V21" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="W21" s="35" t="s">
+      <c r="W21" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="X21" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y21" s="35" t="s">
+      <c r="X21" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="Z21" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA21" s="35" t="s">
+      <c r="Z21" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA21" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="AB21" s="32" t="s">
+      <c r="AB21" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="AC21" s="32" t="s">
+      <c r="AC21" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="AD21" s="32" t="s">
+      <c r="AD21" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="AE21" s="32" t="s">
+      <c r="AE21" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="AF21" s="32" t="s">
+      <c r="AF21" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="AG21" s="35" t="s">
+      <c r="AG21" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="AH21" s="32" t="s">
+      <c r="AH21" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="AI21" s="32" t="s">
-        <v>217</v>
+      <c r="AI21" s="45" t="s">
+        <v>218</v>
       </c>
       <c r="AJ21" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK21" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK21" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL21" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM21" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN21" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="AL21" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM21" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN21" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="AO21" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP21" s="55" t="s">
+      <c r="AO21" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP21" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="AQ21" s="32" t="s">
+      <c r="AQ21" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR21" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS21" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT21" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU21" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="AR21" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS21" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="AT21" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU21" s="32" t="s">
-        <v>225</v>
-      </c>
       <c r="AV21" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW21" s="44" t="s">
         <v>228</v>
+      </c>
+      <c r="AW21" s="55" t="s">
+        <v>229</v>
       </c>
       <c r="AX21" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="AY21" s="44" t="s">
+      <c r="AY21" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ21" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA21" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB21" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="AZ21" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA21" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="BB21" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC21" s="44" t="s">
+      <c r="BC21" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="BD21" s="44" t="s">
+      <c r="BD21" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="BE21" s="58" t="s">
+      <c r="BE21" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="BF21" s="32" t="s">
+      <c r="BF21" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="BG21" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="BH21" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="BI21" s="44" t="s">
+      <c r="BG21" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="BH21" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="BJ21" s="44" t="s">
+      <c r="BI21" s="55" t="s">
         <v>291</v>
+      </c>
+      <c r="BJ21" s="55" t="s">
+        <v>292</v>
       </c>
       <c r="BK21" s="31" t="s">
         <v>186</v>
@@ -6044,53 +6044,53 @@
       <c r="BN21" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="BO21" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="BP21" s="32" t="s">
+      <c r="BO21" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP21" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="BQ21" s="32" t="s">
+      <c r="BQ21" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="BR21" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="BS21" s="32" t="s">
+      <c r="BR21" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="BS21" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="BT21" s="32" t="s">
+      <c r="BT21" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="BU21" s="32" t="s">
+      <c r="BU21" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="BV21" s="32" t="s">
+      <c r="BV21" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="BW21" s="32" t="s">
+      <c r="BW21" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="BX21" s="32" t="s">
+      <c r="BX21" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="BY21" s="32" t="s">
+      <c r="BY21" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="BZ21" s="32" t="s">
+      <c r="BZ21" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="CA21" s="32" t="s">
+      <c r="CA21" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="CB21" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="CC21" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="CD21" s="32" t="s">
-        <v>317</v>
+      <c r="CB21" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="CC21" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="CD21" s="45" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:82">
@@ -6098,436 +6098,436 @@
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="31"/>
       <c r="R22" s="31"/>
-      <c r="S22" s="33"/>
+      <c r="S22" s="46"/>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
       <c r="AJ22" s="53"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="33"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="46"/>
       <c r="AN22" s="53"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="33"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="46"/>
       <c r="AR22" s="53"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="33"/>
-      <c r="AU22" s="33"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="46"/>
+      <c r="AU22" s="46"/>
       <c r="AV22" s="53"/>
-      <c r="AW22" s="44"/>
+      <c r="AW22" s="55"/>
       <c r="AX22" s="53"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="44"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="44"/>
-      <c r="BD22" s="44"/>
-      <c r="BE22" s="59"/>
-      <c r="BF22" s="33"/>
-      <c r="BG22" s="33"/>
-      <c r="BH22" s="44"/>
-      <c r="BI22" s="44"/>
-      <c r="BJ22" s="44"/>
+      <c r="AY22" s="55"/>
+      <c r="AZ22" s="57"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="55"/>
+      <c r="BC22" s="55"/>
+      <c r="BD22" s="55"/>
+      <c r="BE22" s="71"/>
+      <c r="BF22" s="46"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="55"/>
+      <c r="BI22" s="55"/>
+      <c r="BJ22" s="55"/>
       <c r="BK22" s="31"/>
       <c r="BL22" s="31"/>
       <c r="BM22" s="31"/>
       <c r="BN22" s="31"/>
-      <c r="BO22" s="33"/>
-      <c r="BP22" s="33"/>
-      <c r="BQ22" s="33"/>
-      <c r="BR22" s="33"/>
-      <c r="BS22" s="33"/>
-      <c r="BT22" s="33"/>
-      <c r="BU22" s="33"/>
-      <c r="BV22" s="33"/>
-      <c r="BW22" s="33"/>
-      <c r="BX22" s="33"/>
-      <c r="BY22" s="33"/>
-      <c r="BZ22" s="33"/>
-      <c r="CA22" s="33"/>
-      <c r="CB22" s="33"/>
-      <c r="CC22" s="33"/>
-      <c r="CD22" s="33"/>
+      <c r="BO22" s="46"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="46"/>
+      <c r="BR22" s="46"/>
+      <c r="BS22" s="46"/>
+      <c r="BT22" s="46"/>
+      <c r="BU22" s="46"/>
+      <c r="BV22" s="46"/>
+      <c r="BW22" s="46"/>
+      <c r="BX22" s="46"/>
+      <c r="BY22" s="46"/>
+      <c r="BZ22" s="46"/>
+      <c r="CA22" s="46"/>
+      <c r="CB22" s="46"/>
+      <c r="CC22" s="46"/>
+      <c r="CD22" s="46"/>
     </row>
     <row r="23" spans="1:82">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
-      <c r="S23" s="33"/>
+      <c r="S23" s="46"/>
       <c r="T23" s="31"/>
       <c r="U23" s="31"/>
       <c r="V23" s="31"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
       <c r="AJ23" s="53"/>
-      <c r="AK23" s="44"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="33"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="46"/>
       <c r="AN23" s="53"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="33"/>
+      <c r="AO23" s="55"/>
+      <c r="AP23" s="59"/>
+      <c r="AQ23" s="46"/>
       <c r="AR23" s="53"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="33"/>
-      <c r="AU23" s="33"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="46"/>
       <c r="AV23" s="53"/>
-      <c r="AW23" s="44"/>
+      <c r="AW23" s="55"/>
       <c r="AX23" s="53"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="44"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="44"/>
-      <c r="BD23" s="44"/>
-      <c r="BE23" s="59"/>
-      <c r="BF23" s="33"/>
-      <c r="BG23" s="33"/>
-      <c r="BH23" s="44"/>
-      <c r="BI23" s="44"/>
-      <c r="BJ23" s="44"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="55"/>
+      <c r="BB23" s="55"/>
+      <c r="BC23" s="55"/>
+      <c r="BD23" s="55"/>
+      <c r="BE23" s="71"/>
+      <c r="BF23" s="46"/>
+      <c r="BG23" s="46"/>
+      <c r="BH23" s="55"/>
+      <c r="BI23" s="55"/>
+      <c r="BJ23" s="55"/>
       <c r="BK23" s="31"/>
       <c r="BL23" s="31"/>
       <c r="BM23" s="31"/>
       <c r="BN23" s="31"/>
-      <c r="BO23" s="33"/>
-      <c r="BP23" s="33"/>
-      <c r="BQ23" s="33"/>
-      <c r="BR23" s="33"/>
-      <c r="BS23" s="33"/>
-      <c r="BT23" s="33"/>
-      <c r="BU23" s="33"/>
-      <c r="BV23" s="33"/>
-      <c r="BW23" s="33"/>
-      <c r="BX23" s="33"/>
-      <c r="BY23" s="33"/>
-      <c r="BZ23" s="33"/>
-      <c r="CA23" s="33"/>
-      <c r="CB23" s="33"/>
-      <c r="CC23" s="33"/>
-      <c r="CD23" s="33"/>
+      <c r="BO23" s="46"/>
+      <c r="BP23" s="46"/>
+      <c r="BQ23" s="46"/>
+      <c r="BR23" s="46"/>
+      <c r="BS23" s="46"/>
+      <c r="BT23" s="46"/>
+      <c r="BU23" s="46"/>
+      <c r="BV23" s="46"/>
+      <c r="BW23" s="46"/>
+      <c r="BX23" s="46"/>
+      <c r="BY23" s="46"/>
+      <c r="BZ23" s="46"/>
+      <c r="CA23" s="46"/>
+      <c r="CB23" s="46"/>
+      <c r="CC23" s="46"/>
+      <c r="CD23" s="46"/>
     </row>
     <row r="24" spans="1:82">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="31"/>
       <c r="R24" s="31"/>
-      <c r="S24" s="33"/>
+      <c r="S24" s="46"/>
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
       <c r="V24" s="31"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="46"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="46"/>
       <c r="AJ24" s="53"/>
-      <c r="AK24" s="44"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="33"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="46"/>
       <c r="AN24" s="53"/>
-      <c r="AO24" s="44"/>
-      <c r="AP24" s="56"/>
-      <c r="AQ24" s="33"/>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="46"/>
       <c r="AR24" s="53"/>
-      <c r="AS24" s="44"/>
-      <c r="AT24" s="33"/>
-      <c r="AU24" s="33"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="46"/>
+      <c r="AU24" s="46"/>
       <c r="AV24" s="53"/>
-      <c r="AW24" s="44"/>
+      <c r="AW24" s="55"/>
       <c r="AX24" s="53"/>
-      <c r="AY24" s="44"/>
-      <c r="AZ24" s="51"/>
-      <c r="BA24" s="44"/>
-      <c r="BB24" s="44"/>
-      <c r="BC24" s="44"/>
-      <c r="BD24" s="44"/>
-      <c r="BE24" s="59"/>
-      <c r="BF24" s="33"/>
-      <c r="BG24" s="33"/>
-      <c r="BH24" s="44"/>
-      <c r="BI24" s="44"/>
-      <c r="BJ24" s="44"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="55"/>
+      <c r="BB24" s="55"/>
+      <c r="BC24" s="55"/>
+      <c r="BD24" s="55"/>
+      <c r="BE24" s="71"/>
+      <c r="BF24" s="46"/>
+      <c r="BG24" s="46"/>
+      <c r="BH24" s="55"/>
+      <c r="BI24" s="55"/>
+      <c r="BJ24" s="55"/>
       <c r="BK24" s="31"/>
       <c r="BL24" s="31"/>
       <c r="BM24" s="31"/>
       <c r="BN24" s="31"/>
-      <c r="BO24" s="33"/>
-      <c r="BP24" s="33"/>
-      <c r="BQ24" s="33"/>
-      <c r="BR24" s="33"/>
-      <c r="BS24" s="33"/>
-      <c r="BT24" s="33"/>
-      <c r="BU24" s="33"/>
-      <c r="BV24" s="33"/>
-      <c r="BW24" s="33"/>
-      <c r="BX24" s="33"/>
-      <c r="BY24" s="33"/>
-      <c r="BZ24" s="33"/>
-      <c r="CA24" s="33"/>
-      <c r="CB24" s="33"/>
-      <c r="CC24" s="33"/>
-      <c r="CD24" s="33"/>
+      <c r="BO24" s="46"/>
+      <c r="BP24" s="46"/>
+      <c r="BQ24" s="46"/>
+      <c r="BR24" s="46"/>
+      <c r="BS24" s="46"/>
+      <c r="BT24" s="46"/>
+      <c r="BU24" s="46"/>
+      <c r="BV24" s="46"/>
+      <c r="BW24" s="46"/>
+      <c r="BX24" s="46"/>
+      <c r="BY24" s="46"/>
+      <c r="BZ24" s="46"/>
+      <c r="CA24" s="46"/>
+      <c r="CB24" s="46"/>
+      <c r="CC24" s="46"/>
+      <c r="CD24" s="46"/>
     </row>
     <row r="25" spans="1:82">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="31"/>
       <c r="Q25" s="31"/>
       <c r="R25" s="31"/>
-      <c r="S25" s="33"/>
+      <c r="S25" s="46"/>
       <c r="T25" s="31"/>
       <c r="U25" s="31"/>
       <c r="V25" s="31"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
       <c r="AJ25" s="53"/>
-      <c r="AK25" s="44"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="33"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="46"/>
       <c r="AN25" s="53"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="33"/>
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="59"/>
+      <c r="AQ25" s="46"/>
       <c r="AR25" s="53"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="33"/>
-      <c r="AU25" s="33"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="46"/>
+      <c r="AU25" s="46"/>
       <c r="AV25" s="53"/>
-      <c r="AW25" s="44"/>
+      <c r="AW25" s="55"/>
       <c r="AX25" s="53"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="44"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="44"/>
-      <c r="BE25" s="59"/>
-      <c r="BF25" s="33"/>
-      <c r="BG25" s="33"/>
-      <c r="BH25" s="44"/>
-      <c r="BI25" s="44"/>
-      <c r="BJ25" s="44"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="55"/>
+      <c r="BC25" s="55"/>
+      <c r="BD25" s="55"/>
+      <c r="BE25" s="71"/>
+      <c r="BF25" s="46"/>
+      <c r="BG25" s="46"/>
+      <c r="BH25" s="55"/>
+      <c r="BI25" s="55"/>
+      <c r="BJ25" s="55"/>
       <c r="BK25" s="31"/>
       <c r="BL25" s="31"/>
       <c r="BM25" s="31"/>
       <c r="BN25" s="31"/>
-      <c r="BO25" s="33"/>
-      <c r="BP25" s="33"/>
-      <c r="BQ25" s="33"/>
-      <c r="BR25" s="33"/>
-      <c r="BS25" s="33"/>
-      <c r="BT25" s="33"/>
-      <c r="BU25" s="33"/>
-      <c r="BV25" s="33"/>
-      <c r="BW25" s="33"/>
-      <c r="BX25" s="33"/>
-      <c r="BY25" s="33"/>
-      <c r="BZ25" s="33"/>
-      <c r="CA25" s="33"/>
-      <c r="CB25" s="33"/>
-      <c r="CC25" s="33"/>
-      <c r="CD25" s="33"/>
+      <c r="BO25" s="46"/>
+      <c r="BP25" s="46"/>
+      <c r="BQ25" s="46"/>
+      <c r="BR25" s="46"/>
+      <c r="BS25" s="46"/>
+      <c r="BT25" s="46"/>
+      <c r="BU25" s="46"/>
+      <c r="BV25" s="46"/>
+      <c r="BW25" s="46"/>
+      <c r="BX25" s="46"/>
+      <c r="BY25" s="46"/>
+      <c r="BZ25" s="46"/>
+      <c r="CA25" s="46"/>
+      <c r="CB25" s="46"/>
+      <c r="CC25" s="46"/>
+      <c r="CD25" s="46"/>
     </row>
     <row r="26" spans="1:82">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
-      <c r="S26" s="34"/>
+      <c r="S26" s="47"/>
       <c r="T26" s="31"/>
       <c r="U26" s="31"/>
       <c r="V26" s="31"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
       <c r="AJ26" s="54"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="34"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="47"/>
       <c r="AN26" s="54"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="34"/>
+      <c r="AO26" s="55"/>
+      <c r="AP26" s="60"/>
+      <c r="AQ26" s="47"/>
       <c r="AR26" s="54"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="34"/>
-      <c r="AU26" s="34"/>
+      <c r="AS26" s="55"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="47"/>
       <c r="AV26" s="54"/>
-      <c r="AW26" s="44"/>
+      <c r="AW26" s="55"/>
       <c r="AX26" s="54"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="51"/>
-      <c r="BA26" s="44"/>
-      <c r="BB26" s="44"/>
-      <c r="BC26" s="44"/>
-      <c r="BD26" s="44"/>
-      <c r="BE26" s="60"/>
-      <c r="BF26" s="34"/>
-      <c r="BG26" s="34"/>
-      <c r="BH26" s="44"/>
-      <c r="BI26" s="44"/>
-      <c r="BJ26" s="44"/>
+      <c r="AY26" s="55"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="55"/>
+      <c r="BB26" s="55"/>
+      <c r="BC26" s="55"/>
+      <c r="BD26" s="55"/>
+      <c r="BE26" s="72"/>
+      <c r="BF26" s="47"/>
+      <c r="BG26" s="47"/>
+      <c r="BH26" s="55"/>
+      <c r="BI26" s="55"/>
+      <c r="BJ26" s="55"/>
       <c r="BK26" s="31"/>
       <c r="BL26" s="31"/>
       <c r="BM26" s="31"/>
       <c r="BN26" s="31"/>
-      <c r="BO26" s="34"/>
-      <c r="BP26" s="34"/>
-      <c r="BQ26" s="34"/>
-      <c r="BR26" s="34"/>
-      <c r="BS26" s="34"/>
-      <c r="BT26" s="34"/>
-      <c r="BU26" s="34"/>
-      <c r="BV26" s="34"/>
-      <c r="BW26" s="34"/>
-      <c r="BX26" s="34"/>
-      <c r="BY26" s="34"/>
-      <c r="BZ26" s="34"/>
-      <c r="CA26" s="34"/>
-      <c r="CB26" s="34"/>
-      <c r="CC26" s="34"/>
-      <c r="CD26" s="34"/>
+      <c r="BO26" s="47"/>
+      <c r="BP26" s="47"/>
+      <c r="BQ26" s="47"/>
+      <c r="BR26" s="47"/>
+      <c r="BS26" s="47"/>
+      <c r="BT26" s="47"/>
+      <c r="BU26" s="47"/>
+      <c r="BV26" s="47"/>
+      <c r="BW26" s="47"/>
+      <c r="BX26" s="47"/>
+      <c r="BY26" s="47"/>
+      <c r="BZ26" s="47"/>
+      <c r="CA26" s="47"/>
+      <c r="CB26" s="47"/>
+      <c r="CC26" s="47"/>
+      <c r="CD26" s="47"/>
     </row>
     <row r="27" spans="1:82" ht="11.25" customHeight="1">
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="AK27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AW27" s="44"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="51"/>
-      <c r="BA27" s="44"/>
-      <c r="BB27" s="44"/>
-      <c r="BC27" s="44"/>
-      <c r="BD27" s="44"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="AK27" s="55"/>
+      <c r="AO27" s="55"/>
+      <c r="AS27" s="55"/>
+      <c r="AW27" s="55"/>
+      <c r="AY27" s="55"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="55"/>
+      <c r="BB27" s="55"/>
+      <c r="BC27" s="55"/>
+      <c r="BD27" s="55"/>
     </row>
     <row r="28" spans="1:82" ht="11.25" customHeight="1">
       <c r="B28" s="7" t="s">
@@ -6536,255 +6536,255 @@
       <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AE28" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AW28" s="44"/>
-      <c r="AY28" s="44"/>
-      <c r="AZ28" s="51"/>
-      <c r="BA28" s="44"/>
-      <c r="BB28" s="44"/>
-      <c r="BC28" s="44"/>
-      <c r="BD28" s="44"/>
-      <c r="BJ28" s="32" t="s">
-        <v>246</v>
+      <c r="AE28" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK28" s="55"/>
+      <c r="AO28" s="55"/>
+      <c r="AS28" s="55"/>
+      <c r="AW28" s="55"/>
+      <c r="AY28" s="55"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="55"/>
+      <c r="BB28" s="55"/>
+      <c r="BC28" s="55"/>
+      <c r="BD28" s="55"/>
+      <c r="BJ28" s="45" t="s">
+        <v>247</v>
       </c>
       <c r="BK28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="CB28" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="CC28" s="35" t="s">
-        <v>296</v>
+      <c r="CB28" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="CC28" s="42" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="61" t="s">
         <v>187</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+        <v>298</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="31"/>
       <c r="V29" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE29" s="33"/>
-      <c r="BJ29" s="33"/>
+        <v>306</v>
+      </c>
+      <c r="AE29" s="46"/>
+      <c r="BJ29" s="46"/>
       <c r="BK29" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="BP29" s="45" t="s">
-        <v>464</v>
-      </c>
-      <c r="BQ29" s="46"/>
-      <c r="CB29" s="36"/>
-      <c r="CC29" s="36"/>
+        <v>313</v>
+      </c>
+      <c r="BP29" s="76" t="s">
+        <v>465</v>
+      </c>
+      <c r="BQ29" s="77"/>
+      <c r="CB29" s="43"/>
+      <c r="CC29" s="43"/>
     </row>
     <row r="30" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B30" s="63"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
+        <v>299</v>
+      </c>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="31"/>
       <c r="V30" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE30" s="33"/>
-      <c r="BJ30" s="33"/>
+        <v>307</v>
+      </c>
+      <c r="AE30" s="46"/>
+      <c r="BJ30" s="46"/>
       <c r="BK30" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="BP30" s="47"/>
-      <c r="BQ30" s="48"/>
-      <c r="CB30" s="36"/>
-      <c r="CC30" s="36"/>
+        <v>314</v>
+      </c>
+      <c r="BP30" s="78"/>
+      <c r="BQ30" s="79"/>
+      <c r="CB30" s="43"/>
+      <c r="CC30" s="43"/>
     </row>
     <row r="31" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B31" s="63"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
+        <v>300</v>
+      </c>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="31"/>
       <c r="V31" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE31" s="33"/>
-      <c r="BJ31" s="33"/>
-      <c r="BP31" s="47"/>
-      <c r="BQ31" s="48"/>
-      <c r="CB31" s="36"/>
-      <c r="CC31" s="36"/>
+        <v>308</v>
+      </c>
+      <c r="AE31" s="46"/>
+      <c r="BJ31" s="46"/>
+      <c r="BP31" s="78"/>
+      <c r="BQ31" s="79"/>
+      <c r="CB31" s="43"/>
+      <c r="CC31" s="43"/>
     </row>
     <row r="32" spans="1:82" ht="11.25" customHeight="1">
-      <c r="B32" s="63"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
+        <v>301</v>
+      </c>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
       <c r="J32" s="31"/>
       <c r="V32" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE32" s="33"/>
-      <c r="BJ32" s="33"/>
-      <c r="BP32" s="47"/>
-      <c r="BQ32" s="48"/>
-      <c r="CB32" s="36"/>
-      <c r="CC32" s="36"/>
+        <v>309</v>
+      </c>
+      <c r="AE32" s="46"/>
+      <c r="BJ32" s="46"/>
+      <c r="BP32" s="78"/>
+      <c r="BQ32" s="79"/>
+      <c r="CB32" s="43"/>
+      <c r="CC32" s="43"/>
     </row>
     <row r="33" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B33" s="63"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J33" s="31"/>
       <c r="V33" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE33" s="33"/>
-      <c r="BJ33" s="33"/>
-      <c r="BP33" s="47"/>
-      <c r="BQ33" s="48"/>
-      <c r="CB33" s="37"/>
-      <c r="CC33" s="37"/>
+        <v>310</v>
+      </c>
+      <c r="AE33" s="46"/>
+      <c r="BJ33" s="46"/>
+      <c r="BP33" s="78"/>
+      <c r="BQ33" s="79"/>
+      <c r="CB33" s="44"/>
+      <c r="CC33" s="44"/>
     </row>
     <row r="34" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B34" s="63"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J34" s="31"/>
       <c r="V34" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE34" s="33"/>
-      <c r="BJ34" s="34"/>
-      <c r="BP34" s="47"/>
-      <c r="BQ34" s="48"/>
+        <v>311</v>
+      </c>
+      <c r="AE34" s="46"/>
+      <c r="BJ34" s="47"/>
+      <c r="BP34" s="78"/>
+      <c r="BQ34" s="79"/>
       <c r="CC34" s="8"/>
     </row>
     <row r="35" spans="2:81" ht="11.25" customHeight="1">
-      <c r="B35" s="64"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J35" s="31"/>
       <c r="V35" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="AE35" s="33"/>
-      <c r="BP35" s="49"/>
-      <c r="BQ35" s="50"/>
-      <c r="CB35" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="CC35" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+      <c r="AE35" s="46"/>
+      <c r="BP35" s="80"/>
+      <c r="BQ35" s="81"/>
+      <c r="CB35" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="CC35" s="45" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="2:81">
       <c r="C36" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J36" s="31"/>
-      <c r="AE36" s="33"/>
-      <c r="CB36" s="33"/>
-      <c r="CC36" s="33"/>
+      <c r="AE36" s="46"/>
+      <c r="CB36" s="46"/>
+      <c r="CC36" s="46"/>
     </row>
     <row r="37" spans="2:81">
       <c r="C37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE37" s="34"/>
-      <c r="CB37" s="33"/>
-      <c r="CC37" s="33"/>
+      <c r="AE37" s="47"/>
+      <c r="CB37" s="46"/>
+      <c r="CC37" s="46"/>
     </row>
     <row r="38" spans="2:81">
       <c r="C38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CB38" s="33"/>
-      <c r="CC38" s="33"/>
+      <c r="CB38" s="46"/>
+      <c r="CC38" s="46"/>
     </row>
     <row r="39" spans="2:81">
       <c r="C39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AE39" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="CB39" s="33"/>
-      <c r="CC39" s="33"/>
+      <c r="AE39" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="CB39" s="46"/>
+      <c r="CC39" s="46"/>
     </row>
     <row r="40" spans="2:81">
       <c r="C40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AE40" s="36"/>
-      <c r="CB40" s="33"/>
-      <c r="CC40" s="33"/>
+      <c r="AE40" s="43"/>
+      <c r="CB40" s="46"/>
+      <c r="CC40" s="46"/>
     </row>
     <row r="41" spans="2:81">
       <c r="C41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AE41" s="36"/>
-      <c r="CB41" s="33"/>
-      <c r="CC41" s="33"/>
+      <c r="AE41" s="43"/>
+      <c r="CB41" s="46"/>
+      <c r="CC41" s="46"/>
     </row>
     <row r="42" spans="2:81">
       <c r="C42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AE42" s="36"/>
-      <c r="CB42" s="33"/>
-      <c r="CC42" s="33"/>
+      <c r="AE42" s="43"/>
+      <c r="CB42" s="46"/>
+      <c r="CC42" s="46"/>
     </row>
     <row r="43" spans="2:81">
       <c r="C43" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AE43" s="36"/>
-      <c r="CB43" s="33"/>
-      <c r="CC43" s="33"/>
+      <c r="AE43" s="43"/>
+      <c r="CB43" s="46"/>
+      <c r="CC43" s="46"/>
     </row>
     <row r="44" spans="2:81">
       <c r="C44" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AE44" s="37"/>
-      <c r="CB44" s="33"/>
-      <c r="CC44" s="33"/>
+      <c r="AE44" s="44"/>
+      <c r="CB44" s="46"/>
+      <c r="CC44" s="46"/>
     </row>
     <row r="45" spans="2:81">
       <c r="C45" s="5" t="s">
@@ -6793,24 +6793,24 @@
       <c r="BJ45" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="CB45" s="33"/>
-      <c r="CC45" s="33"/>
+      <c r="CB45" s="46"/>
+      <c r="CC45" s="46"/>
     </row>
     <row r="46" spans="2:81">
       <c r="C46" s="5" t="s">
         <v>107</v>
       </c>
       <c r="BJ46" s="31"/>
-      <c r="CB46" s="33"/>
-      <c r="CC46" s="33"/>
+      <c r="CB46" s="46"/>
+      <c r="CC46" s="46"/>
     </row>
     <row r="47" spans="2:81">
       <c r="C47" s="5" t="s">
         <v>108</v>
       </c>
       <c r="BJ47" s="31"/>
-      <c r="CB47" s="34"/>
-      <c r="CC47" s="34"/>
+      <c r="CB47" s="47"/>
+      <c r="CC47" s="47"/>
     </row>
     <row r="48" spans="2:81">
       <c r="C48" s="5" t="s">
@@ -6822,33 +6822,33 @@
       <c r="C49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="CB49" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="CC49" s="35" t="s">
+      <c r="CB49" s="42" t="s">
         <v>316</v>
+      </c>
+      <c r="CC49" s="42" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="3:81">
       <c r="C50" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="CB50" s="36"/>
-      <c r="CC50" s="36"/>
+      <c r="CB50" s="43"/>
+      <c r="CC50" s="43"/>
     </row>
     <row r="51" spans="3:81">
       <c r="C51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CB51" s="36"/>
-      <c r="CC51" s="36"/>
+      <c r="CB51" s="43"/>
+      <c r="CC51" s="43"/>
     </row>
     <row r="52" spans="3:81">
       <c r="C52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="CB52" s="37"/>
-      <c r="CC52" s="37"/>
+      <c r="CB52" s="44"/>
+      <c r="CC52" s="44"/>
     </row>
     <row r="53" spans="3:81">
       <c r="C53" s="5" t="s">
@@ -6992,37 +6992,52 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="BE18:BE20"/>
-    <mergeCell ref="AY18:BD20"/>
-    <mergeCell ref="BF18:BF20"/>
-    <mergeCell ref="BG18:BG20"/>
-    <mergeCell ref="BH18:BH20"/>
-    <mergeCell ref="BI18:BJ20"/>
-    <mergeCell ref="BK18:BK20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A18:AX20"/>
-    <mergeCell ref="AE39:AE44"/>
-    <mergeCell ref="T21:T26"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N21:N26"/>
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="P21:P26"/>
-    <mergeCell ref="Q21:Q26"/>
-    <mergeCell ref="R21:R26"/>
-    <mergeCell ref="AA21:AA26"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="AE28:AE37"/>
-    <mergeCell ref="AB21:AB26"/>
-    <mergeCell ref="AC21:AC26"/>
-    <mergeCell ref="AD21:AD26"/>
-    <mergeCell ref="AE21:AE26"/>
-    <mergeCell ref="AQ21:AQ26"/>
-    <mergeCell ref="AF21:AF26"/>
+    <mergeCell ref="CD21:CD26"/>
+    <mergeCell ref="CB35:CB47"/>
+    <mergeCell ref="CB49:CB52"/>
+    <mergeCell ref="CC28:CC33"/>
+    <mergeCell ref="CC35:CC47"/>
+    <mergeCell ref="CC49:CC52"/>
+    <mergeCell ref="BL21:BL26"/>
+    <mergeCell ref="BM21:BM26"/>
+    <mergeCell ref="BN21:BN26"/>
+    <mergeCell ref="BP21:BP26"/>
+    <mergeCell ref="CB18:CC20"/>
+    <mergeCell ref="CB21:CB26"/>
+    <mergeCell ref="CB28:CB33"/>
+    <mergeCell ref="BJ28:BJ34"/>
+    <mergeCell ref="CC21:CC26"/>
+    <mergeCell ref="BW21:BW26"/>
+    <mergeCell ref="BX21:BX26"/>
+    <mergeCell ref="BZ21:BZ26"/>
+    <mergeCell ref="CA21:CA26"/>
+    <mergeCell ref="BU21:BU26"/>
+    <mergeCell ref="BV21:BV26"/>
+    <mergeCell ref="BR21:BR26"/>
+    <mergeCell ref="BS21:BS26"/>
+    <mergeCell ref="BT21:BT26"/>
+    <mergeCell ref="BJ21:BJ26"/>
+    <mergeCell ref="BK21:BK26"/>
+    <mergeCell ref="BP29:BQ35"/>
+    <mergeCell ref="BY21:BY26"/>
+    <mergeCell ref="U21:U26"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="X21:X26"/>
+    <mergeCell ref="Y21:Y26"/>
+    <mergeCell ref="Z21:Z26"/>
+    <mergeCell ref="AK21:AK28"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AS21:AS28"/>
+    <mergeCell ref="AW21:AW28"/>
+    <mergeCell ref="AZ21:AZ28"/>
+    <mergeCell ref="AM21:AM26"/>
+    <mergeCell ref="AN21:AN26"/>
+    <mergeCell ref="AP21:AP26"/>
+    <mergeCell ref="BE21:BE26"/>
+    <mergeCell ref="BF21:BF26"/>
+    <mergeCell ref="BG21:BG26"/>
+    <mergeCell ref="BH21:BH26"/>
     <mergeCell ref="BI21:BI26"/>
     <mergeCell ref="BB21:BB28"/>
     <mergeCell ref="BD21:BD28"/>
@@ -7047,59 +7062,44 @@
     <mergeCell ref="I21:I32"/>
     <mergeCell ref="AH21:AH26"/>
     <mergeCell ref="AI21:AI26"/>
-    <mergeCell ref="AW21:AW28"/>
-    <mergeCell ref="AZ21:AZ28"/>
-    <mergeCell ref="AM21:AM26"/>
-    <mergeCell ref="AN21:AN26"/>
-    <mergeCell ref="AP21:AP26"/>
-    <mergeCell ref="BE21:BE26"/>
-    <mergeCell ref="BF21:BF26"/>
-    <mergeCell ref="BG21:BG26"/>
-    <mergeCell ref="BH21:BH26"/>
+    <mergeCell ref="AJ21:AJ26"/>
+    <mergeCell ref="AL21:AL26"/>
     <mergeCell ref="AX21:AX26"/>
     <mergeCell ref="AR21:AR26"/>
-    <mergeCell ref="U21:U26"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="X21:X26"/>
-    <mergeCell ref="Y21:Y26"/>
-    <mergeCell ref="Z21:Z26"/>
-    <mergeCell ref="AK21:AK28"/>
-    <mergeCell ref="AO21:AO28"/>
-    <mergeCell ref="AS21:AS28"/>
-    <mergeCell ref="AJ21:AJ26"/>
-    <mergeCell ref="AL21:AL26"/>
-    <mergeCell ref="CB18:CC20"/>
-    <mergeCell ref="CB21:CB26"/>
-    <mergeCell ref="CB28:CB33"/>
-    <mergeCell ref="BJ28:BJ34"/>
-    <mergeCell ref="CC21:CC26"/>
-    <mergeCell ref="BW21:BW26"/>
-    <mergeCell ref="BX21:BX26"/>
-    <mergeCell ref="BZ21:BZ26"/>
-    <mergeCell ref="CA21:CA26"/>
-    <mergeCell ref="BU21:BU26"/>
-    <mergeCell ref="BV21:BV26"/>
-    <mergeCell ref="BR21:BR26"/>
-    <mergeCell ref="BS21:BS26"/>
-    <mergeCell ref="BT21:BT26"/>
-    <mergeCell ref="BJ21:BJ26"/>
-    <mergeCell ref="BK21:BK26"/>
-    <mergeCell ref="BP29:BQ35"/>
-    <mergeCell ref="BY21:BY26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="AE28:AE37"/>
+    <mergeCell ref="AB21:AB26"/>
+    <mergeCell ref="AC21:AC26"/>
+    <mergeCell ref="AD21:AD26"/>
+    <mergeCell ref="AE21:AE26"/>
+    <mergeCell ref="AQ21:AQ26"/>
+    <mergeCell ref="AF21:AF26"/>
     <mergeCell ref="BO18:CA20"/>
+    <mergeCell ref="A18:AX20"/>
+    <mergeCell ref="AE39:AE44"/>
+    <mergeCell ref="T21:T26"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N21:N26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="P21:P26"/>
+    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="R21:R26"/>
     <mergeCell ref="BO21:BO26"/>
+    <mergeCell ref="AA21:AA26"/>
     <mergeCell ref="BL18:BN20"/>
-    <mergeCell ref="CD21:CD26"/>
-    <mergeCell ref="CB35:CB47"/>
-    <mergeCell ref="CB49:CB52"/>
-    <mergeCell ref="CC28:CC33"/>
-    <mergeCell ref="CC35:CC47"/>
-    <mergeCell ref="CC49:CC52"/>
-    <mergeCell ref="BL21:BL26"/>
-    <mergeCell ref="BM21:BM26"/>
-    <mergeCell ref="BN21:BN26"/>
-    <mergeCell ref="BP21:BP26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="BE18:BE20"/>
+    <mergeCell ref="AY18:BD20"/>
+    <mergeCell ref="BF18:BF20"/>
+    <mergeCell ref="BG18:BG20"/>
+    <mergeCell ref="BH18:BH20"/>
+    <mergeCell ref="BI18:BJ20"/>
+    <mergeCell ref="BK18:BK20"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7129,7 +7129,7 @@
         <v>NR_REFERENCIA_FISCAL,</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE("'",J3,"',")</f>
@@ -7145,7 +7145,7 @@
         <v>CD_SITUACAO_NF,</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K12" si="1">CONCATENATE("'",J4,"',")</f>
@@ -7170,14 +7170,14 @@
     </row>
     <row r="6" spans="3:11">
       <c r="C6" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>NR_REFERENCIA_FISCAL_FATURA,</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -7186,14 +7186,14 @@
     </row>
     <row r="7" spans="3:11">
       <c r="C7" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>NR_ITEM_NF_FATURA,</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -7209,7 +7209,7 @@
         <v>NR_NF_FATURA,</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -7225,7 +7225,7 @@
         <v>NR_SERIE_NF_FATURA,</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -7241,7 +7241,7 @@
         <v>NR_NF_REMESSA,</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -7257,7 +7257,7 @@
         <v>NR_SERIE_NF_REMESSA,</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -7273,7 +7273,7 @@
         <v>NR_ORDEM,</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
